--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1072.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1072.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8435655349597692</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04217827674798846</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04217827674798846</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06748524279678154</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06138813472195688</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01138813472195688</v>
+        <v>0.01512646549221072</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01053666076010686</v>
+        <v>0.01399548207693663</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0005283078330594396</v>
+        <v>0.001646414434088542</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007118937688436355</v>
+        <v>0.0007923117468754139</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001364466147791489</v>
+        <v>0.004861791813513622</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007818551181104748</v>
+        <v>0.0007778955604572238</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005061036534239394</v>
+        <v>0.007000000000000006</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007890354262970404</v>
+        <v>0.000818099415204679</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.007780868877157732</v>
+        <v>0.001646414434088542</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007701629495130386</v>
+        <v>0.0007923117468754139</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002993394619228047</v>
+        <v>0.002946738259162029</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001423787537687271</v>
+        <v>0.001584623493750828</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003182897507065303</v>
+        <v>0.006999999999999978</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00156371023622095</v>
+        <v>0.001188370710159697</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.009439250552811557</v>
+        <v>0.01107765685579226</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001578070852594081</v>
+        <v>0.001559763170179804</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01636789704782687</v>
+        <v>0.002946738259162029</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001540325899026077</v>
+        <v>0.001584623493750828</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004332039311614994</v>
+        <v>0.004632619441561313</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002135681306530907</v>
+        <v>0.002376935240626241</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.00480361902135279</v>
+        <v>0.01155730254414947</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002345565354331424</v>
+        <v>0.002333686681371672</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01399999999999998</v>
+        <v>0.01660368048110139</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002421166493596397</v>
+        <v>0.002339644755269706</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02280072513901982</v>
+        <v>0.004632619441561313</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002310488848539116</v>
+        <v>0.002376935240626241</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.003481020863329444</v>
+        <v>0.005935705947627226</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002847575075374542</v>
+        <v>0.003169246987501656</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005874955634185323</v>
+        <v>0.01502011391175662</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003127420472441899</v>
+        <v>0.003111582241828895</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.0164377779437801</v>
+        <v>0.02121045130675597</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003156141705188162</v>
+        <v>0.003119526340359608</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02700000000000002</v>
+        <v>0.005935705947627226</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002801635514018695</v>
+        <v>0.003169246987501656</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003512220253368955</v>
+        <v>0.003885972222222222</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006326741512198267</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006326741512198267</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003512220253368955</v>
+        <v>0.003885972222222222</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007345232289094283</v>
+        <v>0.0177072624541541</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003909275590552374</v>
+        <v>0.003889477802286119</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01888592797223454</v>
+        <v>0.02538660750924976</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003945177131485202</v>
+        <v>0.00389940792544951</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03206686880074178</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003850814747565193</v>
+        <v>0.003885972222222222</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007092830350877481</v>
+        <v>0.007879842461250765</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004271362613061813</v>
+        <v>0.004753870481252483</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008</v>
+        <v>0.02070968143711663</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004441111111111111</v>
+        <v>0.004667373362743343</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02157554309535953</v>
+        <v>0.02962078726507655</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004734212557782242</v>
+        <v>0.004679289510539412</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03589816412423968</v>
+        <v>0.007879842461250765</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004620977697078231</v>
+        <v>0.004753870481252483</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.006722983847362606</v>
+        <v>0.008504005475556006</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004983256381905448</v>
+        <v>0.005546182228127897</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.009055167001884329</v>
+        <v>0.02291830412641882</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005472985826773323</v>
+        <v>0.005445268923200567</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02385041286149139</v>
+        <v>0.03340162875072999</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005523247984079283</v>
+        <v>0.005459171095629314</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03962432829473944</v>
+        <v>0.008504005475556006</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00539114064659127</v>
+        <v>0.005546182228127897</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.006282941212960268</v>
+        <v>0.009567694683852934</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005695150150749084</v>
+        <v>0.006338493975003311</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009547463846365373</v>
+        <v>0.02532406378783533</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006254840944883798</v>
+        <v>0.006223164483657791</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02585432681896627</v>
+        <v>0.03721777014270411</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006312283410376323</v>
+        <v>0.006239052680719216</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04193860119226817</v>
+        <v>0.009567694683852934</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006161303596104309</v>
+        <v>0.006338493975003311</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.007787596548481275</v>
+        <v>0.009977371731305952</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.00640704391959272</v>
+        <v>0.007130805721878725</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01006501559583571</v>
+        <v>0.02751789368714089</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007036696062994274</v>
+        <v>0.007001060044115015</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02723107451612061</v>
+        <v>0.0413578496174925</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007101318836673363</v>
+        <v>0.007018934265809118</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04423422269685295</v>
+        <v>0.009977371731305952</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006931466545617347</v>
+        <v>0.007130805721878725</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009251843954736411</v>
+        <v>0.01063949826307949</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007118937688436355</v>
+        <v>0.00792311746875414</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01062380241779616</v>
+        <v>0.02989072709011012</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007818551181104747</v>
+        <v>0.007778955604572238</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02942444550129061</v>
+        <v>0.04421050535158894</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007890354262970405</v>
+        <v>0.007798815850899019</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04770443268852087</v>
+        <v>0.01063949826307949</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007701629495130386</v>
+        <v>0.00792311746875414</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.009690577532536486</v>
+        <v>0.01156053592433795</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00783083145727999</v>
+        <v>0.008715429215629553</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01123980447974757</v>
+        <v>0.03183349726251772</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008600406299215222</v>
+        <v>0.008556851165029461</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0307782293228126</v>
+        <v>0.04646437552148741</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008679389689267444</v>
+        <v>0.008578697435988922</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04994247104729888</v>
+        <v>0.01156053592433795</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008471792444643425</v>
+        <v>0.008715429215629553</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.008118691382692306</v>
+        <v>0.01204694636024573</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008542725226123626</v>
+        <v>0.009507740962504965</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01172900194919077</v>
+        <v>0.03367090081550678</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009382261417325698</v>
+        <v>0.009527026741390629</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03367090081550678</v>
+        <v>0.04940809830368148</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009705102007584846</v>
+        <v>0.009358579021078825</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05221533613880286</v>
+        <v>0.01204694636024573</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009030144450795908</v>
+        <v>0.009507740962504965</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01055107960601466</v>
+        <v>0.01270519121596729</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009254618994967262</v>
+        <v>0.01030005270938038</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01220737499362657</v>
+        <v>0.03415997759831604</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01016411653543617</v>
+        <v>0.01011264228594391</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03474457048860602</v>
+        <v>0.05221533613880286</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01025746054186153</v>
+        <v>0.0101707942761596</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05544156901252562</v>
+        <v>0.01270519121596729</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0100121183436695</v>
+        <v>0.01030005270938038</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01100263630331435</v>
+        <v>0.01304173213666697</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009966512763810897</v>
+        <v>0.01109236445625579</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01259090378055583</v>
+        <v>0.03576040496021157</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01094597165354665</v>
+        <v>0.01089053784640113</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03642482505129646</v>
+        <v>0.05406536472004941</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01104649596815857</v>
+        <v>0.01091834219125863</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05802719559527281</v>
+        <v>0.01304173213666697</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01078228129318254</v>
+        <v>0.01109236445625579</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01138813472195688</v>
+        <v>0.01366303076750926</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01053666076010686</v>
+        <v>0.01188467620313121</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01309556847747934</v>
+        <v>0.03684488427194263</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01172782677165712</v>
+        <v>0.01166843340685836</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03856160559775698</v>
+        <v>0.05597949397965346</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01183553139445561</v>
+        <v>0.01169822377634853</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06037626502179821</v>
+        <v>0.01366303076750926</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01155244424269558</v>
+        <v>0.01188467620313121</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01201317119294218</v>
+        <v>0.01427554875365851</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01139030030149817</v>
+        <v>0.01267698795000662</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01383734925189796</v>
+        <v>0.03801269952190148</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0125096818897676</v>
+        <v>0.01244632896731558</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0405381947828295</v>
+        <v>0.05787162837088128</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01262456682075265</v>
+        <v>0.01247810536143843</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06326762850162548</v>
+        <v>0.01427554875365851</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01232260719220862</v>
+        <v>0.01267698795000662</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01257204429989019</v>
+        <v>0.01448574774027918</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0121021940703418</v>
+        <v>0.01346929969688204</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01443222627131252</v>
+        <v>0.03946313469848037</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01329153700787807</v>
+        <v>0.01322422452777281</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04233787526135596</v>
+        <v>0.05974042688423065</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01341360224704969</v>
+        <v>0.01325798694652833</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06708013724427841</v>
+        <v>0.01448574774027918</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01309277014172166</v>
+        <v>0.01346929969688204</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01115889244972598</v>
+        <v>0.01512646549221072</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01281408783918544</v>
+        <v>0.01399548207693663</v>
       </c>
       <c r="J83" t="n">
+        <v>0.04069547379007168</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.01400212008823003</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.0612845485101991</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.01403786853161824</v>
+      </c>
+      <c r="N83" t="n">
         <v>0.01512646549221072</v>
       </c>
-      <c r="K83" t="n">
+      <c r="O83" t="n">
         <v>0.01399548207693663</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.04444392968817831</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.01420263767334673</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.06979264245928057</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.01386293309123469</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01176786246424272</v>
+        <v>0.01552362629878254</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01352598160802907</v>
+        <v>0.01505392319063286</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0156807361607782</v>
+        <v>0.04210900078506771</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01485524724409902</v>
+        <v>0.01478001564868725</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04673964071813849</v>
+        <v>0.06400265223928447</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01499167309964377</v>
+        <v>0.01481775011670814</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07208399535615573</v>
+        <v>0.01552362629878254</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01463309604074773</v>
+        <v>0.01505392319063286</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01339310116523361</v>
+        <v>0.01605567789707185</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01423787537687271</v>
+        <v>0.01584623493750828</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01689447135415226</v>
+        <v>0.04330299967186071</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01563710236220949</v>
+        <v>0.01555791120914448</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04860829100607839</v>
+        <v>0.06509339706198403</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01578070852594081</v>
+        <v>0.01559763170179804</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07513304714442753</v>
+        <v>0.01605567789707185</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01540325899026077</v>
+        <v>0.01584623493750828</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01402875537449184</v>
+        <v>0.01659499794777888</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01494976914571634</v>
+        <v>0.01663854668438369</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01791240814567886</v>
+        <v>0.04427675443884305</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01641895748031997</v>
+        <v>0.0163358067696017</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05023316320683999</v>
+        <v>0.06765544196879575</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01656974395223785</v>
+        <v>0.01637751328688794</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07811864903361959</v>
+        <v>0.01659499794777888</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01617342193977381</v>
+        <v>0.01663854668438369</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0136689719138106</v>
+        <v>0.01734028330109924</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01566166291455998</v>
+        <v>0.01743085843125911</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01870920912659986</v>
+        <v>0.045629549074407</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01720081259843044</v>
+        <v>0.01711370233005892</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05229753997526523</v>
+        <v>0.06858744595021704</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01735877937853489</v>
+        <v>0.01715739487197784</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08111965223325585</v>
+        <v>0.01734028330109924</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01694358488928685</v>
+        <v>0.01743085843125911</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01630789760498309</v>
+        <v>0.01789023080722861</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01637355668340362</v>
+        <v>0.01822317017813452</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02015953688815708</v>
+        <v>0.04636066756694482</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01798266771654092</v>
+        <v>0.01789159789051615</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05428470396619603</v>
+        <v>0.07058806799674561</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01814781480483193</v>
+        <v>0.01793727645706775</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08351490795285965</v>
+        <v>0.01789023080722861</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01771374783879989</v>
+        <v>0.01822317017813452</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01593967926980248</v>
+        <v>0.01824353731636266</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01708545045224725</v>
+        <v>0.01901548192500993</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02113805402159237</v>
+        <v>0.04766939390484895</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0187645228346514</v>
+        <v>0.01866949345097337</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05537793783447437</v>
+        <v>0.07215596709887911</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01893685023112897</v>
+        <v>0.01871715804215765</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08598326740195489</v>
+        <v>0.01824353731636266</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01848391078831292</v>
+        <v>0.01901548192500993</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01655846373006201</v>
+        <v>0.01899889967869701</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01779734422109089</v>
+        <v>0.01980779367188535</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02241942311814758</v>
+        <v>0.04865501207651154</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01954637795276187</v>
+        <v>0.0194473890114306</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0572605242349421</v>
+        <v>0.07438980224711511</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01972588565742601</v>
+        <v>0.01949703962724755</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08850358179006534</v>
+        <v>0.01899889967869701</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01925407373782596</v>
+        <v>0.01980779367188535</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01715839780755483</v>
+        <v>0.01935501474442736</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01850923798993452</v>
+        <v>0.02060010541876076</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02367830676906457</v>
+        <v>0.05001680607032497</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02032823307087235</v>
+        <v>0.02022528457188782</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0586157458224412</v>
+        <v>0.07608823243195134</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02051492108372305</v>
+        <v>0.02027692121233745</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09005470232671442</v>
+        <v>0.01935501474442736</v>
       </c>
       <c r="O91" t="n">
-        <v>0.020024236687339</v>
+        <v>0.02060010541876076</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01873362832407414</v>
+        <v>0.02011057936374935</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01922113175877816</v>
+        <v>0.02139241716563618</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02468936756558515</v>
+        <v>0.05095405987468152</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02111008818898282</v>
+        <v>0.02100318013234504</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05992688525181358</v>
+        <v>0.07794991664388518</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02130395651002009</v>
+        <v>0.02105680279742735</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09191548022142598</v>
+        <v>0.02011057936374935</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02079439963685204</v>
+        <v>0.02139241716563618</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01827830210141314</v>
+        <v>0.02056429038685866</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01993302552762179</v>
+        <v>0.02218472891251159</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02572726809895123</v>
+        <v>0.05176605747797353</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02189194330709329</v>
+        <v>0.02178107569280227</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06117722517790128</v>
+        <v>0.07947351387341456</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02209299193631713</v>
+        <v>0.02183668438251726</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09346476668372372</v>
+        <v>0.02056429038685866</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02156456258636508</v>
+        <v>0.02218472891251159</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01978656596136504</v>
+        <v>0.02121484466395095</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02064491929646543</v>
+        <v>0.022977040659387</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02646667096040461</v>
+        <v>0.05255208286859325</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02267379842520377</v>
+        <v>0.02255897125325949</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06195004825554606</v>
+        <v>0.08065768311103694</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02288202736261417</v>
+        <v>0.02261656596760716</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09538141292313124</v>
+        <v>0.02121484466395095</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02233472553587812</v>
+        <v>0.022977040659387</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01925256672572301</v>
+        <v>0.02156093904522187</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02135681306530907</v>
+        <v>0.02376935240626242</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02738223874118711</v>
+        <v>0.05391142003493304</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02345565354331424</v>
+        <v>0.02333686681371671</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06272863713959007</v>
+        <v>0.08280108334725006</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02367106278891121</v>
+        <v>0.02339644755269706</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09664427014917232</v>
+        <v>0.02156093904522187</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02310488848539116</v>
+        <v>0.02376935240626242</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01867045121628025</v>
+        <v>0.02220127038086707</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0220687068341527</v>
+        <v>0.02456166415313783</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02824863403254063</v>
+        <v>0.05454335296538518</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02423750866142472</v>
+        <v>0.02411476237417394</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06319627448487503</v>
+        <v>0.08430237357255138</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02446009821520825</v>
+        <v>0.02417632913778696</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09793218957137056</v>
+        <v>0.02220127038086707</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02387505143490419</v>
+        <v>0.02456166415313783</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01903436625482993</v>
+        <v>0.02263453552108224</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02278060060299633</v>
+        <v>0.02535397590001325</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02874051942570702</v>
+        <v>0.05574716564834192</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02501936377953519</v>
+        <v>0.02489265793463116</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06393624294624303</v>
+        <v>0.0849602127774387</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02524913364150529</v>
+        <v>0.02495621072287686</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09842402239924969</v>
+        <v>0.02263453552108224</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02464521438441724</v>
+        <v>0.02535397590001325</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02033845866316529</v>
+        <v>0.023359431316063</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02349249437183997</v>
+        <v>0.02614628764688866</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02883255751192806</v>
+        <v>0.05682214207219566</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02580121889764567</v>
+        <v>0.02567055349508839</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06383229583970573</v>
+        <v>0.08647325995240951</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02603816906780233</v>
+        <v>0.02573609230796677</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09839861984233345</v>
+        <v>0.023359431316063</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02541537733393028</v>
+        <v>0.02614628764688866</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0205768752630795</v>
+        <v>0.02387465461600505</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02420438814068361</v>
+        <v>0.02693859939376407</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02880341483367854</v>
+        <v>0.0573675662253387</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02658307401575614</v>
+        <v>0.02644844905554561</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06371300269489533</v>
+        <v>0.08854017408796161</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02682720449409937</v>
+        <v>0.02651597389305667</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09882729338713608</v>
+        <v>0.02387465461600505</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02618554028344331</v>
+        <v>0.02693859939376407</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.01974376287636574</v>
+        <v>0.02427890227110405</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02491628190952724</v>
+        <v>0.02773091114063948</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02894849620566543</v>
+        <v>0.05808272209616325</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02736492913386662</v>
+        <v>0.02722634461600284</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06351792309606055</v>
+        <v>0.08955961417459241</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02761623992039641</v>
+        <v>0.02729585547814657</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09834239484231716</v>
+        <v>0.02427890227110405</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02695570323295635</v>
+        <v>0.02773091114063948</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02083326832481723</v>
+        <v>0.02487087113155563</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02562817567837088</v>
+        <v>0.0285232228875149</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02862414206974705</v>
+        <v>0.05886689367306167</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0281467842519771</v>
+        <v>0.02800424017646006</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06316781384152004</v>
+        <v>0.09063023920279972</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02840527534669345</v>
+        <v>0.02807573706323647</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09757813123750153</v>
+        <v>0.02487087113155563</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02772586618246939</v>
+        <v>0.0285232228875149</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.01984447279290538</v>
+        <v>0.02524925804755548</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02634006944721451</v>
+        <v>0.02931553463439031</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02863905950214798</v>
+        <v>0.05951936494442628</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02892863937008756</v>
+        <v>0.02878213573691728</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06268343172959251</v>
+        <v>0.09235070816308105</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0291943107729905</v>
+        <v>0.02885561864832637</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09609131092678302</v>
+        <v>0.02524925804755548</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02849602913198243</v>
+        <v>0.02931553463439031</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02181511654945606</v>
+        <v>0.02571275986929923</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02705196321605815</v>
+        <v>0.03010784638126573</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02840195557909293</v>
+        <v>0.06023941989864934</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02971049448819804</v>
+        <v>0.02956003129737451</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06208553355859669</v>
+        <v>0.09301968004593414</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02998334619928754</v>
+        <v>0.02963550023341628</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09513874226425573</v>
+        <v>0.02571275986929923</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02926619208149547</v>
+        <v>0.03010784638126573</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02175636531379557</v>
+        <v>0.02606007344698258</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02776385698490179</v>
+        <v>0.03090015812814114</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02812153737680652</v>
+        <v>0.06112634252412322</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03049234960630852</v>
+        <v>0.03033792685783173</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0607948761268513</v>
+        <v>0.09413581384185649</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03077238162558458</v>
+        <v>0.03041538181850617</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09377723360401358</v>
+        <v>0.02606007344698258</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0300363550310085</v>
+        <v>0.03090015812814114</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.019670787153308</v>
+        <v>0.02648989563080116</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02847575075374542</v>
+        <v>0.03169246987501656</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0277065119715134</v>
+        <v>0.06177941680924012</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03127420472441899</v>
+        <v>0.03111582241828895</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06003221623267502</v>
+        <v>0.09499776854134578</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03156141705188162</v>
+        <v>0.03119526340359608</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09216359330015045</v>
+        <v>0.02648989563080116</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03080651798052154</v>
+        <v>0.03169246987501656</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01956095013537741</v>
+        <v>0.02720092327095065</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02918764452258906</v>
+        <v>0.03248478162189197</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02746558643943824</v>
+        <v>0.06269792674239247</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03205605984252947</v>
+        <v>0.03189371797874618</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05901831067438659</v>
+        <v>0.09660420313489976</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03235045247817866</v>
+        <v>0.03197514498868598</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09015462970676053</v>
+        <v>0.02720092327095065</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03157668093003458</v>
+        <v>0.03248478162189197</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02142942232738787</v>
+        <v>0.0274918532176267</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02989953829143269</v>
+        <v>0.03327709336876739</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02710746785680565</v>
+        <v>0.06328115631197248</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03283791496063995</v>
+        <v>0.0326716135392034</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05837391625030466</v>
+        <v>0.09725377661301587</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0331394879044757</v>
+        <v>0.03275502657377588</v>
       </c>
       <c r="N107" t="n">
-        <v>0.08870715117793765</v>
+        <v>0.0274918532176267</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03234684387954762</v>
+        <v>0.03327709336876739</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02127877179672347</v>
+        <v>0.02786138232102497</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03061143206027632</v>
+        <v>0.0340694051156428</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02664086329984033</v>
+        <v>0.06342838950637245</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03361977007875042</v>
+        <v>0.03344950909966062</v>
       </c>
       <c r="L108" t="n">
-        <v>0.057219789758748</v>
+        <v>0.0979451479661918</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03392852333077274</v>
+        <v>0.03353490815886578</v>
       </c>
       <c r="N108" t="n">
-        <v>0.08687796606777587</v>
+        <v>0.02786138232102497</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03311700682906066</v>
+        <v>0.0340694051156428</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02111156661076827</v>
+        <v>0.02830820743134115</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03132332582911996</v>
+        <v>0.03486171686251821</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0261744798447669</v>
+        <v>0.06403891031398479</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03440162519686089</v>
+        <v>0.03422740466011785</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05667668799803532</v>
+        <v>0.0987769761849252</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03471755875706978</v>
+        <v>0.03431478974395569</v>
       </c>
       <c r="N109" t="n">
-        <v>0.08512388273036903</v>
+        <v>0.02830820743134115</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0338871697785737</v>
+        <v>0.03486171686251821</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01893037483690634</v>
+        <v>0.02853102539877085</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0320352195979636</v>
+        <v>0.03565402860939362</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02601702456780999</v>
+        <v>0.06451200272320171</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03518348031497136</v>
+        <v>0.03500530022057508</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05546536776648531</v>
+        <v>0.1003479202597138</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03550659418336682</v>
+        <v>0.03509467132904559</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08290170951981124</v>
+        <v>0.02853102539877085</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03465733272808674</v>
+        <v>0.03565402860939362</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01873776454252177</v>
+        <v>0.02892853307350976</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03274711336680723</v>
+        <v>0.03644634035626904</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02577720454519429</v>
+        <v>0.0651469507224155</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03596533543308184</v>
+        <v>0.0357831957810323</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05440658586241665</v>
+        <v>0.100456639181055</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03629562960966386</v>
+        <v>0.03587455291413549</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08126825479019645</v>
+        <v>0.02892853307350976</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03542749567759978</v>
+        <v>0.03644634035626904</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01853630379499861</v>
+        <v>0.02919942730575353</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03345900713565087</v>
+        <v>0.03723865210314446</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02536372685314442</v>
+        <v>0.06534303830001853</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03674719055119231</v>
+        <v>0.03656109134148952</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05392109908414805</v>
+        <v>0.1007017919394466</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0370846650359609</v>
+        <v>0.0366544344992254</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08098032689561868</v>
+        <v>0.02919942730575353</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03619765862711281</v>
+        <v>0.03723865210314446</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01832856066172096</v>
+        <v>0.02944240494569784</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0341709009044945</v>
+        <v>0.03803096385001986</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02498529856788505</v>
+        <v>0.06569954944440309</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03752904566930279</v>
+        <v>0.03733898690194674</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05342966422999829</v>
+        <v>0.1019820375253862</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03787370046225794</v>
+        <v>0.0374343160843153</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07919473419017187</v>
+        <v>0.02944240494569784</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03696782157662585</v>
+        <v>0.03803096385001986</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02011710321007289</v>
+        <v>0.02935616284353836</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03488279467333814</v>
+        <v>0.03882327559689528</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02475062676564083</v>
+        <v>0.06611576814396139</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03831090078741326</v>
+        <v>0.03811688246240397</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05245303809828597</v>
+        <v>0.1017960349293714</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03866273588855498</v>
+        <v>0.0382141976694052</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07876828502794991</v>
+        <v>0.02935616284353836</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03773798452613889</v>
+        <v>0.03882327559689528</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01990449950743846</v>
+        <v>0.02973939784947069</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03559468844218178</v>
+        <v>0.03961558734377069</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02466841852263639</v>
+        <v>0.06629097838708592</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03909275590552374</v>
+        <v>0.03889477802286119</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0524119774873299</v>
+        <v>0.1032424431418999</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03945177131485202</v>
+        <v>0.0389940792544951</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0790472674443331</v>
+        <v>0.02973939784947069</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03850814747565193</v>
+        <v>0.03961558734377069</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01869331762120174</v>
+        <v>0.02989080681369055</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03630658221102541</v>
+        <v>0.04040789909064611</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0245473809150964</v>
+        <v>0.06652446416216884</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03987461102363422</v>
+        <v>0.03967267358331841</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05172723919544869</v>
+        <v>0.1029199211534692</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04024080674114906</v>
+        <v>0.039773960839585</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07944038548610444</v>
+        <v>0.02989080681369055</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03927831042516497</v>
+        <v>0.04040789909064611</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01948612561874682</v>
+        <v>0.03000908658639358</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03701847597986905</v>
+        <v>0.04120021083752152</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02439622101924548</v>
+        <v>0.06661550945760245</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04065646614174469</v>
+        <v>0.04045056914377564</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05171958002096116</v>
+        <v>0.103527127954577</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0410298421674461</v>
+        <v>0.04055384242467491</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07955179725021905</v>
+        <v>0.03000908658639358</v>
       </c>
       <c r="O117" t="n">
-        <v>0.040048473374678</v>
+        <v>0.04120021083752152</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01928549156745776</v>
+        <v>0.02989293401777546</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03773036974871268</v>
+        <v>0.04199252258439694</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0245117610286326</v>
+        <v>0.06676339826177913</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04143832125985516</v>
+        <v>0.04122846470423286</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05196678312352013</v>
+        <v>0.1031627225357209</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04181887759374314</v>
+        <v>0.0413337240097648</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07947434707563777</v>
+        <v>0.02989293401777546</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04081863632419105</v>
+        <v>0.04199252258439694</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01909398353471865</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03844226351755632</v>
+        <v>0.04278483433127235</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02457378079260637</v>
+        <v>0.06726741456309113</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04222017637796564</v>
+        <v>0.04200636026469009</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05181751399492202</v>
+        <v>0.1036253638873986</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04260791302004018</v>
+        <v>0.04211360559485471</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0802008793013213</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04158879927370409</v>
+        <v>0.04278483433127235</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01791416958791354</v>
+        <v>0.02995287257762914</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03915415728639995</v>
+        <v>0.04357714607814776</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02447811233823831</v>
+        <v>0.06734180163101358</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04300203149607611</v>
+        <v>0.04278425582514731</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05246414315612846</v>
+        <v>0.1044306722776057</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04339694844633722</v>
+        <v>0.04289348717994461</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08062423826623044</v>
+        <v>0.02995287257762914</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04235896222321713</v>
+        <v>0.04357714607814776</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01674861779442652</v>
+        <v>0.0302509402855853</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03986605105524359</v>
+        <v>0.04436945782502318</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02462101321014375</v>
+        <v>0.06674145040457191</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04378388661418658</v>
+        <v>0.04356215138560453</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05219920771625297</v>
+        <v>0.1043294286729663</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04418598387263426</v>
+        <v>0.04367336876503451</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08073726830932587</v>
+        <v>0.0302509402855853</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04312912517273016</v>
+        <v>0.04436945782502318</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01659989622164167</v>
+        <v>0.03024629506674914</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04057794482408722</v>
+        <v>0.0451617695718986</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02489874095293808</v>
+        <v>0.06692824767330963</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04456574173229706</v>
+        <v>0.04434004694606176</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0528152447844091</v>
+        <v>0.1044108946996339</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04497501929893131</v>
+        <v>0.04445325035012442</v>
       </c>
       <c r="N122" t="n">
-        <v>0.08203281376956834</v>
+        <v>0.03024629506674914</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0438992881222432</v>
+        <v>0.0451617695718986</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01847057293694305</v>
+        <v>0.03023896594530659</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04128983859293086</v>
+        <v>0.04595408131877401</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0253075531112367</v>
+        <v>0.06679635381784657</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04534759685040754</v>
+        <v>0.04511794250651898</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05320479146971052</v>
+        <v>0.1042705683606373</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04576405472522834</v>
+        <v>0.04523313193521431</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08220371898591849</v>
+        <v>0.03023896594530659</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04466945107175624</v>
+        <v>0.04595408131877401</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01636321600771474</v>
+        <v>0.03022898194544349</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04200173236177449</v>
+        <v>0.04674639306564942</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02524370722965495</v>
+        <v>0.06674630523665387</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04612945196851801</v>
+        <v>0.0458958380669762</v>
       </c>
       <c r="L124" t="n">
-        <v>0.0540603848812708</v>
+        <v>0.1043089798614401</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04655309015152538</v>
+        <v>0.04601301352030421</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08314282829733721</v>
+        <v>0.03022898194544349</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04543961402126927</v>
+        <v>0.04674639306564942</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01728039350134081</v>
+        <v>0.03021637209134574</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04271362613061813</v>
+        <v>0.04753870481252483</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02570346085280821</v>
+        <v>0.06717863832820287</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04691130708662848</v>
+        <v>0.04667373362743343</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05487456212820357</v>
+        <v>0.1042266594075062</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04734212557782242</v>
+        <v>0.04679289510539412</v>
       </c>
       <c r="N125" t="n">
-        <v>0.08434298604278512</v>
+        <v>0.03021637209134574</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04620977697078232</v>
+        <v>0.04753870481252483</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01822467348520534</v>
+        <v>0.0300011654071992</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04342551989946176</v>
+        <v>0.04833101655940025</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02578307152531187</v>
+        <v>0.06669388949096486</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04769316220473896</v>
+        <v>0.04745162918789065</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05523986031962241</v>
+        <v>0.1034241372042994</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04813116100411946</v>
+        <v>0.04757277669048402</v>
       </c>
       <c r="N126" t="n">
-        <v>0.08519703656122296</v>
+        <v>0.0300011654071992</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04697993992029535</v>
+        <v>0.04833101655940025</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01619862402669239</v>
+        <v>0.02988339091718982</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0441374136683054</v>
+        <v>0.04912332830627566</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02607879679178128</v>
+        <v>0.06659259512341109</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04847501732284944</v>
+        <v>0.04822952474834787</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05624881656464087</v>
+        <v>0.1037019434572834</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04892019643041651</v>
+        <v>0.04835265827557392</v>
       </c>
       <c r="N127" t="n">
-        <v>0.08649782419161145</v>
+        <v>0.02988339091718982</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04775010286980839</v>
+        <v>0.04912332830627566</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01820802921865623</v>
+        <v>0.02986307764550339</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04484930743714904</v>
+        <v>0.04991564005315108</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02658689419683183</v>
+        <v>0.06667529162401295</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04925687244095991</v>
+        <v>0.0490074203088051</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05669396797237261</v>
+        <v>0.1034606083719222</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04970923185671355</v>
+        <v>0.04913253986066382</v>
       </c>
       <c r="N128" t="n">
-        <v>0.08773819327291138</v>
+        <v>0.02986307764550339</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04852026581932143</v>
+        <v>0.04991564005315108</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01626221936611726</v>
+        <v>0.03004025461632584</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04556120120599267</v>
+        <v>0.05070795180002649</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02700362128507885</v>
+        <v>0.06634251539124159</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05003872755907039</v>
+        <v>0.04978531586926233</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05756785165193118</v>
+        <v>0.1027006621536794</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05049826728301059</v>
+        <v>0.04991242144575372</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08851098814408337</v>
+        <v>0.03004025461632584</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04929042876883447</v>
+        <v>0.05070795180002649</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01635794237910287</v>
+        <v>0.02991495085384305</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04627309497483631</v>
+        <v>0.0515002635469019</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02702523560113779</v>
+        <v>0.06629480282356839</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05082058267718086</v>
+        <v>0.05056321142971955</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05826300471243021</v>
+        <v>0.1034226350080189</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05128730270930763</v>
+        <v>0.05069230303084363</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08920905314408828</v>
+        <v>0.02991495085384305</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05006059171834751</v>
+        <v>0.0515002635469019</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01849114037437431</v>
+        <v>0.0299871953822409</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04698498874367994</v>
+        <v>0.05229257529377732</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02744799468962396</v>
+        <v>0.06593269031946458</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05160243779529133</v>
+        <v>0.05134110699017677</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05897196426298326</v>
+        <v>0.1026270571404045</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05207633813560467</v>
+        <v>0.05147218461593353</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0903252326118868</v>
+        <v>0.0299871953822409</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05083075466786055</v>
+        <v>0.05229257529377732</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01765775546869282</v>
+        <v>0.02975701722570528</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04769688251252358</v>
+        <v>0.05308488704065274</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02786815609515275</v>
+        <v>0.06585671427740147</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05238429291340181</v>
+        <v>0.05211900255063399</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06018726741270397</v>
+        <v>0.1023144587563</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05286537356190171</v>
+        <v>0.05225206620102343</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09215237088643957</v>
+        <v>0.02975701722570528</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05160091761737359</v>
+        <v>0.05308488704065274</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01685372977881965</v>
+        <v>0.02992444540842205</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04840877628136721</v>
+        <v>0.05387719878752815</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02808197736233954</v>
+        <v>0.06586741109585034</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05316614803151229</v>
+        <v>0.05289689811109122</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06070145127070595</v>
+        <v>0.1019853700611691</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05365440898819875</v>
+        <v>0.05303194778611334</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09238331230670738</v>
+        <v>0.02992444540842205</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05237108056688662</v>
+        <v>0.05387719878752815</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01907500542151606</v>
+        <v>0.02968950895457713</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04912067005021085</v>
+        <v>0.05466951053440355</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0283857160357997</v>
+        <v>0.06586531717328251</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05394800314962276</v>
+        <v>0.05367479367154845</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06140705294610271</v>
+        <v>0.1026403212604757</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05444344441449579</v>
+        <v>0.05381182937120323</v>
       </c>
       <c r="N134" t="n">
-        <v>0.09441090121165102</v>
+        <v>0.02968950895457713</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05314124351639966</v>
+        <v>0.05466951053440355</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01931752451354327</v>
+        <v>0.02965223688835637</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04983256381905449</v>
+        <v>0.05546182228127897</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02857562966014859</v>
+        <v>0.0652509689081692</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05472985826773324</v>
+        <v>0.05445268923200567</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06199660954800798</v>
+        <v>0.1018798425596837</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05523247984079283</v>
+        <v>0.05459171095629314</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09542798194023117</v>
+        <v>0.02965223688835637</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0539114064659127</v>
+        <v>0.05546182228127897</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01857722917166253</v>
+        <v>0.02961265823394565</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05054445758789812</v>
+        <v>0.05625413402815439</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02894797578000159</v>
+        <v>0.06532490269898178</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05551171338584372</v>
+        <v>0.05523058479246289</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06336265818553521</v>
+        <v>0.1012044641642567</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05602151526708987</v>
+        <v>0.05537159254138304</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09652739883140848</v>
+        <v>0.02961265823394565</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05468156941542573</v>
+        <v>0.05625413402815439</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01885006151263511</v>
+        <v>0.02957080201553089</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05125635135674176</v>
+        <v>0.0570464457750298</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02929901193997408</v>
+        <v>0.06458765494419144</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05629356850395419</v>
+        <v>0.05600848035292012</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06409773596779808</v>
+        <v>0.1017147162796586</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0568105506933869</v>
+        <v>0.05615147412647294</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09680199622414376</v>
+        <v>0.02957080201553089</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05545173236493878</v>
+        <v>0.0570464457750298</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01913196365322224</v>
+        <v>0.02982669725729792</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05196824512558539</v>
+        <v>0.05783875752190521</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02952499568468142</v>
+        <v>0.06433976204226949</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05707542362206466</v>
+        <v>0.05678637591337734</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06459438000391018</v>
+        <v>0.1005111291113532</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05759958611968394</v>
+        <v>0.05693135571156285</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09854461845739776</v>
+        <v>0.02982669725729792</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05622189531445182</v>
+        <v>0.05783875752190521</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01941887771018516</v>
+        <v>0.02948037298343265</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05268013889442903</v>
+        <v>0.05863106926878062</v>
       </c>
       <c r="J139" t="n">
-        <v>0.029822184558739</v>
+        <v>0.06438176039168728</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05785727874017513</v>
+        <v>0.05756427147383456</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0652451274029851</v>
+        <v>0.1002942328648042</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05838862154598099</v>
+        <v>0.05771123729665275</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09914810987013117</v>
+        <v>0.02948037298343265</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05699205826396486</v>
+        <v>0.05863106926878062</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02070674580028514</v>
+        <v>0.02953185821812096</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05339203266327266</v>
+        <v>0.05942338101565605</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02988683610676218</v>
+        <v>0.06381418639091602</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05863913385828561</v>
+        <v>0.05834216703429179</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06544251527413647</v>
+        <v>0.1003645577454756</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05917765697227803</v>
+        <v>0.05849111888174265</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1003053148013048</v>
+        <v>0.02953185821812096</v>
       </c>
       <c r="O140" t="n">
-        <v>0.0577622212134779</v>
+        <v>0.05942338101565605</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01899151004028339</v>
+        <v>0.02948118198554875</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0541039264321163</v>
+        <v>0.06021569276253146</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03001520787336634</v>
+        <v>0.06383757643842702</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05942098897639608</v>
+        <v>0.05912006259474901</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0663790807264778</v>
+        <v>0.100122633958831</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05996669239857507</v>
+        <v>0.05927100046683256</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1009090775898792</v>
+        <v>0.02948118198554875</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05853238416299093</v>
+        <v>0.06021569276253146</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02126911254694121</v>
+        <v>0.02932837330990189</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05481582020095993</v>
+        <v>0.06100800450940687</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03020355740316684</v>
+        <v>0.06325246693269157</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06020284409450655</v>
+        <v>0.05989795815520624</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06694736086912279</v>
+        <v>0.09946899171033441</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06075572782487211</v>
+        <v>0.06005088205192246</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1025522425748153</v>
+        <v>0.02932837330990189</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05930254711250397</v>
+        <v>0.06100800450940687</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0195354954370198</v>
+        <v>0.02947346121536623</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05552771396980357</v>
+        <v>0.06180031625628228</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03025293098442144</v>
+        <v>0.063459394272181</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06098469921261703</v>
+        <v>0.06067585371566346</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06734180163101358</v>
+        <v>0.09920416120544945</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06154476325116915</v>
+        <v>0.06083076363701235</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1025276540950736</v>
+        <v>0.02947346121536623</v>
       </c>
       <c r="O143" t="n">
-        <v>0.060072710062017</v>
+        <v>0.06180031625628228</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02178660082728041</v>
+        <v>0.0295164747261277</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0562396077386472</v>
+        <v>0.06259262800315771</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02995238267325216</v>
+        <v>0.06325889485536651</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06176655433072751</v>
+        <v>0.06145374927612068</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0675214021317514</v>
+        <v>0.09932867264963996</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06233379867746619</v>
+        <v>0.06161064522210225</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1040281564896151</v>
+        <v>0.0295164747261277</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06084287301153005</v>
+        <v>0.06259262800315771</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02201837083448431</v>
+        <v>0.02915744286637215</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05695150150749084</v>
+        <v>0.06338493975003312</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03014869619466053</v>
+        <v>0.06235150508071946</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06254840944883798</v>
+        <v>0.06223164483657791</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06820342726043174</v>
+        <v>0.09814305624836972</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06312283410376324</v>
+        <v>0.06239052680719216</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1044306722776057</v>
+        <v>0.02915744286637215</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06161303596104309</v>
+        <v>0.06338493975003312</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02222674757539274</v>
+        <v>0.02919639466028548</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05766339527633448</v>
+        <v>0.06417725149690852</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02994166159555367</v>
+        <v>0.06213776134671109</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06333026456694846</v>
+        <v>0.06300954039703513</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0685874470308119</v>
+        <v>0.09844784220710262</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06391186953006027</v>
+        <v>0.06317040839228205</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1050714170857803</v>
+        <v>0.02919639466028548</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06238319891055612</v>
+        <v>0.06417725149690852</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02140767316676694</v>
+        <v>0.02903335913205358</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05837528904517812</v>
+        <v>0.06496956324378393</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0302314229037885</v>
+        <v>0.06231820005181268</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06411211968505894</v>
+        <v>0.06378743595749235</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06847174751046092</v>
+        <v>0.09744356073130239</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06470090495635732</v>
+        <v>0.06395028997737195</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1058002700394879</v>
+        <v>0.02903335913205358</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06315336186006916</v>
+        <v>0.06496956324378393</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02155708972536816</v>
+        <v>0.0289683653058623</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05908718281402175</v>
+        <v>0.06576187499065934</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03011812414722195</v>
+        <v>0.06159335759449552</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06489397480316941</v>
+        <v>0.06456533151794958</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06905461476694777</v>
+        <v>0.09733074202643288</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06548994038265436</v>
+        <v>0.06473017156246186</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1055377304516337</v>
+        <v>0.0289683653058623</v>
       </c>
       <c r="O148" t="n">
-        <v>0.0639235248095822</v>
+        <v>0.06576187499065934</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02267093936795762</v>
+        <v>0.02900144220589755</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05979907658286537</v>
+        <v>0.06655418673753477</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03020190935371096</v>
+        <v>0.06136377037323096</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06567582992127989</v>
+        <v>0.0653432270784068</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06923433486784139</v>
+        <v>0.09730991629795788</v>
       </c>
       <c r="M149" t="n">
-        <v>0.0662789758089514</v>
+        <v>0.06551005314755176</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1061816440019087</v>
+        <v>0.02900144220589755</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06469368775909523</v>
+        <v>0.06655418673753477</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02174516421129662</v>
+        <v>0.02893261885634521</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06051097035170901</v>
+        <v>0.06734649848441018</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02988292255111243</v>
+        <v>0.0609299747864902</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06645768503939035</v>
+        <v>0.06612112263886402</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06970919388071081</v>
+        <v>0.09688161375134113</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06706801123524844</v>
+        <v>0.06628993473264166</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1076298563700041</v>
+        <v>0.02893261885634521</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06546385070860829</v>
+        <v>0.06734649848441018</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02277626944391375</v>
+        <v>0.02886192428139114</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06122286412055265</v>
+        <v>0.0681388102312856</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03016130776728328</v>
+        <v>0.06049250723274463</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06723954015750083</v>
+        <v>0.06689901819932124</v>
       </c>
       <c r="L151" t="n">
-        <v>0.070177477873125</v>
+        <v>0.09604636459204646</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06785704666154548</v>
+        <v>0.06706981631773157</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1076802132356104</v>
+        <v>0.02886192428139114</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06623401365812132</v>
+        <v>0.0681388102312856</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02077579660633816</v>
+        <v>0.02888938750522127</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06193475788939629</v>
+        <v>0.06893112197816101</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02983720903008046</v>
+        <v>0.0605519041104654</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06802139527561131</v>
+        <v>0.06767691375977847</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07053747291265294</v>
+        <v>0.09600469902553777</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06864608208784252</v>
+        <v>0.06784969790282147</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1086305602784192</v>
+        <v>0.02888938750522127</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06700417660763436</v>
+        <v>0.06893112197816101</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0207740365391525</v>
+        <v>0.02881503755202142</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06264665165823992</v>
+        <v>0.06972343372503642</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02981077036736088</v>
+        <v>0.05980870181812387</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06880325039372177</v>
+        <v>0.06845480932023569</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07088746506686361</v>
+        <v>0.09475714725727868</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06943511751413955</v>
+        <v>0.06862957948791137</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1088787431781212</v>
+        <v>0.02881503755202142</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0677743395571474</v>
+        <v>0.06972343372503642</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02277100064903219</v>
+        <v>0.02883890344597752</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06335854542708357</v>
+        <v>0.07051574547191183</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03008213580698142</v>
+        <v>0.0597634367541913</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06958510551183225</v>
+        <v>0.06923270488069293</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07092574040332597</v>
+        <v>0.09430423949273314</v>
       </c>
       <c r="M154" t="n">
-        <v>0.0702241529404366</v>
+        <v>0.06940946107300128</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1104226076144075</v>
+        <v>0.02883890344597752</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06854450250666043</v>
+        <v>0.07051574547191183</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02276671585847315</v>
+        <v>0.02876101421127544</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0640704391959272</v>
+        <v>0.07130805721878725</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02985144937679907</v>
+        <v>0.05941664531713903</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07036696062994273</v>
+        <v>0.07001060044115015</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07125058498960901</v>
+        <v>0.09444650593736492</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07101318836673363</v>
+        <v>0.07018934265809118</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1108599992669692</v>
+        <v>0.02876101421127544</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06931466545617347</v>
+        <v>0.07130805721878725</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02276120908997131</v>
+        <v>0.02838139887210105</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06478233296477083</v>
+        <v>0.07210036896566266</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02991885510467072</v>
+        <v>0.05926886390543831</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07114881574805321</v>
+        <v>0.07078849600160737</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07216028489328175</v>
+        <v>0.09428447679663771</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07180222379303067</v>
+        <v>0.07096922424318108</v>
       </c>
       <c r="N156" t="n">
-        <v>0.111688763815497</v>
+        <v>0.02838139887210105</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07008482840568651</v>
+        <v>0.07210036896566266</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02275450726602259</v>
+        <v>0.02840008645264022</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06549422673361446</v>
+        <v>0.07289268071253809</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02998449701845329</v>
+        <v>0.05852062891756038</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07193067086616367</v>
+        <v>0.0715663915620646</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07185312618191314</v>
+        <v>0.09371868227601549</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07259125921932771</v>
+        <v>0.07174910582827099</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1119067469396822</v>
+        <v>0.02840008645264022</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07085499135519956</v>
+        <v>0.07289268071253809</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02074663730912289</v>
+        <v>0.02851710597707888</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06620612050245811</v>
+        <v>0.0736849924594135</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02984851914600373</v>
+        <v>0.05847247675197664</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07271252598427415</v>
+        <v>0.07234428712252182</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07272739492307218</v>
+        <v>0.09334965258096189</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07338029464562475</v>
+        <v>0.07252898741336089</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1122117943192157</v>
+        <v>0.02851710597707888</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07162515430471258</v>
+        <v>0.0736849924594135</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02273762614176814</v>
+        <v>0.0281324864696029</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06691801427130174</v>
+        <v>0.07447730420628891</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02971106551517892</v>
+        <v>0.05802494380715822</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07349438110238463</v>
+        <v>0.07312218268297904</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07258137718432778</v>
+        <v>0.09267791791694086</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07416933007192179</v>
+        <v>0.07330886899845079</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1131017516337885</v>
+        <v>0.0281324864696029</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07239531725422563</v>
+        <v>0.07447730420628891</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02272750068645422</v>
+        <v>0.02814625695439811</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06762990804014538</v>
+        <v>0.07526961595316432</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02977228015383582</v>
+        <v>0.05727856648157659</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0742762362204951</v>
+        <v>0.07390007824343627</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07291335903324905</v>
+        <v>0.09160400848941602</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07495836549821884</v>
+        <v>0.0740887505835407</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1130744645630917</v>
+        <v>0.02814625695439811</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07316548020373866</v>
+        <v>0.07526961595316432</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0207162878656771</v>
+        <v>0.02805844645565045</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06834180180898901</v>
+        <v>0.07606192770003972</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02973230708983132</v>
+        <v>0.05703388117370284</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07505809133860558</v>
+        <v>0.07467797380389349</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07282162653740493</v>
+        <v>0.09182845450385141</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07574740092451587</v>
+        <v>0.0748686321686306</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1140277787868162</v>
+        <v>0.02805844645565045</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0739356431532517</v>
+        <v>0.07606192770003972</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02070401460193268</v>
+        <v>0.02786908399754578</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06905369557783264</v>
+        <v>0.07685423944691515</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02969129035102237</v>
+        <v>0.05679142428200837</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07583994645671606</v>
+        <v>0.07545586936435071</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07350446576436431</v>
+        <v>0.09055178616571058</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07653643635081292</v>
+        <v>0.07564851375372049</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1144595399846532</v>
+        <v>0.02786908399754578</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07470580610276474</v>
+        <v>0.07685423944691515</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02269070781771686</v>
+        <v>0.02807819860426998</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06976558934667627</v>
+        <v>0.07764655119379056</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0297493739652659</v>
+        <v>0.05635173220496448</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07662180157482652</v>
+        <v>0.07623376492480793</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07336016278169624</v>
+        <v>0.09087453368045756</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07732547177710995</v>
+        <v>0.07642839533881039</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1155675938362934</v>
+        <v>0.02807819860426998</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07547596905227778</v>
+        <v>0.07764655119379056</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02167639443552556</v>
+        <v>0.02778581930000894</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07047748311551991</v>
+        <v>0.07843886294066597</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02970670196041879</v>
+        <v>0.05631534134104241</v>
       </c>
       <c r="K164" t="n">
-        <v>0.077403656692937</v>
+        <v>0.07701166048526516</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07378700365696975</v>
+        <v>0.08959722725355596</v>
       </c>
       <c r="M164" t="n">
-        <v>0.078114507203407</v>
+        <v>0.0772082769239003</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1158497860214282</v>
+        <v>0.02778581930000894</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07624613200179083</v>
+        <v>0.07843886294066597</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02266110137785472</v>
+        <v>0.02769197510894854</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07118937688436355</v>
+        <v>0.07923117468754139</v>
       </c>
       <c r="J165" t="n">
-        <v>0.029663418364338</v>
+        <v>0.05618278808871346</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07818551181104748</v>
+        <v>0.07778955604572238</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07398327445775371</v>
+        <v>0.08912035449842659</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07890354262970405</v>
+        <v>0.0779881585089902</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1160039622197483</v>
+        <v>0.02769197510894854</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07701629495130385</v>
+        <v>0.07923117468754139</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02064485556720025</v>
+        <v>0.02759669505527465</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07190127065320719</v>
+        <v>0.08002348643441681</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02961966720488045</v>
+        <v>0.05525460884644892</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07896736692915796</v>
+        <v>0.0785674516061796</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0735472612516172</v>
+        <v>0.08941955928072953</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07969257805600108</v>
+        <v>0.0787680400940801</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1168279681109449</v>
+        <v>0.02759669505527465</v>
       </c>
       <c r="O166" t="n">
-        <v>0.0777864579008169</v>
+        <v>0.08002348643441681</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02262768392605805</v>
+        <v>0.02759946282499193</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07261316442205082</v>
+        <v>0.08081579818129221</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02947559250990305</v>
+        <v>0.05513134001272005</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07974922204726843</v>
+        <v>0.07934534716663683</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07347725010612915</v>
+        <v>0.08827534376082197</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08048161348229813</v>
+        <v>0.07954792167917001</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1166196493747088</v>
+        <v>0.02759946282499193</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07855662085032994</v>
+        <v>0.08081579818129221</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02160961337692403</v>
+        <v>0.0274776985660421</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07332505819089445</v>
+        <v>0.08160810992816762</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02923133830726272</v>
+        <v>0.05491351798599817</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08053107716537891</v>
+        <v>0.08012324272709405</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07396446005183815</v>
+        <v>0.08818974731770274</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08127064890859516</v>
+        <v>0.08032780326425991</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1173768516907312</v>
+        <v>0.0274776985660421</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07932678379984298</v>
+        <v>0.08160810992816762</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02259067084229414</v>
+        <v>0.02712132907168446</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0740369519597381</v>
+        <v>0.08240042167504304</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02928704862481639</v>
+        <v>0.05430167916475453</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08131293228348939</v>
+        <v>0.08090113828755127</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07348580308234728</v>
+        <v>0.08756480933037081</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08205968433489221</v>
+        <v>0.08110768484934981</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1170974207387031</v>
+        <v>0.02712132907168446</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08009694674935601</v>
+        <v>0.08240042167504304</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02257088324466427</v>
+        <v>0.02723283739276226</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07474884572858173</v>
+        <v>0.08319273342191846</v>
       </c>
       <c r="J170" t="n">
-        <v>0.029142867490421</v>
+        <v>0.05419579263990162</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08209478740159985</v>
+        <v>0.08167903384800849</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07374304601110782</v>
+        <v>0.08680256917782475</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08284871976118924</v>
+        <v>0.08188756643443972</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1174792021983154</v>
+        <v>0.02723283739276226</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08086710969886905</v>
+        <v>0.08319273342191846</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02155027750653037</v>
+        <v>0.02691470658011876</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07546073949742536</v>
+        <v>0.08398504516879388</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02919893893193343</v>
+        <v>0.05418818466451153</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08287664251971032</v>
+        <v>0.08245692940846572</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07314002436438252</v>
+        <v>0.08580506623906375</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08363775518748628</v>
+        <v>0.0826674480195296</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1183200417492592</v>
+        <v>0.02691470658011876</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08163727264838209</v>
+        <v>0.08398504516879388</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0215288805503883</v>
+        <v>0.02656941968459718</v>
       </c>
       <c r="G172" t="n">
-        <v>0.076172633266269</v>
+        <v>0.08477735691566929</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02935540697721065</v>
+        <v>0.0537763336664405</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08365849763782079</v>
+        <v>0.08323482496892294</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07288057366843415</v>
+        <v>0.08467433989308659</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08442679061378333</v>
+        <v>0.08344732960461951</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1183177850712255</v>
+        <v>0.02656941968459718</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08240743559789512</v>
+        <v>0.08477735691566929</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02250671929873403</v>
+        <v>0.02649945975704078</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07688452703511264</v>
+        <v>0.0855696686625447</v>
       </c>
       <c r="J173" t="n">
-        <v>0.029312272220579</v>
+        <v>0.053060307136611</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08444035275593127</v>
+        <v>0.08401272052938018</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07306852944952552</v>
+        <v>0.08411242951889197</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08521582604008036</v>
+        <v>0.08422721118970941</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1183702778439054</v>
+        <v>0.02649945975704078</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08317759854740818</v>
+        <v>0.0855696686625447</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02248382067406346</v>
+        <v>0.0259073098482928</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07759642080395626</v>
+        <v>0.08636198040942011</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02916835974653013</v>
+        <v>0.05274017256594565</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08522220787404175</v>
+        <v>0.0847906160898374</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07220772723391941</v>
+        <v>0.08312137449547885</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08600486146637741</v>
+        <v>0.08500709277479931</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1187753657469898</v>
+        <v>0.0259073098482928</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08394776149692121</v>
+        <v>0.08636198040942011</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02046021159887249</v>
+        <v>0.02579545300919647</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07830831457279989</v>
+        <v>0.08715429215629553</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02912334843266846</v>
+        <v>0.052515997445367</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08600406299215223</v>
+        <v>0.08556851165029462</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07200200254787864</v>
+        <v>0.08250321420184614</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08679389689267444</v>
+        <v>0.08578697435988922</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1183308944601696</v>
+        <v>0.02579545300919647</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08471792444643425</v>
+        <v>0.08715429215629553</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02143591899565706</v>
+        <v>0.0252663722905951</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07902020834164354</v>
+        <v>0.08794660390317094</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02897720056274712</v>
+        <v>0.05258784926579751</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08678591811026271</v>
+        <v>0.08634640721075185</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07185519091766596</v>
+        <v>0.08155998801699255</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08758293231897149</v>
+        <v>0.08656685594497912</v>
       </c>
       <c r="N176" t="n">
-        <v>0.119123500292228</v>
+        <v>0.0252663722905951</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08548808739594728</v>
+        <v>0.08794660390317094</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02141096978691308</v>
+        <v>0.02492255074333186</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07973210211048717</v>
+        <v>0.08873891565004635</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02912987842051915</v>
+        <v>0.05225579551815979</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08756777322837317</v>
+        <v>0.08712430277120907</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07137112786954414</v>
+        <v>0.08059373531991698</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08837196774526852</v>
+        <v>0.08734673753006902</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1180636753198236</v>
+        <v>0.02492255074333186</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08625825034546032</v>
+        <v>0.08873891565004635</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02038539089513645</v>
+        <v>0.02456647141825002</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08044399587933081</v>
+        <v>0.08953122739692176</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02878134428973761</v>
+        <v>0.05201990369337642</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08834962834648365</v>
+        <v>0.08790219833166629</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07025364892977601</v>
+        <v>0.08070649548961834</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08916100317156557</v>
+        <v>0.08812661911515893</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1177416611786573</v>
+        <v>0.02456647141825002</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08702841329497335</v>
+        <v>0.08953122739692176</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02235920924282313</v>
+        <v>0.02430061736619285</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08115588964817444</v>
+        <v>0.09032353914379719</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02903156045415559</v>
+        <v>0.05168024128236981</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08913148346459412</v>
+        <v>0.08868009389212352</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06970658962462434</v>
+        <v>0.07890030790509539</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08995003859786262</v>
+        <v>0.08890650070024883</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1176687660266474</v>
+        <v>0.02430061736619285</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08779857624448641</v>
+        <v>0.09032353914379719</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02033245175246898</v>
+        <v>0.02382747163800357</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08186778341701809</v>
+        <v>0.0911158508906726</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02898048919752615</v>
+        <v>0.05083687577606266</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0899133385827046</v>
+        <v>0.08945798945258074</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06973378548035192</v>
+        <v>0.07847721194534713</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09073907402415965</v>
+        <v>0.08968638228533872</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1173562980217127</v>
+        <v>0.02382747163800357</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08856873919399944</v>
+        <v>0.0911158508906726</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02230514534656995</v>
+        <v>0.02354951728452542</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08257967718586172</v>
+        <v>0.09190816263754802</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02882809280360235</v>
+        <v>0.0507898746653774</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09069519370081508</v>
+        <v>0.09023588501303796</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06863907202322153</v>
+        <v>0.07773924698937223</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09152810945045668</v>
+        <v>0.09046626387042862</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1158155653217712</v>
+        <v>0.02354951728452542</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08933890214351248</v>
+        <v>0.09190816263754802</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02127731694762196</v>
+        <v>0.02336923735660168</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08329157095470535</v>
+        <v>0.09270047438442341</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02857433355613731</v>
+        <v>0.0501393054412366</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09147704881892556</v>
+        <v>0.09101378057349518</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06822628477949599</v>
+        <v>0.07688845241616965</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09231714487675373</v>
+        <v>0.09124614545551853</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1153578760847418</v>
+        <v>0.02336923735660168</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09010906509302552</v>
+        <v>0.09270047438442341</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02224899347812091</v>
+        <v>0.02298911490507557</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08400346472354898</v>
+        <v>0.09349278613129884</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02861917373888404</v>
+        <v>0.05008523559456285</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09225890393703602</v>
+        <v>0.09179167613395241</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06759925927543806</v>
+        <v>0.07602686760473826</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09310618030305076</v>
+        <v>0.09202602704060843</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1148945384685427</v>
+        <v>0.02298911490507557</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09087922804253855</v>
+        <v>0.09349278613129884</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02122020186056273</v>
+        <v>0.02251163298079036</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08471535849239263</v>
+        <v>0.09428509787817425</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02876257563559562</v>
+        <v>0.04942773261627864</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0930407590551465</v>
+        <v>0.09256957169440963</v>
       </c>
       <c r="L184" t="n">
-        <v>0.0670618310373105</v>
+        <v>0.07465653193407684</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09389521572934781</v>
+        <v>0.09280590862569833</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1139368606310924</v>
+        <v>0.02251163298079036</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09164939099205159</v>
+        <v>0.09428509787817425</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02019096901744334</v>
+        <v>0.02223927463458925</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08542725226123626</v>
+        <v>0.09507740962504967</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02840450153002518</v>
+        <v>0.04896686399730657</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09382261417325696</v>
+        <v>0.09334746725486685</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06661783559137616</v>
+        <v>0.07327948478318425</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09468425115564484</v>
+        <v>0.09358579021078824</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1120961507303095</v>
+        <v>0.02223927463458925</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09241955394156463</v>
+        <v>0.09507740962504967</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02216132187125865</v>
+        <v>0.02177452291731551</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0861391460300799</v>
+        <v>0.09586972137192508</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0286449137059257</v>
+        <v>0.0492026972285691</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09460446929136744</v>
+        <v>0.09412536281532408</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06547110846389781</v>
+        <v>0.07279776553105938</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09547328658194189</v>
+        <v>0.09436567179587814</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1114837169241125</v>
+        <v>0.02177452291731551</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09318971689107768</v>
+        <v>0.09586972137192508</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02213128734450456</v>
+        <v>0.0214198608798124</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08685103979892353</v>
+        <v>0.09666203311880051</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02848377444705028</v>
+        <v>0.04853529980098881</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09538632440947792</v>
+        <v>0.0949032583757813</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06472548518113821</v>
+        <v>0.07121341355670108</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09626232200823892</v>
+        <v>0.09514555338096804</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1103108673704197</v>
+        <v>0.0214198608798124</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0939598798405907</v>
+        <v>0.09666203311880051</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02110089235967702</v>
+        <v>0.02087777157292318</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08756293356776716</v>
+        <v>0.0974543448656759</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02852104603715204</v>
+        <v>0.04816473920548828</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0961681795275884</v>
+        <v>0.09568115393623852</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06418480126936016</v>
+        <v>0.07112846823910823</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09705135743453597</v>
+        <v>0.09592543496605795</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1084889102271497</v>
+        <v>0.02087777157292318</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09473004279010375</v>
+        <v>0.0974543448656759</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02107016383927193</v>
+        <v>0.02055073804749105</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08827482733661079</v>
+        <v>0.09824665661255132</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02835669075998401</v>
+        <v>0.04749108293299001</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09695003464569887</v>
+        <v>0.09645904949669575</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06345289225482645</v>
+        <v>0.06924496895727961</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09784039286083301</v>
+        <v>0.09670531655114784</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1067291536522209</v>
+        <v>0.02055073804749105</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09550020573961678</v>
+        <v>0.09824665661255132</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02003912870578521</v>
+        <v>0.02024124335435928</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08898672110545443</v>
+        <v>0.09903896835942673</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02839067089929925</v>
+        <v>0.04721439847441655</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09773188976380935</v>
+        <v>0.09723694505715297</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06323359366379988</v>
+        <v>0.06846495509021416</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09862942828713005</v>
+        <v>0.09748519813623774</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1061429058035518</v>
+        <v>0.02024124335435928</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09627036868912982</v>
+        <v>0.09903896835942673</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02100781388171276</v>
+        <v>0.02025177054437109</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08969861487429807</v>
+        <v>0.09983128010630216</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02832294873885086</v>
+        <v>0.04703475332069043</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09851374488191982</v>
+        <v>0.09801484061761019</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06283074102254321</v>
+        <v>0.06759046601691066</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09941846371342709</v>
+        <v>0.09826507972132764</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1043414748390608</v>
+        <v>0.02025177054437109</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09704053163864286</v>
+        <v>0.09983128010630216</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02097624408416415</v>
+        <v>0.01988480266836977</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09041050864314171</v>
+        <v>0.1006235918531776</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0279534865623919</v>
+        <v>0.04665221496273425</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09929560000003029</v>
+        <v>0.09879273617806743</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06184816985731928</v>
+        <v>0.0668235411163679</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1002074991397241</v>
+        <v>0.09904496130641754</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1029361689166665</v>
+        <v>0.01988480266836977</v>
       </c>
       <c r="O192" t="n">
-        <v>0.0978106945881559</v>
+        <v>0.1006235918531776</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02194245150646966</v>
+        <v>0.01964282277719855</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09112240241198534</v>
+        <v>0.101415903600053</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02818224665367541</v>
+        <v>0.04596685089147051</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1000774551181408</v>
+        <v>0.09957063173852465</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06168971569439083</v>
+        <v>0.0662662197675849</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1009965345660212</v>
+        <v>0.09982484289150745</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1015382961942873</v>
+        <v>0.01964282277719855</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09858085753766894</v>
+        <v>0.101415903600053</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0209047943299618</v>
+        <v>0.01942831392170066</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09183429618082899</v>
+        <v>0.1022082153469284</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02800919129645449</v>
+        <v>0.04587872859782172</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1008593102362512</v>
+        <v>0.1003485272989819</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06055921406002068</v>
+        <v>0.06472054134956035</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1017855699923182</v>
+        <v>0.1006047244765974</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1006591648298418</v>
+        <v>0.01942831392170066</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09935102048718197</v>
+        <v>0.1022082153469284</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01986341108859184</v>
+        <v>0.01934204442802483</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09254618994967262</v>
+        <v>0.1030005270938038</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02783428277448223</v>
+        <v>0.04548791557271051</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1016411653543617</v>
+        <v>0.1011264228594391</v>
       </c>
       <c r="L195" t="n">
-        <v>0.0605605004804716</v>
+        <v>0.06418854524129325</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1025746054186153</v>
+        <v>0.1013846060616873</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09861008298124829</v>
+        <v>0.01934204442802483</v>
       </c>
       <c r="O195" t="n">
-        <v>0.100121183436695</v>
+        <v>0.1030005270938038</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02181844031631106</v>
+        <v>0.01886831915493434</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09325808371851625</v>
+        <v>0.1037928388406792</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02785748337151166</v>
+        <v>0.04509447930705934</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1024230204724722</v>
+        <v>0.1019043184198963</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06019741048200633</v>
+        <v>0.06267227082178228</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1033636408449123</v>
+        <v>0.1021644876467772</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0976023588064252</v>
+        <v>0.01886831915493434</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1008913463862081</v>
+        <v>0.1037928388406792</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02077002054707072</v>
+        <v>0.01880232339085372</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09396997748735988</v>
+        <v>0.1045851505875546</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02777875537129586</v>
+        <v>0.04449848729179082</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1032048755905827</v>
+        <v>0.1026822139803535</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05957377959088775</v>
+        <v>0.06217375747002651</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1041526762712093</v>
+        <v>0.1029443692318671</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09644730046329125</v>
+        <v>0.01880232339085372</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1016615093357211</v>
+        <v>0.1045851505875546</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02171829031482207</v>
+        <v>0.01864349657238648</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09468187125620353</v>
+        <v>0.1053774623344301</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02749806105758791</v>
+        <v>0.0441999456694448</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1039867307086931</v>
+        <v>0.1034601095408108</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05939344333337859</v>
+        <v>0.0612950445650246</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1049417116975064</v>
+        <v>0.103724250816957</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09545621610976485</v>
+        <v>0.01864349657238648</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1024316722852341</v>
+        <v>0.1053774623344301</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01966338815351643</v>
+        <v>0.01849127813613609</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09539376502504716</v>
+        <v>0.1061697740813055</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02771536271414088</v>
+        <v>0.04419657773609517</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1047685858268036</v>
+        <v>0.104238005101268</v>
       </c>
       <c r="L199" t="n">
-        <v>0.0587602372357417</v>
+        <v>0.06013817148577555</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1057307471238034</v>
+        <v>0.1045041324020469</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09434041390376424</v>
+        <v>0.01849127813613609</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1032018352347472</v>
+        <v>0.1061697740813055</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02160545259710499</v>
+        <v>0.01854510751870599</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09610565879389078</v>
+        <v>0.1069620858281809</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02753062262470782</v>
+        <v>0.04328737457257553</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1055504409449141</v>
+        <v>0.1050159006617252</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05827799682423976</v>
+        <v>0.05920517761127808</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1065197825501004</v>
+        <v>0.1052840139871368</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09251120200320812</v>
+        <v>0.01854510751870599</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1039719981842602</v>
+        <v>0.1069620858281809</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02154462217953905</v>
+        <v>0.01820442415669968</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09681755256273443</v>
+        <v>0.1077543975750563</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02754380307304184</v>
+        <v>0.04307257113473759</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1063322960630246</v>
+        <v>0.1057937962221824</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05795055762513565</v>
+        <v>0.05839810232053105</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1073088179763975</v>
+        <v>0.1060638955722267</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09217988856601489</v>
+        <v>0.01820442415669968</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1047421611337732</v>
+        <v>0.1077543975750563</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0214810354347699</v>
+        <v>0.01806866748672062</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09752944633157806</v>
+        <v>0.1085467093219317</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02725486634289596</v>
+        <v>0.04235240237843296</v>
       </c>
       <c r="K202" t="n">
-        <v>0.107114151181135</v>
+        <v>0.1065716917826397</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05838175516469213</v>
+        <v>0.05841898499253345</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1080978534026945</v>
+        <v>0.1068437771573166</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09095778175010311</v>
+        <v>0.01806866748672062</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1055123240832863</v>
+        <v>0.1085467093219317</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02141483089674875</v>
+        <v>0.01783727694537228</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0982413401004217</v>
+        <v>0.1093390210688071</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02706377471802329</v>
+        <v>0.04222710325951332</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1078960062992455</v>
+        <v>0.1073495873430969</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05827542496917196</v>
+        <v>0.05696587580593687</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1088868888289916</v>
+        <v>0.1076236587424065</v>
       </c>
       <c r="N203" t="n">
-        <v>0.0908561897133911</v>
+        <v>0.01783727694537228</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1062824870327993</v>
+        <v>0.1093390210688071</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01934614709942695</v>
+        <v>0.01780969196925815</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09895323386926533</v>
+        <v>0.1101313328156825</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0269704904821769</v>
+        <v>0.04199690873383033</v>
       </c>
       <c r="K204" t="n">
-        <v>0.108677861417356</v>
+        <v>0.1081274829035541</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05803540256483797</v>
+        <v>0.05672275085594747</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1096759242552886</v>
+        <v>0.1084035403274964</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09028642061379744</v>
+        <v>0.01780969196925815</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1070526499823124</v>
+        <v>0.1101313328156825</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02027512257675569</v>
+        <v>0.01768535199498167</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09966512763810897</v>
+        <v>0.1109236445625579</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02717497591910982</v>
+        <v>0.04106205375723565</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1094597165354665</v>
+        <v>0.1089053784640113</v>
       </c>
       <c r="L205" t="n">
-        <v>0.0580352137062764</v>
+        <v>0.0552875317921156</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1104649596815857</v>
+        <v>0.1091834219125863</v>
       </c>
       <c r="N205" t="n">
-        <v>0.08965978260924046</v>
+        <v>0.01768535199498167</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1078228129318254</v>
+        <v>0.1109236445625579</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02120189586268627</v>
+        <v>0.01776369645914631</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1003770214069526</v>
+        <v>0.1117159563094334</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02697719331257516</v>
+        <v>0.04082277328558095</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1102415716535769</v>
+        <v>0.1096832740244686</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05813548497124055</v>
+        <v>0.05466003622085197</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1112539951078827</v>
+        <v>0.1099633034976762</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08928758385763885</v>
+        <v>0.01776369645914631</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1085929758813384</v>
+        <v>0.1117159563094334</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01912660549116993</v>
+        <v>0.01764416479835557</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1010889151757962</v>
+        <v>0.1125082680563088</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02677710494632597</v>
+        <v>0.04077930227471796</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1110234267716874</v>
+        <v>0.1104611695849258</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05803625212903343</v>
+        <v>0.05394008174856757</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1120430305341797</v>
+        <v>0.1107431850827661</v>
       </c>
       <c r="N207" t="n">
-        <v>0.08888113251691104</v>
+        <v>0.01764416479835557</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1093631388308515</v>
+        <v>0.1125082680563088</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02004938999615796</v>
+        <v>0.0172261964492129</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1018008089446399</v>
+        <v>0.1133005798031842</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02667463038296607</v>
+        <v>0.03973187568049827</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1118052818897979</v>
+        <v>0.111239065145383</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05763777339276302</v>
+        <v>0.05392748598167313</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1128320659604768</v>
+        <v>0.111523066667856</v>
       </c>
       <c r="N208" t="n">
-        <v>0.08948009908516069</v>
+        <v>0.0172261964492129</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1101333017803645</v>
+        <v>0.1133005798031842</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02097038791160163</v>
+        <v>0.01720923084832178</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1025127027134835</v>
+        <v>0.1140928915500596</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02656741125121727</v>
+        <v>0.03938072845877352</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1125871370079084</v>
+        <v>0.1120169607058402</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05784030697553708</v>
+        <v>0.0527220665265794</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1136211013867738</v>
+        <v>0.1123029482529459</v>
       </c>
       <c r="N209" t="n">
-        <v>0.08898071822368969</v>
+        <v>0.01720923084832178</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1109034647298776</v>
+        <v>0.1140928915500596</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0198897377714522</v>
+        <v>0.01729270743228568</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1032245964823272</v>
+        <v>0.114885203296935</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02635415550680521</v>
+        <v>0.03882609556539549</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1133689921260188</v>
+        <v>0.1127948562662975</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05784411109046347</v>
+        <v>0.05192364098969737</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1144101368130709</v>
+        <v>0.1130828298380358</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08938250003536347</v>
+        <v>0.01729270743228568</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1116736276793906</v>
+        <v>0.114885203296935</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01980757810966091</v>
+        <v>0.0168760656377081</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1039364902511708</v>
+        <v>0.1156775150438104</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02623492525330719</v>
+        <v>0.03846821195621572</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1141508472441293</v>
+        <v>0.1135727518267547</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05814944395065008</v>
+        <v>0.05183202697743761</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1151991722393679</v>
+        <v>0.1138627114231257</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08888606017294021</v>
+        <v>0.0168760656377081</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1124437906289036</v>
+        <v>0.1156775150438104</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01972404746017907</v>
+        <v>0.01675874490119245</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1046483840200144</v>
+        <v>0.1164698267906858</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02630978259430053</v>
+        <v>0.03790731258708596</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1149327023622398</v>
+        <v>0.1143506473872119</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05825656376920468</v>
+        <v>0.05104704209621125</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1159882076656649</v>
+        <v>0.1146425930082156</v>
       </c>
       <c r="N212" t="n">
-        <v>0.08929201428917799</v>
+        <v>0.01675874490119245</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1132139535784167</v>
+        <v>0.1164698267906858</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02063928435695792</v>
+        <v>0.01664018465934224</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1053602777888581</v>
+        <v>0.1172621385375612</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02627878963336261</v>
+        <v>0.03764363241385782</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1157145574803503</v>
+        <v>0.1151285429476691</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05796572875923517</v>
+        <v>0.0504685039524288</v>
       </c>
       <c r="M213" t="n">
-        <v>0.116777243091962</v>
+        <v>0.1154224745933055</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08930097803683507</v>
+        <v>0.01664018465934224</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1139841165279297</v>
+        <v>0.1172621385375612</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02055342733394872</v>
+        <v>0.01681982434876091</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1060721715577017</v>
+        <v>0.1180544502844367</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02604200847407076</v>
+        <v>0.03717740639238298</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1164964125984607</v>
+        <v>0.1159064385081264</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05817719713384939</v>
+        <v>0.04949623015250126</v>
       </c>
       <c r="M214" t="n">
-        <v>0.117566278518259</v>
+        <v>0.1162023561783954</v>
       </c>
       <c r="N214" t="n">
-        <v>0.08871356706866951</v>
+        <v>0.01681982434876091</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1147542794774428</v>
+        <v>0.1180544502844367</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01946661492510275</v>
+        <v>0.01649710340605196</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1067840653265453</v>
+        <v>0.1188467620313121</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02579950122000232</v>
+        <v>0.03660886947851319</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1172782677165712</v>
+        <v>0.1166843340685836</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05819122710615515</v>
+        <v>0.0488300383028395</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1183553139445561</v>
+        <v>0.1169822377634853</v>
       </c>
       <c r="N215" t="n">
-        <v>0.08863039703743947</v>
+        <v>0.01649710340605196</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1155244424269558</v>
+        <v>0.1188467620313121</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01837898566437127</v>
+        <v>0.01637146126781887</v>
       </c>
       <c r="G216" t="n">
-        <v>0.107495959095389</v>
+        <v>0.1196390737781875</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0256513299747346</v>
+        <v>0.03613825662810002</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1180601228346817</v>
+        <v>0.1174622296290408</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05790807688926031</v>
+        <v>0.04796974600985421</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1191443493708531</v>
+        <v>0.1177621193485752</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08945208359590312</v>
+        <v>0.01637146126781887</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1162946053764688</v>
+        <v>0.1196390737781875</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01829067808570556</v>
+        <v>0.01634293605919178</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1082078528642326</v>
+        <v>0.1204313855250629</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02559755684184499</v>
+        <v>0.03556580279699514</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1188419779527922</v>
+        <v>0.118240125189498</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05792800469627271</v>
+        <v>0.04751517087995627</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1199333847971501</v>
+        <v>0.1185420009336651</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08927924239681856</v>
+        <v>0.01634293605919178</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1170647683259819</v>
+        <v>0.1204313855250629</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01920183072305685</v>
+        <v>0.01621416784335312</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1089197466330762</v>
+        <v>0.1212236972719383</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0255382439249108</v>
+        <v>0.03559174294105025</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1196238330709026</v>
+        <v>0.1190180207499553</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05805126874030025</v>
+        <v>0.04646613051955645</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1207224202234472</v>
+        <v>0.119321882518755</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08961248909294395</v>
+        <v>0.01621416784335312</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1178349312754949</v>
+        <v>0.1212236972719383</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01911258211037645</v>
+        <v>0.01588554613581604</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1096316404019199</v>
+        <v>0.1220160090188137</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02507345332750938</v>
+        <v>0.03491631201611695</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1204056881890131</v>
+        <v>0.1197959163104125</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05827812723445069</v>
+        <v>0.04622244253506569</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1215114556497442</v>
+        <v>0.1201017641038449</v>
       </c>
       <c r="N219" t="n">
-        <v>0.08965243933703748</v>
+        <v>0.01588554613581604</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1186050942250079</v>
+        <v>0.1220160090188137</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01902293808734124</v>
+        <v>0.01595707400674994</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1103435341707635</v>
+        <v>0.1228083207656891</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02500324715321804</v>
+        <v>0.03423974497804702</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1211875433071236</v>
+        <v>0.1205738118708697</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05790883839183192</v>
+        <v>0.0452839245328947</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1223004910760413</v>
+        <v>0.1208816456889348</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0895997087818573</v>
+        <v>0.01595707400674994</v>
       </c>
       <c r="O220" t="n">
-        <v>0.119375257174521</v>
+        <v>0.1228083207656891</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01793144700605126</v>
+        <v>0.01592875452632432</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1110554279396071</v>
+        <v>0.1236006325125646</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02472768750561416</v>
+        <v>0.03386227678269202</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1219693984252341</v>
+        <v>0.1213517074313269</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05794366042555177</v>
+        <v>0.04455009392370668</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1230895265023383</v>
+        <v>0.1216615272740247</v>
       </c>
       <c r="N221" t="n">
-        <v>0.08975491308016142</v>
+        <v>0.01592875452632432</v>
       </c>
       <c r="O221" t="n">
-        <v>0.120145420124034</v>
+        <v>0.1236006325125646</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01883768674127269</v>
+        <v>0.01570059076470859</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1117673217084508</v>
+        <v>0.12439294425944</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02474683648827505</v>
+        <v>0.03338414238590368</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1227512535433446</v>
+        <v>0.1221296029917841</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0579828515487181</v>
+        <v>0.04451857278361843</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1238785619286353</v>
+        <v>0.1224414088591146</v>
       </c>
       <c r="N222" t="n">
-        <v>0.08961866788470813</v>
+        <v>0.01570059076470859</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1209155830735471</v>
+        <v>0.12439294425944</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01974167305005888</v>
+        <v>0.01537258579207224</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1124792154772944</v>
+        <v>0.1251852560063154</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02436075620477807</v>
+        <v>0.03290557674353364</v>
       </c>
       <c r="K223" t="n">
-        <v>0.123533108661455</v>
+        <v>0.1229074985522414</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05822666997443876</v>
+        <v>0.04398894072395093</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1246675973549324</v>
+        <v>0.1232212904442045</v>
       </c>
       <c r="N223" t="n">
-        <v>0.08999158884825559</v>
+        <v>0.01537258579207224</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1216857460230601</v>
+        <v>0.1251852560063154</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0176434216894632</v>
+        <v>0.01534474267858466</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1131911092461381</v>
+        <v>0.1259775677531908</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02436950875870054</v>
+        <v>0.0325268148114336</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1243149637795655</v>
+        <v>0.1236853941126986</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05797537391582155</v>
+        <v>0.04326126367315114</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1254566327812294</v>
+        <v>0.1240011720292944</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08977429162356182</v>
+        <v>0.01534474267858466</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1224559089725731</v>
+        <v>0.1259775677531908</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01954294841653897</v>
+        <v>0.01511706449441534</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1139030030149817</v>
+        <v>0.1267698795000662</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02407315625361982</v>
+        <v>0.03234809154545515</v>
       </c>
       <c r="K225" t="n">
-        <v>0.125096818897676</v>
+        <v>0.1244632896731558</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05832922158597434</v>
+        <v>0.04213560755966639</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1262456682075265</v>
+        <v>0.1247810536143843</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08936739186338505</v>
+        <v>0.01511706449441534</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1232260719220862</v>
+        <v>0.1267698795000662</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01944026898833957</v>
+        <v>0.01528955430973369</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1146148967838253</v>
+        <v>0.1275621912469417</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02377176079311324</v>
+        <v>0.03136964190144997</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1258786740157864</v>
+        <v>0.1252411852336131</v>
       </c>
       <c r="L226" t="n">
-        <v>0.058588471198005</v>
+        <v>0.04121203831194364</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1270347036338235</v>
+        <v>0.1255609351994742</v>
       </c>
       <c r="N226" t="n">
-        <v>0.08927150522048344</v>
+        <v>0.01528955430973369</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1239962348715992</v>
+        <v>0.1275621912469417</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01833539916191835</v>
+        <v>0.01496221519470918</v>
       </c>
       <c r="G227" t="n">
-        <v>0.115326790552669</v>
+        <v>0.128354502993817</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02366538448075813</v>
+        <v>0.03099091257811556</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1266605291338969</v>
+        <v>0.1260190807940703</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05845338096502134</v>
+        <v>0.04079062185843008</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1278237390601205</v>
+        <v>0.1263408167845641</v>
       </c>
       <c r="N227" t="n">
-        <v>0.08998724734761504</v>
+        <v>0.01496221519470918</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1247663978211122</v>
+        <v>0.128354502993817</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01922835469432863</v>
+        <v>0.01503505021951128</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1160386843215126</v>
+        <v>0.1291468147406925</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02355408942013185</v>
+        <v>0.03091071230576939</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1274423842520074</v>
+        <v>0.1267969763545275</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0585242091001312</v>
+        <v>0.04007142412757275</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1286127744864176</v>
+        <v>0.127120698369654</v>
       </c>
       <c r="N228" t="n">
-        <v>0.08951523389753813</v>
+        <v>0.01503505021951128</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1255365607706253</v>
+        <v>0.1291468147406925</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01711915134262378</v>
+        <v>0.01470806245430938</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1167505780903562</v>
+        <v>0.1299391264875679</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0234379377148117</v>
+        <v>0.03022901889382212</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1282242393701179</v>
+        <v>0.1275748719149847</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05890121381644248</v>
+        <v>0.04005451104781887</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1294018099127146</v>
+        <v>0.1279005799547439</v>
       </c>
       <c r="N229" t="n">
-        <v>0.08975608052301071</v>
+        <v>0.01470806245430938</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1263067237201383</v>
+        <v>0.1299391264875679</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01700780486385715</v>
+        <v>0.01478125496927297</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1174624718591999</v>
+        <v>0.1307314382344433</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02311699146837506</v>
+        <v>0.02974582775157539</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1290060944882283</v>
+        <v>0.1283527674754419</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05858465332706295</v>
+        <v>0.03973994854761559</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1301908453390117</v>
+        <v>0.1286804615398338</v>
       </c>
       <c r="N230" t="n">
-        <v>0.08991040287679108</v>
+        <v>0.01478125496927297</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1270768866696514</v>
+        <v>0.1307314382344433</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01689433101508211</v>
+        <v>0.01465463083457148</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1181743656280435</v>
+        <v>0.1315237499813187</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02269131278439929</v>
+        <v>0.02906113428833071</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1297879496063388</v>
+        <v>0.1291306630358992</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05857478584510048</v>
+        <v>0.03822780255540986</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1309798807653087</v>
+        <v>0.1294603431249237</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09087881661163727</v>
+        <v>0.01465463083457148</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1278470496191644</v>
+        <v>0.1315237499813187</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01677874555335198</v>
+        <v>0.01432819312037434</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1188862593968871</v>
+        <v>0.1323160617281941</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02266096376646164</v>
+        <v>0.02887493391338966</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1305698047244493</v>
+        <v>0.1299085585963564</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05897186958366293</v>
+        <v>0.03751813899964884</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1317689161916057</v>
+        <v>0.1302402247100136</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09056193738030749</v>
+        <v>0.01432819312037434</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1286172125686774</v>
+        <v>0.1323160617281941</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01766106423572014</v>
+        <v>0.01440194489685102</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1195981531657307</v>
+        <v>0.1331083734750695</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02232600651813953</v>
+        <v>0.02828722203605377</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1313516598425598</v>
+        <v>0.1306864541568136</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05877616275585817</v>
+        <v>0.0369110238087797</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1325579516179028</v>
+        <v>0.1310201062951035</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09056038083555978</v>
+        <v>0.01440194489685102</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1293873755181905</v>
+        <v>0.1331083734750695</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01754130281923991</v>
+        <v>0.01397588923417098</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1203100469345744</v>
+        <v>0.133900685221945</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02218650314301027</v>
+        <v>0.02749799406562473</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1321335149606702</v>
+        <v>0.1314643497172708</v>
       </c>
       <c r="L234" t="n">
-        <v>0.058887923574794</v>
+        <v>0.03720652291124954</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1333469870441998</v>
+        <v>0.1317999878801934</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09127476263015244</v>
+        <v>0.01397588923417098</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1301575384677035</v>
+        <v>0.133900685221945</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01841947706096467</v>
+        <v>0.0139500292025036</v>
       </c>
       <c r="G235" t="n">
-        <v>0.121021940703418</v>
+        <v>0.1346929969688204</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0220425157446512</v>
+        <v>0.02740724541140394</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1329153700787807</v>
+        <v>0.132242245277728</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05950741025357825</v>
+        <v>0.03660470223550544</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1341360224704969</v>
+        <v>0.1325798694652833</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09140569841684348</v>
+        <v>0.0139500292025036</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1309277014172166</v>
+        <v>0.1346929969688204</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01629560271794775</v>
+        <v>0.01372436787201842</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1217338344722617</v>
+        <v>0.1354853087156958</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02149410642663969</v>
+        <v>0.02661497148269304</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1336972251968912</v>
+        <v>0.1330201408381853</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0596348810053188</v>
+        <v>0.03550562770999438</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1349250578967939</v>
+        <v>0.1333597510503732</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09205380384839118</v>
+        <v>0.01372436787201842</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1316978643667296</v>
+        <v>0.1354853087156958</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01716969554724251</v>
+        <v>0.01359890831288482</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1224457282411053</v>
+        <v>0.1362776204625712</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02124133729255302</v>
+        <v>0.02632116768879361</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1344790803150017</v>
+        <v>0.1337980363986425</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05937059404312348</v>
+        <v>0.03450936526316378</v>
       </c>
       <c r="M237" t="n">
-        <v>0.135714093323091</v>
+        <v>0.1341396326354631</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09201969457755355</v>
+        <v>0.01359890831288482</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1324680273162426</v>
+        <v>0.1362776204625712</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01704177130590229</v>
+        <v>0.01357365359527223</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1231576220099489</v>
+        <v>0.1370699322094466</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02118427044596859</v>
+        <v>0.02572582943900723</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1352609354331121</v>
+        <v>0.1345759319590997</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05931480758010016</v>
+        <v>0.03481598082346055</v>
       </c>
       <c r="M238" t="n">
-        <v>0.136503128749388</v>
+        <v>0.134919514220553</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09200398625708883</v>
+        <v>0.01357365359527223</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1332381902657557</v>
+        <v>0.1370699322094466</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01591184575098047</v>
+        <v>0.01334860678935017</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1238695157787926</v>
+        <v>0.137862243956322</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02102296799046369</v>
+        <v>0.0255289521426354</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1360427905512226</v>
+        <v>0.1353538275195569</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05986777982935662</v>
+        <v>0.03412554031933185</v>
       </c>
       <c r="M239" t="n">
-        <v>0.137292164175685</v>
+        <v>0.1356993958056429</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09230729453975511</v>
+        <v>0.01334860678935017</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1340083532152687</v>
+        <v>0.137862243956322</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01577993463953037</v>
+        <v>0.013323770965288</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1245814095476362</v>
+        <v>0.1386545557031974</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02075749202961569</v>
+        <v>0.02473053120897972</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1368246456693331</v>
+        <v>0.1361317230800142</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0601297690040008</v>
+        <v>0.03363810967922476</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1380811996019821</v>
+        <v>0.1364792773907328</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09323023507831057</v>
+        <v>0.013323770965288</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1347785161647818</v>
+        <v>0.1386545557031974</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01764605372860536</v>
+        <v>0.01329914919325526</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1252933033164798</v>
+        <v>0.1394468674500728</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02038790466700191</v>
+        <v>0.02433056204734177</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1376065007874435</v>
+        <v>0.1369096186404714</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06020103331714044</v>
+        <v>0.03285375483158631</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1388702350282791</v>
+        <v>0.1372591589758227</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09267342352551333</v>
+        <v>0.01329914919325526</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1355486791142948</v>
+        <v>0.1394468674500728</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01551021877525878</v>
+        <v>0.01317474454342132</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1260051970853235</v>
+        <v>0.1402391791969483</v>
       </c>
       <c r="J242" t="n">
-        <v>0.0200142680061997</v>
+        <v>0.02382904006702313</v>
       </c>
       <c r="K242" t="n">
-        <v>0.138388355905554</v>
+        <v>0.1376875142009286</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06028183098188347</v>
+        <v>0.03217254170486389</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1396592704545762</v>
+        <v>0.1380390405609127</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09353747553412156</v>
+        <v>0.01317474454342132</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1363188420638078</v>
+        <v>0.1402391791969483</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01737244553654399</v>
+        <v>0.01315056008595565</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1267170908541671</v>
+        <v>0.1410314909438237</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0198366441507864</v>
+        <v>0.02342596067732533</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1391702110236645</v>
+        <v>0.1384654097613859</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0604724202113377</v>
+        <v>0.03149453622750437</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1404483058808732</v>
+        <v>0.1388189221460026</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09432300675689342</v>
+        <v>0.01315056008595565</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1370890050133209</v>
+        <v>0.1410314909438237</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01723274976951433</v>
+        <v>0.0128265988910277</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1274289846230107</v>
+        <v>0.1418238026906991</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01955509520433936</v>
+        <v>0.02302131928754994</v>
       </c>
       <c r="K244" t="n">
-        <v>0.139952066141775</v>
+        <v>0.1392433053218431</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06067305921861094</v>
+        <v>0.03081980432795495</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1412373413071702</v>
+        <v>0.1395988037310925</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09463063284658702</v>
+        <v>0.0128265988910277</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1378591679628339</v>
+        <v>0.1418238026906991</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01709114723122316</v>
+        <v>0.01270286402880694</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1281408783918544</v>
+        <v>0.1426161144375745</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01906968327043591</v>
+        <v>0.02191511130699852</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1407339212598855</v>
+        <v>0.1400212008823003</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06098400621681108</v>
+        <v>0.03064841193466267</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1420263767334673</v>
+        <v>0.1403786853161824</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09436096945596045</v>
+        <v>0.01270286402880694</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1386293309123469</v>
+        <v>0.1426161144375745</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01494765367872383</v>
+        <v>0.01247935856946277</v>
       </c>
       <c r="G246" t="n">
-        <v>0.128852772160698</v>
+        <v>0.1434084261844499</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01908047045265336</v>
+        <v>0.02180733214497269</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1415157763779959</v>
+        <v>0.1407990964427575</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06080551941904597</v>
+        <v>0.02988042497607463</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1428154121597643</v>
+        <v>0.1411585669012723</v>
       </c>
       <c r="N246" t="n">
-        <v>0.09531463223777198</v>
+        <v>0.01247935856946277</v>
       </c>
       <c r="O246" t="n">
-        <v>0.13939949386186</v>
+        <v>0.1434084261844499</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01480228486906969</v>
+        <v>0.01265608558316465</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1295646659295417</v>
+        <v>0.1442007379313253</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01858751885456909</v>
+        <v>0.02089797721077397</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1422976314961064</v>
+        <v>0.1415769920032147</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06123785703842338</v>
+        <v>0.02951590938063819</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1436044475860613</v>
+        <v>0.1419384484863622</v>
       </c>
       <c r="N247" t="n">
-        <v>0.0959922368447797</v>
+        <v>0.01265608558316465</v>
       </c>
       <c r="O247" t="n">
-        <v>0.140169656811373</v>
+        <v>0.1442007379313253</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01565505655931409</v>
+        <v>0.01233304814008205</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1302765596983853</v>
+        <v>0.1449930496782007</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01829089057976042</v>
+        <v>0.0204870419137039</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1430794866142169</v>
+        <v>0.142354887563672</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06168127728805128</v>
+        <v>0.02895493107680019</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1443934830123584</v>
+        <v>0.1427183300714521</v>
       </c>
       <c r="N248" t="n">
-        <v>0.09659439892974175</v>
+        <v>0.01233304814008205</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1409398197608861</v>
+        <v>0.1449930496782007</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01650598450651038</v>
+        <v>0.01231024931038437</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1309884534672289</v>
+        <v>0.1457853614250762</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01789064773180472</v>
+        <v>0.02027452166306409</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1438613417323273</v>
+        <v>0.1431327831241292</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06183603838103743</v>
+        <v>0.02829755599300771</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1451825184386554</v>
+        <v>0.143498211656542</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09612173414541625</v>
+        <v>0.01231024931038437</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1417099827103991</v>
+        <v>0.1457853614250762</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01635508446771192</v>
+        <v>0.01218769216424111</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1317003472360726</v>
+        <v>0.1465776731719516</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01788685241427929</v>
+        <v>0.0198604118681561</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1446431968504378</v>
+        <v>0.1439106786845864</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06200239853048964</v>
+        <v>0.02704385005770815</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1459715538649525</v>
+        <v>0.1442780932416319</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0975748581445614</v>
+        <v>0.01218769216424111</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1424801456599122</v>
+        <v>0.1465776731719516</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01520237219997204</v>
+        <v>0.01206537977182169</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1324122410049162</v>
+        <v>0.147369984918827</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01727956673076149</v>
+        <v>0.01914470793828146</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1454250519685483</v>
+        <v>0.1446885742450436</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06208061594951586</v>
+        <v>0.02649387919934842</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1467605892912495</v>
+        <v>0.1450579748267218</v>
       </c>
       <c r="N251" t="n">
-        <v>0.0981543865799353</v>
+        <v>0.01206537977182169</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1432503086094252</v>
+        <v>0.147369984918827</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01504786346034411</v>
+        <v>0.01204331520329555</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1331241347737598</v>
+        <v>0.1481622966657024</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01726885278482863</v>
+        <v>0.01852740528274177</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1462069070866588</v>
+        <v>0.1454664698055008</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06247094885122387</v>
+        <v>0.02624770934637566</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1475496247175465</v>
+        <v>0.1458378564118117</v>
       </c>
       <c r="N252" t="n">
-        <v>0.09876093510429612</v>
+        <v>0.01204331520329555</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1440204715589382</v>
+        <v>0.1481622966657024</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01489157400588148</v>
+        <v>0.01182150152883215</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1338360285426035</v>
+        <v>0.1489546084125778</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01675477268005809</v>
+        <v>0.01780849931083861</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1469887622047693</v>
+        <v>0.1462443653659581</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06287365544872148</v>
+        <v>0.02580540642723694</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1483386601438436</v>
+        <v>0.1466177379969016</v>
       </c>
       <c r="N253" t="n">
-        <v>0.09939511937040202</v>
+        <v>0.01182150152883215</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1447906345084513</v>
+        <v>0.1489546084125778</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0137335195936375</v>
+        <v>0.01179994181860092</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1345479223114471</v>
+        <v>0.1497469201594532</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01663738852002719</v>
+        <v>0.01778798543187354</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1477706173228797</v>
+        <v>0.1470222609264153</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06358899395511661</v>
+        <v>0.02556703637037938</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1491276955701406</v>
+        <v>0.1473976195819915</v>
       </c>
       <c r="N254" t="n">
-        <v>0.09925755503101108</v>
+        <v>0.01179994181860092</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1455607974579643</v>
+        <v>0.1497469201594532</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01557371598066552</v>
+        <v>0.01157863914277132</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1352598160802908</v>
+        <v>0.1505392319063286</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01631676240831326</v>
+        <v>0.01736585905514809</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1485524724409902</v>
+        <v>0.1478001564868725</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06391722258351706</v>
+        <v>0.02483266510425025</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1499167309964377</v>
+        <v>0.1481775011670814</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1008488577388815</v>
+        <v>0.01157863914277132</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1463309604074773</v>
+        <v>0.1505392319063286</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01341217892401888</v>
+        <v>0.0113575965715128</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1359717098491344</v>
+        <v>0.151331543653204</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01579295644849367</v>
+        <v>0.01664211558996384</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1493343275591007</v>
+        <v>0.1485780520473297</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06385859954703069</v>
+        <v>0.02410235855729648</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1507057664227347</v>
+        <v>0.1489573827521713</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1013696431467715</v>
+        <v>0.0113575965715128</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1471011233569904</v>
+        <v>0.151331543653204</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01424892418075095</v>
+        <v>0.01143681717499478</v>
       </c>
       <c r="G257" t="n">
-        <v>0.136683603617978</v>
+        <v>0.1521238554000794</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01566603274414574</v>
+        <v>0.01591675044562238</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1501161826772112</v>
+        <v>0.149355947607787</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06441338305876534</v>
+        <v>0.02427618265796527</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1514948018490317</v>
+        <v>0.1497372643372612</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1015205269074391</v>
+        <v>0.01143681717499478</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1478712863065034</v>
+        <v>0.1521238554000794</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01308396750791506</v>
+        <v>0.01101630402338672</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1373954973868216</v>
+        <v>0.1529161671469549</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01533605339884681</v>
+        <v>0.01578975903142524</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1508980377953216</v>
+        <v>0.1501338431682442</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06448183133182883</v>
+        <v>0.02345420333470372</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1522838372753288</v>
+        <v>0.1505171459223511</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1025021246736425</v>
+        <v>0.01101630402338672</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1486414492560165</v>
+        <v>0.1529161671469549</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01291732466256458</v>
+        <v>0.01109606018685808</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1381073911556653</v>
+        <v>0.1537084788938303</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01470308051617421</v>
+        <v>0.01516113675667402</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1516798929134321</v>
+        <v>0.1509117387287014</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06476420257932908</v>
+        <v>0.02283648651595893</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1530728727016258</v>
+        <v>0.151297027507441</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1036150520981398</v>
+        <v>0.01109606018685808</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1494116122055295</v>
+        <v>0.1537084788938303</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01474901140175284</v>
+        <v>0.0107760887355783</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1388192849245089</v>
+        <v>0.1545007906407057</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01446717619970529</v>
+        <v>0.01413087903067026</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1524617480315426</v>
+        <v>0.1516896342891586</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06516075501437382</v>
+        <v>0.02242309813017801</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1538619081279229</v>
+        <v>0.1520769090925309</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1047599248336892</v>
+        <v>0.0107760887355783</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1501817751550425</v>
+        <v>0.1545007906407057</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01457904348253321</v>
+        <v>0.01065639273971682</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1395311786933525</v>
+        <v>0.1552931023875811</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01402840255301739</v>
+        <v>0.01399898126271551</v>
       </c>
       <c r="K261" t="n">
-        <v>0.153243603149653</v>
+        <v>0.1524675298496159</v>
       </c>
       <c r="L261" t="n">
-        <v>0.066071746850071</v>
+        <v>0.02171410410580804</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1546509435542199</v>
+        <v>0.1528567906776208</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1047373585330488</v>
+        <v>0.01065639273971682</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1509519381045556</v>
+        <v>0.1552931023875811</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01240743666195905</v>
+        <v>0.01063697526944308</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1402430724621962</v>
+        <v>0.1560854141344565</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01378682167968782</v>
+        <v>0.01306543886211142</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1540254582677635</v>
+        <v>0.1532454254100731</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06659743629952838</v>
+        <v>0.02070957037129617</v>
       </c>
       <c r="M262" t="n">
-        <v>0.155439978980517</v>
+        <v>0.1536366722627107</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1056479688489768</v>
+        <v>0.01063697526944308</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1517221010540686</v>
+        <v>0.1560854141344565</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01423420669708369</v>
+        <v>0.01041783939492653</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1409549662310398</v>
+        <v>0.1568777258813319</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01354249568329399</v>
+        <v>0.01303024723815949</v>
       </c>
       <c r="K263" t="n">
-        <v>0.154807313385874</v>
+        <v>0.1540233209705303</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06693808157585387</v>
+        <v>0.02020956285508957</v>
       </c>
       <c r="M263" t="n">
-        <v>0.156229014406814</v>
+        <v>0.1544165538478006</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1068923714342313</v>
+        <v>0.01041783939492653</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1524922640035817</v>
+        <v>0.1568777258813319</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01305936934496048</v>
+        <v>0.01059898818633663</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1416668599998835</v>
+        <v>0.1576700376282074</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01299548666741319</v>
+        <v>0.01199340180016123</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1555891685039845</v>
+        <v>0.1548012165309876</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06749394089215527</v>
+        <v>0.02031414748563531</v>
       </c>
       <c r="M264" t="n">
-        <v>0.157018049833111</v>
+        <v>0.1551964354328905</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1081711819415704</v>
+        <v>0.01059898818633663</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1532624269530947</v>
+        <v>0.1576700376282074</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1072.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1072.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8435655349597692</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04217827674798846</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04217827674798846</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06748524279678154</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08830696604879308</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01512646549221072</v>
+        <v>0.03830696604879308</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01399548207693663</v>
+        <v>0.02373541010382245</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001646414434088542</v>
+        <v>0.00153279986231377</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007923117468754139</v>
+        <v>0.000744423334382045</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004861791813513622</v>
+        <v>0.00134641443408854</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007778955604572238</v>
+        <v>0.0007923117468754139</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.007000000000000006</v>
+        <v>0.004684084842445646</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.000818099415204679</v>
+        <v>0.0007812206499744707</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001646414434088542</v>
+        <v>0.008096181231283583</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007923117468754139</v>
+        <v>0.0007777721589566751</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002946738259162029</v>
+        <v>0.003044484728639052</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001584623493750828</v>
+        <v>0.00148884666876409</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.006999999999999978</v>
+        <v>0.002946738259162029</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001188370710159697</v>
+        <v>0.001584623493750828</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01107765685579226</v>
+        <v>0.009325740677199656</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001559763170179804</v>
+        <v>0.001562441299948941</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002946738259162029</v>
+        <v>0.01543148333979555</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001584623493750828</v>
+        <v>0.00155554431791335</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004632619441561313</v>
+        <v>0.004534991985362773</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002376935240626241</v>
+        <v>0.002233270003146135</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01155730254414947</v>
+        <v>0.004432619441561314</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002333686681371672</v>
+        <v>0.002376935240626241</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01660368048110139</v>
+        <v>0.01366548828525524</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002339644755269706</v>
+        <v>0.002343661949923412</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.004632619441561313</v>
+        <v>0.02400000000000002</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002376935240626241</v>
+        <v>0.002612418300653597</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005935705947627226</v>
+        <v>0.00600425901887193</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003169246987501656</v>
+        <v>0.00297769333752818</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01502011391175662</v>
+        <v>0.005735705947627227</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003111582241828895</v>
+        <v>0.003169246987501656</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02121045130675597</v>
+        <v>0.01799999999999999</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003119526340359608</v>
+        <v>0.003398809523809521</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.005935705947627226</v>
+        <v>0.02662567292174511</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003169246987501656</v>
+        <v>0.0031110886358267</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003885972222222222</v>
+        <v>0.01404888101347583</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.007452223215553486</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003885972222222222</v>
+        <v>0.003722116671910225</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.0177072624541541</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003889477802286119</v>
+        <v>0.003885972222222222</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02538660750924976</v>
+        <v>0.01949589667942414</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00389940792544951</v>
+        <v>0.003906103249872354</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.03038089889159218</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003885972222222222</v>
+        <v>0.003888860794783375</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007879842461250765</v>
+        <v>0.008878821961794403</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004753870481252483</v>
+        <v>0.00446654000629227</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02070968143711663</v>
+        <v>0.007679842461250766</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004667373362743343</v>
+        <v>0.004753870481252483</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02962078726507655</v>
+        <v>0.02176141715240232</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004679289510539412</v>
+        <v>0.004687323899846825</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.007879842461250765</v>
+        <v>0.03457619507778698</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004753870481252483</v>
+        <v>0.004666632953740051</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008504005475556006</v>
+        <v>0.01028399264398167</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005546182228127897</v>
+        <v>0.005210963340674314</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02291830412641882</v>
+        <v>0.008504005475556006</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005445268923200567</v>
+        <v>0.005546182228127897</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03340162875072999</v>
+        <v>0.02361366926406747</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005459171095629314</v>
+        <v>0.005468544549821295</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.008504005475556006</v>
+        <v>0.03822896551177296</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005546182228127897</v>
+        <v>0.005444405112696725</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009567694683852934</v>
+        <v>0.01166767264850222</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006338493975003311</v>
+        <v>0.00595538667505636</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02532406378783533</v>
+        <v>0.009467694683852931</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006223164483657791</v>
+        <v>0.006338493975003311</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03721777014270411</v>
+        <v>0.02577495925965492</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006239052680719216</v>
+        <v>0.006249765199795766</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.009567694683852934</v>
+        <v>0.04165661422499389</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006338493975003311</v>
+        <v>0.006222177271653401</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009977371731305952</v>
+        <v>0.01302979936174306</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007130805721878725</v>
+        <v>0.006699810009438405</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02751789368714089</v>
+        <v>0.01007737173130595</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007001060044115015</v>
+        <v>0.007130805721878725</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0413578496174925</v>
+        <v>0.0269675933844</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007018934265809118</v>
+        <v>0.007030985849770237</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.009977371731305952</v>
+        <v>0.04447654524889338</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007130805721878725</v>
+        <v>0.006999949430610076</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01063949826307949</v>
+        <v>0.01437031017009114</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00792311746875414</v>
+        <v>0.00744423334382045</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02989072709011012</v>
+        <v>0.0107394982630795</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007778955604572238</v>
+        <v>0.00792311746875414</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04421050535158894</v>
+        <v>0.02851387788353801</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007798815850899019</v>
+        <v>0.007812206499744708</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01063949826307949</v>
+        <v>0.04740616261491509</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00792311746875414</v>
+        <v>0.007777721589566751</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01156053592433795</v>
+        <v>0.01568914245993344</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008715429215629553</v>
+        <v>0.008188656678202495</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03183349726251772</v>
+        <v>0.01156053592433795</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008556851165029461</v>
+        <v>0.008715429215629553</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04646437552148741</v>
+        <v>0.02983611900230435</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008578697435988922</v>
+        <v>0.008593427149719179</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01156053592433795</v>
+        <v>0.04956287035450263</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008715429215629553</v>
+        <v>0.008555493748523426</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01204694636024573</v>
+        <v>0.01698623361765693</v>
       </c>
       <c r="G77" t="n">
+        <v>0.008933080012584541</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01184694636024573</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009507740962504965</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.03367090081550678</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009527026741390629</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.04940809830368148</v>
+        <v>0.03165662298593427</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009358579021078825</v>
+        <v>0.00937464779969365</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01204694636024573</v>
+        <v>0.05221533613880286</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009507740962504965</v>
+        <v>0.009472798590540807</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01270519121596729</v>
+        <v>0.01826152102964856</v>
       </c>
       <c r="G78" t="n">
+        <v>0.009677503346966584</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01250519121596728</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01030005270938038</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03415997759831604</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01011264228594391</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.05221533613880286</v>
+        <v>0.03259769607966317</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0101707942761596</v>
+        <v>0.01015586844966812</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01270519121596729</v>
+        <v>0.05320017083400153</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01030005270938038</v>
+        <v>0.01011103806643678</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01304173213666697</v>
+        <v>0.0195149420822953</v>
       </c>
       <c r="G79" t="n">
+        <v>0.01042192668134863</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01294173213666698</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01109236445625579</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03576040496021157</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01089053784640113</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.05406536472004941</v>
+        <v>0.03367090081550678</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01091834219125863</v>
+        <v>0.01059638688583243</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01304173213666697</v>
+        <v>0.05541848285341422</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01109236445625579</v>
+        <v>0.01088881022539345</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01366303076750926</v>
+        <v>0.02074643416198414</v>
       </c>
       <c r="G80" t="n">
+        <v>0.01116635001573067</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01346303076750927</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01188467620313121</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03684488427194263</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01166843340685836</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.05597949397965346</v>
+        <v>0.03516716830346481</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01169822377634853</v>
+        <v>0.01171830974961706</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01366303076750926</v>
+        <v>0.05752116101998928</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01188467620313121</v>
+        <v>0.01166658238435013</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01427554875365851</v>
+        <v>0.02195593465510205</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01191077335011272</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01397554875365851</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01267698795000662</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.03801269952190148</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01244632896731558</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.05787162837088128</v>
+        <v>0.03624863010151483</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01247810536143843</v>
+        <v>0.01249953039959153</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01427554875365851</v>
+        <v>0.05870676778397155</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01267698795000662</v>
+        <v>0.0124443545433068</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01448574774027918</v>
+        <v>0.02314338094803599</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01265519668449477</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01458574774027917</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01346929969688204</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.03946313469848037</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01322422452777281</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.05974042688423065</v>
+        <v>0.03732870074518602</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01325798694652833</v>
+        <v>0.013280751049566</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01448574774027918</v>
+        <v>0.0605738655956064</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01346929969688204</v>
+        <v>0.01322212670226348</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
+        <v>0.02430871042717292</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.01339962001887681</v>
+      </c>
+      <c r="J83" t="n">
         <v>0.01512646549221072</v>
       </c>
-      <c r="G83" t="n">
+      <c r="K83" t="n">
         <v>0.01399548207693663</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.04069547379007168</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01400212008823003</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.0612845485101991</v>
+        <v>0.03840594215560791</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01403786853161824</v>
+        <v>0.01406197169954047</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01512646549221072</v>
+        <v>0.06292101690513874</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01399548207693663</v>
+        <v>0.01399989886122015</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
+        <v>0.02530696604879308</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.01404888101347583</v>
+      </c>
+      <c r="J84" t="n">
         <v>0.01552362629878254</v>
       </c>
-      <c r="G84" t="n">
+      <c r="K84" t="n">
         <v>0.01505392319063286</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.04210900078506771</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01478001564868725</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.06400265223928447</v>
+        <v>0.03997891625390987</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01481775011670814</v>
+        <v>0.01484319234951494</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01552362629878254</v>
+        <v>0.06454678416281373</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01505392319063286</v>
+        <v>0.01477767102017683</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01605567789707185</v>
+        <v>0.02657897425866676</v>
       </c>
       <c r="G85" t="n">
+        <v>0.0148884666876409</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01635567789707185</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01584623493750828</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.04330299967186071</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01555791120914448</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.06509339706198403</v>
+        <v>0.04104618496122137</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01559763170179804</v>
+        <v>0.01562441299948942</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01605567789707185</v>
+        <v>0.06604972981887647</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01584623493750828</v>
+        <v>0.0155554431791335</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01659499794777888</v>
+        <v>0.0276919130143827</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01563289002202294</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01669499794777887</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01663854668438369</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.04427675443884305</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.0163358067696017</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.06765544196879575</v>
+        <v>0.04180631019867184</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01637751328688794</v>
+        <v>0.01640563364946389</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01659499794777888</v>
+        <v>0.06762841632357214</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01663854668438369</v>
+        <v>0.01633321533809018</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01734028330109924</v>
+        <v>0.02878864796086084</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01637731335640499</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01744028330109924</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01743085843125911</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.045629549074407</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01711370233005892</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.06858744595021704</v>
+        <v>0.04295785388739071</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01715739487197784</v>
+        <v>0.01718685429943836</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01734028330109924</v>
+        <v>0.07008140612714558</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01743085843125911</v>
+        <v>0.01711098749704685</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01789023080722861</v>
+        <v>0.02986706500031505</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01712173669078703</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01779023080722861</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01822317017813452</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.04636066756694482</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01789159789051615</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.07058806799674561</v>
+        <v>0.04449937794850745</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01793727645706775</v>
+        <v>0.01796807494941283</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01789023080722861</v>
+        <v>0.07190726167984218</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01822317017813452</v>
+        <v>0.01788875965600353</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01824353731636266</v>
+        <v>0.03092505003495931</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01786616002516908</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.01844353731636265</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01901548192500993</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.04766939390484895</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01866949345097337</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.07215596709887911</v>
+        <v>0.04562944430315152</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01871715804215765</v>
+        <v>0.0187492955993873</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01824353731636266</v>
+        <v>0.07280454543190679</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01901548192500993</v>
+        <v>0.0186665318149602</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
+        <v>0.03196048896700747</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.01861058335955112</v>
+      </c>
+      <c r="J90" t="n">
         <v>0.01899889967869701</v>
       </c>
-      <c r="G90" t="n">
+      <c r="K90" t="n">
         <v>0.01980779367188535</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.04865501207651154</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.0194473890114306</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.07438980224711511</v>
+        <v>0.04684661487245234</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01949703962724755</v>
+        <v>0.01953051624936177</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01899889967869701</v>
+        <v>0.07457181983358457</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01980779367188535</v>
+        <v>0.01944430397391688</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01935501474442736</v>
+        <v>0.03297126769867348</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01935500669393317</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.01945501474442735</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02060010541876076</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.05001680607032497</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02022528457188782</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.07608823243195134</v>
+        <v>0.04744945157753933</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02027692121233745</v>
+        <v>0.02031173689933624</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01935501474442736</v>
+        <v>0.07610764733512076</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02060010541876076</v>
+        <v>0.02022207613287355</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
+        <v>0.03395527213217121</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.02009943002831522</v>
+      </c>
+      <c r="J92" t="n">
         <v>0.02011057936374935</v>
       </c>
-      <c r="G92" t="n">
+      <c r="K92" t="n">
         <v>0.02139241716563618</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.05095405987468152</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02100318013234504</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.07794991664388518</v>
+        <v>0.04913651633954194</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02105680279742735</v>
+        <v>0.02109295754931071</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02011057936374935</v>
+        <v>0.07831059038676036</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02139241716563618</v>
+        <v>0.02099984829183022</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02056429038685866</v>
+        <v>0.03491038816971462</v>
       </c>
       <c r="G93" t="n">
+        <v>0.02084385336269726</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02076429038685866</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02218472891251159</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.05176605747797353</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02178107569280227</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.07947351387341456</v>
+        <v>0.04970637107958964</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02183668438251726</v>
+        <v>0.02187417819928518</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02056429038685866</v>
+        <v>0.08027921143874839</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02218472891251159</v>
+        <v>0.0217776204507869</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
+        <v>0.0358345017135176</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0215882766970793</v>
+      </c>
+      <c r="J94" t="n">
         <v>0.02121484466395095</v>
       </c>
-      <c r="G94" t="n">
+      <c r="K94" t="n">
         <v>0.022977040659387</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.05255208286859325</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02255897125325949</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.08065768311103694</v>
+        <v>0.05065757771881188</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02261656596760716</v>
+        <v>0.02265539884925965</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02121484466395095</v>
+        <v>0.08121207294133004</v>
       </c>
       <c r="O94" t="n">
-        <v>0.022977040659387</v>
+        <v>0.02255539260974358</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02156093904522187</v>
+        <v>0.03672549866579405</v>
       </c>
       <c r="G95" t="n">
+        <v>0.02233270003146135</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02186093904522186</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02376935240626242</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.05391142003493304</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02333686681371671</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.08280108334725006</v>
+        <v>0.05168869817833804</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02339644755269706</v>
+        <v>0.02343661949923412</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02156093904522187</v>
+        <v>0.08270773734475034</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02376935240626242</v>
+        <v>0.02333316476870025</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02220127038086707</v>
+        <v>0.03758126492875791</v>
       </c>
       <c r="G96" t="n">
+        <v>0.0230771233658434</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02240127038086707</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02456166415313783</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.05454335296538518</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02411476237417394</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.08430237357255138</v>
+        <v>0.05269829437929757</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02417632913778696</v>
+        <v>0.02421784014920859</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02220127038086707</v>
+        <v>0.08436476709925439</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02456166415313783</v>
+        <v>0.02411093692765693</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02263453552108224</v>
+        <v>0.03830696604879308</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02373541010382245</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02273453552108223</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02535397590001325</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.05574716564834192</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02489265793463116</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.0849602127774387</v>
+        <v>0.05398492824282</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02495621072287686</v>
+        <v>0.02499906079918306</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02263453552108224</v>
+        <v>0.0854817246550873</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02535397590001325</v>
+        <v>0.0248887090866136</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
+        <v>0.03920946409054533</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02456597003460749</v>
+      </c>
+      <c r="J98" t="n">
         <v>0.023359431316063</v>
       </c>
-      <c r="G98" t="n">
+      <c r="K98" t="n">
         <v>0.02614628764688866</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.05682214207219566</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02567055349508839</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.08647325995240951</v>
+        <v>0.05494716169003469</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02573609230796677</v>
+        <v>0.02578028144915753</v>
       </c>
       <c r="N98" t="n">
-        <v>0.023359431316063</v>
+        <v>0.08735717246249425</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02614628764688866</v>
+        <v>0.02566648124557028</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02387465461600505</v>
+        <v>0.04002480292890412</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02531039336898953</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02367465461600506</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02693859939376407</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.0573675662253387</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02644844905554561</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.08854017408796161</v>
+        <v>0.05588355664207106</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02651597389305667</v>
+        <v>0.02656150209913201</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02387465461600505</v>
+        <v>0.08788967297172018</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02693859939376407</v>
+        <v>0.02644425340452695</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02427890227110405</v>
+        <v>0.04084118620047864</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02605481670337157</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02447890227110405</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02773091114063948</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.05808272209616325</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02722634461600284</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.08955961417459241</v>
+        <v>0.05709267502005863</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02729585547814657</v>
+        <v>0.02734272274910647</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02427890227110405</v>
+        <v>0.0899777886330102</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02773091114063948</v>
+        <v>0.02722202556348362</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
+        <v>0.04165375963760215</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.02679924003775362</v>
+      </c>
+      <c r="J101" t="n">
         <v>0.02487087113155563</v>
       </c>
-      <c r="G101" t="n">
+      <c r="K101" t="n">
         <v>0.0285232228875149</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.05886689367306167</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02800424017646006</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.09063023920279972</v>
+        <v>0.05777307874512685</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02807573706323647</v>
+        <v>0.02812394339908095</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02487087113155563</v>
+        <v>0.09132008189660956</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0285232228875149</v>
+        <v>0.02799979772244031</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02524925804755548</v>
+        <v>0.04245766897260794</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02754366337213566</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02514925804755549</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02931553463439031</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.05951936494442628</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02878213573691728</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.09235070816308105</v>
+        <v>0.05842332973840506</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02885561864832637</v>
+        <v>0.02890516404905542</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02524925804755548</v>
+        <v>0.09261511521276317</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02931553463439031</v>
+        <v>0.02877756988139698</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02571275986929923</v>
+        <v>0.04324805993782932</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02828808670651771</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02561275986929924</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.03010784638126573</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.06023941989864934</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02956003129737451</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.09301968004593414</v>
+        <v>0.0595419899210228</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02963550023341628</v>
+        <v>0.02968638469902989</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02571275986929923</v>
+        <v>0.09286145103171622</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03010784638126573</v>
+        <v>0.02955534204035365</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02606007344698258</v>
+        <v>0.04402007826559957</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02903251004089975</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02636007344698257</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03090015812814114</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.06112634252412322</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03033792685783173</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.09413581384185649</v>
+        <v>0.05982762121410948</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03041538181850617</v>
+        <v>0.03046760534900436</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02606007344698258</v>
+        <v>0.09445765180371385</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03090015812814114</v>
+        <v>0.03033311419931033</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02648989563080116</v>
+        <v>0.04476886968825196</v>
       </c>
       <c r="G105" t="n">
+        <v>0.0297769333752818</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02668989563080115</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03169246987501656</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.06177941680924012</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03111582241828895</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.09499776854134578</v>
+        <v>0.06057878553879453</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03119526340359608</v>
+        <v>0.03124882599897883</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02648989563080116</v>
+        <v>0.0952022799790011</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03169246987501656</v>
+        <v>0.031110886358267</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
+        <v>0.04548957993811979</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.03052135670966384</v>
+      </c>
+      <c r="J106" t="n">
         <v>0.02720092327095065</v>
       </c>
-      <c r="G106" t="n">
+      <c r="K106" t="n">
         <v>0.03248478162189197</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.06269792674239247</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03189371797874618</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.09660420313489976</v>
+        <v>0.06189404481620736</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03197514498868598</v>
+        <v>0.0320300466489533</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02720092327095065</v>
+        <v>0.09679389800782295</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03248478162189197</v>
+        <v>0.03188865851722368</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0274918532176267</v>
+        <v>0.04617735474753633</v>
       </c>
       <c r="G107" t="n">
+        <v>0.03126578004404588</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02759185321762671</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03327709336876739</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.06328115631197248</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.0326716135392034</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.09725377661301587</v>
+        <v>0.06217196096747749</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03275502657377588</v>
+        <v>0.03281126729892778</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0274918532176267</v>
+        <v>0.09723106834042466</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03327709336876739</v>
+        <v>0.03266643067618035</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02786138232102497</v>
+        <v>0.04682733984883487</v>
       </c>
       <c r="G108" t="n">
+        <v>0.03201020337842794</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02766138232102498</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.0340694051156428</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.06342838950637245</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03344950909966062</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.0979451479661918</v>
+        <v>0.06311109591373432</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03353490815886578</v>
+        <v>0.03359248794890225</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02786138232102497</v>
+        <v>0.09801235342705128</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0340694051156428</v>
+        <v>0.03344420283513703</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02830820743134115</v>
+        <v>0.04743468097434872</v>
       </c>
       <c r="G109" t="n">
+        <v>0.03275462671280998</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.02800820743134115</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03486171686251821</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.06403891031398479</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03422740466011785</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.0987769761849252</v>
+        <v>0.06361001157610727</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03431478974395569</v>
+        <v>0.03437370859887671</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02830820743134115</v>
+        <v>0.09863631571794784</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03486171686251821</v>
+        <v>0.03422197499409371</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02853102539877085</v>
+        <v>0.04799452385641111</v>
       </c>
       <c r="G110" t="n">
+        <v>0.03349905004719202</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.02833102539877086</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03565402860939362</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.06451200272320171</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03500530022057508</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1003479202597138</v>
+        <v>0.06416726987572582</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03509467132904559</v>
+        <v>0.03515492924885118</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02853102539877085</v>
+        <v>0.09980151766335948</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03565402860939362</v>
+        <v>0.03499974715305038</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02892853307350976</v>
+        <v>0.04850201422735538</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03424347338157407</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02882853307350976</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03644634035626904</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.0651469507224155</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.0357831957810323</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.100456639181055</v>
+        <v>0.0646814327337194</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03587455291413549</v>
+        <v>0.03593614989882565</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02892853307350976</v>
+        <v>0.1008065217135314</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03644634035626904</v>
+        <v>0.03577751931200705</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02919942730575353</v>
+        <v>0.0489522978195148</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03498789671595612</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02909942730575353</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03723865210314446</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.06534303830001853</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03656109134148952</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1007017919394466</v>
+        <v>0.06485106207121746</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0366544344992254</v>
+        <v>0.03671737054880013</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02919942730575353</v>
+        <v>0.1013498903187084</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03723865210314446</v>
+        <v>0.03655529147096372</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02944240494569784</v>
+        <v>0.04934052036522264</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03573232005033816</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02924240494569784</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03803096385001986</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.06569954944440309</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03733898690194674</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1019820375253862</v>
+        <v>0.06557471980934945</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0374343160843153</v>
+        <v>0.0374985911987746</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02944240494569784</v>
+        <v>0.1018301859291359</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03803096385001986</v>
+        <v>0.03733306362992041</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
+        <v>0.0496618275968122</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.0364767433847202</v>
+      </c>
+      <c r="J114" t="n">
         <v>0.02935616284353836</v>
       </c>
-      <c r="G114" t="n">
+      <c r="K114" t="n">
         <v>0.03882327559689528</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.06611576814396139</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03811688246240397</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1017960349293714</v>
+        <v>0.06555096786924475</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0382141976694052</v>
+        <v>0.03827981184874907</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02935616284353836</v>
+        <v>0.1024459709950588</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03882327559689528</v>
+        <v>0.03811083578887708</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
+        <v>0.04994083752665718</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.03722116671910225</v>
+      </c>
+      <c r="J115" t="n">
         <v>0.02973939784947069</v>
       </c>
-      <c r="G115" t="n">
+      <c r="K115" t="n">
         <v>0.03961558734377069</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.06629097838708592</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03889477802286119</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1032424431418999</v>
+        <v>0.0659783681720329</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0389940792544951</v>
+        <v>0.03906103249872354</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02973939784947069</v>
+        <v>0.1021958079667223</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03961558734377069</v>
+        <v>0.03888860794783375</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02989080681369055</v>
+        <v>0.05021580805369563</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03796559005348429</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.02999080681369055</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04040789909064611</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.06652446416216884</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03967267358331841</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1029199211534692</v>
+        <v>0.06675548263884326</v>
       </c>
       <c r="M116" t="n">
-        <v>0.039773960839585</v>
+        <v>0.03984225314869801</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02989080681369055</v>
+        <v>0.1029782592943714</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04040789909064611</v>
+        <v>0.03966638010679043</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03000908658639358</v>
+        <v>0.050486891540407</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03871001338786634</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.03010908658639358</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04120021083752152</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.06661550945760245</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04045056914377564</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.103527127954577</v>
+        <v>0.06658087319080527</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04055384242467491</v>
+        <v>0.04062347379867248</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03000908658639358</v>
+        <v>0.1031918874282513</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04120021083752152</v>
+        <v>0.0404441522657471</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
+        <v>0.0507540129333364</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.03945443672224838</v>
+      </c>
+      <c r="J118" t="n">
         <v>0.02989293401777546</v>
       </c>
-      <c r="G118" t="n">
+      <c r="K118" t="n">
         <v>0.04199252258439694</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.06676339826177913</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04122846470423286</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1031627225357209</v>
+        <v>0.06675310174904847</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0413337240097648</v>
+        <v>0.04140469444864695</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02989293401777546</v>
+        <v>0.1037352548186069</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04199252258439694</v>
+        <v>0.04122192442470378</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.05101709717902882</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.04019886005663043</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.03025293098442144</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.04278483433127235</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.06726741456309113</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04200636026469009</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1036253638873986</v>
+        <v>0.06717073023470219</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04211360559485471</v>
+        <v>0.04218591509862142</v>
       </c>
       <c r="N119" t="n">
-        <v>0.03025293098442144</v>
+        <v>0.1040069239156834</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04278483433127235</v>
+        <v>0.04199969658366045</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02995287257762914</v>
+        <v>0.05127606922402936</v>
       </c>
       <c r="G120" t="n">
+        <v>0.04094328339101248</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.03005276689040823</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04357714607814776</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.06734180163101358</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.04278425582514731</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
+        <v>0.04296713574859589</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.1044306722776057</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.04289348717994461</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.02995287257762914</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04357714607814776</v>
+        <v>0.04277746874261713</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.0302509402855853</v>
+        <v>0.05153085401488311</v>
       </c>
       <c r="G121" t="n">
+        <v>0.04168770672539451</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.03004738155603355</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04436945782502318</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.06674145040457191</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04356215138560453</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1043294286729663</v>
+        <v>0.06733904741494623</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04367336876503451</v>
+        <v>0.04374835639857036</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0302509402855853</v>
+        <v>0.1043294116632379</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04436945782502318</v>
+        <v>0.0435552409015738</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03024629506674914</v>
+        <v>0.05178137649813509</v>
       </c>
       <c r="G122" t="n">
+        <v>0.04243213005977656</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03003457802731638</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.0451617695718986</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.06692824767330963</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04434004694606176</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1044108946996339</v>
+        <v>0.06671157851337478</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04445325035012442</v>
+        <v>0.04452957704854484</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03024629506674914</v>
+        <v>0.1039783231185576</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0451617695718986</v>
+        <v>0.04433301306053048</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03023896594530659</v>
+        <v>0.05202756162033043</v>
       </c>
       <c r="G123" t="n">
+        <v>0.04317655339415861</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.03001461699425878</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04595408131877401</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.06679635381784657</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04511794250651898</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1042705683606373</v>
+        <v>0.06665560859954725</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04523313193521431</v>
+        <v>0.0453107976985193</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03023896594530659</v>
+        <v>0.1036551623082362</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04595408131877401</v>
+        <v>0.04511078521948715</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03022898194544349</v>
+        <v>0.0522693343280141</v>
       </c>
       <c r="G124" t="n">
+        <v>0.04392097672854065</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.03018775914686291</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04674639306564942</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.06674630523665387</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.0458958380669762</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1043089798614401</v>
+        <v>0.06707232151361361</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04601301352030421</v>
+        <v>0.04609201834849377</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03022898194544349</v>
+        <v>0.1040635755488145</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04674639306564942</v>
+        <v>0.04588855737844383</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03021637209134574</v>
+        <v>0.05250661956773126</v>
       </c>
       <c r="G125" t="n">
+        <v>0.0446654000629227</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02995426517513086</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04753870481252483</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.06717863832820287</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04667373362743343</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1042266594075062</v>
+        <v>0.06676290109572383</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04679289510539412</v>
+        <v>0.04687323899846824</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03021637209134574</v>
+        <v>0.1033072091568335</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04753870481252483</v>
+        <v>0.04666632953740051</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0300011654071992</v>
+        <v>0.05273934228602692</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04540982339730475</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.02981439576906479</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04833101655940025</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.06669388949096486</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04745162918789065</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1034241372042994</v>
+        <v>0.06682853118602788</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04757277669048402</v>
+        <v>0.04765445964844271</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0300011654071992</v>
+        <v>0.102589709448834</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04833101655940025</v>
+        <v>0.04744410169635718</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02988339091718982</v>
+        <v>0.05296742742944616</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04615424673168679</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02976841161866681</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04912332830627566</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.06659259512341109</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04822952474834787</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1037019434572834</v>
+        <v>0.06667039562467572</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04835265827557392</v>
+        <v>0.04843568029841719</v>
       </c>
       <c r="N127" t="n">
-        <v>0.02988339091718982</v>
+        <v>0.1025147227413569</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04912332830627566</v>
+        <v>0.04822187385531385</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02986307764550339</v>
+        <v>0.05319079994453405</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04689867006606883</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.029916573413939</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04991564005315108</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.06667529162401295</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.0490074203088051</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1034606083719222</v>
+        <v>0.06628967825181728</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04913253986066382</v>
+        <v>0.04921690094839166</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02986307764550339</v>
+        <v>0.1021858953509429</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04991564005315108</v>
+        <v>0.04899964601427053</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03004025461632584</v>
+        <v>0.05340938477783566</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04764309340045088</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.02985914184488353</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05070795180002649</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.06634251539124159</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04978531586926233</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1027006621536794</v>
+        <v>0.06628756290760257</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04991242144575372</v>
+        <v>0.04999812159836613</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03004025461632584</v>
+        <v>0.1012068735941329</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05070795180002649</v>
+        <v>0.04977741817322721</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02991495085384305</v>
+        <v>0.05362310687589604</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04838751673483292</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02989637760150252</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.0515002635469019</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.06629480282356839</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05056321142971955</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1034226350080189</v>
+        <v>0.06566523343218147</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05069230303084363</v>
+        <v>0.0507793422483406</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02991495085384305</v>
+        <v>0.1007813037874681</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0515002635469019</v>
+        <v>0.05055519033218388</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0299871953822409</v>
+        <v>0.05383189118526027</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04913194006921497</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02982854137379806</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05229257529377732</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.06593269031946458</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05134110699017677</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1026270571404045</v>
+        <v>0.06552387366570403</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05147218461593353</v>
+        <v>0.05156056289831507</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0299871953822409</v>
+        <v>0.1009128322474889</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05229257529377732</v>
+        <v>0.05133296249114055</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02975701722570528</v>
+        <v>0.05403566265247341</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04987636340359701</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02965589385177228</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05308488704065274</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.06585671427740147</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05211900255063399</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1023144587563</v>
+        <v>0.0653646674483202</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05225206620102343</v>
+        <v>0.05234178354828954</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02975701722570528</v>
+        <v>0.1005051052907364</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05308488704065274</v>
+        <v>0.05211073465009723</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02992444540842205</v>
+        <v>0.05423434622408051</v>
       </c>
       <c r="G133" t="n">
+        <v>0.05062078673797906</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.0294786957254273</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05387719878752815</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.06586741109585034</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05289689811109122</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1019853700611691</v>
+        <v>0.06478879862017992</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05303194778611334</v>
+        <v>0.05312300419826401</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02992444540842205</v>
+        <v>0.09906176923375143</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05387719878752815</v>
+        <v>0.0528885068090539</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02968950895457713</v>
+        <v>0.05442786684662666</v>
       </c>
       <c r="G134" t="n">
+        <v>0.0513652100723611</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.02929720768476529</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05466951053440355</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.06586531717328251</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05367479367154845</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1026403212604757</v>
+        <v>0.06499745102143314</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05381182937120323</v>
+        <v>0.05390422484823848</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02968950895457713</v>
+        <v>0.09858647039307483</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05466951053440355</v>
+        <v>0.05366627896801058</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02965223688835637</v>
+        <v>0.05461614946665691</v>
       </c>
       <c r="G135" t="n">
+        <v>0.05210963340674315</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02951169041978829</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05546182228127897</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.0652509689081692</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05445268923200567</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1018798425596837</v>
+        <v>0.06459180849222984</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05459171095629314</v>
+        <v>0.05468544549821295</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02965223688835637</v>
+        <v>0.09778285508524748</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05546182228127897</v>
+        <v>0.05444405112696725</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02961265823394565</v>
+        <v>0.05479911903071633</v>
       </c>
       <c r="G136" t="n">
+        <v>0.05285405674112519</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02922240462049849</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05625413402815439</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.06532490269898178</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05523058479246289</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1012044641642567</v>
+        <v>0.06427305487271998</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05537159254138304</v>
+        <v>0.05546666614818743</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02961265823394565</v>
+        <v>0.09755456962681025</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05625413402815439</v>
+        <v>0.05522182328592393</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02957080201553089</v>
+        <v>0.05497670048535</v>
       </c>
       <c r="G137" t="n">
+        <v>0.05359848007550724</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.02922961097689797</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.0570464457750298</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.06458765494419144</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05600848035292012</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1017147162796586</v>
+        <v>0.0641423740030535</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05615147412647294</v>
+        <v>0.05624788679816189</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02957080201553089</v>
+        <v>0.09690526033430397</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0570464457750298</v>
+        <v>0.05599959544488061</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02982669725729792</v>
+        <v>0.05514881877710297</v>
       </c>
       <c r="G138" t="n">
+        <v>0.05434290340988928</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02903357017898886</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05783875752190521</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.06433976204226949</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05678637591337734</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1005111291113532</v>
+        <v>0.06380094972338041</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05693135571156285</v>
+        <v>0.05702910744813636</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02982669725729792</v>
+        <v>0.09553857352426953</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05783875752190521</v>
+        <v>0.05677736760383728</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02948037298343265</v>
+        <v>0.05531539885252031</v>
       </c>
       <c r="G139" t="n">
+        <v>0.05508732674427132</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.0288345429167733</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05863106926878062</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.06438176039168728</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05756427147383456</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1002942328648042</v>
+        <v>0.06284996587385064</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05771123729665275</v>
+        <v>0.05781032809811084</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02948037298343265</v>
+        <v>0.09475815551324773</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05863106926878062</v>
+        <v>0.05755513976279396</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02953185821812096</v>
+        <v>0.05547636565814705</v>
       </c>
       <c r="G140" t="n">
+        <v>0.05583175007865337</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.02903278988025339</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05942338101565605</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.06381418639091602</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05834216703429179</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1003645577454756</v>
+        <v>0.06279060629461414</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05849111888174265</v>
+        <v>0.05859154874808531</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02953185821812096</v>
+        <v>0.09366765261777948</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05942338101565605</v>
+        <v>0.05833291192175063</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02948118198554875</v>
+        <v>0.05563164414052832</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05657617341303543</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02892857175943127</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.06021569276253146</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.06383757643842702</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05912006259474901</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.100122633958831</v>
+        <v>0.0623240548258209</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05927100046683256</v>
+        <v>0.05937276939805978</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02948118198554875</v>
+        <v>0.09287071115440565</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06021569276253146</v>
+        <v>0.05911068408070731</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02932837330990189</v>
+        <v>0.05578115924620916</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05732059674741746</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.02862214924430903</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06100800450940687</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.06325246693269157</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05989795815520624</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.09946899171033441</v>
+        <v>0.06225149530762086</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06005088205192246</v>
+        <v>0.06015399004803425</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02932837330990189</v>
+        <v>0.09227097743966706</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06100800450940687</v>
+        <v>0.05988845623966398</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02947346121536623</v>
+        <v>0.0559248359217346</v>
       </c>
       <c r="G143" t="n">
+        <v>0.05806502008179951</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02841378302488881</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06180031625628228</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.063459394272181</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06067585371566346</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.09920416120544945</v>
+        <v>0.06177411158016402</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06083076363701235</v>
+        <v>0.06093521069800872</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02947346121536623</v>
+        <v>0.0922720977901047</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06180031625628228</v>
+        <v>0.06066622839862065</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0295164747261277</v>
+        <v>0.05606259911364975</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05880944341618156</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02830373379117275</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06259262800315771</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.06325889485536651</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06145374927612068</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.09932867264963996</v>
+        <v>0.06109308748360029</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06161064522210225</v>
+        <v>0.06171643134798319</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0295164747261277</v>
+        <v>0.09107771852225921</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06259262800315771</v>
+        <v>0.06144400055757732</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02915744286637215</v>
+        <v>0.05619437376849966</v>
       </c>
       <c r="G145" t="n">
+        <v>0.0595538667505636</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.02819226223316294</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06338493975003312</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.06235150508071946</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06223164483657791</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.09814305624836972</v>
+        <v>0.0606096068580797</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06239052680719216</v>
+        <v>0.06249765199795766</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02915744286637215</v>
+        <v>0.08999148595267165</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06338493975003312</v>
+        <v>0.06222177271653401</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02919639466028548</v>
+        <v>0.0563200848328294</v>
       </c>
       <c r="G146" t="n">
+        <v>0.06029829008494564</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02827962904086151</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06417725149690852</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.06213776134671109</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06300954039703513</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.09844784220710262</v>
+        <v>0.06032485354375208</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06317040839228205</v>
+        <v>0.06327887264793212</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02919639466028548</v>
+        <v>0.08971704639788275</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06417725149690852</v>
+        <v>0.06299954487549068</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02903335913205358</v>
+        <v>0.05643965725318403</v>
       </c>
       <c r="G147" t="n">
+        <v>0.06104271341932769</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02816609490427059</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06496956324378393</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.06231820005181268</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06378743595749235</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.09744356073130239</v>
+        <v>0.06024001138076754</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06395028997737195</v>
+        <v>0.0640600932979066</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02903335913205358</v>
+        <v>0.08825804617443345</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06496956324378393</v>
+        <v>0.06377731703444736</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0289683653058623</v>
+        <v>0.05655301597610861</v>
       </c>
       <c r="G148" t="n">
+        <v>0.06178713675370974</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.02795192051339229</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06576187499065934</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.06159335759449552</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06456533151794958</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.09733074202643288</v>
+        <v>0.06005626420927601</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06473017156246186</v>
+        <v>0.06484131394788106</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0289683653058623</v>
+        <v>0.08751813159886457</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06576187499065934</v>
+        <v>0.06455508919340402</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02900144220589755</v>
+        <v>0.05666008594814823</v>
       </c>
       <c r="G149" t="n">
+        <v>0.06253156008809177</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02803736655822876</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06655418673753477</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.06136377037323096</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.0653432270784068</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.09730991629795788</v>
+        <v>0.05957479586942738</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06551005314755176</v>
+        <v>0.06562253459785555</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02900144220589755</v>
+        <v>0.08720094898771696</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06655418673753477</v>
+        <v>0.0653328613523607</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02893261885634521</v>
+        <v>0.05676079211584792</v>
       </c>
       <c r="G150" t="n">
+        <v>0.06327598342247383</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.02762269372878209</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06734649848441018</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.0609299747864902</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06612112263886402</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.09688161375134113</v>
+        <v>0.05869679020137167</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06628993473264166</v>
+        <v>0.06640375524783002</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02893261885634521</v>
+        <v>0.08661014465753153</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06734649848441018</v>
+        <v>0.06611063351131738</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02886192428139114</v>
+        <v>0.05685505942575278</v>
       </c>
       <c r="G151" t="n">
+        <v>0.06402040675685587</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.0277081627150544</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.0681388102312856</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.06049250723274463</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06689901819932124</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.09604636459204646</v>
+        <v>0.05832343104525883</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06706981631773157</v>
+        <v>0.06718497589780449</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02886192428139114</v>
+        <v>0.08594936492484911</v>
       </c>
       <c r="O151" t="n">
-        <v>0.0681388102312856</v>
+        <v>0.06688840567027406</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02888938750522127</v>
+        <v>0.05694281282440784</v>
       </c>
       <c r="G152" t="n">
+        <v>0.06476483009123792</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.02749403420704782</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06893112197816101</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.0605519041104654</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06767691375977847</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.09600469902553777</v>
+        <v>0.05815590224123879</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06784969790282147</v>
+        <v>0.06796619654777895</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02888938750522127</v>
+        <v>0.0856222561062106</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06893112197816101</v>
+        <v>0.06766617782923073</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02881503755202142</v>
+        <v>0.0570239772583582</v>
       </c>
       <c r="G153" t="n">
+        <v>0.06550925342561996</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02758056889476448</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06972343372503642</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.05980870181812387</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06845480932023569</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.09475714725727868</v>
+        <v>0.05799538762946158</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06862957948791137</v>
+        <v>0.06874741719775343</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02881503755202142</v>
+        <v>0.08503246451815683</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06972343372503642</v>
+        <v>0.06844394998818741</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02883890344597752</v>
+        <v>0.0570984776741489</v>
       </c>
       <c r="G154" t="n">
+        <v>0.066253676760002</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.02746802746820651</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07051574547191183</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.0597634367541913</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06923270488069293</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.09430423949273314</v>
+        <v>0.05784307105007711</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06940946107300128</v>
+        <v>0.06952863784772789</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02883890344597752</v>
+        <v>0.08438363647722857</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07051574547191183</v>
+        <v>0.06922172214714409</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02876101421127544</v>
+        <v>0.05716623901832503</v>
       </c>
       <c r="G155" t="n">
+        <v>0.06699810009438405</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02725667061737599</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07130805721878725</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.05941664531713903</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07001060044115015</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.09444650593736492</v>
+        <v>0.05700013634323536</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07018934265809118</v>
+        <v>0.07030985849770237</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02876101421127544</v>
+        <v>0.08387941829996681</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07130805721878725</v>
+        <v>0.06999949430610075</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02838139887210105</v>
+        <v>0.05722718623743162</v>
       </c>
       <c r="G156" t="n">
+        <v>0.06774252342876609</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.02704675903227508</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07210036896566266</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.05926886390543831</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07078849600160737</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.09428447679663771</v>
+        <v>0.05706776734908628</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07096922424318108</v>
+        <v>0.07109107914767683</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02838139887210105</v>
+        <v>0.08302345630291241</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07210036896566266</v>
+        <v>0.07077726646505743</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02840008645264022</v>
+        <v>0.05728124427801377</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06848694676314813</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02683855340290589</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07289268071253809</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.05852062891756038</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.0715663915620646</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.09371868227601549</v>
+        <v>0.05684714790777987</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07174910582827099</v>
+        <v>0.07187229979765131</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02840008645264022</v>
+        <v>0.08251939680260623</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07289268071253809</v>
+        <v>0.07155503862401411</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02851710597707888</v>
+        <v>0.05732833808661654</v>
       </c>
       <c r="G158" t="n">
+        <v>0.06923137009753018</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.0269301540739153</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.0736849924594135</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.05847247675197664</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07234428712252182</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.09334965258096189</v>
+        <v>0.05623574649349503</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07252898741336089</v>
+        <v>0.07265352044762578</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02851710597707888</v>
+        <v>0.0818572982597609</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0736849924594135</v>
+        <v>0.07233281078297078</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0281324864696029</v>
+        <v>0.05736839260978498</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06997579343191224</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.02691806820736688</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07447730420628891</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.05802494380715822</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07312218268297904</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.09267791791694086</v>
+        <v>0.05572741551053734</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07330886899845079</v>
+        <v>0.07343474109760026</v>
       </c>
       <c r="N159" t="n">
-        <v>0.0281324864696029</v>
+        <v>0.08221469774914092</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07447730420628891</v>
+        <v>0.07311058294192745</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02814625695439811</v>
+        <v>0.05740133279406413</v>
       </c>
       <c r="G160" t="n">
+        <v>0.07072021676629427</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.02670237137009923</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07526961595316432</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.05727856648157659</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07390007824343627</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.09160400848941602</v>
+        <v>0.05532162379144911</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0740887505835407</v>
+        <v>0.07421596174757472</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02814625695439811</v>
+        <v>0.08198996453354485</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07526961595316432</v>
+        <v>0.07388835510088414</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02805844645565045</v>
+        <v>0.05742708358599914</v>
       </c>
       <c r="G161" t="n">
+        <v>0.07146464010067632</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02648320040113857</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07606192770003972</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.05703388117370284</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07467797380389349</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.09182845450385141</v>
+        <v>0.05531794663618317</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0748686321686306</v>
+        <v>0.0749971823975492</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02805844645565045</v>
+        <v>0.08108184982928446</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07606192770003972</v>
+        <v>0.07466612725984081</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02786908399754578</v>
+        <v>0.057445569932135</v>
       </c>
       <c r="G162" t="n">
+        <v>0.07220906343505837</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.02626069213951111</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07685423944691515</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.05679142428200837</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07545586936435071</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.09055178616571058</v>
+        <v>0.05501595934469233</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07564851375372049</v>
+        <v>0.07577840304752366</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02786908399754578</v>
+        <v>0.08058910485267168</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07685423944691515</v>
+        <v>0.07544389941879748</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02807819860426998</v>
+        <v>0.0574567167790168</v>
       </c>
       <c r="G163" t="n">
+        <v>0.0729534867694404</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.02643498342424298</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07764655119379056</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.05635173220496448</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07623376492480793</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.09087453368045756</v>
+        <v>0.05481523721692941</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07642839533881039</v>
+        <v>0.07655962369749814</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02807819860426998</v>
+        <v>0.08111048082001832</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07764655119379056</v>
+        <v>0.07622167157775415</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02778581930000894</v>
+        <v>0.05746044907318962</v>
       </c>
       <c r="G164" t="n">
+        <v>0.07369791010382246</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.02610621109436041</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07843886294066597</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.05631534134104241</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07701166048526516</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.08959722725355596</v>
+        <v>0.05421535555284726</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0772082769239003</v>
+        <v>0.07734084434747261</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02778581930000894</v>
+        <v>0.0804447289476361</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07843886294066597</v>
+        <v>0.07699944373671083</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02769197510894854</v>
+        <v>0.05746044907318962</v>
       </c>
       <c r="G165" t="n">
+        <v>0.07369791010382246</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02617451198888954</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07923117468754139</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.05618278808871346</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07778955604572238</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.08912035449842659</v>
+        <v>0.0538158896523987</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0779881585089902</v>
+        <v>0.07812206499744707</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02769197510894854</v>
+        <v>0.08079060045183706</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07923117468754139</v>
+        <v>0.07777721589566751</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02759669505527465</v>
+        <v>0.05650366384746783</v>
       </c>
       <c r="G166" t="n">
+        <v>0.07369764157535844</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.0258400229468566</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08002348643441681</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.05525460884644892</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.0785674516061796</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.08941955928072953</v>
+        <v>0.05351641481553657</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0787680400940801</v>
+        <v>0.07890328564742155</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02759669505527465</v>
+        <v>0.07994684654893291</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08002348643441681</v>
+        <v>0.07855498805462417</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02759946282499193</v>
+        <v>0.05555750496857828</v>
       </c>
       <c r="G167" t="n">
+        <v>0.07369737304689443</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02560288080728776</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08081579818129221</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.05513134001272005</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07934534716663683</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.08827534376082197</v>
+        <v>0.0532165063422137</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07954792167917001</v>
+        <v>0.07968450629739601</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02759946282499193</v>
+        <v>0.07941221845523566</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08081579818129221</v>
+        <v>0.07933276021358086</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0274776985660421</v>
+        <v>0.0546224545371562</v>
       </c>
       <c r="G168" t="n">
+        <v>0.0736971045184304</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.02546322240920917</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08160810992816762</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.05491351798599817</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08012324272709405</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.08818974731770274</v>
+        <v>0.05331573953238286</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08032780326425991</v>
+        <v>0.08046572694737049</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0274776985660421</v>
+        <v>0.07978546738705711</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08160810992816762</v>
+        <v>0.08011053237253754</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02712132907168446</v>
+        <v>0.05369899465395865</v>
       </c>
       <c r="G169" t="n">
+        <v>0.07369683598996639</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02562118459164706</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08240042167504304</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.05430167916475453</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08090113828755127</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.08756480933037081</v>
+        <v>0.05311368968599697</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08110768484934981</v>
+        <v>0.08124694759734497</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02712132907168446</v>
+        <v>0.07946534456070903</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08240042167504304</v>
+        <v>0.0808883045314942</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02723283739276226</v>
+        <v>0.05278760741962035</v>
       </c>
       <c r="G170" t="n">
+        <v>0.07369656746150237</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.02547690419362757</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08319273342191846</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.05419579263990162</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08167903384800849</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.08680256917782475</v>
+        <v>0.05290993210300879</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08188756643443972</v>
+        <v>0.08202816824731944</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02723283739276226</v>
+        <v>0.07885060119250337</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08319273342191846</v>
+        <v>0.08166607669045088</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02691470658011876</v>
+        <v>0.05188877493481699</v>
       </c>
       <c r="G171" t="n">
+        <v>0.07369629893303835</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.0251305180541769</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08398504516879388</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.05418818466451153</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08245692940846572</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.08580506623906375</v>
+        <v>0.05230404208337119</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0826674480195296</v>
+        <v>0.0828093888972939</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02691470658011876</v>
+        <v>0.07863998849875198</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08398504516879388</v>
+        <v>0.08244384884940756</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02656941968459718</v>
+        <v>0.05100297930018591</v>
       </c>
       <c r="G172" t="n">
+        <v>0.07369603040457433</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02508216301232129</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08477735691566929</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.0537763336664405</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08323482496892294</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.08467433989308659</v>
+        <v>0.05219559492703696</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08344732960461951</v>
+        <v>0.08359060954726838</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02656941968459718</v>
+        <v>0.07913225769576659</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08477735691566929</v>
+        <v>0.08322162100836424</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02649945975704078</v>
+        <v>0.05013070261647995</v>
       </c>
       <c r="G173" t="n">
+        <v>0.07369576187611031</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02473197590708684</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.0855696686625447</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.053060307136611</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08401272052938018</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.08411242951889197</v>
+        <v>0.05138416593395898</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08422721118970941</v>
+        <v>0.08437183019724284</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02649945975704078</v>
+        <v>0.07902615999985924</v>
       </c>
       <c r="O173" t="n">
-        <v>0.0855696686625447</v>
+        <v>0.0839993931673209</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0259073098482928</v>
+        <v>0.04927242698433591</v>
       </c>
       <c r="G174" t="n">
+        <v>0.0736954933476463</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.02468009357749974</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08636198040942011</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.05274017256594565</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.0847906160898374</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.08312137449547885</v>
+        <v>0.05106933040409006</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08500709277479931</v>
+        <v>0.08515305084721732</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0259073098482928</v>
+        <v>0.07792044662734166</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08636198040942011</v>
+        <v>0.08477716532627758</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02579545300919647</v>
+        <v>0.04842863450442945</v>
       </c>
       <c r="G175" t="n">
+        <v>0.07369522481918228</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.02462665286258624</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08715429215629553</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.052515997445367</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08556851165029462</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.08250321420184614</v>
+        <v>0.05085066363738297</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08578697435988922</v>
+        <v>0.08593427149719178</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02579545300919647</v>
+        <v>0.07861386879452575</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08715429215629553</v>
+        <v>0.08555493748523427</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0252663722905951</v>
+        <v>0.04759980727740049</v>
       </c>
       <c r="G176" t="n">
+        <v>0.07369495629071826</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.02457179060137248</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08794660390317094</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.05258784926579751</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08634640721075185</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.08155998801699255</v>
+        <v>0.05062774093379058</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08656685594497912</v>
+        <v>0.08671549214716626</v>
       </c>
       <c r="N176" t="n">
-        <v>0.0252663722905951</v>
+        <v>0.07780517771772333</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08794660390317094</v>
+        <v>0.08633270964419093</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02492255074333186</v>
+        <v>0.04678642740399686</v>
       </c>
       <c r="G177" t="n">
+        <v>0.07369468776225424</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.02431564363288465</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08873891565004635</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.05225579551815979</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08712430277120907</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.08059373531991698</v>
+        <v>0.05010013759326579</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08734673753006902</v>
+        <v>0.08749671279714072</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02492255074333186</v>
+        <v>0.07749312461324631</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08873891565004635</v>
+        <v>0.08711048180314761</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02456647141825002</v>
+        <v>0.04598897698485781</v>
       </c>
       <c r="G178" t="n">
+        <v>0.07369441923379023</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.02415834879614891</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08953122739692176</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.05201990369337642</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08790219833166629</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.08070649548961834</v>
+        <v>0.05026742891576133</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08812661911515893</v>
+        <v>0.08827793344711519</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02456647141825002</v>
+        <v>0.07777646069740651</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08953122739692176</v>
+        <v>0.08788825396210428</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02430061736619285</v>
+        <v>0.04520793812065901</v>
       </c>
       <c r="G179" t="n">
+        <v>0.07369415070532621</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.02410004293019147</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.09032353914379719</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.05168024128236981</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08868009389212352</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.07890030790509539</v>
+        <v>0.04982919020123006</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08890650070024883</v>
+        <v>0.08905915409708967</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02430061736619285</v>
+        <v>0.07755393718651571</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09032353914379719</v>
+        <v>0.08866602612106096</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02382747163800357</v>
+        <v>0.04444379291204323</v>
       </c>
       <c r="G180" t="n">
+        <v>0.07369388217686219</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02384086287403853</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.0911158508906726</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.05083687577606266</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08945798945258074</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.07847721194534713</v>
+        <v>0.04958499674962483</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08968638228533872</v>
+        <v>0.08984037474706415</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02382747163800357</v>
+        <v>0.07732430529688583</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0911158508906726</v>
+        <v>0.08944379828001763</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02354951728452542</v>
+        <v>0.04369702345975268</v>
       </c>
       <c r="G181" t="n">
+        <v>0.07369361364839817</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.02378094546671623</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09190816263754802</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.0507898746653774</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09023588501303796</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.07773924698937223</v>
+        <v>0.04873442386089841</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09046626387042862</v>
+        <v>0.09062159539703861</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02354951728452542</v>
+        <v>0.07658631624482887</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09190816263754802</v>
+        <v>0.0902215704389743</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02336923735660168</v>
+        <v>0.04296811186442936</v>
       </c>
       <c r="G182" t="n">
+        <v>0.07369334511993415</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.02332042754725079</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09270047438442341</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.0501393054412366</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09101378057349518</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.07688845241616965</v>
+        <v>0.04867704683500371</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09124614545551853</v>
+        <v>0.09140281604701309</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02336923735660168</v>
+        <v>0.07683872124665642</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09270047438442341</v>
+        <v>0.09099934259793099</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02298911490507557</v>
+        <v>0.04225754022674899</v>
       </c>
       <c r="G183" t="n">
+        <v>0.07369307659147015</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.02325944595466836</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09349278613129884</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.05008523559456285</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09179167613395241</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.07602686760473826</v>
+        <v>0.04841244097189348</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09202602704060843</v>
+        <v>0.09218403669698755</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02298911490507557</v>
+        <v>0.07668027151868051</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09349278613129884</v>
+        <v>0.09177711475688766</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02251163298079036</v>
+        <v>0.04156579064735748</v>
       </c>
       <c r="G184" t="n">
+        <v>0.07369280806300611</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.02319813752799516</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09428509787817425</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.04942773261627864</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09256957169440963</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.07465653193407684</v>
+        <v>0.04774018157152066</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09280590862569833</v>
+        <v>0.09296525734696202</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02251163298079036</v>
+        <v>0.07610971827721291</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09428509787817425</v>
+        <v>0.09255488691584433</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02223927463458925</v>
+        <v>0.04089334522699074</v>
       </c>
       <c r="G185" t="n">
+        <v>0.07369253953454211</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.02293663910625734</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09507740962504967</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.04896686399730657</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09334746725486685</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.07327948478318425</v>
+        <v>0.04745984393383793</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09358579021078824</v>
+        <v>0.09374647799693649</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02223927463458925</v>
+        <v>0.07542581273856547</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09507740962504967</v>
+        <v>0.09333265907480101</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02177452291731551</v>
+        <v>0.04024068606629394</v>
       </c>
       <c r="G186" t="n">
+        <v>0.07369227100607809</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.02267508752848112</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09586972137192508</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.0492026972285691</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09412536281532408</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.07279776553105938</v>
+        <v>0.04737100335879824</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09436567179587814</v>
+        <v>0.09452769864691096</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02177452291731551</v>
+        <v>0.07512730611905016</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09586972137192508</v>
+        <v>0.09411043123375769</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0214198608798124</v>
+        <v>0.0396082952659427</v>
       </c>
       <c r="G187" t="n">
+        <v>0.07369200247761408</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.02261361963369264</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09666203311880051</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.04853529980098881</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.0949032583757813</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.07121341355670108</v>
+        <v>0.04657323514635436</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09514555338096804</v>
+        <v>0.09530891929688542</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0214198608798124</v>
+        <v>0.07461294963497878</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09666203311880051</v>
+        <v>0.09488820339271435</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02087777157292318</v>
+        <v>0.03899665492658654</v>
       </c>
       <c r="G188" t="n">
+        <v>0.07369173394915005</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.02265237226091814</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.0974543448656759</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.04816473920548828</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09568115393623852</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.07112846823910823</v>
+        <v>0.04616611459645911</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09592543496605795</v>
+        <v>0.0960901399468599</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02087777157292318</v>
+        <v>0.07468149450266315</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0974543448656759</v>
+        <v>0.09566597555167103</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02055073804749105</v>
+        <v>0.03840624714895439</v>
       </c>
       <c r="G189" t="n">
+        <v>0.07369146542068604</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.02229148224918373</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09824665661255132</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.04749108293299001</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09645904949669575</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.06924496895727961</v>
+        <v>0.04564921700906538</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09670531655114784</v>
+        <v>0.09687136059683438</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02055073804749105</v>
+        <v>0.07403169193841508</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09824665661255132</v>
+        <v>0.09644374771062771</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02024124335435928</v>
+        <v>0.03783558545593568</v>
       </c>
       <c r="G190" t="n">
+        <v>0.07369119689222202</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.02233108643751566</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09903896835942673</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.04721439847441655</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09723694505715297</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.06846495509021416</v>
+        <v>0.04562211768412594</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09748519813623774</v>
+        <v>0.09765258124680885</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02024124335435928</v>
+        <v>0.07356229315854657</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09903896835942673</v>
+        <v>0.09722151986958438</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02025177054437109</v>
+        <v>0.03727334048165228</v>
       </c>
       <c r="G191" t="n">
+        <v>0.07369092836375801</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.02197132166494008</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09983128010630216</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.04703475332069043</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09801484061761019</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.06759046601691066</v>
+        <v>0.04528439192159364</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09826507972132764</v>
+        <v>0.09843380189678332</v>
       </c>
       <c r="N191" t="n">
-        <v>0.02025177054437109</v>
+        <v>0.07357204937936923</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09983128010630216</v>
+        <v>0.09799929202854106</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01988480266836977</v>
+        <v>0.03671802574899702</v>
       </c>
       <c r="G192" t="n">
+        <v>0.07369065983529398</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.02201232477048319</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.1006235918531776</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.04665221496273425</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09879273617806743</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.0668235411163679</v>
+        <v>0.04433561502142133</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09904496130641754</v>
+        <v>0.09921502254675779</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01988480266836977</v>
+        <v>0.07285971181719519</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1006235918531776</v>
+        <v>0.09877706418749774</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01964282277719855</v>
+        <v>0.03617012335869392</v>
       </c>
       <c r="G193" t="n">
+        <v>0.07369039130682997</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.02185226756729147</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.101415903600053</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.04596685089147051</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09957063173852465</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.0662662197675849</v>
+        <v>0.04385324117678346</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09982484289150745</v>
+        <v>0.09999624319673225</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01964282277719855</v>
+        <v>0.07309674332167954</v>
       </c>
       <c r="O193" t="n">
-        <v>0.101415903600053</v>
+        <v>0.09955483634645441</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01942831392170066</v>
+        <v>0.03563011541139434</v>
       </c>
       <c r="G194" t="n">
+        <v>0.07369012277836595</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.02138887216788415</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1022082153469284</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.04587872859782172</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1003485272989819</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.06472054134956035</v>
+        <v>0.04381258540392147</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1006047244765974</v>
+        <v>0.1007774638467067</v>
       </c>
       <c r="N194" t="n">
-        <v>0.01942831392170066</v>
+        <v>0.07215182481549098</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1022082153469284</v>
+        <v>0.1003326085054111</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01934204442802483</v>
+        <v>0.03509848400777392</v>
       </c>
       <c r="G195" t="n">
+        <v>0.07368985424990193</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.0212223523551462</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1030005270938038</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.04548791557271051</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1011264228594391</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.06418854524129325</v>
+        <v>0.04291749504336689</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1013846060616873</v>
+        <v>0.1015586844966812</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01934204442802483</v>
+        <v>0.07172913442688394</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1030005270938038</v>
+        <v>0.1011103806643678</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01886831915493434</v>
+        <v>0.03457571124848577</v>
       </c>
       <c r="G196" t="n">
+        <v>0.07368958572143791</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.02135292975900682</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1037928388406792</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.04509447930705934</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1019043184198963</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.06267227082178228</v>
+        <v>0.04207188498099101</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1021644876467772</v>
+        <v>0.1023399051466557</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01886831915493434</v>
+        <v>0.07073294034304467</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1037928388406792</v>
+        <v>0.1018881528233244</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01880232339085372</v>
+        <v>0.03406227923425105</v>
       </c>
       <c r="G197" t="n">
+        <v>0.07368931719297389</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.02088082600939528</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1045851505875546</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.04449848729179082</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1026822139803535</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.06217375747002651</v>
+        <v>0.04177967010266498</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1029443692318671</v>
+        <v>0.1031211257966301</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01880232339085372</v>
+        <v>0.06976751075115928</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1045851505875546</v>
+        <v>0.1026659249822811</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01864349657238648</v>
+        <v>0.03355867006572251</v>
       </c>
       <c r="G198" t="n">
+        <v>0.07368904866450988</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.02090626273624076</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1053774623344301</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.0441999456694448</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1034601095408108</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.0612950445650246</v>
+        <v>0.04104476529425999</v>
       </c>
       <c r="M198" t="n">
-        <v>0.103724250816957</v>
+        <v>0.1039023464466046</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01864349657238648</v>
+        <v>0.06963711383841403</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1053774623344301</v>
+        <v>0.1034436971412378</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01849127813613609</v>
+        <v>0.03306536584357581</v>
       </c>
       <c r="G199" t="n">
+        <v>0.07368878013604586</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.02062946156947254</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1061697740813055</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.04419657773609517</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.104238005101268</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.06013817148577555</v>
+        <v>0.0398710854416473</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1045041324020469</v>
+        <v>0.1046835670965791</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01849127813613609</v>
+        <v>0.06854601779199504</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1061697740813055</v>
+        <v>0.1042214693001945</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01854510751870599</v>
+        <v>0.03258284866846581</v>
       </c>
       <c r="G200" t="n">
+        <v>0.07368851160758184</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.02065064413901981</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1069620858281809</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.04328737457257553</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1050159006617252</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.05920517761127808</v>
+        <v>0.03916254543069805</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1052840139871368</v>
+        <v>0.1054647877465536</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01854510751870599</v>
+        <v>0.06719849079908846</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1069620858281809</v>
+        <v>0.1049992414591511</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01820442415669968</v>
+        <v>0.0321116006411102</v>
       </c>
       <c r="G201" t="n">
+        <v>0.07368824307911782</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.0201700320748118</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1077543975750563</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.04307257113473759</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1057937962221824</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.05839810232053105</v>
+        <v>0.03872306014728352</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1060638955722267</v>
+        <v>0.106246008396528</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01820442415669968</v>
+        <v>0.06679880104688068</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1077543975750563</v>
+        <v>0.1057770136181078</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01806866748672062</v>
+        <v>0.03165210386216344</v>
       </c>
       <c r="G202" t="n">
+        <v>0.07368797455065382</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.02008784700677774</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1085467093219317</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.04235240237843296</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1065716917826397</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.05841898499253345</v>
+        <v>0.03795654447727489</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1068437771573166</v>
+        <v>0.1070272290465025</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01806866748672062</v>
+        <v>0.06505121672255765</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1085467093219317</v>
+        <v>0.1065547857770645</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01783727694537228</v>
+        <v>0.03120484043230115</v>
       </c>
       <c r="G203" t="n">
+        <v>0.0736877060221898</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.02010431056484682</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1093390210688071</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.04222710325951332</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1073495873430969</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.05696587580593687</v>
+        <v>0.03666691330654337</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1076236587424065</v>
+        <v>0.107808449696477</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01783727694537228</v>
+        <v>0.06466000601330574</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1093390210688071</v>
+        <v>0.1073325579360212</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01780969196925815</v>
+        <v>0.03077029245218037</v>
       </c>
       <c r="G204" t="n">
+        <v>0.07368743749372578</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01981964437894834</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1101313328156825</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.04199690873383033</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1081274829035541</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.05672275085594747</v>
+        <v>0.03555808152096021</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1084035403274964</v>
+        <v>0.1085896703464514</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01780969196925815</v>
+        <v>0.06272943710631107</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1101313328156825</v>
+        <v>0.1081103300949778</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01768535199498167</v>
+        <v>0.03034894202251459</v>
       </c>
       <c r="G205" t="n">
+        <v>0.07368716896526176</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.01963407007901147</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1109236445625579</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.04106205375723565</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1089053784640113</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.0552875317921156</v>
+        <v>0.03473396400639653</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1091834219125863</v>
+        <v>0.1093708909964259</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01768535199498167</v>
+        <v>0.06196377818875981</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1109236445625579</v>
+        <v>0.1088881022539345</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01776369645914631</v>
+        <v>0.0299412712439603</v>
       </c>
       <c r="G206" t="n">
+        <v>0.07368690043679775</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01934780929496542</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1117159563094334</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.04082277328558095</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1096832740244686</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.05466003622085197</v>
+        <v>0.03379847564872365</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1099633034976762</v>
+        <v>0.1101521116464004</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01776369645914631</v>
+        <v>0.06046729744783813</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1117159563094334</v>
+        <v>0.1096658744128912</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01764416479835557</v>
+        <v>0.02954776221719317</v>
       </c>
       <c r="G207" t="n">
+        <v>0.07368663190833373</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01936108365673946</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1125082680563088</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.04077930227471796</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1104611695849258</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.05394008174856757</v>
+        <v>0.03325553133381268</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1107431850827661</v>
+        <v>0.1109333322963749</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01764416479835557</v>
+        <v>0.05994426307073236</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1125082680563088</v>
+        <v>0.1104436465718479</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0172261964492129</v>
+        <v>0.02916889704287266</v>
       </c>
       <c r="G208" t="n">
+        <v>0.07368636337986971</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01887411479426281</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1133005798031842</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.03973187568049827</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.111239065145383</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.05392748598167313</v>
+        <v>0.03190904594753485</v>
       </c>
       <c r="M208" t="n">
-        <v>0.111523066667856</v>
+        <v>0.1117145529463493</v>
       </c>
       <c r="N208" t="n">
-        <v>0.0172261964492129</v>
+        <v>0.05849894324462845</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1133005798031842</v>
+        <v>0.1112214187308045</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01720923084832178</v>
+        <v>0.02880515782170744</v>
       </c>
       <c r="G209" t="n">
+        <v>0.07368609485140569</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01878712433746466</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1140928915500596</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.03938072845877352</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1120169607058402</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.0527220665265794</v>
+        <v>0.03126293437576144</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1123029482529459</v>
+        <v>0.1124957735963238</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01720923084832178</v>
+        <v>0.05733560615671279</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1140928915500596</v>
+        <v>0.1119991908897612</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01729270743228568</v>
+        <v>0.02845702665435637</v>
       </c>
       <c r="G210" t="n">
+        <v>0.07368582632294167</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01880033391627427</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.114885203296935</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.03882609556539549</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1127948562662975</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.05192364098969737</v>
+        <v>0.03042111150436358</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1130828298380358</v>
+        <v>0.1132769942462983</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01729270743228568</v>
+        <v>0.0556585199941716</v>
       </c>
       <c r="O210" t="n">
-        <v>0.114885203296935</v>
+        <v>0.1127769630487179</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0168760656377081</v>
+        <v>0.0281249856414951</v>
       </c>
       <c r="G211" t="n">
+        <v>0.07368555779447766</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01861396516062085</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1156775150438104</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.03846821195621572</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1135727518267547</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.05183202697743761</v>
+        <v>0.0290874922192125</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1138627114231257</v>
+        <v>0.1140582148962727</v>
       </c>
       <c r="N211" t="n">
-        <v>0.0168760656377081</v>
+        <v>0.05427195294419085</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1156775150438104</v>
+        <v>0.1135547352076746</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01675874490119245</v>
+        <v>0.02780951688378591</v>
       </c>
       <c r="G212" t="n">
+        <v>0.07368528926601363</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01842823970043361</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1164698267906858</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.03790731258708596</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1143506473872119</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.05104704209621125</v>
+        <v>0.02806599140617946</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1146425930082156</v>
+        <v>0.1148394355462472</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01675874490119245</v>
+        <v>0.05358017319395697</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1164698267906858</v>
+        <v>0.1143325073666312</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01664018465934224</v>
+        <v>0.02751110248193196</v>
       </c>
       <c r="G213" t="n">
+        <v>0.07368502073754962</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01794337916564182</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1172621385375612</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.03764363241385782</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1151285429476691</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.0504685039524288</v>
+        <v>0.02736052395113556</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1154224745933055</v>
+        <v>0.1156206561962217</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01664018465934224</v>
+        <v>0.05188744893065594</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1172621385375612</v>
+        <v>0.1151102795255879</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01681982434876091</v>
+        <v>0.02723022453659481</v>
       </c>
       <c r="G214" t="n">
+        <v>0.0736847522090856</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01795960518617463</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1180544502844367</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.03717740639238298</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1159064385081264</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.04949623015250126</v>
+        <v>0.02667500473995213</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1162023561783954</v>
+        <v>0.1164018768461962</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01681982434876091</v>
+        <v>0.05049804834147409</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1180544502844367</v>
+        <v>0.1158880516845446</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01649710340605196</v>
+        <v>0.02723022453659482</v>
       </c>
       <c r="G215" t="n">
+        <v>0.0736847522090856</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01777713939196135</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1188467620313121</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.03660886947851319</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1166843340685836</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.0488300383028395</v>
+        <v>0.02561334865850032</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1169822377634853</v>
+        <v>0.1171830974961706</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01649710340605196</v>
+        <v>0.04911623961359757</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1188467620313121</v>
+        <v>0.1166658238435013</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01637146126781887</v>
+        <v>0.02654224871015333</v>
       </c>
       <c r="G216" t="n">
+        <v>0.07357901815305903</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01749620341293115</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1196390737781875</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.03613825662810002</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1174622296290408</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.04796974600985421</v>
+        <v>0.02457947059265136</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1177621193485752</v>
+        <v>0.1179643181461451</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01637146126781887</v>
+        <v>0.04854629093421259</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1196390737781875</v>
+        <v>0.1174435960024579</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01634293605919178</v>
+        <v>0.0258617496210993</v>
       </c>
       <c r="G217" t="n">
+        <v>0.07347328409703247</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01721701887901328</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1204313855250629</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.03556580279699514</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.118240125189498</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.04751517087995627</v>
+        <v>0.02387728542827644</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1185420009336651</v>
+        <v>0.1187455387961196</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01634293605919178</v>
+        <v>0.0469924704905052</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1204313855250629</v>
+        <v>0.1182213681614146</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01621416784335312</v>
+        <v>0.0251890390993373</v>
       </c>
       <c r="G218" t="n">
+        <v>0.0733675500410059</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01713980742013695</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1212236972719383</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.03559174294105025</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1190180207499553</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.04646613051955645</v>
+        <v>0.02341070805124676</v>
       </c>
       <c r="M218" t="n">
-        <v>0.119321882518755</v>
+        <v>0.119526759446094</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01621416784335312</v>
+        <v>0.04515904646966185</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1212236972719383</v>
+        <v>0.1189991403203713</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01588554613581604</v>
+        <v>0.02452442897477179</v>
       </c>
       <c r="G219" t="n">
+        <v>0.07326181598497931</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.0170647906662314</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1220160090188137</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.03491631201611695</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1197959163104125</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.04622244253506569</v>
+        <v>0.02248365334743357</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1201017641038449</v>
+        <v>0.1203079800960685</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01588554613581604</v>
+        <v>0.04475028705886852</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1220160090188137</v>
+        <v>0.119776912479328</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01595707400674994</v>
+        <v>0.02386823107730747</v>
       </c>
       <c r="G220" t="n">
+        <v>0.07315608192895275</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01689219024722585</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1228083207656891</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.03423974497804702</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1205738118708697</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.0452839245328947</v>
+        <v>0.02210003620270806</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1208816456889348</v>
+        <v>0.121089200746043</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01595707400674994</v>
+        <v>0.04277046044531152</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1228083207656891</v>
+        <v>0.1205546846382846</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01592875452632432</v>
+        <v>0.02322075723684879</v>
       </c>
       <c r="G221" t="n">
+        <v>0.07305034787292618</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01672222779304951</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1236006325125646</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.03386227678269202</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1213517074313269</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.04455009392370668</v>
+        <v>0.02136377150294141</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1216615272740247</v>
+        <v>0.1218704213960174</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01592875452632432</v>
+        <v>0.04172383481617692</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1236006325125646</v>
+        <v>0.1213324567972413</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01570059076470859</v>
+        <v>0.02258231928330032</v>
       </c>
       <c r="G222" t="n">
+        <v>0.07294461381689961</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01655512493363161</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.12439294425944</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.03338414238590368</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1221296029917841</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.04451857278361843</v>
+        <v>0.02067877413400487</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1224414088591146</v>
+        <v>0.1226516420459919</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01570059076470859</v>
+        <v>0.04101467835865097</v>
       </c>
       <c r="O222" t="n">
-        <v>0.12439294425944</v>
+        <v>0.122110228956198</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01537258579207224</v>
+        <v>0.0219532290465666</v>
       </c>
       <c r="G223" t="n">
+        <v>0.07283887976087304</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01639110329890141</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1251852560063154</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.03290557674353364</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1229074985522414</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.04398894072395093</v>
+        <v>0.02034895898176964</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1232212904442045</v>
+        <v>0.1234328626959664</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01537258579207224</v>
+        <v>0.03964725925991991</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1251852560063154</v>
+        <v>0.1228880011151546</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01534474267858466</v>
+        <v>0.02133379835655221</v>
       </c>
       <c r="G224" t="n">
+        <v>0.07273314570484646</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.01633038451878807</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1259775677531908</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.0325268148114336</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1236853941126986</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.04326126367315114</v>
+        <v>0.01987824093210691</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1240011720292944</v>
+        <v>0.1242140833459408</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01534474267858466</v>
+        <v>0.03872584570716991</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1259775677531908</v>
+        <v>0.1236657732741114</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01511706449441534</v>
+        <v>0.02072433904316164</v>
       </c>
       <c r="G225" t="n">
+        <v>0.07262741164881989</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.01597319022322087</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1267698795000662</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.03234809154545515</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1244632896731558</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.04213560755966639</v>
+        <v>0.01917053487088788</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1247810536143843</v>
+        <v>0.1249953039959153</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01511706449441534</v>
+        <v>0.03805470588758703</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1267698795000662</v>
+        <v>0.124443545433068</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01528955430973369</v>
+        <v>0.02012516293629941</v>
       </c>
       <c r="G226" t="n">
+        <v>0.07252167759279331</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01581974204212902</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1275621912469417</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.03136964190144997</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1252411852336131</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.04121203831194364</v>
+        <v>0.01902975568398388</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1255609351994742</v>
+        <v>0.1257765246458898</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01528955430973369</v>
+        <v>0.0371381079883577</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1275621912469417</v>
+        <v>0.1252213175920247</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01496221519470918</v>
+        <v>0.0195365818658702</v>
       </c>
       <c r="G227" t="n">
+        <v>0.07241594353676674</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01567026160544172</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.128354502993817</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.03099091257811556</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1260190807940703</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.04079062185843008</v>
+        <v>0.01885981825726599</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1263408167845641</v>
+        <v>0.1265577452958642</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01496221519470918</v>
+        <v>0.03648032019666791</v>
       </c>
       <c r="O227" t="n">
-        <v>0.128354502993817</v>
+        <v>0.1259990897509814</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01503505021951128</v>
+        <v>0.01895890766177848</v>
       </c>
       <c r="G228" t="n">
+        <v>0.07231020948074017</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.01562497054308824</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1291468147406925</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.03091071230576939</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1267969763545275</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.04007142412757275</v>
+        <v>0.01876463747660539</v>
       </c>
       <c r="M228" t="n">
-        <v>0.127120698369654</v>
+        <v>0.1273389659458387</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01503505021951128</v>
+        <v>0.03548561069970391</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1291468147406925</v>
+        <v>0.126776861909938</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01470806245430938</v>
+        <v>0.01839245215392879</v>
       </c>
       <c r="G229" t="n">
+        <v>0.0722044754247136</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.0155840904849978</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1299391264875679</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.03022901889382212</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1275748719149847</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.04005451104781887</v>
+        <v>0.01804812822787341</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1279005799547439</v>
+        <v>0.1281201865958132</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01470806245430938</v>
+        <v>0.03495824768465194</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1299391264875679</v>
+        <v>0.1275546340688947</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01478125496927297</v>
+        <v>0.0178375271722257</v>
       </c>
       <c r="G230" t="n">
+        <v>0.07209874136868703</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01534782105991277</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1307314382344433</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.02974582775157539</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1283527674754419</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.03973994854761559</v>
+        <v>0.01801376986845254</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1286804615398338</v>
+        <v>0.1289014072457877</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01478125496927297</v>
+        <v>0.03440204964475929</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1307314382344433</v>
+        <v>0.1283324062278514</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01465463083457148</v>
+        <v>0.01729444454657374</v>
       </c>
       <c r="G231" t="n">
+        <v>0.07199300731266046</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01501409145189329</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1315237499813187</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.02906113428833071</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1291306630358992</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.03822780255540986</v>
+        <v>0.01811398375857518</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1294603431249237</v>
+        <v>0.1296826278957621</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01465463083457148</v>
+        <v>0.03357769037337976</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1315237499813187</v>
+        <v>0.129110178386808</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01432819312037434</v>
+        <v>0.01676351610687747</v>
       </c>
       <c r="G232" t="n">
+        <v>0.0718872732566339</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01518145311497372</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1323160617281941</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.02887493391338966</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1299085585963564</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.03751813899964884</v>
+        <v>0.01851525806671689</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1302402247100136</v>
+        <v>0.1304638485457366</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01432819312037434</v>
+        <v>0.03295804629225174</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1323160617281941</v>
+        <v>0.1298879505457647</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01440194489685102</v>
+        <v>0.01624505368304138</v>
       </c>
       <c r="G233" t="n">
+        <v>0.07178153920060731</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01474993566322058</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1331083734750695</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.02828722203605377</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1306864541568136</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.0369110238087797</v>
+        <v>0.01841855635368181</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1310201062951035</v>
+        <v>0.1312450691957111</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01440194489685102</v>
+        <v>0.03174364626338122</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1331083734750695</v>
+        <v>0.1306657227047214</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01397588923417098</v>
+        <v>0.01573936910497012</v>
       </c>
       <c r="G234" t="n">
+        <v>0.07167580514458075</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01461956871070019</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.133900685221945</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.02749799406562473</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1314643497172708</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.03720652291124954</v>
+        <v>0.01852484218027403</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1317999878801934</v>
+        <v>0.1320262898456856</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01397588923417098</v>
+        <v>0.03143501914877428</v>
       </c>
       <c r="O234" t="n">
-        <v>0.133900685221945</v>
+        <v>0.1314434948636781</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0139500292025036</v>
+        <v>0.0152467742025682</v>
       </c>
       <c r="G235" t="n">
+        <v>0.07157007108855418</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01479038187147901</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1346929969688204</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.02740724541140394</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.132242245277728</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.03660470223550544</v>
+        <v>0.01853507910729768</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1325798694652833</v>
+        <v>0.13280751049566</v>
       </c>
       <c r="N235" t="n">
-        <v>0.0139500292025036</v>
+        <v>0.03123269381043692</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1346929969688204</v>
+        <v>0.1322212670226348</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01372436787201842</v>
+        <v>0.01476758080574013</v>
       </c>
       <c r="G236" t="n">
+        <v>0.07146433703252759</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01446240475962342</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1354853087156958</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.02661497148269304</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1330201408381853</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.03550562770999438</v>
+        <v>0.01805023069555686</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1333597510503732</v>
+        <v>0.1335887311456345</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01372436787201842</v>
+        <v>0.03053719911037511</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1354853087156958</v>
+        <v>0.1329990391815914</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01359890831288482</v>
+        <v>0.0143021007443905</v>
       </c>
       <c r="G237" t="n">
+        <v>0.07135860297650103</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01443566698919985</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1362776204625712</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.02632116768879361</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1337980363986425</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.03450936526316378</v>
+        <v>0.01807126050585567</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1341396326354631</v>
+        <v>0.134369951795609</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01359890831288482</v>
+        <v>0.02934906391059516</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1362776204625712</v>
+        <v>0.1337768113405481</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01357365359527223</v>
+        <v>0.01385064584842385</v>
       </c>
       <c r="G238" t="n">
+        <v>0.07125286892047446</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.0141101981742747</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1370699322094466</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.02572582943900723</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1345759319590997</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.03481598082346055</v>
+        <v>0.01849913209899823</v>
       </c>
       <c r="M238" t="n">
-        <v>0.134919514220553</v>
+        <v>0.1351511724455834</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01357365359527223</v>
+        <v>0.02866881707310287</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1370699322094466</v>
+        <v>0.1345545834995048</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01334860678935017</v>
+        <v>0.01341352794774471</v>
       </c>
       <c r="G239" t="n">
+        <v>0.07114713486444789</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01428602792891437</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.137862243956322</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.0255289521426354</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1353538275195569</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.03412554031933185</v>
+        <v>0.01823480903578867</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1356993958056429</v>
+        <v>0.1359323930955579</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01334860678935017</v>
+        <v>0.02909698745990447</v>
       </c>
       <c r="O239" t="n">
-        <v>0.137862243956322</v>
+        <v>0.1353323556584615</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.013323770965288</v>
+        <v>0.01298978556681402</v>
       </c>
       <c r="G240" t="n">
+        <v>0.07104140080842131</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.0138631858671853</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1386545557031974</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.02473053120897972</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1361317230800142</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.03363810967922476</v>
+        <v>0.01857925487703105</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1364792773907328</v>
+        <v>0.1367136137455324</v>
       </c>
       <c r="N240" t="n">
-        <v>0.013323770965288</v>
+        <v>0.02853410393300598</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1386545557031974</v>
+        <v>0.1361101278174182</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01329914919325526</v>
+        <v>0.012572090702875</v>
       </c>
       <c r="G241" t="n">
+        <v>0.07093566675239474</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01394170160315385</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1394468674500728</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.02433056204734177</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1369096186404714</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.03285375483158631</v>
+        <v>0.01883343318352956</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1372591589758227</v>
+        <v>0.1374948343955069</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01329914919325526</v>
+        <v>0.02748069535441344</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1394468674500728</v>
+        <v>0.1368878999763748</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01317474454342132</v>
+        <v>0.01215948188038857</v>
       </c>
       <c r="G242" t="n">
+        <v>0.07082993269636817</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01392160475088648</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1402391791969483</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.02382904006702313</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1376875142009286</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.03217254170486389</v>
+        <v>0.01849830751608822</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1380390405609127</v>
+        <v>0.1382760550454813</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01317474454342132</v>
+        <v>0.02723729058613295</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1402391791969483</v>
+        <v>0.1376656721353315</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01315056008595565</v>
+        <v>0.0117522709292593</v>
       </c>
       <c r="G243" t="n">
+        <v>0.0707241986403416</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01370292492444958</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1410314909438237</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.02342596067732533</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1384654097613859</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.03149453622750437</v>
+        <v>0.01837484143551124</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1388189221460026</v>
+        <v>0.1390572756954558</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01315056008595565</v>
+        <v>0.02620441849017041</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1410314909438237</v>
+        <v>0.1384434442942882</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0128265988910277</v>
+        <v>0.01135076967939173</v>
       </c>
       <c r="G244" t="n">
+        <v>0.07061846458431503</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01368569173790955</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1418238026906991</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.02302131928754994</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1392433053218431</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.03081980432795495</v>
+        <v>0.01866399850260261</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1395988037310925</v>
+        <v>0.1398384963454303</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0128265988910277</v>
+        <v>0.02598260792853202</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1418238026906991</v>
+        <v>0.1392212164532448</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01270286402880694</v>
+        <v>0.0109552899606904</v>
       </c>
       <c r="G245" t="n">
+        <v>0.07051273052828846</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01356993480533282</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1426161144375745</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.02191511130699852</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1400212008823003</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.03064841193466267</v>
+        <v>0.01856674227816657</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1403786853161824</v>
+        <v>0.1406197169954047</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01270286402880694</v>
+        <v>0.02497238776322391</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1426161144375745</v>
+        <v>0.1399989886122015</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01247935856946277</v>
+        <v>0.01056614360305987</v>
       </c>
       <c r="G246" t="n">
+        <v>0.0704069964722619</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01345568374078578</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1434084261844499</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.02180733214497269</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1407990964427575</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.02988042497607463</v>
+        <v>0.01888403632300711</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1411585669012723</v>
+        <v>0.1414009376453792</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01247935856946277</v>
+        <v>0.02467428685625195</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1434084261844499</v>
+        <v>0.1407767607711582</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01265608558316465</v>
+        <v>0.01018364243640462</v>
       </c>
       <c r="G247" t="n">
+        <v>0.07030126241623531</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01324296815833484</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1442007379313253</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.02089797721077397</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1415769920032147</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.02951590938063819</v>
+        <v>0.01891684419792847</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1419384484863622</v>
+        <v>0.1421821582953537</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01265608558316465</v>
+        <v>0.02428883406962234</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1442007379313253</v>
+        <v>0.1415545329301149</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01233304814008205</v>
+        <v>0.009808098290629313</v>
       </c>
       <c r="G248" t="n">
+        <v>0.07019552836020874</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01293181767204644</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1449930496782007</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.0204870419137039</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.142354887563672</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.02895493107680019</v>
+        <v>0.01956612946373465</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1427183300714521</v>
+        <v>0.1429633789453282</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01233304814008205</v>
+        <v>0.02421655826534103</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1449930496782007</v>
+        <v>0.1423323050890715</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01231024931038437</v>
+        <v>0.00943982299563844</v>
       </c>
       <c r="G249" t="n">
+        <v>0.07008979430418216</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01312226189598695</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1457853614250762</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.02027452166306409</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1431327831241292</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.02829755599300771</v>
+        <v>0.01943285568122979</v>
       </c>
       <c r="M249" t="n">
-        <v>0.143498211656542</v>
+        <v>0.1437445995953026</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01231024931038437</v>
+        <v>0.02395798830541407</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1457853614250762</v>
+        <v>0.1431100772480282</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01218769216424111</v>
+        <v>0.009079128381336538</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06998406024815559</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01301433044422282</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1465776731719516</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.0198604118681561</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1439106786845864</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.02704385005770815</v>
+        <v>0.01971798641121802</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1442780932416319</v>
+        <v>0.1445258202452771</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01218769216424111</v>
+        <v>0.02291365305184762</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1465776731719516</v>
+        <v>0.1438878494069849</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01206537977182169</v>
+        <v>0.008726326277628184</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06987832619212903</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01280805293082041</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.147369984918827</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.01914470793828146</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1446885742450436</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.02649387919934842</v>
+        <v>0.01952248521450348</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1450579748267218</v>
+        <v>0.1453070408952516</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01206537977182169</v>
+        <v>0.02228408136664772</v>
       </c>
       <c r="O251" t="n">
-        <v>0.147369984918827</v>
+        <v>0.1446656215659416</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01204331520329555</v>
+        <v>0.008381728514417902</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06977259213610246</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.01280345896984618</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1481622966657024</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.01852740528274177</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1454664698055008</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.02624770934637566</v>
+        <v>0.0202473156518902</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1458378564118117</v>
+        <v>0.146088261545226</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01204331520329555</v>
+        <v>0.02226980211182039</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1481622966657024</v>
+        <v>0.1454433937248982</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01182150152883215</v>
+        <v>0.008045646921610236</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06966685808007589</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.0125005781753665</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1489546084125778</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.01780849931083861</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1462443653659581</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.02580540642723694</v>
+        <v>0.02059344128418233</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1466177379969016</v>
+        <v>0.1468694821952005</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01182150152883215</v>
+        <v>0.02127134414937171</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1489546084125778</v>
+        <v>0.1462211658838549</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01179994181860092</v>
+        <v>0.007718393329109723</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06956112402404931</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.0125994401614478</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1497469201594532</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.01778798543187354</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1470222609264153</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.02556703637037938</v>
+        <v>0.020361825672184</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1473976195819915</v>
+        <v>0.147650702845175</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01179994181860092</v>
+        <v>0.0216892363413077</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1497469201594532</v>
+        <v>0.1469989380428116</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01157863914277132</v>
+        <v>0.007400279566820961</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06945538996802274</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.0125000745421565</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1505392319063286</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.01736585905514809</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1478001564868725</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.02483266510425025</v>
+        <v>0.02115343237669934</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1481775011670814</v>
+        <v>0.1484319234951494</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01157863914277132</v>
+        <v>0.02112400754963439</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1505392319063286</v>
+        <v>0.1477767102017683</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0113575965715128</v>
+        <v>0.007091617464648474</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06934965591199617</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.01210251093155898</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.151331543653204</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.01664211558996384</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1485780520473297</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.02410235855729648</v>
+        <v>0.02096922495853237</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1489573827521713</v>
+        <v>0.1492131441451239</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0113575965715128</v>
+        <v>0.02037618663635787</v>
       </c>
       <c r="O256" t="n">
-        <v>0.151331543653204</v>
+        <v>0.1485544823607249</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01143681717499478</v>
+        <v>0.006792718852496805</v>
       </c>
       <c r="G257" t="n">
+        <v>0.0692439218559696</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01210677894372168</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1521238554000794</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.01591675044562238</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.149355947607787</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.02427618265796527</v>
+        <v>0.02181016697848731</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1497372643372612</v>
+        <v>0.1499943647950984</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01143681717499478</v>
+        <v>0.01994630246348433</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1521238554000794</v>
+        <v>0.1493322545196816</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01101630402338672</v>
+        <v>0.006503895560270499</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06913818779994303</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.012012908192711</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1529161671469549</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.01578975903142524</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1501338431682442</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.02345420333470372</v>
+        <v>0.02167722199736818</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1505171459223511</v>
+        <v>0.1507755854450729</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01101630402338672</v>
+        <v>0.02053488389301972</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1529161671469549</v>
+        <v>0.1501100266786383</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01109606018685808</v>
+        <v>0.006225459417874106</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06903245374391646</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01192092829259334</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1537084788938303</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.01516113675667402</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1509117387287014</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.02283648651595893</v>
+        <v>0.02247135357597915</v>
       </c>
       <c r="M259" t="n">
-        <v>0.151297027507441</v>
+        <v>0.1515568060950473</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01109606018685808</v>
+        <v>0.01924245978697003</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1537084788938303</v>
+        <v>0.150887798837595</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0107760887355783</v>
+        <v>0.005957722255212176</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06892671968788988</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.0118308688574351</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1545007906407057</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.01413087903067026</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1516896342891586</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.02242309813017801</v>
+        <v>0.0224935252751243</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1520769090925309</v>
+        <v>0.1523380267450218</v>
       </c>
       <c r="N260" t="n">
-        <v>0.0107760887355783</v>
+        <v>0.01916955900734135</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1545007906407057</v>
+        <v>0.1516655709965516</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01065639273971682</v>
+        <v>0.005700995902189226</v>
       </c>
       <c r="G261" t="n">
+        <v>0.0688209856318633</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01184275950130272</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1552931023875811</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.01399898126271551</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1524675298496159</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.02171410410580804</v>
+        <v>0.02324470065560774</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1528567906776208</v>
+        <v>0.1531192473949963</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01065639273971682</v>
+        <v>0.01871671041613976</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1552931023875811</v>
+        <v>0.1524433431555083</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01063697526944308</v>
+        <v>0.005455592188709862</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06871525157583673</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.0115566298382626</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1560854141344565</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.01306543886211142</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1532454254100731</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.02070957037129617</v>
+        <v>0.02372584327823363</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1536366722627107</v>
+        <v>0.1539004680449707</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01063697526944308</v>
+        <v>0.0186844428753713</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1560854141344565</v>
+        <v>0.153221115314465</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01041783939492653</v>
+        <v>0.0052218229446786</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06860951751981016</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.01167250948238115</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1568777258813319</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.01303024723815949</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1540233209705303</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.02020956285508957</v>
+        <v>0.02393791670380602</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1544165538478006</v>
+        <v>0.1546816886949452</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01041783939492653</v>
+        <v>0.01907328524704222</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1568777258813319</v>
+        <v>0.1539988874734217</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01059898818633663</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06850378346378359</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01169042804772476</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1576700376282074</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.01199340180016123</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1548012165309876</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.02031414748563531</v>
+        <v>0.02448188449312905</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1551964354328905</v>
+        <v>0.1554629093449197</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01059898818633663</v>
+        <v>0.01888376639315825</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1576700376282074</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1547766596323783</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06849062556904675</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.00571673536624636</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06849089409751076</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006429619833175478</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06849116262597478</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007138611503567101</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.0684914311544388</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007843668480108437</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06849169968290282</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.00854474886557937</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06849196821136683</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009241810762728848</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06849223673983085</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009934812274335868</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06849250526829487</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01062371150308908</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06849277379675889</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01130846655176764</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06849304232522291</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01198903552312051</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06849331085368691</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01266537651992596</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06849357938215095</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01333744764487409</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06849384791061496</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01400520700074333</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06849411643907898</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01466861269028264</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06849438496754298</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01532762281626955</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06849465349600702</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01598219548139563</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06849492202447102</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.0166322887884386</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06849519055293504</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.0172778608401474</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06849545908139905</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01791886973929879</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06849572760986308</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01855527358858589</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06849599613832709</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01918703049078564</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06849626466679111</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01981409854864699</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06849653319525513</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02043643586494587</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06849680172371915</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02105400054237702</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06849707025218317</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02166692176415845</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06849733878064718</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02227618411569</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.0684976073091112</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02288191678018875</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06849787583757522</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02348407786035089</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06849814436603924</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02408262545895179</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06849841289450324</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02467751767874042</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06849868142296726</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02526871262249135</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06849894995143128</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02585616839290206</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.0684992184798953</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02643984309274733</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06849948700835932</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02701969482477605</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06849975553682333</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02759568169176219</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06850002406528737</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02816776179640454</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06850029259375137</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02873589324147721</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06850056112221539</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02930003412972911</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.0685008296506794</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02986014256393348</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06850109817914343</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03041617664679053</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06850136670760744</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03096809448107363</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06850163523607146</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03151585416953175</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06850190376453547</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03205941381493739</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.0685021722929995</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03259873151999215</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06850244082146351</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03313376538746877</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06850270934992753</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03366447352011616</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06850297787839155</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03419081402070608</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06850324640685557</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03471274499194164</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06850351493531959</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03523022453659481</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06850378346378359</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03523022453659481</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06849062556904675</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.0358047401044011</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06859689668200136</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03637424357284458</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06870316779495596</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03693861582134975</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06880943890791057</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03749773772934085</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06891571002086518</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03805149017624225</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06902198113381978</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03859975404147839</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06912825224677439</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03914241020447352</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06923452335972899</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03967933954465208</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.0693407944726836</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04021042294143844</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06944706558563821</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04073554127425683</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.0695533366985928</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04125457542253175</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06965960781154741</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04176740626568749</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06976587892450203</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04227391468314838</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06987215003745663</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04277398155433886</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06997842115041124</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04326748775868325</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.07008469226336585</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04375431417560584</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.07019096337632044</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04423434168453109</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.07029723448927505</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04470745116488327</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.07040350560222966</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04517352349608683</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.07050977671518427</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04563243955756609</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.07061604782813888</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04608408022874533</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.07072231894109347</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04652832638904904</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.07082859005404808</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04696505891790148</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.07093486116700269</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04739415869472703</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.0710411322799573</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04781599300796729</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.07114740339291191</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04823336119114977</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.0712536745058665</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04864663053271616</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.07135994561882111</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04905568191209078</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.07146621673177572</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04946039620869788</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.07157248784473032</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04986065430196197</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.07167875895768494</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.05025633707130735</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.07178503007063955</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.05064732539615828</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.07189130118359414</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.05103350015593928</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.07199757229654875</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.05141474223007457</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.07210384340950335</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.05179093249798862</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.07221011452245796</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.05216195183910576</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.07231638563541258</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.05252768113285024</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.07242265674836718</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.05288800125864655</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.07252892786132178</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.05324279309591903</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.07263519897427639</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05359193752409193</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.07274147008723099</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.05393531542258974</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0728477412001856</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.05427280767083675</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.07295401231314021</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05460429514825728</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.07306028342609482</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.05492965873427579</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.07316655453904942</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05524877930831654</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.07327282565200402</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05556153774980396</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.07337909676495863</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05586781493816238</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.07348536787791324</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05616749175281611</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.07359163899086785</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05646044907318963</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.07369791010382246</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.05130696604879308</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.07369791010382246</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05656501439303742</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.07587516315710131</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05666202391377295</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.07805241621038018</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05675176098853223</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.08022966926365904</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05683450897045129</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.0824069223169379</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05691055121266619</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.08458417537021676</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05698017106831296</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.08676142842349562</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05704365189052764</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.08893868147677449</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05710127703244622</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.09111593453005336</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05715332984720477</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.09329318758333222</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05720009368793932</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.09547044063661109</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05724185190778594</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.09764769368988994</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05727888785988058</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.0998249467431688</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05731148489735936</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.1020021997964477</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05733992637335827</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1041794528497265</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05736449564101335</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1063567059030054</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05738547605346064</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1085339589562843</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05740315096383618</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1107112120095631</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.057417803725276</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.112888465062842</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05742971769091613</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1150657181161209</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05743917621389261</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1172429711693997</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05744646264734146</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1194202242226785</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05745186034439873</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1215974772759574</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05745565265820048</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1237747303292363</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05745812294188268</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1259519833825151</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05745955454858143</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.128129236435794</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05746023083143272</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1303064894890729</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05746043514357262</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1324837425423517</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05745406154401049</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1346609955956306</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05736134610779614</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1368382486489095</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05716521446906321</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1390155017021883</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05687455519751877</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1411927547554672</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.0564982568628699</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1433700078087461</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.0560452080348237</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1455472608620249</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.05552429728308723</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1477245139153038</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05494441317736755</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.0543144442873718</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1520790200218615</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05364327918280701</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1542562730751404</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.05293980643338024</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1564335261284192</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05221291460879862</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1586107791816981</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.05147149227876922</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.160788032234977</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.05072442801299909</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1629652852882558</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04998061038119533</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1651425383415347</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04924892795306504</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1673197913948135</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04853826929831526</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1694970444480924</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04785752298665308</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1716742975013713</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04721557758778559</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1738515505546501</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04662132167141986</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.176028803607929</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04608364380726297</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1782060566612079</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04561143256502199</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1803833097144867</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04521357651440404</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1825605627677656</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04489893864252813</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1847378158210445</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04463440627369425</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1869150688743233</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04438419205221587</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1890923219276022</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04414734173018389</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.191269574980881</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.0439229010596891</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1934468280341599</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.04370991579282235</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1956240810874388</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04350743168167447</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1978013341407177</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.0433144944783363</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1999785871939965</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04313014993489871</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2021558402472753</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.04295344380345248</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2043330933005542</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.04278342183608848</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2065103463538331</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.04261912978489756</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2086875994071119</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.04245961340197053</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2108648524603908</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.04230391843939826</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2130421055136697</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.04215109064927156</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2152193585669485</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.04200017578368126</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2173966116202274</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.04185021959471824</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2195738646735063</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.0417002678344733</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2217511177267851</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.04154936625503729</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.223928370780064</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.04139656060850105</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2261056238333428</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.04124089664695541</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2282828768866217</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.04108142012249122</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2304601299399006</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.04091717678719931</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2326373829931795</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.04074721239317051</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2348146360464583</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.04057057269249568</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2369918890997371</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.04038630343726564</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.239169142153016</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.04019583122914309</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2413463952062949</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.04000416462154328</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2435236482595737</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03981152052554432</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2457009013128526</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03961790915700346</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2478781543661315</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03942334073177797</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2500554074194103</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03922782546572511</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2522326604726892</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03903137357470213</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2544099135259681</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03883399527456628</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2565871665792469</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03863570078117483</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2587644196325258</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03843650031038502</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2609416726858046</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03823640407805412</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2631189257390835</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.0380354223000394</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2652961787923623</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03783356519219806</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2674734318456413</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03763084297038742</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2696506848989201</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03742726585046471</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.271827937952199</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03722284404828716</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2740051910054778</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03701758777971208</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2761824440587567</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03681150726059669</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2783596971120355</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03660461270679825</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2805369501653144</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03639691433417402</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2827142032185933</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03618842235858125</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2848914562718721</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.0359791469958772</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.287068709325151</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03576909846191915</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2892459623784299</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1072.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1072.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08830696604879308</v>
+        <v>0.06138813472195688</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03830696604879308</v>
+        <v>0.01138813472195688</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02373541010382245</v>
+        <v>0.01053666076010686</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.00153279986231377</v>
+        <v>0.002406929513424347</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.000744423334382045</v>
+        <v>0.001635170197373655</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00134641443408854</v>
+        <v>0.003253717134789724</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007923117468754139</v>
+        <v>0.001644989113152012</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004684084842445646</v>
+        <v>0.009939513123833149</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007812206499744707</v>
+        <v>0.001647604403143637</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008096181231283583</v>
+        <v>0.01477040141242514</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007777721589566751</v>
+        <v>0.001651196834450814</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003044484728639052</v>
+        <v>0.006326741512198267</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00148884666876409</v>
+        <v>0.003512220253368955</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002946738259162029</v>
+        <v>0.006064462753106153</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001584623493750828</v>
+        <v>0.003289978226304025</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.009325740677199656</v>
+        <v>0.01750886842406352</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001562441299948941</v>
+        <v>0.003374949223137628</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01543148333979555</v>
+        <v>0.02506336134662535</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00155554431791335</v>
+        <v>0.003057944301051939</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004534991985362773</v>
+        <v>0.007689140064945733</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002233270003146135</v>
+        <v>0.004905510592120964</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004432619441561314</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002376935240626241</v>
+        <v>0.004163541666666662</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01366548828525524</v>
+        <v>0.02077614808994085</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002343661949923412</v>
+        <v>0.004942813209430912</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02400000000000002</v>
+        <v>0.03142540042272651</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002612418300653597</v>
+        <v>0.004953590503352442</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.00600425901887193</v>
+        <v>0.008982289994536388</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00297769333752818</v>
+        <v>0.006540680789494619</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005735705947627227</v>
+        <v>0.01012795467320863</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003169246987501656</v>
+        <v>0.00657995645260805</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01799999999999999</v>
+        <v>0.02450330264358497</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003398809523809521</v>
+        <v>0.006590417612574549</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02662567292174511</v>
+        <v>0.03650882181352283</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.0031110886358267</v>
+        <v>0.006604787337803256</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01404888101347583</v>
+        <v>0.003512220253368955</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02530696604879308</v>
+        <v>0.006326741512198267</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007452223215553486</v>
+        <v>0.01004545415397139</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003722116671910225</v>
+        <v>0.008175850986868273</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.01178199819513501</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003885972222222222</v>
+        <v>0.008224945565760063</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01949589667942414</v>
+        <v>0.02672011134635457</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003906103249872354</v>
+        <v>0.008238022015718185</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03038089889159218</v>
+        <v>0.04029208103379617</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003888860794783375</v>
+        <v>0.00825598417225407</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008878821961794403</v>
+        <v>0.01138813472195688</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00446654000629227</v>
+        <v>0.01053666076010686</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007679842461250766</v>
+        <v>0.01315797124708716</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004753870481252483</v>
+        <v>0.009869934678912074</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02176141715240232</v>
+        <v>0.02917784625724368</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004687323899846825</v>
+        <v>0.009885626418861823</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03457619507778698</v>
+        <v>0.04381967605924603</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004666632953740051</v>
+        <v>0.009907181006704884</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01028399264398167</v>
+        <v>0.01089549890653504</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005210963340674314</v>
+        <v>0.01144619138161558</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008504005475556006</v>
+        <v>0.01431416263785283</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005546182228127897</v>
+        <v>0.01151492379206409</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02361366926406747</v>
+        <v>0.03102777943524632</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005468544549821295</v>
+        <v>0.01153323082200546</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03822896551177296</v>
+        <v>0.04753610486557164</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005444405112696725</v>
+        <v>0.0115583778411557</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01166767264850222</v>
+        <v>0.01080154364293147</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00595538667505636</v>
+        <v>0.01308136157898924</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009467694683852931</v>
+        <v>0.01512646549221072</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006338493975003311</v>
+        <v>0.01249062499999999</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02577495925965492</v>
+        <v>0.03367090081550678</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006249765199795766</v>
+        <v>0.01301106770833332</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04165661422499389</v>
+        <v>0.05221533613880286</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006222177271653401</v>
+        <v>0.01372596153846153</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01302979936174306</v>
+        <v>0.01269352712802298</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006699810009438405</v>
+        <v>0.01471653177636289</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01007737173130595</v>
+        <v>0.0165007913467824</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007130805721878725</v>
+        <v>0.01480490201836811</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0269675933844</v>
+        <v>0.03587562437690833</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007030985849770237</v>
+        <v>0.01482843962829273</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04447654524889338</v>
+        <v>0.05428998984381828</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006999949430610076</v>
+        <v>0.01486077151005732</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01437031017009114</v>
+        <v>0.01456415279266794</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00744423334382045</v>
+        <v>0.01635170197373655</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0107394982630795</v>
+        <v>0.01768131198755798</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00792311746875414</v>
+        <v>0.01644989113152013</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02851387788353801</v>
+        <v>0.03878402107295525</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007812206499744708</v>
+        <v>0.01647604403143637</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04740616261491509</v>
+        <v>0.05843009752696682</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007777721589566751</v>
+        <v>0.01651196834450814</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01568914245993344</v>
+        <v>0.01440612406772471</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008188656678202495</v>
+        <v>0.0179868721711102</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01156053592433795</v>
+        <v>0.01884137142221386</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008715429215629553</v>
+        <v>0.01809488024467214</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02983611900230435</v>
+        <v>0.04081130769562122</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008593427149719179</v>
+        <v>0.01812364843458001</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04956287035450263</v>
+        <v>0.06203303552277567</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008555493748523426</v>
+        <v>0.01816316517895895</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01698623361765693</v>
+        <v>0.01421214438405168</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008933080012584541</v>
+        <v>0.01962204236848386</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01184694636024573</v>
+        <v>0.0200699698775284</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009507740962504965</v>
+        <v>0.01973986935782415</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03165662298593427</v>
+        <v>0.04392395428903412</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00937464779969365</v>
+        <v>0.01977125283772365</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05221533613880286</v>
+        <v>0.06604471907946752</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009472798590540807</v>
+        <v>0.01981436201340977</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01826152102964856</v>
+        <v>0.0149749171725072</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009677503346966584</v>
+        <v>0.02125721256585751</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01250519121596728</v>
+        <v>0.02125610758028003</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01030005270938038</v>
+        <v>0.02138485847097616</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03259769607966317</v>
+        <v>0.04598843089732182</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01015586844966812</v>
+        <v>0.02141885724086728</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05320017083400153</v>
+        <v>0.069811063445265</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01011103806643678</v>
+        <v>0.02146555884786058</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0195149420822953</v>
+        <v>0.01568714586394966</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01042192668134863</v>
+        <v>0.02289238276323117</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01294173213666698</v>
+        <v>0.02238878475724711</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01109236445625579</v>
+        <v>0.02302984758412817</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03367090081550678</v>
+        <v>0.04857120756461236</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01059638688583243</v>
+        <v>0.02306646164401092</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05541848285341422</v>
+        <v>0.07387798386839095</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01088881022539345</v>
+        <v>0.02311675568231139</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02074643416198414</v>
+        <v>0.01634153388923743</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01116635001573067</v>
+        <v>0.02452755296060482</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01346303076750927</v>
+        <v>0.0233570016352081</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01188467620313121</v>
+        <v>0.02467483669728019</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03516716830346481</v>
+        <v>0.05073875433503361</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01171830974961706</v>
+        <v>0.02471406604715456</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05752116101998928</v>
+        <v>0.07669139559706784</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01166658238435013</v>
+        <v>0.02476795251676221</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02195593465510205</v>
+        <v>0.01793078467922887</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01191077335011272</v>
+        <v>0.02616272315797848</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01397554875365851</v>
+        <v>0.02424975844094132</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01267698795000662</v>
+        <v>0.0263198258104322</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03624863010151483</v>
+        <v>0.05265754125271352</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01249953039959153</v>
+        <v>0.02636167045029819</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05870676778397155</v>
+        <v>0.0802972138795186</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0124443545433068</v>
+        <v>0.02641914935121302</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02314338094803599</v>
+        <v>0.01844760166478236</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01265519668449477</v>
+        <v>0.02779789335535213</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01458574774027917</v>
+        <v>0.02475605540122526</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01346929969688204</v>
+        <v>0.02796481492358421</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03732870074518602</v>
+        <v>0.05469403836177991</v>
       </c>
       <c r="M82" t="n">
-        <v>0.013280751049566</v>
+        <v>0.02800927485344184</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0605738655956064</v>
+        <v>0.08404135396396584</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01322212670226348</v>
+        <v>0.02807034618566383</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02430871042717292</v>
+        <v>0.01788468827675627</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01339962001887681</v>
+        <v>0.02943306355272578</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01512646549221072</v>
+        <v>0.02546489274283822</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01399548207693663</v>
+        <v>0.02960980403673622</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03840594215560791</v>
+        <v>0.05671471570636077</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01406197169954047</v>
+        <v>0.02965687925658547</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06292101690513874</v>
+        <v>0.08706973109863225</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01399989886122015</v>
+        <v>0.02972154302011465</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02530696604879308</v>
+        <v>0.01923474794600898</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01404888101347583</v>
+        <v>0.03106823375009944</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01552362629878254</v>
+        <v>0.02606527069255869</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01505392319063286</v>
+        <v>0.03125479314988824</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03997891625390987</v>
+        <v>0.05778604333058407</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01484319234951494</v>
+        <v>0.03130448365972911</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06454678416281373</v>
+        <v>0.0886282605317405</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01477767102017683</v>
+        <v>0.03137273985456546</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02657897425866676</v>
+        <v>0.02051261823523186</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0148884666876409</v>
+        <v>0.03270340394747309</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01635567789707185</v>
+        <v>0.02684618947716502</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01584623493750828</v>
+        <v>0.03289978226304025</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04104618496122137</v>
+        <v>0.0594744912785776</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01562441299948942</v>
+        <v>0.03295208806287274</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06604972981887647</v>
+        <v>0.09146285751151334</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0155554431791335</v>
+        <v>0.03302393668901628</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0276919130143827</v>
+        <v>0.02077904512275218</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01563289002202294</v>
+        <v>0.03433857414484675</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01669499794777887</v>
+        <v>0.02692145221058682</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01663854668438369</v>
+        <v>0.03454477137619226</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04180631019867184</v>
+        <v>0.06036504497410686</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01640563364946389</v>
+        <v>0.03459969246601638</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06762841632357214</v>
+        <v>0.0926194372861735</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01633321533809018</v>
+        <v>0.03467513352346709</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02878864796086084</v>
+        <v>0.01903645678409466</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01637731335640499</v>
+        <v>0.03597374434222041</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01744028330109924</v>
+        <v>0.02747817173517253</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01743085843125911</v>
+        <v>0.03618976048934427</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04295785388739071</v>
+        <v>0.06116691168432759</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01718685429943836</v>
+        <v>0.03624729686916001</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07008140612714558</v>
+        <v>0.09377920152550195</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01711098749704685</v>
+        <v>0.0363263303579179</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02986706500031505</v>
+        <v>0.02028307757630154</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01712173669078703</v>
+        <v>0.03760891453959406</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01779023080722861</v>
+        <v>0.02762292243360685</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01822317017813452</v>
+        <v>0.03783474960249628</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04449937794850745</v>
+        <v>0.06154356041570253</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01796807494941283</v>
+        <v>0.03789490127230365</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07190726167984218</v>
+        <v>0.09480228910634086</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01788875965600353</v>
+        <v>0.03797752719236872</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03092505003495931</v>
+        <v>0.02051713185641511</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01786616002516908</v>
+        <v>0.03924408473696771</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01844353731636265</v>
+        <v>0.02815330303750496</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01901548192500993</v>
+        <v>0.0394797387156483</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04562944430315152</v>
+        <v>0.06218962050741994</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0187492955993873</v>
+        <v>0.03954250567544729</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07280454543190679</v>
+        <v>0.0960809441473085</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0186665318149602</v>
+        <v>0.03962872402681954</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03196048896700747</v>
+        <v>0.02073684398147761</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01861058335955112</v>
+        <v>0.04087925493434137</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01899889967869701</v>
+        <v>0.02836691227848213</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01980779367188535</v>
+        <v>0.04112472782880031</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04684661487245234</v>
+        <v>0.06329972129866795</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01953051624936177</v>
+        <v>0.04119011007859093</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07457181983358457</v>
+        <v>0.09690678346866005</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01944430397391688</v>
+        <v>0.04127992086127035</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03297126769867348</v>
+        <v>0.02194043830853132</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01935500669393317</v>
+        <v>0.04251442513171502</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01945501474442735</v>
+        <v>0.02876134888815361</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02060010541876076</v>
+        <v>0.04276971694195233</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04744945157753933</v>
+        <v>0.06346849212863481</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02031173689933624</v>
+        <v>0.04283771448173457</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07610764733512076</v>
+        <v>0.09827142389065036</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02022207613287355</v>
+        <v>0.04293111769572117</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03395527213217121</v>
+        <v>0.02012613919461846</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02009943002831522</v>
+        <v>0.04414959532908868</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02011057936374935</v>
+        <v>0.0290342115981346</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02139241716563618</v>
+        <v>0.04441470605510434</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04913651633954194</v>
+        <v>0.06449056233650868</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02109295754931071</v>
+        <v>0.0444853188848782</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07831059038676036</v>
+        <v>0.09926648223353463</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02099984829183022</v>
+        <v>0.04458231453017197</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03491038816971462</v>
+        <v>0.02129217099678136</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02084385336269726</v>
+        <v>0.04578476552646234</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02076429038685866</v>
+        <v>0.02938309914004035</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02218472891251159</v>
+        <v>0.04605969516825634</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04970637107958964</v>
+        <v>0.06526056126147789</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02187417819928518</v>
+        <v>0.04613292328802184</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08027921143874839</v>
+        <v>0.1007835753175678</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0217776204507869</v>
+        <v>0.04623351136462279</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0358345017135176</v>
+        <v>0.02143675807206223</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0215882766970793</v>
+        <v>0.04741993572383599</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02121484466395095</v>
+        <v>0.02940561024548607</v>
       </c>
       <c r="K94" t="n">
-        <v>0.022977040659387</v>
+        <v>0.04770468428140836</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05065757771881188</v>
+        <v>0.06557311824273054</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02265539884925965</v>
+        <v>0.04778052769116548</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08121207294133004</v>
+        <v>0.1016143199630049</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02255539260974358</v>
+        <v>0.0478847081990736</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03672549866579405</v>
+        <v>0.02155812477750338</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02233270003146135</v>
+        <v>0.04905510592120964</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02186093904522186</v>
+        <v>0.02959934364608702</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02376935240626242</v>
+        <v>0.04934967339456037</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05168869817833804</v>
+        <v>0.06592286261945493</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02343661949923412</v>
+        <v>0.04942813209430912</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08270773734475034</v>
+        <v>0.1024503329901009</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02333316476870025</v>
+        <v>0.04953590503352442</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03758126492875791</v>
+        <v>0.02165449547014704</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0230771233658434</v>
+        <v>0.0506902761185833</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02240127038086707</v>
+        <v>0.0298618980734584</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02456166415313783</v>
+        <v>0.05099466250771239</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05269829437929757</v>
+        <v>0.06640442373083916</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02421784014920859</v>
+        <v>0.05107573649745275</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08436476709925439</v>
+        <v>0.1021832312191109</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02411093692765693</v>
+        <v>0.05118710186797523</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03830696604879308</v>
+        <v>0.02272409450703548</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02373541010382245</v>
+        <v>0.05232544631595695</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02273453552108223</v>
+        <v>0.03009087225921549</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02535397590001325</v>
+        <v>0.0526396516208644</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05398492824282</v>
+        <v>0.06681243091607156</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02499906079918306</v>
+        <v>0.05272334090059639</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0854817246550873</v>
+        <v>0.10350463147029</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0248887090866136</v>
+        <v>0.05283829870242605</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03920946409054533</v>
+        <v>0.02277626944391375</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02456597003460749</v>
+        <v>0.0539606165133306</v>
       </c>
       <c r="J98" t="n">
-        <v>0.023359431316063</v>
+        <v>0.02988386493497351</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02614628764688866</v>
+        <v>0.05428464073401642</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05494716169003469</v>
+        <v>0.0671415135143402</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02578028144915753</v>
+        <v>0.05437094530374003</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08735717246249425</v>
+        <v>0.103306150563893</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02566648124557028</v>
+        <v>0.05448949553687686</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04002480292890412</v>
+        <v>0.02077607730444615</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02531039336898953</v>
+        <v>0.05559578671070427</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02367465461600506</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02693859939376407</v>
+        <v>0.05592962984716842</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05588355664207106</v>
+        <v>0.06734180163101358</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02656150209913201</v>
+        <v>0.05601854970688367</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08788967297172018</v>
+        <v>0.1037794053201751</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02644425340452695</v>
+        <v>0.05614069237132767</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04084118620047864</v>
+        <v>0.02076606859936256</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02605481670337157</v>
+        <v>0.05723095690807792</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02447890227110405</v>
+        <v>0.02995262410303431</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02773091114063948</v>
+        <v>0.05757461896032044</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05709267502005863</v>
+        <v>0.06674142230673935</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02734272274910647</v>
+        <v>0.0576661541100273</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0899777886330102</v>
+        <v>0.1044306722776057</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02722202556348362</v>
+        <v>0.05779188920577849</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04165375963760215</v>
+        <v>0.02074154711142297</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02679924003775362</v>
+        <v>0.05886612710545157</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02487087113155563</v>
+        <v>0.03013888635475248</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0285232228875149</v>
+        <v>0.05921960807347244</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05777307874512685</v>
+        <v>0.06692273994309306</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02812394339908095</v>
+        <v>0.05931375851317094</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09132008189660956</v>
+        <v>0.1038196003615696</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02799979772244031</v>
+        <v>0.0594430860402293</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04245766897260794</v>
+        <v>0.02270344865567282</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02754366337213566</v>
+        <v>0.06050129730282523</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02514925804755549</v>
+        <v>0.03000566626143231</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02931553463439031</v>
+        <v>0.06086459718662446</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05842332973840506</v>
+        <v>0.0669596275576147</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02890516404905542</v>
+        <v>0.06096136291631458</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09261511521276317</v>
+        <v>0.10414537208004</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02877756988139698</v>
+        <v>0.06109428287468012</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04324805993782932</v>
+        <v>0.02065270904715755</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02828808670651771</v>
+        <v>0.06213646750019888</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02561275986929924</v>
+        <v>0.02995422936076132</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03010784638126573</v>
+        <v>0.06250958629977647</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0595419899210228</v>
+        <v>0.06655510840252002</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02968638469902989</v>
+        <v>0.06260896731945821</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09286145103171622</v>
+        <v>0.1041050944891592</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02955534204035365</v>
+        <v>0.06274547970913093</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04402007826559957</v>
+        <v>0.02059026410092256</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02903251004089975</v>
+        <v>0.06377163769757253</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02636007344698257</v>
+        <v>0.02998584119042706</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03090015812814114</v>
+        <v>0.06415457541292849</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05982762121410948</v>
+        <v>0.06651201297093806</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03046760534900436</v>
+        <v>0.06425657172260184</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09445765180371385</v>
+        <v>0.1038031857664103</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03033311419931033</v>
+        <v>0.06439667654358175</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04476886968825196</v>
+        <v>0.02151704963201331</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0297769333752818</v>
+        <v>0.06540680789494618</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02668989563080115</v>
+        <v>0.03000176728811699</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03169246987501656</v>
+        <v>0.0657995645260805</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06057878553879453</v>
+        <v>0.06623317175599799</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03124882599897883</v>
+        <v>0.06590417612574548</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0952022799790011</v>
+        <v>0.1032440640892764</v>
       </c>
       <c r="O105" t="n">
-        <v>0.031110886358267</v>
+        <v>0.06604787337803256</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04548957993811979</v>
+        <v>0.02043400145547522</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03052135670966384</v>
+        <v>0.06704197809231985</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02720092327095065</v>
+        <v>0.02990327319151864</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03248478162189197</v>
+        <v>0.0674445536392325</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06189404481620736</v>
+        <v>0.06612141525082882</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0320300466489533</v>
+        <v>0.06755178052888912</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09679389800782295</v>
+        <v>0.1027321476352406</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03188865851722368</v>
+        <v>0.06769907021248338</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04617735474753633</v>
+        <v>0.02234205538635373</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03126578004404588</v>
+        <v>0.0686771482896935</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02759185321762671</v>
+        <v>0.02969162443831952</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03327709336876739</v>
+        <v>0.06908954275238452</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06217196096747749</v>
+        <v>0.06577957394855966</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03281126729892778</v>
+        <v>0.06919938493203276</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09723106834042466</v>
+        <v>0.1027718545817859</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03266643067618035</v>
+        <v>0.06935026704693419</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04682733984883487</v>
+        <v>0.02224214723969425</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03201020337842794</v>
+        <v>0.07031231848706715</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02766138232102498</v>
+        <v>0.02966808656620716</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0340694051156428</v>
+        <v>0.07073453186553653</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06311109591373432</v>
+        <v>0.06571047834231955</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03359248794890225</v>
+        <v>0.0708469893351764</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09801235342705128</v>
+        <v>0.1025676031063956</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03344420283513703</v>
+        <v>0.07100146388138499</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04743468097434872</v>
+        <v>0.02013521283054223</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03275462671280998</v>
+        <v>0.07194748868444081</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02800820743134115</v>
+        <v>0.02933392511286906</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03486171686251821</v>
+        <v>0.07237952097868855</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06361001157610727</v>
+        <v>0.06561695892523767</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03437370859887671</v>
+        <v>0.07249459373832003</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09863631571794784</v>
+        <v>0.1016238113865526</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03422197499409371</v>
+        <v>0.0726526607158358</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04799452385641111</v>
+        <v>0.02202218797394311</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03349905004719202</v>
+        <v>0.07358265888181446</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02833102539877086</v>
+        <v>0.02919040561599272</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03565402860939362</v>
+        <v>0.07402451009184056</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06416726987572582</v>
+        <v>0.06490184619044306</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03515492924885118</v>
+        <v>0.07414219814146367</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09980151766335948</v>
+        <v>0.10114489759974</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03499974715305038</v>
+        <v>0.07430385755028662</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04850201422735538</v>
+        <v>0.01990400848494228</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03424347338157407</v>
+        <v>0.07521782907918811</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02882853307350976</v>
+        <v>0.02903879361326568</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03644634035626904</v>
+        <v>0.07566949920499257</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0646814327337194</v>
+        <v>0.0646679706310648</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03593614989882565</v>
+        <v>0.07578980254460731</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1008065217135314</v>
+        <v>0.1007352799234411</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03577751931200705</v>
+        <v>0.07595505438473743</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0489522978195148</v>
+        <v>0.02178161017858522</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03498789671595612</v>
+        <v>0.07685299927656178</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02909942730575353</v>
+        <v>0.02908035464237545</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03723865210314446</v>
+        <v>0.07731448831814458</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06485106207121746</v>
+        <v>0.06461816274023194</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03671737054880013</v>
+        <v>0.07743740694775095</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1013498903187084</v>
+        <v>0.09999937653513896</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03655529147096372</v>
+        <v>0.07760625121918825</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04934052036522264</v>
+        <v>0.01965592886991732</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03573232005033816</v>
+        <v>0.07848816947393543</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02924240494569784</v>
+        <v>0.0287163542410095</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03803096385001986</v>
+        <v>0.0789594774312966</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06557471980934945</v>
+        <v>0.06405525301107359</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0374985911987746</v>
+        <v>0.07908501135089459</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1018301859291359</v>
+        <v>0.1001416056123165</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03733306362992041</v>
+        <v>0.07925744805363907</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.0496618275968122</v>
+        <v>0.01952790037398405</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0364767433847202</v>
+        <v>0.08012333967130908</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02935616284353836</v>
+        <v>0.02874805794685541</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03882327559689528</v>
+        <v>0.08060446654444861</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06555096786924475</v>
+        <v>0.0634820719367189</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03827981184874907</v>
+        <v>0.08073261575403821</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1024459709950588</v>
+        <v>0.09956638533245699</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03811083578887708</v>
+        <v>0.08090864488808988</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04994083752665718</v>
+        <v>0.02139846050583082</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03722116671910225</v>
+        <v>0.08175850986868274</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02973939784947069</v>
+        <v>0.02827673129760067</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03961558734377069</v>
+        <v>0.08224945565760063</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0659783681720329</v>
+        <v>0.0633014500102968</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03906103249872354</v>
+        <v>0.08238022015718185</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1021958079667223</v>
+        <v>0.09847813387304344</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03888860794783375</v>
+        <v>0.0825598417225407</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05021580805369563</v>
+        <v>0.02026854508050305</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03796559005348429</v>
+        <v>0.08339368006605639</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02999080681369055</v>
+        <v>0.02830363983093276</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04040789909064611</v>
+        <v>0.08389444477075263</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06675548263884326</v>
+        <v>0.06271621772493655</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03984225314869801</v>
+        <v>0.0840278245603255</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1029782592943714</v>
+        <v>0.09758126941155904</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03966638010679043</v>
+        <v>0.08421103855699151</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.050486891540407</v>
+        <v>0.02113908991304618</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03871001338786634</v>
+        <v>0.08502885026343004</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03010908658639358</v>
+        <v>0.02793004908453922</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04120021083752152</v>
+        <v>0.08553943388390466</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06658087319080527</v>
+        <v>0.06292920557376711</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04062347379867248</v>
+        <v>0.08567542896346914</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1031918874282513</v>
+        <v>0.09758021012548684</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0404441522657471</v>
+        <v>0.08586223539144233</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0507540129333364</v>
+        <v>0.02101103081850564</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03945443672224838</v>
+        <v>0.08666402046080371</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02989293401777546</v>
+        <v>0.02785722459610755</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04199252258439694</v>
+        <v>0.08718442299705666</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06675310174904847</v>
+        <v>0.06194324404991763</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04140469444864695</v>
+        <v>0.08732303336661276</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1037352548186069</v>
+        <v>0.09667937419230999</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04122192442470378</v>
+        <v>0.08751343222589314</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05101709717902882</v>
+        <v>0.01987558002903587</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04019886005663043</v>
+        <v>0.08829919065817736</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03025293098442144</v>
+        <v>0.02768640608720259</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04278483433127235</v>
+        <v>0.08882941211020867</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06717073023470219</v>
+        <v>0.06166116364651714</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04218591509862142</v>
+        <v>0.0889706377697564</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1040069239156834</v>
+        <v>0.09568317978951146</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04199969658366045</v>
+        <v>0.08916462906034395</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.05127606922402936</v>
+        <v>0.02072133846865749</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04094328339101248</v>
+        <v>0.08993436085555101</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03005276689040823</v>
+        <v>0.0276019684436405</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04357714607814776</v>
+        <v>0.09047440122336069</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06734180163101358</v>
+        <v>0.06166266407921572</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04296713574859589</v>
+        <v>0.09061824217290004</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1044306722776057</v>
+        <v>0.09548247177588515</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04277746874261713</v>
+        <v>0.09081582589479475</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05153085401488311</v>
+        <v>0.01855125931083952</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04168770672539451</v>
+        <v>0.09156953105292467</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03004738155603355</v>
+        <v>0.02739269677419874</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04436945782502318</v>
+        <v>0.09211939033651269</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06733904741494623</v>
+        <v>0.06100791675260267</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04374835639857036</v>
+        <v>0.09226584657604368</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1043294116632379</v>
+        <v>0.09460218547336718</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0435552409015738</v>
+        <v>0.09246702272924558</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05178137649813509</v>
+        <v>0.02036839155286287</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04243213005977656</v>
+        <v>0.09320470125029832</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03003457802731638</v>
+        <v>0.02706271435193952</v>
       </c>
       <c r="K122" t="n">
-        <v>0.0451617695718986</v>
+        <v>0.09376437944966472</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06671157851337478</v>
+        <v>0.06020482811938876</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04452957704854484</v>
+        <v>0.09391345097918732</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1039783231185576</v>
+        <v>0.09454212782234084</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04433301306053048</v>
+        <v>0.09411821956369638</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05202756162033043</v>
+        <v>0.02017578419200838</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04317655339415861</v>
+        <v>0.09483987144767198</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03001461699425878</v>
+        <v>0.02671614444992514</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04595408131877401</v>
+        <v>0.09540936856281672</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06665560859954725</v>
+        <v>0.05976262026453216</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0453107976985193</v>
+        <v>0.09556105538233095</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1036551623082362</v>
+        <v>0.09311669377317411</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04511078521948715</v>
+        <v>0.09576941639814721</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.0522693343280141</v>
+        <v>0.01897648622555695</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04392097672854065</v>
+        <v>0.09647504164504563</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03018775914686291</v>
+        <v>0.02675711034121779</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04674639306564942</v>
+        <v>0.09705435767596873</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06707232151361361</v>
+        <v>0.05969051527299105</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04609201834849377</v>
+        <v>0.09720865978547459</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1040635755488145</v>
+        <v>0.09194027827623447</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04588855737844383</v>
+        <v>0.09742061323259801</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05250661956773126</v>
+        <v>0.01877354665078943</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0446654000629227</v>
+        <v>0.09811021184241929</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02995426517513086</v>
+        <v>0.02628973529887976</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04753870481252483</v>
+        <v>0.09869934678912075</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06676290109572383</v>
+        <v>0.05879773522972359</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04687323899846824</v>
+        <v>0.09885626418861823</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1033072091568335</v>
+        <v>0.09172727628189004</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04666632953740051</v>
+        <v>0.09907181006704883</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05273934228602692</v>
+        <v>0.01857001446498672</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04540982339730475</v>
+        <v>0.09974538203979294</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02981439576906479</v>
+        <v>0.02601814259597331</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04833101655940025</v>
+        <v>0.1003443359022728</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06682853118602788</v>
+        <v>0.05799350221968805</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04765445964844271</v>
+        <v>0.1005038685917619</v>
       </c>
       <c r="N126" t="n">
-        <v>0.102589709448834</v>
+        <v>0.08999208274050835</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04744410169635718</v>
+        <v>0.1007230069014996</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05296742742944616</v>
+        <v>0.01836893866542968</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04615424673168679</v>
+        <v>0.1013805522371666</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02976841161866681</v>
+        <v>0.02574645550556062</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04912332830627566</v>
+        <v>0.1019893250154248</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06667039562467572</v>
+        <v>0.05728703832784254</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04843568029841719</v>
+        <v>0.1021514729949055</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1025147227413569</v>
+        <v>0.0899490926024572</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04822187385531385</v>
+        <v>0.1023742037359505</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05319079994453405</v>
+        <v>0.0191733682493992</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04689867006606883</v>
+        <v>0.1030157224345403</v>
       </c>
       <c r="J128" t="n">
-        <v>0.029916573413939</v>
+        <v>0.02567879730070402</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04991564005315108</v>
+        <v>0.1036343141285768</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06628967825181728</v>
+        <v>0.05718756563914526</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04921690094839166</v>
+        <v>0.1037990773980491</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1021858953509429</v>
+        <v>0.08851270081810453</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04899964601427053</v>
+        <v>0.1040254005704013</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05340938477783566</v>
+        <v>0.01798635221417615</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04764309340045088</v>
+        <v>0.1046508926319139</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02985914184488353</v>
+        <v>0.02521929125446573</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05070795180002649</v>
+        <v>0.1052793032417288</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06628756290760257</v>
+        <v>0.0565043062385544</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04999812159836613</v>
+        <v>0.1054466818011928</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1012068735941329</v>
+        <v>0.08819730233781803</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04977741817322721</v>
+        <v>0.1056765974048521</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05362310687589604</v>
+        <v>0.01879929806438506</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04838751673483292</v>
+        <v>0.1062860628292876</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02989637760150252</v>
+        <v>0.02487203880254411</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0515002635469019</v>
+        <v>0.1069242923548808</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06566523343218147</v>
+        <v>0.05574648221102818</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0507793422483406</v>
+        <v>0.1070942862043364</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1007813037874681</v>
+        <v>0.08711729211196545</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05055519033218388</v>
+        <v>0.1073277942393029</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05383189118526027</v>
+        <v>0.0185947616997788</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04913194006921497</v>
+        <v>0.1079212330266612</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02982854137379806</v>
+        <v>0.02471748182397607</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05229257529377732</v>
+        <v>0.1085692814680328</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06552387366570403</v>
+        <v>0.05508982001290003</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05156056289831507</v>
+        <v>0.1087418906074801</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1009128322474889</v>
+        <v>0.08546533048238508</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05133296249114055</v>
+        <v>0.1089789910737537</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05403566265247341</v>
+        <v>0.01837665316057004</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04987636340359701</v>
+        <v>0.1095564032240349</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02965589385177228</v>
+        <v>0.02443999442086284</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05308488704065274</v>
+        <v>0.1102142705811848</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0653646674483202</v>
+        <v>0.05468083932986867</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05234178354828954</v>
+        <v>0.1103894950106237</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1005051052907364</v>
+        <v>0.0853410293841152</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05211073465009723</v>
+        <v>0.1106301879082045</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05423434622408051</v>
+        <v>0.01814933708725961</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05062078673797906</v>
+        <v>0.1111915734214085</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0294786957254273</v>
+        <v>0.02414547905980091</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05387719878752815</v>
+        <v>0.1118592596943368</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06478879862017992</v>
+        <v>0.05383106842402424</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05312300419826401</v>
+        <v>0.1120370994137673</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09906176923375143</v>
+        <v>0.08374727860944992</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0528885068090539</v>
+        <v>0.1122813847426553</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05442786684662666</v>
+        <v>0.01691717812034826</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0513652100723611</v>
+        <v>0.1128267436187822</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02929720768476529</v>
+        <v>0.02373983820738684</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05466951053440355</v>
+        <v>0.1135042488074888</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06499745102143314</v>
+        <v>0.05325370871268595</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05390422484823848</v>
+        <v>0.113684703816911</v>
       </c>
       <c r="N134" t="n">
-        <v>0.09858647039307483</v>
+        <v>0.08330468453405782</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05366627896801058</v>
+        <v>0.1139325815771061</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05461614946665691</v>
+        <v>0.01768454090033677</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05210963340674315</v>
+        <v>0.1144619138161558</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02951169041978829</v>
+        <v>0.02342897433021711</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05546182228127897</v>
+        <v>0.1151492379206409</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06459180849222984</v>
+        <v>0.05256196161317311</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05468544549821295</v>
+        <v>0.1153323082200546</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09778285508524748</v>
+        <v>0.08223385353360735</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05444405112696725</v>
+        <v>0.115583778411557</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05479911903071633</v>
+        <v>0.01645579006772593</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05285405674112519</v>
+        <v>0.1160970840135295</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02922240462049849</v>
+        <v>0.02341878989488827</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05625413402815439</v>
+        <v>0.1167942270337929</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06427305487271998</v>
+        <v>0.05196902854280505</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05546666614818743</v>
+        <v>0.1169799126231982</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09755456962681025</v>
+        <v>0.08075539198376713</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05522182328592393</v>
+        <v>0.1172349752460078</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05497670048535</v>
+        <v>0.01523529026301652</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05359848007550724</v>
+        <v>0.1177322542109031</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02922961097689797</v>
+        <v>0.02281518736799686</v>
       </c>
       <c r="K137" t="n">
-        <v>0.0570464457750298</v>
+        <v>0.1184392161469449</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0641423740030535</v>
+        <v>0.05098811091890093</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05624788679816189</v>
+        <v>0.1186275170263419</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09690526033430397</v>
+        <v>0.08028990626020543</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05599959544488061</v>
+        <v>0.1188861720804586</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05514881877710297</v>
+        <v>0.01602740612670931</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05434290340988928</v>
+        <v>0.1193674244082768</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02903357017898886</v>
+        <v>0.02252406921613941</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05783875752190521</v>
+        <v>0.1200842052600969</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06380094972338041</v>
+        <v>0.05093241015878006</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05702910744813636</v>
+        <v>0.1202751214294855</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09553857352426953</v>
+        <v>0.07915800273859097</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05677736760383728</v>
+        <v>0.1205373689149094</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05531539885252031</v>
+        <v>0.0168365022993051</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05508732674427132</v>
+        <v>0.1210025946056505</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0288345429167733</v>
+        <v>0.02255133790591239</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05863106926878062</v>
+        <v>0.1217291943732489</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06284996587385064</v>
+        <v>0.05031512767976171</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05781032809811084</v>
+        <v>0.1219227258326292</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09475815551324773</v>
+        <v>0.07728028779459212</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05755513976279396</v>
+        <v>0.1221885657493602</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05547636565814705</v>
+        <v>0.01466694342130465</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05583175007865337</v>
+        <v>0.1226377648030241</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02903278988025339</v>
+        <v>0.0221028959039124</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05942338101565605</v>
+        <v>0.1233741834864009</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06279060629461414</v>
+        <v>0.04954946489916509</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05859154874808531</v>
+        <v>0.1235703302357728</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09366765261777948</v>
+        <v>0.07707736780387742</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05833291192175063</v>
+        <v>0.123839762583811</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05563164414052832</v>
+        <v>0.01452309413320874</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05657617341303543</v>
+        <v>0.1242729350003978</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02892857175943127</v>
+        <v>0.02188464567673594</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06021569276253146</v>
+        <v>0.1250191725995529</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0623240548258209</v>
+        <v>0.0491486232343096</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05937276939805978</v>
+        <v>0.1252179346389164</v>
       </c>
       <c r="N141" t="n">
-        <v>0.09287071115440565</v>
+        <v>0.07606984914211545</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05911068408070731</v>
+        <v>0.1254909594182619</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05578115924620916</v>
+        <v>0.01440931907551818</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05732059674741746</v>
+        <v>0.1259081051977714</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02862214924430903</v>
+        <v>0.02160248969097955</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06100800450940687</v>
+        <v>0.126664161712705</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06225149530762086</v>
+        <v>0.04842580410251432</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06015399004803425</v>
+        <v>0.1268655390420601</v>
       </c>
       <c r="N142" t="n">
-        <v>0.09227097743966706</v>
+        <v>0.07557833818497461</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05988845623966398</v>
+        <v>0.1271421562527127</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0559248359217346</v>
+        <v>0.01532998288873372</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05806502008179951</v>
+        <v>0.1275432753951451</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02841378302488881</v>
+        <v>0.02176233041323974</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06180031625628228</v>
+        <v>0.128309150825857</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06177411158016402</v>
+        <v>0.04839420892109872</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06093521069800872</v>
+        <v>0.1285131434452037</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0922720977901047</v>
+        <v>0.07482344130812341</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06066622839862065</v>
+        <v>0.1287933530871635</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05606259911364975</v>
+        <v>0.01528945021335616</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05880944341618156</v>
+        <v>0.1291784455925187</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02830373379117275</v>
+        <v>0.02157007031011303</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06259262800315771</v>
+        <v>0.129954139939009</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06109308748360029</v>
+        <v>0.0476670391073819</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06171643134798319</v>
+        <v>0.1301607478483473</v>
       </c>
       <c r="N144" t="n">
-        <v>0.09107771852225921</v>
+        <v>0.07452576488723039</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06144400055757732</v>
+        <v>0.1304445499216143</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05619437376849966</v>
+        <v>0.01428603396164856</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0595538667505636</v>
+        <v>0.1308136157898924</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02819226223316294</v>
+        <v>0.02153161184819596</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06338493975003312</v>
+        <v>0.131599129052161</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0606096068580797</v>
+        <v>0.04785749607868323</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06249765199795766</v>
+        <v>0.131808352251491</v>
       </c>
       <c r="N145" t="n">
-        <v>0.08999148595267165</v>
+        <v>0.07430591529796404</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06222177271653401</v>
+        <v>0.1320957467560651</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0563200848328294</v>
+        <v>0.0142927776776569</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06029829008494564</v>
+        <v>0.132448785987266</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02827962904086151</v>
+        <v>0.02143392725437908</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06417725149690852</v>
+        <v>0.133244118165313</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06032485354375208</v>
+        <v>0.04815354052002999</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06327887264793212</v>
+        <v>0.1334559566546346</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08971704639788275</v>
+        <v>0.07447030063893118</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06299954487549068</v>
+        <v>0.1337469435905159</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05643965725318403</v>
+        <v>0.01630560138378009</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06104271341932769</v>
+        <v>0.1340839561846397</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02816609490427059</v>
+        <v>0.02164537485563488</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06496956324378393</v>
+        <v>0.134889107278465</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06024001138076754</v>
+        <v>0.04767560501737761</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0640600932979066</v>
+        <v>0.1351035610577782</v>
       </c>
       <c r="N147" t="n">
-        <v>0.08825804617443345</v>
+        <v>0.07419712442780857</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06377731703444736</v>
+        <v>0.1353981404249668</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05655301597610861</v>
+        <v>0.01432418436782401</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06178713675370974</v>
+        <v>0.1357191263820133</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02795192051339229</v>
+        <v>0.02136486734584014</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06576187499065934</v>
+        <v>0.136534096391617</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06005626420927601</v>
+        <v>0.04801581425102758</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06484131394788106</v>
+        <v>0.1367511654609219</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08751813159886457</v>
+        <v>0.0740525945338556</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06455508919340402</v>
+        <v>0.1370493372594176</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05666008594814823</v>
+        <v>0.01434820591759457</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06253156008809177</v>
+        <v>0.137354296579387</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02803736655822876</v>
+        <v>0.02139197101389943</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06655418673753477</v>
+        <v>0.138179085504769</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05957479586942738</v>
+        <v>0.04767319818564411</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06562253459785555</v>
+        <v>0.1383987698640655</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08720094898771696</v>
+        <v>0.07453519680809445</v>
       </c>
       <c r="O149" t="n">
-        <v>0.0653328613523607</v>
+        <v>0.1387005340938684</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05676079211584792</v>
+        <v>0.01437734532089768</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06327598342247383</v>
+        <v>0.1389894667767607</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02762269372878209</v>
+        <v>0.02172625214871732</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06734649848441018</v>
+        <v>0.139824074617921</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05869679020137167</v>
+        <v>0.04784678678589147</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06640375524783002</v>
+        <v>0.1400463742672092</v>
       </c>
       <c r="N150" t="n">
-        <v>0.08661014465753153</v>
+        <v>0.07454341710154727</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06611063351131738</v>
+        <v>0.1403517309283192</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05685505942575278</v>
+        <v>0.01541128186553924</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06402040675685587</v>
+        <v>0.1406246369741343</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0277081627150544</v>
+        <v>0.02146727703919837</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0681388102312856</v>
+        <v>0.1414690637310731</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05832343104525883</v>
+        <v>0.04803561001643381</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06718497589780449</v>
+        <v>0.1416939786703528</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08594936492484911</v>
+        <v>0.07437574126523622</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06688840567027406</v>
+        <v>0.14200292776277</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05694281282440784</v>
+        <v>0.01444969483932514</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06476483009123792</v>
+        <v>0.142259807171508</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02749403420704782</v>
+        <v>0.02171461197424715</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06893112197816101</v>
+        <v>0.1431140528442251</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05815590224123879</v>
+        <v>0.0484386978419355</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06796619654777895</v>
+        <v>0.1433415830734964</v>
       </c>
       <c r="N152" t="n">
-        <v>0.0856222561062106</v>
+        <v>0.07443065515018321</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06766617782923073</v>
+        <v>0.1436541245972208</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0570239772583582</v>
+        <v>0.01649226353006129</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06550925342561996</v>
+        <v>0.1438949773688816</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02758056889476448</v>
+        <v>0.02186782324276823</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06972343372503642</v>
+        <v>0.1447590419573771</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05799538762946158</v>
+        <v>0.04865508022706064</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06874741719775343</v>
+        <v>0.1449891874766401</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08503246451815683</v>
+        <v>0.07490664460741064</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06844394998818741</v>
+        <v>0.1453053214316716</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0570984776741489</v>
+        <v>0.0155386672255536</v>
       </c>
       <c r="G154" t="n">
-        <v>0.066253676760002</v>
+        <v>0.1455301475662553</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02746802746820651</v>
+        <v>0.02182647713366617</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07051574547191183</v>
+        <v>0.1464040310705291</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05784307105007711</v>
+        <v>0.04858378713647357</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06952863784772789</v>
+        <v>0.1466367918797837</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08438363647722857</v>
+        <v>0.07560219548794056</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06922172214714409</v>
+        <v>0.1469565182661224</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05716623901832503</v>
+        <v>0.01558858521360795</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06699810009438405</v>
+        <v>0.1471653177636289</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02725667061737599</v>
+        <v>0.02199013993584556</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07130805721878725</v>
+        <v>0.1480490201836811</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05700013634323536</v>
+        <v>0.04862384853483845</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07030985849770237</v>
+        <v>0.1482843962829273</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08387941829996681</v>
+        <v>0.07501579364279493</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06999949430610075</v>
+        <v>0.1486077151005732</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05722718623743162</v>
+        <v>0.01664169678203026</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06774252342876609</v>
+        <v>0.1488004879610026</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02704675903227508</v>
+        <v>0.02205837793821094</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07210036896566266</v>
+        <v>0.1496940092968331</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05706776734908628</v>
+        <v>0.04907429438681957</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07109107914767683</v>
+        <v>0.149932000686071</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08302345630291241</v>
+        <v>0.07604592492299606</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07077726646505743</v>
+        <v>0.1502589119350241</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05728124427801377</v>
+        <v>0.01670549047751664</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06848694676314813</v>
+        <v>0.1504356581583762</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02683855340290589</v>
+        <v>0.0221307574296669</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07289268071253809</v>
+        <v>0.1513389984099851</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05684714790777987</v>
+        <v>0.04893415465708115</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07187229979765131</v>
+        <v>0.1515796050892146</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08251939680260623</v>
+        <v>0.07579107517956601</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07155503862401411</v>
+        <v>0.1519101087694749</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05732833808661654</v>
+        <v>0.01581765284360415</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06923137009753018</v>
+        <v>0.1520708283557499</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0269301540739153</v>
+        <v>0.02213572519622257</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0736849924594135</v>
+        <v>0.1529839875231372</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05623574649349503</v>
+        <v>0.04884507301554566</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07265352044762578</v>
+        <v>0.1532272094923583</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0818572982597609</v>
+        <v>0.07608053628791933</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07233281078297078</v>
+        <v>0.1535613056039257</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05736839260978498</v>
+        <v>0.01597499069685921</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06997579343191224</v>
+        <v>0.1537059985531236</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02691806820736688</v>
+        <v>0.02240921985035924</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07447730420628891</v>
+        <v>0.1546289766362892</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05572741551053734</v>
+        <v>0.0498081055204467</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07343474109760026</v>
+        <v>0.1548748138955019</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08221469774914092</v>
+        <v>0.07649190592116473</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07311058294192745</v>
+        <v>0.1552125024383765</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05740133279406413</v>
+        <v>0.01516782251020844</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07072021676629427</v>
+        <v>0.1553411687504972</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02670237137009923</v>
+        <v>0.02253863356260007</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07526961595316432</v>
+        <v>0.1562739657494412</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05532162379144911</v>
+        <v>0.05010088828047696</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07421596174757472</v>
+        <v>0.1565224182986455</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08198996453354485</v>
+        <v>0.07721580669117489</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07388835510088414</v>
+        <v>0.1568636992728273</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05742708358599914</v>
+        <v>0.01538646675657853</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07146464010067632</v>
+        <v>0.1569763389478709</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02648320040113857</v>
+        <v>0.02261087364177307</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07606192770003972</v>
+        <v>0.1579189548625932</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05531794663618317</v>
+        <v>0.0504941382701134</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0749971823975492</v>
+        <v>0.1581700227017892</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08108184982928446</v>
+        <v>0.07870653009483652</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07466612725984081</v>
+        <v>0.1585148961072781</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.057445569932135</v>
+        <v>0.01662124190889613</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07220906343505837</v>
+        <v>0.1586115091452445</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02626069213951111</v>
+        <v>0.02311284739670613</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07685423944691515</v>
+        <v>0.1595639439757452</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05501595934469233</v>
+        <v>0.05135857246383307</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07577840304752366</v>
+        <v>0.1598176271049328</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08058910485267168</v>
+        <v>0.07971836762903639</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07544389941879748</v>
+        <v>0.160166092941729</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0574567167790168</v>
+        <v>0.01786246644008788</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0729534867694404</v>
+        <v>0.1602466793426182</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02643498342424298</v>
+        <v>0.02333146213622721</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07764655119379056</v>
+        <v>0.1612089330888972</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05481523721692941</v>
+        <v>0.05206490783611301</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07655962369749814</v>
+        <v>0.1614652315080764</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08111048082001832</v>
+        <v>0.08060561079066131</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07622167157775415</v>
+        <v>0.1618172897761798</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05746044907318962</v>
+        <v>0.01810045882308044</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07369791010382246</v>
+        <v>0.1618818495399918</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02610621109436041</v>
+        <v>0.02385362516916427</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07843886294066597</v>
+        <v>0.1628539222020492</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05421535555284726</v>
+        <v>0.0523838613614302</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07734084434747261</v>
+        <v>0.1631128359112201</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0804447289476361</v>
+        <v>0.08172255107659793</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07699944373671083</v>
+        <v>0.1634684866106306</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05746044907318962</v>
+        <v>0.01832553753080046</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07369791010382246</v>
+        <v>0.1635170197373655</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02617451198888954</v>
+        <v>0.02386624380434524</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07923117468754139</v>
+        <v>0.1644989113152013</v>
       </c>
       <c r="L165" t="n">
-        <v>0.0538158896523987</v>
+        <v>0.05338615001426167</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07812206499744707</v>
+        <v>0.1647604403143637</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08079060045183706</v>
+        <v>0.08212347998373304</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07777721589566751</v>
+        <v>0.1651196834450814</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05650366384746783</v>
+        <v>0.01852802103617461</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07369764157535844</v>
+        <v>0.1651521899347391</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0258400229468566</v>
+        <v>0.02415622535059803</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08002348643441681</v>
+        <v>0.1661439004283533</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05351641481553657</v>
+        <v>0.05414249076908445</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07890328564742155</v>
+        <v>0.1664080447175074</v>
       </c>
       <c r="N166" t="n">
-        <v>0.07994684654893291</v>
+        <v>0.08316268900895346</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07855498805462417</v>
+        <v>0.1667708802795322</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05555750496857828</v>
+        <v>0.01770277472085913</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07369737304689443</v>
+        <v>0.1667873601321128</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02560288080728776</v>
+        <v>0.02441047711675057</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08081579818129221</v>
+        <v>0.1677888895415053</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0532165063422137</v>
+        <v>0.05452360060037559</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07968450629739601</v>
+        <v>0.168055649120651</v>
       </c>
       <c r="N167" t="n">
-        <v>0.07941221845523566</v>
+        <v>0.08499446964914598</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07933276021358086</v>
+        <v>0.168422077113983</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0546224545371562</v>
+        <v>0.01786955878654106</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0736971045184304</v>
+        <v>0.1684225303294865</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02546322240920917</v>
+        <v>0.02483675911844313</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08160810992816762</v>
+        <v>0.1694338786546573</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05331573953238286</v>
+        <v>0.05533221408437577</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08046572694737049</v>
+        <v>0.1697032535237946</v>
       </c>
       <c r="N168" t="n">
-        <v>0.07978546738705711</v>
+        <v>0.08579915900800505</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08011053237253754</v>
+        <v>0.1700732739484338</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05369899465395865</v>
+        <v>0.01803229355491862</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07369683598996639</v>
+        <v>0.1700577005268601</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02562118459164706</v>
+        <v>0.02505726497572168</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08240042167504304</v>
+        <v>0.1710788677678093</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05311368968599697</v>
+        <v>0.05592569523596408</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08124694759734497</v>
+        <v>0.1713508579269383</v>
       </c>
       <c r="N169" t="n">
-        <v>0.07946534456070903</v>
+        <v>0.0861701288764159</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0808883045314942</v>
+        <v>0.1717244707828847</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05278760741962035</v>
+        <v>0.01919128615316987</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07369656746150237</v>
+        <v>0.1716928707242338</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02547690419362757</v>
+        <v>0.02537250484367855</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08319273342191846</v>
+        <v>0.1727238568809613</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05290993210300879</v>
+        <v>0.0561072771248933</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08202816824731944</v>
+        <v>0.1729984623300819</v>
       </c>
       <c r="N170" t="n">
-        <v>0.07885060119250337</v>
+        <v>0.0869222656419622</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08166607669045088</v>
+        <v>0.1733756676173355</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05188877493481699</v>
+        <v>0.01834684370847289</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07369629893303835</v>
+        <v>0.1733280409216074</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0251305180541769</v>
+        <v>0.02548289406188385</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08398504516879388</v>
+        <v>0.1743688459941133</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05230404208337119</v>
+        <v>0.05687788869686858</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0828093888972939</v>
+        <v>0.1746460667332255</v>
       </c>
       <c r="N171" t="n">
-        <v>0.07863998849875198</v>
+        <v>0.08725701931593555</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08244384884940756</v>
+        <v>0.1750268644517863</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05100297930018591</v>
+        <v>0.01749927334800572</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07369603040457433</v>
+        <v>0.1749632111189811</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02508216301232129</v>
+        <v>0.02568884796990778</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08477735691566929</v>
+        <v>0.1760138351072653</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05219559492703696</v>
+        <v>0.05733845889759506</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08359060954726838</v>
+        <v>0.1762936711363692</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07913225769576659</v>
+        <v>0.08817583990962724</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08322162100836424</v>
+        <v>0.1766780612862371</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.05013070261647995</v>
+        <v>0.01964888219894646</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07369576187611031</v>
+        <v>0.1765983813163547</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02473197590708684</v>
+        <v>0.02599078190732045</v>
       </c>
       <c r="K173" t="n">
-        <v>0.0855696686625447</v>
+        <v>0.1776588242204173</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05138416593395898</v>
+        <v>0.0573899166727779</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08437183019724284</v>
+        <v>0.1779412755395128</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07902615999985924</v>
+        <v>0.08908017743432872</v>
       </c>
       <c r="O173" t="n">
-        <v>0.0839993931673209</v>
+        <v>0.1783292581206879</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04927242698433591</v>
+        <v>0.01979597738847316</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0736954933476463</v>
+        <v>0.1782335515137284</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02468009357749974</v>
+        <v>0.02588911121369201</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08636198040942011</v>
+        <v>0.1793038133335693</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05106933040409006</v>
+        <v>0.05793319096812236</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08515305084721732</v>
+        <v>0.1795888799426565</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07792044662734166</v>
+        <v>0.09017148190133162</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08477716532627758</v>
+        <v>0.1799804549551387</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04842863450442945</v>
+        <v>0.01794086604376387</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07369522481918228</v>
+        <v>0.179868721711102</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02462665286258624</v>
+        <v>0.02628425122859261</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08715429215629553</v>
+        <v>0.1809488024467214</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05085066363738297</v>
+        <v>0.05856921072933349</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08593427149719178</v>
+        <v>0.1812364843458001</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07861386879452575</v>
+        <v>0.09035120332192725</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08555493748523427</v>
+        <v>0.1816316517895895</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04759980727740049</v>
+        <v>0.02008385529199671</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07369495629071826</v>
+        <v>0.1815038919084757</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02457179060137248</v>
+        <v>0.02627661729159239</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08794660390317094</v>
+        <v>0.1825937915598734</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05062774093379058</v>
+        <v>0.05869890490211646</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08671549214716626</v>
+        <v>0.1828840887489437</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07780517771772333</v>
+        <v>0.0907207917074071</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08633270964419093</v>
+        <v>0.1832828486240403</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04678642740399686</v>
+        <v>0.0182252522603497</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07369468776225424</v>
+        <v>0.1831390621058493</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02431564363288465</v>
+        <v>0.02676662474226149</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08873891565004635</v>
+        <v>0.1842387806730254</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05010013759326579</v>
+        <v>0.05922320243217649</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08749671279714072</v>
+        <v>0.1845316931520874</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07749312461324631</v>
+        <v>0.09198169706906273</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08711048180314761</v>
+        <v>0.1849340454584912</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04598897698485781</v>
+        <v>0.02036573477863005</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07369441923379023</v>
+        <v>0.184774232303223</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02415834879614891</v>
+        <v>0.02675468892017006</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08953122739692176</v>
+        <v>0.1858837697861774</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05026742891576133</v>
+        <v>0.05994303226521872</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08827793344711519</v>
+        <v>0.186179297555231</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07777646069740651</v>
+        <v>0.09283536941818538</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08788825396210428</v>
+        <v>0.186585242292942</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04520793812065901</v>
+        <v>0.01851323332689324</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07369415070532621</v>
+        <v>0.1864094025005966</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02410004293019147</v>
+        <v>0.02704555680741409</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09032353914379719</v>
+        <v>0.1875287588993294</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04982919020123006</v>
+        <v>0.0599658214838828</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08905915409708967</v>
+        <v>0.1878269019583746</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07755393718651571</v>
+        <v>0.09268809419426005</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08866602612106096</v>
+        <v>0.1882364391273928</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04444379291204323</v>
+        <v>0.02066689326134007</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07369388217686219</v>
+        <v>0.1880445726979703</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02384086287403853</v>
+        <v>0.027347583539479</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0911158508906726</v>
+        <v>0.1891737480124814</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04958499674962483</v>
+        <v>0.06041359763971585</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08984037474706415</v>
+        <v>0.1894745063615183</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07732430529688583</v>
+        <v>0.0931776317565447</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08944379828001763</v>
+        <v>0.1898876359618436</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04369702345975268</v>
+        <v>0.02082143867874027</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07369361364839817</v>
+        <v>0.189679742895344</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02378094546671623</v>
+        <v>0.02735437794755603</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09190816263754802</v>
+        <v>0.1908187371256334</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04873442386089841</v>
+        <v>0.06107414794463178</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09062159539703861</v>
+        <v>0.1911221107646619</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07658631624482887</v>
+        <v>0.09419161755516503</v>
       </c>
       <c r="O181" t="n">
-        <v>0.0902215704389743</v>
+        <v>0.1915388327962944</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04296811186442936</v>
+        <v>0.01897159367586347</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07369334511993415</v>
+        <v>0.1913149130927176</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02332042754725079</v>
+        <v>0.02755880523037629</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09270047438442341</v>
+        <v>0.1924637262387855</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04867704683500371</v>
+        <v>0.06113151474982381</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09140281604701309</v>
+        <v>0.1927697151678055</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07683872124665642</v>
+        <v>0.09500514295355983</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09099934259793099</v>
+        <v>0.1931900296307452</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04225754022674899</v>
+        <v>0.01911208234947941</v>
       </c>
       <c r="G183" t="n">
-        <v>0.07369307659147015</v>
+        <v>0.1929500832900913</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02325944595466836</v>
+        <v>0.02765373058667081</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09349278613129884</v>
+        <v>0.1941087153519375</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04841244097189348</v>
+        <v>0.06166974040648504</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09218403669698755</v>
+        <v>0.1944173195709492</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07668027151868051</v>
+        <v>0.09629329931516767</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09177711475688766</v>
+        <v>0.194841226465196</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04156579064735748</v>
+        <v>0.01923762879635769</v>
       </c>
       <c r="G184" t="n">
-        <v>0.07369280806300611</v>
+        <v>0.1945852534874649</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02319813752799516</v>
+        <v>0.02803201921517061</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09428509787817425</v>
+        <v>0.1957537044650895</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04774018157152066</v>
+        <v>0.06207286726580868</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09296525734696202</v>
+        <v>0.1960649239740928</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07610971827721291</v>
+        <v>0.09693117800342743</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09255488691584433</v>
+        <v>0.1964924232996469</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04089334522699074</v>
+        <v>0.02034295711326806</v>
       </c>
       <c r="G185" t="n">
-        <v>0.07369253953454211</v>
+        <v>0.1962204236848386</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02293663910625734</v>
+        <v>0.02808653631460677</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09507740962504967</v>
+        <v>0.1973986935782415</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04745984393383793</v>
+        <v>0.06292493767898788</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09374647799693649</v>
+        <v>0.1977125283772365</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07542581273856547</v>
+        <v>0.09679387038177772</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09333265907480101</v>
+        <v>0.1981436201340977</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04024068606629394</v>
+        <v>0.02042279139698017</v>
       </c>
       <c r="G186" t="n">
-        <v>0.07369227100607809</v>
+        <v>0.1978555938822122</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02267508752848112</v>
+        <v>0.02811014708371036</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09586972137192508</v>
+        <v>0.1990436826913935</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04737100335879824</v>
+        <v>0.06280999399721585</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09452769864691096</v>
+        <v>0.1993601327803801</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07512730611905016</v>
+        <v>0.09795646781365724</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09411043123375769</v>
+        <v>0.1997948169685485</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0396082952659427</v>
+        <v>0.01948045097786026</v>
       </c>
       <c r="G187" t="n">
-        <v>0.07369200247761408</v>
+        <v>0.1994907640795859</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02261361963369264</v>
+        <v>0.02849721129046412</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09666203311880051</v>
+        <v>0.2006886718045455</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04657323514635436</v>
+        <v>0.06291304022560359</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09530891929688542</v>
+        <v>0.2010077371835237</v>
       </c>
       <c r="N187" t="n">
-        <v>0.07461294963497878</v>
+        <v>0.09729406166250471</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09488820339271435</v>
+        <v>0.2014460138029993</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03899665492658654</v>
+        <v>0.02053578370058501</v>
       </c>
       <c r="G188" t="n">
-        <v>0.07369173394915005</v>
+        <v>0.2011259342769595</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02265237226091814</v>
+        <v>0.02857189673634729</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0974543448656759</v>
+        <v>0.2023336609176976</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04616611459645911</v>
+        <v>0.06317999318968173</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0960901399468599</v>
+        <v>0.2026553415866674</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07468149450266315</v>
+        <v>0.09805451448460178</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09566597555167103</v>
+        <v>0.2030972106374501</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03840624714895439</v>
+        <v>0.02158988435350287</v>
       </c>
       <c r="G189" t="n">
-        <v>0.07369146542068604</v>
+        <v>0.2027611044743332</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02229148224918373</v>
+        <v>0.02834493786483358</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09824665661255132</v>
+        <v>0.2039786500308496</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04564921700906538</v>
+        <v>0.06354328140670132</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09687136059683438</v>
+        <v>0.204302945989811</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07403169193841508</v>
+        <v>0.0987092305678669</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09644374771062771</v>
+        <v>0.2047484074719009</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03783558545593568</v>
+        <v>0.02064273352057608</v>
       </c>
       <c r="G190" t="n">
-        <v>0.07369119689222202</v>
+        <v>0.2043962746717068</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02233108643751566</v>
+        <v>0.02851630841888883</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09903896835942673</v>
+        <v>0.2056236391440016</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04562211768412594</v>
+        <v>0.06340284615035549</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09765258124680885</v>
+        <v>0.2059505503929546</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07356229315854657</v>
+        <v>0.09895816220432596</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09722151986958438</v>
+        <v>0.2063996043063517</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03727334048165228</v>
+        <v>0.02169431178576679</v>
       </c>
       <c r="G191" t="n">
-        <v>0.07369092836375801</v>
+        <v>0.2060314448690805</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02197132166494008</v>
+        <v>0.028585982141479</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09983128010630216</v>
+        <v>0.2072686282571536</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04528439192159364</v>
+        <v>0.06345862869433727</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09843380189678332</v>
+        <v>0.2075981547960983</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07357204937936923</v>
+        <v>0.09900121772682591</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09799929202854106</v>
+        <v>0.2080508011408025</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03671802574899702</v>
+        <v>0.01974459973303722</v>
       </c>
       <c r="G192" t="n">
-        <v>0.07369065983529398</v>
+        <v>0.2076666150664541</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02201232477048319</v>
+        <v>0.0288539327755699</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1006235918531776</v>
+        <v>0.2089136173703056</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04433561502142133</v>
+        <v>0.06411057031233963</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09921502254675779</v>
+        <v>0.2092457591992419</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07285971181719519</v>
+        <v>0.09883830546821382</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09877706418749774</v>
+        <v>0.2097019979752534</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03617012335869392</v>
+        <v>0.02079357794634952</v>
       </c>
       <c r="G193" t="n">
-        <v>0.07369039130682997</v>
+        <v>0.2093017852638278</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02185226756729147</v>
+        <v>0.0286201340641274</v>
       </c>
       <c r="K193" t="n">
-        <v>0.101415903600053</v>
+        <v>0.2105586064834576</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04385324117678346</v>
+        <v>0.06425861227805571</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09999624319673225</v>
+        <v>0.2108933636023856</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07309674332167954</v>
+        <v>0.09966933376133641</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09955483634645441</v>
+        <v>0.2113531948097042</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03563011541139434</v>
+        <v>0.02084122700966592</v>
       </c>
       <c r="G194" t="n">
-        <v>0.07369012277836595</v>
+        <v>0.2109369554612015</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02138887216788415</v>
+        <v>0.02888455975011739</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1022082153469284</v>
+        <v>0.2122035955966096</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04381258540392147</v>
+        <v>0.06410269586517844</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1007774638467067</v>
+        <v>0.2125409680055292</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07215182481549098</v>
+        <v>0.09919421093904063</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1003326085054111</v>
+        <v>0.213004391644155</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03509848400777392</v>
+        <v>0.0198875275069486</v>
       </c>
       <c r="G195" t="n">
-        <v>0.07368985424990193</v>
+        <v>0.2125721256585751</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0212223523551462</v>
+        <v>0.02894718357650572</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1030005270938038</v>
+        <v>0.2138485847097616</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04291749504336689</v>
+        <v>0.06414276234740107</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1015586844966812</v>
+        <v>0.2141885724086728</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07172913442688394</v>
+        <v>0.09981284533417339</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1011103806643678</v>
+        <v>0.2146555884786058</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03457571124848577</v>
+        <v>0.01993246002215977</v>
       </c>
       <c r="G196" t="n">
-        <v>0.07368958572143791</v>
+        <v>0.2142072958559487</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02135292975900682</v>
+        <v>0.02910797928625826</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1037928388406792</v>
+        <v>0.2154935738229136</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04207188498099101</v>
+        <v>0.06477875299841646</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1023399051466557</v>
+        <v>0.2158361768118164</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07073294034304467</v>
+        <v>0.09972514527958154</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1018881528233244</v>
+        <v>0.2163067853130566</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03406227923425105</v>
+        <v>0.0219760051392616</v>
       </c>
       <c r="G197" t="n">
-        <v>0.07368931719297389</v>
+        <v>0.2158424660533224</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02088082600939528</v>
+        <v>0.02896692062234091</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1045851505875546</v>
+        <v>0.2171385629360657</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04177967010266498</v>
+        <v>0.06461060909191779</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1031211257966301</v>
+        <v>0.2174837812149601</v>
       </c>
       <c r="N197" t="n">
-        <v>0.06976751075115928</v>
+        <v>0.09983101910811198</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1026659249822811</v>
+        <v>0.2179579821475074</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03355867006572251</v>
+        <v>0.02101814344221629</v>
       </c>
       <c r="G198" t="n">
-        <v>0.07368904866450988</v>
+        <v>0.2174776362506961</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02090626273624076</v>
+        <v>0.02902398132771951</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1053774623344301</v>
+        <v>0.2187835520492176</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04104476529425999</v>
+        <v>0.06493827190159801</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1039023464466046</v>
+        <v>0.2191313856181037</v>
       </c>
       <c r="N198" t="n">
-        <v>0.06963711383841403</v>
+        <v>0.1005303751526116</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1034436971412378</v>
+        <v>0.2196091789819583</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03306536584357581</v>
+        <v>0.02005885551498604</v>
       </c>
       <c r="G199" t="n">
-        <v>0.07368878013604586</v>
+        <v>0.2191128064480697</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02062946156947254</v>
+        <v>0.02917913514535996</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1061697740813055</v>
+        <v>0.2204285411623697</v>
       </c>
       <c r="L199" t="n">
-        <v>0.0398710854416473</v>
+        <v>0.06476168270115021</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1046835670965791</v>
+        <v>0.2207789900212474</v>
       </c>
       <c r="N199" t="n">
-        <v>0.06854601779199504</v>
+        <v>0.1001231217459274</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1042214693001945</v>
+        <v>0.2212603758164091</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03258284866846581</v>
+        <v>0.02009812194153303</v>
       </c>
       <c r="G200" t="n">
-        <v>0.07368851160758184</v>
+        <v>0.2207479766454434</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02065064413901981</v>
+        <v>0.02933235581822809</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1069620858281809</v>
+        <v>0.2220735302755217</v>
       </c>
       <c r="L200" t="n">
-        <v>0.03916254543069805</v>
+        <v>0.06488078276426745</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1054647877465536</v>
+        <v>0.222426594424391</v>
       </c>
       <c r="N200" t="n">
-        <v>0.06719849079908846</v>
+        <v>0.1011091672209062</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1049992414591511</v>
+        <v>0.2229115726508599</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0321116006411102</v>
+        <v>0.02213592330581947</v>
       </c>
       <c r="G201" t="n">
-        <v>0.07368824307911782</v>
+        <v>0.2223831468428171</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0201700320748118</v>
+        <v>0.0290836170892898</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1077543975750563</v>
+        <v>0.2237185193886737</v>
       </c>
       <c r="L201" t="n">
-        <v>0.03872306014728352</v>
+        <v>0.06539551336464278</v>
       </c>
       <c r="M201" t="n">
-        <v>0.106246008396528</v>
+        <v>0.2240741988275347</v>
       </c>
       <c r="N201" t="n">
-        <v>0.06679880104688068</v>
+        <v>0.1008884199103948</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1057770136181078</v>
+        <v>0.2245627694853107</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03165210386216344</v>
+        <v>0.02217224019180754</v>
       </c>
       <c r="G202" t="n">
-        <v>0.07368797455065382</v>
+        <v>0.2240183170401907</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02008784700677774</v>
+        <v>0.02933289270151095</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1085467093219317</v>
+        <v>0.2253635085018257</v>
       </c>
       <c r="L202" t="n">
-        <v>0.03795654447727489</v>
+        <v>0.06520581577596923</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1070272290465025</v>
+        <v>0.2257218032306783</v>
       </c>
       <c r="N202" t="n">
-        <v>0.06505121672255765</v>
+        <v>0.1012607881472401</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1065547857770645</v>
+        <v>0.2262139663197615</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03120484043230115</v>
+        <v>0.02220705318345943</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0736877060221898</v>
+        <v>0.2256534872375643</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02010431056484682</v>
+        <v>0.02948015639785741</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1093390210688071</v>
+        <v>0.2270084976149777</v>
       </c>
       <c r="L203" t="n">
-        <v>0.03666691330654337</v>
+        <v>0.06531163127193984</v>
       </c>
       <c r="M203" t="n">
-        <v>0.107808449696477</v>
+        <v>0.2273694076338219</v>
       </c>
       <c r="N203" t="n">
-        <v>0.06466000601330574</v>
+        <v>0.1010261802642892</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1073325579360212</v>
+        <v>0.2278651631542123</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03077029245218037</v>
+        <v>0.02224034286473735</v>
       </c>
       <c r="G204" t="n">
-        <v>0.07368743749372578</v>
+        <v>0.227288657434938</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01981964437894834</v>
+        <v>0.02952538192129504</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1101313328156825</v>
+        <v>0.2286534867281297</v>
       </c>
       <c r="L204" t="n">
-        <v>0.03555808152096021</v>
+        <v>0.06541290112624767</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1085896703464514</v>
+        <v>0.2290170120369656</v>
       </c>
       <c r="N204" t="n">
-        <v>0.06272943710631107</v>
+        <v>0.1013845045943887</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1081103300949778</v>
+        <v>0.2295163599886631</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03034894202251459</v>
+        <v>0.02127208981960348</v>
       </c>
       <c r="G205" t="n">
-        <v>0.07368716896526176</v>
+        <v>0.2289238276323117</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01963407007901147</v>
+        <v>0.02936854301478974</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1109236445625579</v>
+        <v>0.2302984758412817</v>
       </c>
       <c r="L205" t="n">
-        <v>0.03473396400639653</v>
+        <v>0.06570956661258584</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1093708909964259</v>
+        <v>0.2306646164401092</v>
       </c>
       <c r="N205" t="n">
-        <v>0.06196377818875981</v>
+        <v>0.1012356694703858</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1088881022539345</v>
+        <v>0.231167556823114</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0299412712439603</v>
+        <v>0.02230227463202</v>
       </c>
       <c r="G206" t="n">
-        <v>0.07368690043679775</v>
+        <v>0.2305589978296853</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01934780929496542</v>
+        <v>0.02950961342130737</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1117159563094334</v>
+        <v>0.2319434649544337</v>
       </c>
       <c r="L206" t="n">
-        <v>0.03379847564872365</v>
+        <v>0.06560156900464731</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1101521116464004</v>
+        <v>0.2323122208432528</v>
       </c>
       <c r="N206" t="n">
-        <v>0.06046729744783813</v>
+        <v>0.1014795832251271</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1096658744128912</v>
+        <v>0.2328187536575648</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02954776221719317</v>
+        <v>0.02033087788594913</v>
       </c>
       <c r="G207" t="n">
-        <v>0.07368663190833373</v>
+        <v>0.232194168027059</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01936108365673946</v>
+        <v>0.02934856688381378</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1125082680563088</v>
+        <v>0.2335884540675858</v>
       </c>
       <c r="L207" t="n">
-        <v>0.03325553133381268</v>
+        <v>0.06538884957612512</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1109333322963749</v>
+        <v>0.2339598252463965</v>
       </c>
       <c r="N207" t="n">
-        <v>0.05994426307073236</v>
+        <v>0.1014161541914596</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1104436465718479</v>
+        <v>0.2344699504920156</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02916889704287266</v>
+        <v>0.02235788016535305</v>
       </c>
       <c r="G208" t="n">
-        <v>0.07368636337986971</v>
+        <v>0.2338293382244326</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01887411479426281</v>
+        <v>0.02938537714527485</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1133005798031842</v>
+        <v>0.2352334431807378</v>
       </c>
       <c r="L208" t="n">
-        <v>0.03190904594753485</v>
+        <v>0.06547134960071238</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1117145529463493</v>
+        <v>0.2356074296495401</v>
       </c>
       <c r="N208" t="n">
-        <v>0.05849894324462845</v>
+        <v>0.1022452907022303</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1112214187308045</v>
+        <v>0.2361211473264664</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02880515782170744</v>
+        <v>0.02138326205419394</v>
       </c>
       <c r="G209" t="n">
-        <v>0.07368609485140569</v>
+        <v>0.2354645084218063</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01878712433746466</v>
+        <v>0.02972001794865645</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1140928915500596</v>
+        <v>0.2368784322938898</v>
       </c>
       <c r="L209" t="n">
-        <v>0.03126293437576144</v>
+        <v>0.06554901035210214</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1124957735963238</v>
+        <v>0.2372550340526837</v>
       </c>
       <c r="N209" t="n">
-        <v>0.05733560615671279</v>
+        <v>0.101966901090286</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1119991908897612</v>
+        <v>0.2377723441609172</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02845702665435637</v>
+        <v>0.02140700413643404</v>
       </c>
       <c r="G210" t="n">
-        <v>0.07368582632294167</v>
+        <v>0.2370996786191799</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01880033391627427</v>
+        <v>0.02945246303692445</v>
       </c>
       <c r="K210" t="n">
-        <v>0.114885203296935</v>
+        <v>0.2385234214070418</v>
       </c>
       <c r="L210" t="n">
-        <v>0.03042111150436358</v>
+        <v>0.06602177310398732</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1132769942462983</v>
+        <v>0.2389026384558274</v>
       </c>
       <c r="N210" t="n">
-        <v>0.0556585199941716</v>
+        <v>0.1016808936884735</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1127769630487179</v>
+        <v>0.239423540995368</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0281249856414951</v>
+        <v>0.02242908699603548</v>
       </c>
       <c r="G211" t="n">
-        <v>0.07368555779447766</v>
+        <v>0.2387348488165536</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01861396516062085</v>
+        <v>0.02968268615304474</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1156775150438104</v>
+        <v>0.2401684105201938</v>
       </c>
       <c r="L211" t="n">
-        <v>0.0290874922192125</v>
+        <v>0.06568957913006118</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1140582148962727</v>
+        <v>0.240550242858971</v>
       </c>
       <c r="N211" t="n">
-        <v>0.05427195294419085</v>
+        <v>0.10268717682964</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1135547352076746</v>
+        <v>0.2410747378298188</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02780951688378591</v>
+        <v>0.02244949121696051</v>
       </c>
       <c r="G212" t="n">
-        <v>0.07368528926601363</v>
+        <v>0.2403700190139273</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01842823970043361</v>
+        <v>0.02961066103998315</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1164698267906858</v>
+        <v>0.2418133996333458</v>
       </c>
       <c r="L212" t="n">
-        <v>0.02806599140617946</v>
+        <v>0.06615236970401664</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1148394355462472</v>
+        <v>0.2421978472621146</v>
       </c>
       <c r="N212" t="n">
-        <v>0.05358017319395697</v>
+        <v>0.102585658846632</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1143325073666312</v>
+        <v>0.2427259346642697</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02751110248193196</v>
+        <v>0.02046819738317125</v>
       </c>
       <c r="G213" t="n">
-        <v>0.07368502073754962</v>
+        <v>0.2420051892113009</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01794337916564182</v>
+        <v>0.0298363614407056</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1172621385375612</v>
+        <v>0.2434583887464978</v>
       </c>
       <c r="L213" t="n">
-        <v>0.02736052395113556</v>
+        <v>0.06621008609954676</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1156206561962217</v>
+        <v>0.2438454516652583</v>
       </c>
       <c r="N213" t="n">
-        <v>0.05188744893065594</v>
+        <v>0.1025762480722966</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1151102795255879</v>
+        <v>0.2443771314987205</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02723022453659481</v>
+        <v>0.02148518607862998</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0736847522090856</v>
+        <v>0.2436403594086745</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01795960518617463</v>
+        <v>0.02985976109817792</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1180544502844367</v>
+        <v>0.2451033778596499</v>
       </c>
       <c r="L214" t="n">
-        <v>0.02667500473995213</v>
+        <v>0.06616266959034461</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1164018768461962</v>
+        <v>0.2454930560684019</v>
       </c>
       <c r="N214" t="n">
-        <v>0.05049804834147409</v>
+        <v>0.1021588528394806</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1158880516845446</v>
+        <v>0.2460283283331713</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02723022453659482</v>
+        <v>0.02250043788729883</v>
       </c>
       <c r="G215" t="n">
-        <v>0.0736847522090856</v>
+        <v>0.2452755296060482</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01777713939196135</v>
+        <v>0.029880833755366</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1188467620313121</v>
+        <v>0.2467483669728019</v>
       </c>
       <c r="L215" t="n">
-        <v>0.02561334865850032</v>
+        <v>0.06621006145010322</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1171830974961706</v>
+        <v>0.2471406604715456</v>
       </c>
       <c r="N215" t="n">
-        <v>0.04911623961359757</v>
+        <v>0.1030333814810311</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1166658238435013</v>
+        <v>0.2476795251676221</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02654224871015333</v>
+        <v>0.02251393339314003</v>
       </c>
       <c r="G216" t="n">
-        <v>0.07357901815305903</v>
+        <v>0.2469106998034219</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01749620341293115</v>
+        <v>0.02989955315523569</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1196390737781875</v>
+        <v>0.2483933560859539</v>
       </c>
       <c r="L216" t="n">
-        <v>0.02457947059265136</v>
+        <v>0.06615220295251562</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1179643181461451</v>
+        <v>0.2487882648746892</v>
       </c>
       <c r="N216" t="n">
-        <v>0.04854629093421259</v>
+        <v>0.1028997423297948</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1174435960024579</v>
+        <v>0.2493307220020729</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0258617496210993</v>
+        <v>0.02052565318011573</v>
       </c>
       <c r="G217" t="n">
-        <v>0.07347328409703247</v>
+        <v>0.2485458700007955</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01721701887901328</v>
+        <v>0.02971589304075289</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1204313855250629</v>
+        <v>0.2500383451991059</v>
       </c>
       <c r="L217" t="n">
-        <v>0.02387728542827644</v>
+        <v>0.06628903537127495</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1187455387961196</v>
+        <v>0.2504358692778328</v>
       </c>
       <c r="N217" t="n">
-        <v>0.0469924704905052</v>
+        <v>0.1027578437186187</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1182213681614146</v>
+        <v>0.2509819188365237</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0251890390993373</v>
+        <v>0.02053557783218818</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0733675500410059</v>
+        <v>0.2501810401981692</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01713980742013695</v>
+        <v>0.02972982715488344</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1212236972719383</v>
+        <v>0.2516833343122579</v>
       </c>
       <c r="L218" t="n">
-        <v>0.02341070805124676</v>
+        <v>0.06622049998007418</v>
       </c>
       <c r="M218" t="n">
-        <v>0.119526759446094</v>
+        <v>0.2520834736809765</v>
       </c>
       <c r="N218" t="n">
-        <v>0.04515904646966185</v>
+        <v>0.1033075939803496</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1189991403203713</v>
+        <v>0.2526331156709745</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02452442897477179</v>
+        <v>0.02054368793331952</v>
       </c>
       <c r="G219" t="n">
-        <v>0.07326181598497931</v>
+        <v>0.2518162103955429</v>
       </c>
       <c r="J219" t="n">
-        <v>0.0170647906662314</v>
+        <v>0.02994132924059324</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1220160090188137</v>
+        <v>0.25332832342541</v>
       </c>
       <c r="L219" t="n">
-        <v>0.02248365334743357</v>
+        <v>0.06634653805260635</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1203079800960685</v>
+        <v>0.2537310780841202</v>
       </c>
       <c r="N219" t="n">
-        <v>0.04475028705886852</v>
+        <v>0.1025489014478343</v>
       </c>
       <c r="O219" t="n">
-        <v>0.119776912479328</v>
+        <v>0.2542843125054253</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02386823107730747</v>
+        <v>0.02054996406747198</v>
       </c>
       <c r="G220" t="n">
-        <v>0.07315608192895275</v>
+        <v>0.2534513805929165</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01689219024722585</v>
+        <v>0.02995037304084813</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1228083207656891</v>
+        <v>0.254973312538562</v>
       </c>
       <c r="L220" t="n">
-        <v>0.02210003620270806</v>
+        <v>0.06606709086256454</v>
       </c>
       <c r="M220" t="n">
-        <v>0.121089200746043</v>
+        <v>0.2553786824872638</v>
       </c>
       <c r="N220" t="n">
-        <v>0.04277046044531152</v>
+        <v>0.1024816744539199</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1205546846382846</v>
+        <v>0.2559355093398762</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02322075723684879</v>
+        <v>0.02255438681860773</v>
       </c>
       <c r="G221" t="n">
-        <v>0.07305034787292618</v>
+        <v>0.2550865507902901</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01672222779304951</v>
+        <v>0.02995693229861403</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1236006325125646</v>
+        <v>0.256618301651714</v>
       </c>
       <c r="L221" t="n">
-        <v>0.02136377150294141</v>
+        <v>0.06668209968364183</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1218704213960174</v>
+        <v>0.2570262868904074</v>
       </c>
       <c r="N221" t="n">
-        <v>0.04172383481617692</v>
+        <v>0.1025058213314533</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1213324567972413</v>
+        <v>0.257586706174327</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02258231928330032</v>
+        <v>0.02055693677068897</v>
       </c>
       <c r="G222" t="n">
-        <v>0.07294461381689961</v>
+        <v>0.2567217209876638</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01655512493363161</v>
+        <v>0.02966098075685675</v>
       </c>
       <c r="K222" t="n">
-        <v>0.12439294425944</v>
+        <v>0.258263290764866</v>
       </c>
       <c r="L222" t="n">
-        <v>0.02067877413400487</v>
+        <v>0.06659150578953119</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1226516420459919</v>
+        <v>0.2586738912935511</v>
       </c>
       <c r="N222" t="n">
-        <v>0.04101467835865097</v>
+        <v>0.1024212504132812</v>
       </c>
       <c r="O222" t="n">
-        <v>0.122110228956198</v>
+        <v>0.2592379030087778</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0219532290465666</v>
+        <v>0.02155690143999738</v>
       </c>
       <c r="G223" t="n">
-        <v>0.07283887976087304</v>
+        <v>0.2583568911850375</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01639110329890141</v>
+        <v>0.02996249215854217</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1251852560063154</v>
+        <v>0.259908279878018</v>
       </c>
       <c r="L223" t="n">
-        <v>0.02034895898176964</v>
+        <v>0.06669525045392574</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1234328626959664</v>
+        <v>0.2603214956966947</v>
       </c>
       <c r="N223" t="n">
-        <v>0.03964725925991991</v>
+        <v>0.1031278700322505</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1228880011151546</v>
+        <v>0.2608890998432286</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02133379835655221</v>
+        <v>0.02151892750841526</v>
       </c>
       <c r="G224" t="n">
-        <v>0.07273314570484646</v>
+        <v>0.2599920613824112</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01633038451878807</v>
+        <v>0.02983000474545758</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1259775677531908</v>
+        <v>0.26155326899117</v>
       </c>
       <c r="L224" t="n">
-        <v>0.01987824093210691</v>
+        <v>0.06633261372413943</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1242140833459408</v>
+        <v>0.2619691000998383</v>
       </c>
       <c r="N224" t="n">
-        <v>0.03872584570716991</v>
+        <v>0.102949722859945</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1236657732741114</v>
+        <v>0.2625402966776794</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02072433904316164</v>
+        <v>0.02042754249629009</v>
       </c>
       <c r="G225" t="n">
-        <v>0.07262741164881989</v>
+        <v>0.2616272315797847</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01597319022322087</v>
+        <v>0.02952409300159123</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1267698795000662</v>
+        <v>0.263198258104322</v>
       </c>
       <c r="L225" t="n">
-        <v>0.01917053487088788</v>
+        <v>0.06600627523545902</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1249953039959153</v>
+        <v>0.2636167045029819</v>
       </c>
       <c r="N225" t="n">
-        <v>0.03805470588758703</v>
+        <v>0.1020190473560444</v>
       </c>
       <c r="O225" t="n">
-        <v>0.124443545433068</v>
+        <v>0.2641914935121302</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02012516293629941</v>
+        <v>0.02228879922492275</v>
       </c>
       <c r="G226" t="n">
-        <v>0.07252167759279331</v>
+        <v>0.2632624017771584</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01581974204212902</v>
+        <v>0.02945261369626849</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1275621912469417</v>
+        <v>0.264843247217474</v>
       </c>
       <c r="L226" t="n">
-        <v>0.01902975568398388</v>
+        <v>0.06543238821262048</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1257765246458898</v>
+        <v>0.2652643089061256</v>
       </c>
       <c r="N226" t="n">
-        <v>0.0371381079883577</v>
+        <v>0.101956136516018</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1252213175920247</v>
+        <v>0.265842690346581</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0195365818658702</v>
+        <v>0.0201087505156141</v>
       </c>
       <c r="G227" t="n">
-        <v>0.07241594353676674</v>
+        <v>0.2648975719745321</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01567026160544172</v>
+        <v>0.02942375228612364</v>
       </c>
       <c r="K227" t="n">
-        <v>0.128354502993817</v>
+        <v>0.266488236330626</v>
       </c>
       <c r="L227" t="n">
-        <v>0.01885981825726599</v>
+        <v>0.0651292601931947</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1265577452958642</v>
+        <v>0.2669119133092692</v>
       </c>
       <c r="N227" t="n">
-        <v>0.03648032019666791</v>
+        <v>0.1013895669682408</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1259990897509814</v>
+        <v>0.2674938871810319</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01895890766177848</v>
+        <v>0.02089344918966506</v>
       </c>
       <c r="G228" t="n">
-        <v>0.07231020948074017</v>
+        <v>0.2665327421719058</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01562497054308824</v>
+        <v>0.02884569422779089</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1291468147406925</v>
+        <v>0.268133225443778</v>
       </c>
       <c r="L228" t="n">
-        <v>0.01876463747660539</v>
+        <v>0.06481519871475275</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1273389659458387</v>
+        <v>0.2685595177124129</v>
       </c>
       <c r="N228" t="n">
-        <v>0.03548561069970391</v>
+        <v>0.1000479153410872</v>
       </c>
       <c r="O228" t="n">
-        <v>0.126776861909938</v>
+        <v>0.2691450840154827</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01839245215392879</v>
+        <v>0.01964894806837644</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0722044754247136</v>
+        <v>0.2681679123692794</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0155840904849978</v>
+        <v>0.02872662497790446</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1299391264875679</v>
+        <v>0.26977821455693</v>
       </c>
       <c r="L229" t="n">
-        <v>0.01804812822787341</v>
+        <v>0.0636085113148655</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1281201865958132</v>
+        <v>0.2702071221155565</v>
       </c>
       <c r="N229" t="n">
-        <v>0.03495824768465194</v>
+        <v>0.09905975826293223</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1275546340688947</v>
+        <v>0.2707962808499335</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0178375271722257</v>
+        <v>0.01938129997304916</v>
       </c>
       <c r="G230" t="n">
-        <v>0.07209874136868703</v>
+        <v>0.2698030825666531</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01534782105991277</v>
+        <v>0.0282747299930986</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1307314382344433</v>
+        <v>0.271423203670082</v>
       </c>
       <c r="L230" t="n">
-        <v>0.01801376986845254</v>
+        <v>0.06332750553110394</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1289014072457877</v>
+        <v>0.2718547265187001</v>
       </c>
       <c r="N230" t="n">
-        <v>0.03440204964475929</v>
+        <v>0.09775367236215043</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1283324062278514</v>
+        <v>0.2724474776843843</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01729444454657374</v>
+        <v>0.01909655772498407</v>
       </c>
       <c r="G231" t="n">
-        <v>0.07199300731266046</v>
+        <v>0.2714382527640267</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01501409145189329</v>
+        <v>0.02809819473000755</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1315237499813187</v>
+        <v>0.2730681927832341</v>
       </c>
       <c r="L231" t="n">
-        <v>0.01811398375857518</v>
+        <v>0.06259048890103902</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1296826278957621</v>
+        <v>0.2735023309218438</v>
       </c>
       <c r="N231" t="n">
-        <v>0.03357769037337976</v>
+        <v>0.09695823426711658</v>
       </c>
       <c r="O231" t="n">
-        <v>0.129110178386808</v>
+        <v>0.2740986745188351</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01676351610687747</v>
+        <v>0.01980077414548208</v>
       </c>
       <c r="G232" t="n">
-        <v>0.0718872732566339</v>
+        <v>0.2730734229614004</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01518145311497372</v>
+        <v>0.02750520464526551</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1323160617281941</v>
+        <v>0.274713181896386</v>
       </c>
       <c r="L232" t="n">
-        <v>0.01851525806671689</v>
+        <v>0.0613157689622417</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1304638485457366</v>
+        <v>0.2751499353249874</v>
       </c>
       <c r="N232" t="n">
-        <v>0.03295804629225174</v>
+        <v>0.09510202060620543</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1298879505457647</v>
+        <v>0.2757498713532859</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01624505368304138</v>
+        <v>0.01950000205584401</v>
       </c>
       <c r="G233" t="n">
-        <v>0.07178153920060731</v>
+        <v>0.274708593158774</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01474993566322058</v>
+        <v>0.02720394519550676</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1331083734750695</v>
+        <v>0.2763581710095381</v>
       </c>
       <c r="L233" t="n">
-        <v>0.01841855635368181</v>
+        <v>0.06072165325228296</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1312450691957111</v>
+        <v>0.276797539728131</v>
       </c>
       <c r="N233" t="n">
-        <v>0.03174364626338122</v>
+        <v>0.09341360800779169</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1306657227047214</v>
+        <v>0.2774010681877367</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01573936910497012</v>
+        <v>0.02020029427737077</v>
       </c>
       <c r="G234" t="n">
-        <v>0.07167580514458075</v>
+        <v>0.2763437633561477</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01461956871070019</v>
+        <v>0.02680260183736549</v>
       </c>
       <c r="K234" t="n">
-        <v>0.133900685221945</v>
+        <v>0.2780031601226901</v>
       </c>
       <c r="L234" t="n">
-        <v>0.01852484218027403</v>
+        <v>0.05942644930873373</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1320262898456856</v>
+        <v>0.2784451441312747</v>
       </c>
       <c r="N234" t="n">
-        <v>0.03143501914877428</v>
+        <v>0.09222157310025009</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1314434948636781</v>
+        <v>0.2790522650221876</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0152467742025682</v>
+        <v>0.01990770363136323</v>
       </c>
       <c r="G235" t="n">
-        <v>0.07157007108855418</v>
+        <v>0.2779789335535213</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01479038187147901</v>
+        <v>0.02620936002747599</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1346929969688204</v>
+        <v>0.2796481492358421</v>
       </c>
       <c r="L235" t="n">
-        <v>0.01853507910729768</v>
+        <v>0.058548464669165</v>
       </c>
       <c r="M235" t="n">
-        <v>0.13280751049566</v>
+        <v>0.2800927485344183</v>
       </c>
       <c r="N235" t="n">
-        <v>0.03123269381043692</v>
+        <v>0.09065449251195545</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1322212670226348</v>
+        <v>0.2807034618566384</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01476758080574013</v>
+        <v>0.01962828293912226</v>
       </c>
       <c r="G236" t="n">
-        <v>0.07146433703252759</v>
+        <v>0.279614103750895</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01446240475962342</v>
+        <v>0.02583240522247242</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1354853087156958</v>
+        <v>0.2812931383489941</v>
       </c>
       <c r="L236" t="n">
-        <v>0.01805023069555686</v>
+        <v>0.05790600687114772</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1335887311456345</v>
+        <v>0.2817403529375619</v>
       </c>
       <c r="N236" t="n">
-        <v>0.03053719911037511</v>
+        <v>0.0894409428712824</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1329990391815914</v>
+        <v>0.2823546586910892</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0143021007443905</v>
+        <v>0.01836808502194874</v>
       </c>
       <c r="G237" t="n">
-        <v>0.07135860297650103</v>
+        <v>0.2812492739482686</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01443566698919985</v>
+        <v>0.02557992287898905</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1362776204625712</v>
+        <v>0.2829381274621461</v>
       </c>
       <c r="L237" t="n">
-        <v>0.01807126050585567</v>
+        <v>0.05701738345225282</v>
       </c>
       <c r="M237" t="n">
-        <v>0.134369951795609</v>
+        <v>0.2833879573407056</v>
       </c>
       <c r="N237" t="n">
-        <v>0.02934906391059516</v>
+        <v>0.08810950080660579</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1337768113405481</v>
+        <v>0.28400585552554</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01385064584842385</v>
+        <v>0.01912902825187311</v>
       </c>
       <c r="G238" t="n">
-        <v>0.07125286892047446</v>
+        <v>0.2828844441456423</v>
       </c>
       <c r="J238" t="n">
-        <v>0.0141101981742747</v>
+        <v>0.02545741938240924</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1370699322094466</v>
+        <v>0.2845831165752982</v>
       </c>
       <c r="L238" t="n">
-        <v>0.01849913209899823</v>
+        <v>0.05639622313929166</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1351511724455834</v>
+        <v>0.2850355617438492</v>
       </c>
       <c r="N238" t="n">
-        <v>0.02866881707310287</v>
+        <v>0.08708382336504866</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1345545834995048</v>
+        <v>0.2856570523599908</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01341352794774471</v>
+        <v>0.01789226294318115</v>
       </c>
       <c r="G239" t="n">
-        <v>0.07114713486444789</v>
+        <v>0.2845196143430159</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01428602792891437</v>
+        <v>0.02504122636886592</v>
       </c>
       <c r="K239" t="n">
-        <v>0.137862243956322</v>
+        <v>0.2862281056884502</v>
       </c>
       <c r="L239" t="n">
-        <v>0.01823480903578867</v>
+        <v>0.05579137954443858</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1359323930955579</v>
+        <v>0.2866831661469929</v>
       </c>
       <c r="N239" t="n">
-        <v>0.02909698745990447</v>
+        <v>0.08678863093339095</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1353323556584615</v>
+        <v>0.2873082491944416</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01298978556681402</v>
+        <v>0.01665459689379243</v>
       </c>
       <c r="G240" t="n">
-        <v>0.07104140080842131</v>
+        <v>0.2861547845403896</v>
       </c>
       <c r="J240" t="n">
-        <v>0.0138631858671853</v>
+        <v>0.02462382541455334</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1386545557031974</v>
+        <v>0.2878730948016022</v>
       </c>
       <c r="L240" t="n">
-        <v>0.01857925487703105</v>
+        <v>0.05518384028689113</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1367136137455324</v>
+        <v>0.2883307705501365</v>
       </c>
       <c r="N240" t="n">
-        <v>0.02853410393300598</v>
+        <v>0.08508924362074699</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1361101278174182</v>
+        <v>0.2889594460288924</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.012572090702875</v>
+        <v>0.01741601576434881</v>
       </c>
       <c r="G241" t="n">
-        <v>0.07093566675239474</v>
+        <v>0.2877899547377633</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01394170160315385</v>
+        <v>0.02430519712782113</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1394468674500728</v>
+        <v>0.2895180839147542</v>
       </c>
       <c r="L241" t="n">
-        <v>0.01883343318352956</v>
+        <v>0.05457356199541399</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1374948343955069</v>
+        <v>0.2899783749532801</v>
       </c>
       <c r="N241" t="n">
-        <v>0.02748069535441344</v>
+        <v>0.08398559372802422</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1368878999763748</v>
+        <v>0.2906106428633432</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01215948188038857</v>
+        <v>0.01717650521549219</v>
       </c>
       <c r="G242" t="n">
-        <v>0.07082993269636817</v>
+        <v>0.2894251249351369</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01392160475088648</v>
+        <v>0.02408532211701901</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1402391791969483</v>
+        <v>0.2911630730279062</v>
       </c>
       <c r="L242" t="n">
-        <v>0.01849830751608822</v>
+        <v>0.05366050129877159</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1382760550454813</v>
+        <v>0.2916259793564238</v>
       </c>
       <c r="N242" t="n">
-        <v>0.02723729058613295</v>
+        <v>0.08297761355613048</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1376656721353315</v>
+        <v>0.2922618396977941</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0117522709292593</v>
+        <v>0.01593605090786444</v>
       </c>
       <c r="G243" t="n">
-        <v>0.0707241986403416</v>
+        <v>0.2910602951325105</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01370292492444958</v>
+        <v>0.02366418099049666</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1410314909438237</v>
+        <v>0.2928080621410582</v>
       </c>
       <c r="L243" t="n">
-        <v>0.01837484143551124</v>
+        <v>0.05274461482572865</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1390572756954558</v>
+        <v>0.2932735837595674</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02620441849017041</v>
+        <v>0.08206523540597338</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1384434442942882</v>
+        <v>0.2939130365322449</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01135076967939173</v>
+        <v>0.01769463850210743</v>
       </c>
       <c r="G244" t="n">
-        <v>0.07061846458431503</v>
+        <v>0.2926954653298842</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01368569173790955</v>
+        <v>0.02334175435660378</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1418238026906991</v>
+        <v>0.2944530512542102</v>
       </c>
       <c r="L244" t="n">
-        <v>0.01866399850260261</v>
+        <v>0.0521258592050497</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1398384963454303</v>
+        <v>0.2949211881627111</v>
       </c>
       <c r="N244" t="n">
-        <v>0.02598260792853202</v>
+        <v>0.08094839157846045</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1392212164532448</v>
+        <v>0.2955642333666957</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0109552899606904</v>
+        <v>0.01545225365886304</v>
       </c>
       <c r="G245" t="n">
-        <v>0.07051273052828846</v>
+        <v>0.2943306355272579</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01356993480533282</v>
+        <v>0.02301802282369005</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1426161144375745</v>
+        <v>0.2960980403673623</v>
       </c>
       <c r="L245" t="n">
-        <v>0.01856674227816657</v>
+        <v>0.05130419106549938</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1406197169954047</v>
+        <v>0.2965687925658547</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02497238776322391</v>
+        <v>0.08002701437449961</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1399989886122015</v>
+        <v>0.2972154302011465</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01056614360305987</v>
+        <v>0.01620888203877315</v>
       </c>
       <c r="G246" t="n">
-        <v>0.0704069964722619</v>
+        <v>0.2959658057246315</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01345568374078578</v>
+        <v>0.02279296700010514</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1434084261844499</v>
+        <v>0.2977430294805142</v>
       </c>
       <c r="L246" t="n">
-        <v>0.01888403632300711</v>
+        <v>0.0506795670358422</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1414009376453792</v>
+        <v>0.2982163969689983</v>
       </c>
       <c r="N246" t="n">
-        <v>0.02467428685625195</v>
+        <v>0.07900103609499831</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1407767607711582</v>
+        <v>0.2988666270355973</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01018364243640462</v>
+        <v>0.01696450930247964</v>
       </c>
       <c r="G247" t="n">
-        <v>0.07030126241623531</v>
+        <v>0.2976009759220052</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01324296815833484</v>
+        <v>0.02246656749419876</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1442007379313253</v>
+        <v>0.2993880185936663</v>
       </c>
       <c r="L247" t="n">
-        <v>0.01891684419792847</v>
+        <v>0.05005194374484281</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1421821582953537</v>
+        <v>0.299864001372142</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02428883406962234</v>
+        <v>0.07727038904086425</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1415545329301149</v>
+        <v>0.3005178238700481</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009808098290629313</v>
+        <v>0.01471912111062439</v>
       </c>
       <c r="G248" t="n">
-        <v>0.07019552836020874</v>
+        <v>0.2992361461193789</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01293181767204644</v>
+        <v>0.02203880491432059</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1449930496782007</v>
+        <v>0.3010330077068183</v>
       </c>
       <c r="L248" t="n">
-        <v>0.01956612946373465</v>
+        <v>0.04952127782126575</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1429633789453282</v>
+        <v>0.3015116057752856</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02421655826534103</v>
+        <v>0.07673500551300522</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1423323050890715</v>
+        <v>0.3021690207044989</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.00943982299563844</v>
+        <v>0.01547270312384929</v>
       </c>
       <c r="G249" t="n">
-        <v>0.07008979430418216</v>
+        <v>0.3008713163167525</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01312226189598695</v>
+        <v>0.02160965986882032</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1457853614250762</v>
+        <v>0.3026779968199703</v>
       </c>
       <c r="L249" t="n">
-        <v>0.01943285568122979</v>
+        <v>0.04828752589387564</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1437445995953026</v>
+        <v>0.3031592101784292</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02395798830541407</v>
+        <v>0.0748948178123286</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1431100772480282</v>
+        <v>0.3038202175389497</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.009079128381336538</v>
+        <v>0.01522524100279619</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06998406024815559</v>
+        <v>0.3025064865141261</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01301433044422282</v>
+        <v>0.02137911296604764</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1465776731719516</v>
+        <v>0.3043229859331223</v>
       </c>
       <c r="L250" t="n">
-        <v>0.01971798641121802</v>
+        <v>0.04805064459143704</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1445258202452771</v>
+        <v>0.3048068145815728</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02291365305184762</v>
+        <v>0.0740497582397423</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1438878494069849</v>
+        <v>0.3054714143734006</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008726326277628184</v>
+        <v>0.01597672040810699</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06987832619212903</v>
+        <v>0.3041416567114998</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01280805293082041</v>
+        <v>0.02094714481435225</v>
       </c>
       <c r="K251" t="n">
-        <v>0.147369984918827</v>
+        <v>0.3059679750462743</v>
       </c>
       <c r="L251" t="n">
-        <v>0.01952248521450348</v>
+        <v>0.04681059054271455</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1453070408952516</v>
+        <v>0.3064544189847165</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02228408136664772</v>
+        <v>0.07319975909615389</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1446656215659416</v>
+        <v>0.3071226112078514</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008381728514417902</v>
+        <v>0.01372712700042356</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06977259213610246</v>
+        <v>0.3057768269088735</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01280345896984618</v>
+        <v>0.0207137360220838</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1481622966657024</v>
+        <v>0.3076129641594263</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0202473156518902</v>
+        <v>0.04616732037647278</v>
       </c>
       <c r="M252" t="n">
-        <v>0.146088261545226</v>
+        <v>0.3081020233878601</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02226980211182039</v>
+        <v>0.07184475268247115</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1454433937248982</v>
+        <v>0.3087738080423022</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.008045646921610236</v>
+        <v>0.01347644644038779</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06966685808007589</v>
+        <v>0.3074119971062471</v>
       </c>
       <c r="J253" t="n">
-        <v>0.0125005781753665</v>
+        <v>0.02037886719759202</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1489546084125778</v>
+        <v>0.3092579532725783</v>
       </c>
       <c r="L253" t="n">
-        <v>0.02059344128418233</v>
+        <v>0.04572079072147628</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1468694821952005</v>
+        <v>0.3097496277910038</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02127134414937171</v>
+        <v>0.0710846712996015</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1462211658838549</v>
+        <v>0.310425004876753</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007718393329109723</v>
+        <v>0.01522466438864155</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06956112402404931</v>
+        <v>0.3090471673036208</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0125994401614478</v>
+        <v>0.02024251894922657</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1497469201594532</v>
+        <v>0.3109029423857304</v>
       </c>
       <c r="L254" t="n">
-        <v>0.020361825672184</v>
+        <v>0.04487095820648962</v>
       </c>
       <c r="M254" t="n">
-        <v>0.147650702845175</v>
+        <v>0.3113972321941474</v>
       </c>
       <c r="N254" t="n">
-        <v>0.0216892363413077</v>
+        <v>0.06911944724845276</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1469989380428116</v>
+        <v>0.3120762017112038</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007400279566820961</v>
+        <v>0.01397176650582672</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06945538996802274</v>
+        <v>0.3106823375009944</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0125000745421565</v>
+        <v>0.01960467188533717</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1505392319063286</v>
+        <v>0.3125479314988824</v>
       </c>
       <c r="L255" t="n">
-        <v>0.02115343237669934</v>
+        <v>0.0439177794602775</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1484319234951494</v>
+        <v>0.3130448365972911</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02112400754963439</v>
+        <v>0.06784901282993261</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1477767102017683</v>
+        <v>0.3137273985456546</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.007091617464648474</v>
+        <v>0.01471773845258516</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06934965591199617</v>
+        <v>0.3123175076983681</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01210251093155898</v>
+        <v>0.01936530661427346</v>
       </c>
       <c r="K256" t="n">
-        <v>0.151331543653204</v>
+        <v>0.3141929206120344</v>
       </c>
       <c r="L256" t="n">
-        <v>0.02096922495853237</v>
+        <v>0.04326121111160439</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1492131441451239</v>
+        <v>0.3146924410004347</v>
       </c>
       <c r="N256" t="n">
-        <v>0.02037618663635787</v>
+        <v>0.06727330034494855</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1485544823607249</v>
+        <v>0.3153785953801054</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006792718852496805</v>
+        <v>0.01346256588955878</v>
       </c>
       <c r="G257" t="n">
-        <v>0.0692439218559696</v>
+        <v>0.3139526778957417</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01210677894372168</v>
+        <v>0.01912440374438518</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1521238554000794</v>
+        <v>0.3158379097251864</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02181016697848731</v>
+        <v>0.04240120978923487</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1499943647950984</v>
+        <v>0.3163400454035784</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01994630246348433</v>
+        <v>0.06629224209440843</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1493322545196816</v>
+        <v>0.3170297922145563</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006503895560270499</v>
+        <v>0.01220623447738943</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06913818779994303</v>
+        <v>0.3155878480931154</v>
       </c>
       <c r="J258" t="n">
-        <v>0.012012908192711</v>
+        <v>0.01868194388402197</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1529161671469549</v>
+        <v>0.3174828988383384</v>
       </c>
       <c r="L258" t="n">
-        <v>0.02167722199736818</v>
+        <v>0.04143773212193363</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1507755854450729</v>
+        <v>0.317987649806722</v>
       </c>
       <c r="N258" t="n">
-        <v>0.02053488389301972</v>
+        <v>0.06420577037921987</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1501100266786383</v>
+        <v>0.3186809890490071</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006225459417874106</v>
+        <v>0.01394872987671902</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06903245374391646</v>
+        <v>0.317223018290489</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01192092829259334</v>
+        <v>0.01843790764153358</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1537084788938303</v>
+        <v>0.3191278879514904</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02247135357597915</v>
+        <v>0.0408707347384652</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1515568060950473</v>
+        <v>0.3196352542098656</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01924245978697003</v>
+        <v>0.06381381750029047</v>
       </c>
       <c r="O259" t="n">
-        <v>0.150887798837595</v>
+        <v>0.3203321858834579</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005957722255212176</v>
+        <v>0.01369003774818941</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06892671968788988</v>
+        <v>0.3188581884878627</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0118308688574351</v>
+        <v>0.01789227562526964</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1545007906407057</v>
+        <v>0.3207728770646424</v>
       </c>
       <c r="L260" t="n">
-        <v>0.0224935252751243</v>
+        <v>0.03990017426759415</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1523380267450218</v>
+        <v>0.3212828586130093</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01916955900734135</v>
+        <v>0.0624163157585278</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1516655709965516</v>
+        <v>0.3219833827179087</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005700995902189226</v>
+        <v>0.01243014375244247</v>
       </c>
       <c r="G261" t="n">
-        <v>0.0688209856318633</v>
+        <v>0.3204933586852363</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01184275950130272</v>
+        <v>0.01754502844357986</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1552931023875811</v>
+        <v>0.3224178661777944</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02324470065560774</v>
+        <v>0.03922600733808509</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1531192473949963</v>
+        <v>0.3229304630161529</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01871671041613976</v>
+        <v>0.06161319745483973</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1524433431555083</v>
+        <v>0.3236345795523595</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005455592188709862</v>
+        <v>0.0131690335501201</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06871525157583673</v>
+        <v>0.32212852888261</v>
       </c>
       <c r="J262" t="n">
-        <v>0.0115566298382626</v>
+        <v>0.01739614670481393</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1560854141344565</v>
+        <v>0.3240628552909465</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02372584327823363</v>
+        <v>0.03854819057870257</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1539004680449707</v>
+        <v>0.3245780674192965</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0186844428753713</v>
+        <v>0.06000439489013371</v>
       </c>
       <c r="O262" t="n">
-        <v>0.153221115314465</v>
+        <v>0.3252857763868103</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0052218229446786</v>
+        <v>0.01290669280186415</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06860951751981016</v>
+        <v>0.3237636990799836</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01167250948238115</v>
+        <v>0.01714561101732152</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1568777258813319</v>
+        <v>0.3257078444040984</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02393791670380602</v>
+        <v>0.03756668061821128</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1546816886949452</v>
+        <v>0.3262256718224402</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01907328524704222</v>
+        <v>0.05858984036531767</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1539988874734217</v>
+        <v>0.3269369732212611</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01264310716831653</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06850378346378359</v>
+        <v>0.3253988692773573</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01169042804772476</v>
+        <v>0.01649340198945236</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1576700376282074</v>
+        <v>0.3273528335172505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02448188449312905</v>
+        <v>0.03698143408537563</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1554629093449197</v>
+        <v>0.3278732762255838</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01888376639315825</v>
+        <v>0.05786946618129896</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1547766596323783</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06849062556904675</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.00571673536624636</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06849089409751076</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006429619833175478</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06849116262597478</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007138611503567101</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.0684914311544388</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007843668480108437</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.06849169968290282</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.00854474886557937</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06849196821136683</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009241810762728848</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06849223673983085</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009934812274335868</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06849250526829487</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01062371150308908</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.06849277379675889</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01130846655176764</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.06849304232522291</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01198903552312051</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06849331085368691</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01266537651992596</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06849357938215095</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01333744764487409</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06849384791061496</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01400520700074333</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.06849411643907898</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01466861269028264</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06849438496754298</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01532762281626955</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.06849465349600702</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01598219548139563</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.06849492202447102</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.0166322887884386</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06849519055293504</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.0172778608401474</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06849545908139905</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01791886973929879</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06849572760986308</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01855527358858589</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06849599613832709</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01918703049078564</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06849626466679111</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01981409854864699</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.06849653319525513</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.02043643586494587</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06849680172371915</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.02105400054237702</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06849707025218317</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02166692176415845</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06849733878064718</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02227618411569</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.0684976073091112</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02288191678018875</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.06849787583757522</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02348407786035089</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06849814436603924</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02408262545895179</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06849841289450324</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02467751767874042</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06849868142296726</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02526871262249135</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06849894995143128</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02585616839290206</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.0684992184798953</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02643984309274733</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.06849948700835932</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02701969482477605</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06849975553682333</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02759568169176219</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06850002406528737</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02816776179640454</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06850029259375137</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02873589324147721</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06850056112221539</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02930003412972911</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.0685008296506794</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02986014256393348</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06850109817914343</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.03041617664679053</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06850136670760744</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.03096809448107363</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06850163523607146</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03151585416953175</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06850190376453547</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03205941381493739</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.0685021722929995</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03259873151999215</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.06850244082146351</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03313376538746877</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06850270934992753</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03366447352011616</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06850297787839155</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03419081402070608</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06850324640685557</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03471274499194164</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06850351493531959</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03523022453659481</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06850378346378359</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03523022453659481</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06849062556904675</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.0358047401044011</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06859689668200136</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03637424357284458</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06870316779495596</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03693861582134975</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06880943890791057</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03749773772934085</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06891571002086518</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03805149017624225</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06902198113381978</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03859975404147839</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06912825224677439</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03914241020447352</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06923452335972899</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03967933954465208</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.0693407944726836</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.04021042294143844</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06944706558563821</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.04073554127425683</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.0695533366985928</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.04125457542253175</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06965960781154741</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04176740626568749</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06976587892450203</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.04227391468314838</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06987215003745663</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.04277398155433886</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06997842115041124</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04326748775868325</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.07008469226336585</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04375431417560584</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.07019096337632044</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04423434168453109</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.07029723448927505</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04470745116488327</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.07040350560222966</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04517352349608683</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.07050977671518427</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04563243955756609</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.07061604782813888</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04608408022874533</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.07072231894109347</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04652832638904904</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.07082859005404808</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04696505891790148</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.07093486116700269</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04739415869472703</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.0710411322799573</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04781599300796729</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.07114740339291191</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04823336119114977</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.0712536745058665</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04864663053271616</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.07135994561882111</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04905568191209078</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.07146621673177572</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04946039620869788</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.07157248784473032</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04986065430196197</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.07167875895768494</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.05025633707130735</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.07178503007063955</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.05064732539615828</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.07189130118359414</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.05103350015593928</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.07199757229654875</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.05141474223007457</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.07210384340950335</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.05179093249798862</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.07221011452245796</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.05216195183910576</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.07231638563541258</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.05252768113285024</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.07242265674836718</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.05288800125864655</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.07252892786132178</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.05324279309591903</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.07263519897427639</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.05359193752409193</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.07274147008723099</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.05393531542258974</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.0728477412001856</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.05427280767083675</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.07295401231314021</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05460429514825728</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.07306028342609482</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.05492965873427579</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.07316655453904942</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05524877930831654</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.07327282565200402</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05556153774980396</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.07337909676495863</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05586781493816238</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.07348536787791324</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05616749175281611</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.07359163899086785</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05646044907318963</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.07369791010382246</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.05130696604879308</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.07369791010382246</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05656501439303742</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.07587516315710131</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05666202391377295</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.07805241621038018</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05675176098853223</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.08022966926365904</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05683450897045129</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.0824069223169379</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05691055121266619</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.08458417537021676</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05698017106831296</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.08676142842349562</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05704365189052764</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.08893868147677449</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05710127703244622</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.09111593453005336</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05715332984720477</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.09329318758333222</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05720009368793932</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.09547044063661109</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05724185190778594</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.09764769368988994</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05727888785988058</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.0998249467431688</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05731148489735936</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.1020021997964477</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05733992637335827</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.1041794528497265</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05736449564101335</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.1063567059030054</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05738547605346064</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.1085339589562843</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05740315096383618</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.1107112120095631</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.057417803725276</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.112888465062842</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05742971769091613</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.1150657181161209</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05743917621389261</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1172429711693997</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05744646264734146</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.1194202242226785</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05745186034439873</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1215974772759574</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05745565265820048</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1237747303292363</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05745812294188268</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1259519833825151</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05745955454858143</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.128129236435794</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05746023083143272</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1303064894890729</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05746043514357262</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1324837425423517</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05745406154401049</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1346609955956306</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05736134610779614</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1368382486489095</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05716521446906321</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1390155017021883</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05687455519751877</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1411927547554672</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.0564982568628699</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1433700078087461</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.0560452080348237</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1455472608620249</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.05552429728308723</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1477245139153038</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.05494441317736755</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.0543144442873718</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1520790200218615</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.05364327918280701</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1542562730751404</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.05293980643338024</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1564335261284192</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.05221291460879862</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1586107791816981</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.05147149227876922</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.160788032234977</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.05072442801299909</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1629652852882558</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04998061038119533</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1651425383415347</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04924892795306504</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1673197913948135</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04853826929831526</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1694970444480924</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04785752298665308</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1716742975013713</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04721557758778559</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1738515505546501</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04662132167141986</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.176028803607929</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04608364380726297</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1782060566612079</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04561143256502199</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1803833097144867</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04521357651440404</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1825605627677656</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04489893864252813</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1847378158210445</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04463440627369425</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1869150688743233</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04438419205221587</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1890923219276022</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04414734173018389</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.191269574980881</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.0439229010596891</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1934468280341599</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.04370991579282235</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1956240810874388</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04350743168167447</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1978013341407177</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.0433144944783363</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1999785871939965</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.04313014993489871</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.2021558402472753</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.04295344380345248</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.2043330933005542</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.04278342183608848</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.2065103463538331</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.04261912978489756</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.2086875994071119</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.04245961340197053</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.2108648524603908</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.04230391843939826</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.2130421055136697</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.04215109064927156</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.2152193585669485</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.04200017578368126</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.2173966116202274</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.04185021959471824</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.2195738646735063</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.0417002678344733</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.2217511177267851</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.04154936625503729</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.223928370780064</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.04139656060850105</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.2261056238333428</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.04124089664695541</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.2282828768866217</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.04108142012249122</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.2304601299399006</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.04091717678719931</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.2326373829931795</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.04074721239317051</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.2348146360464583</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.04057057269249568</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2369918890997371</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.04038630343726564</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.239169142153016</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.04019583122914309</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.2413463952062949</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.04000416462154328</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.2435236482595737</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03981152052554432</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2457009013128526</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03961790915700346</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2478781543661315</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03942334073177797</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2500554074194103</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03922782546572511</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2522326604726892</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03903137357470213</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2544099135259681</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03883399527456628</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2565871665792469</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03863570078117483</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2587644196325258</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03843650031038502</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2609416726858046</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03823640407805412</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2631189257390835</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.0380354223000394</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2652961787923623</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03783356519219806</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2674734318456413</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03763084297038742</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2696506848989201</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03742726585046471</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.271827937952199</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03722284404828716</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2740051910054778</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03701758777971208</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2761824440587567</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03681150726059669</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2783596971120355</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03660461270679825</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2805369501653144</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03639691433417402</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2827142032185933</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03618842235858125</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2848914562718721</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.0359791469958772</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.287068709325151</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03576909846191915</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2892459623784299</v>
-      </c>
-    </row>
+        <v>0.328588170055712</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1072.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1072.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.002406929513424347</v>
+        <v>0.001314307308573417</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001635170197373655</v>
+        <v>0.0006111026339404733</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003253717134789724</v>
+        <v>0.003032189710938223</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001644989113152012</v>
+        <v>0.001558202600620817</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.009939513123833149</v>
+        <v>0.009614619033471994</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001647604403143637</v>
+        <v>0.001540056756757396</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01477040141242514</v>
+        <v>0.01380258181138005</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001651196834450814</v>
+        <v>0.001541229636196162</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006326741512198267</v>
+        <v>0.002588623956834957</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003512220253368955</v>
+        <v>0.001222205267880947</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.006064462753106153</v>
+        <v>0.00575836374513413</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003289978226304025</v>
+        <v>0.003116405201241634</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01750886842406352</v>
+        <v>0.01919241346483885</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003374949223137628</v>
+        <v>0.003551485028655597</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02506336134662535</v>
+        <v>0.02454120798523735</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003057944301051939</v>
+        <v>0.00299423712811336</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,10 +9400,10 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.007689140064945733</v>
+        <v>0.003782959284472753</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004905510592120964</v>
+        <v>0.00183330790182142</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
@@ -9413,16 +9413,16 @@
         <v>0.004163541666666662</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02077614808994085</v>
+        <v>0.02229680794498384</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004942813209430912</v>
+        <v>0.004620170270272187</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03142540042272651</v>
+        <v>0.03192289816398736</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004953590503352442</v>
+        <v>0.004623688908588487</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.008982289994536388</v>
+        <v>0.004857322631174929</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006540680789494619</v>
+        <v>0.002444410535761893</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01012795467320863</v>
+        <v>0.009475649645182098</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00657995645260805</v>
+        <v>0.006232810402483268</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02450330264358497</v>
+        <v>0.02633307028661572</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006590417612574549</v>
+        <v>0.006160227027029582</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03650882181352283</v>
+        <v>0.0382663244809745</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006604787337803256</v>
+        <v>0.00616491854478465</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006326741512198267</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01004545415397139</v>
+        <v>0.005771723336629633</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008175850986868273</v>
+        <v>0.003055513169702367</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01178199819513501</v>
+        <v>0.01077686360039</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008224945565760063</v>
+        <v>0.007791013003104086</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02672011134635457</v>
+        <v>0.02954410457001561</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008238022015718185</v>
+        <v>0.007700283783786978</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04029208103379617</v>
+        <v>0.04365680819829182</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00825598417225407</v>
+        <v>0.007706148180980812</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01138813472195688</v>
+        <v>0.006326741512198267</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.01053666076010686</v>
+        <v>0.003512220253368955</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01315797124708716</v>
+        <v>0.01200046994506362</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009869934678912074</v>
+        <v>0.009349215603724903</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02917784625724368</v>
+        <v>0.03201836323237997</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009885626418861823</v>
+        <v>0.009240340540544375</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04381967605924603</v>
+        <v>0.04901116273664113</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009907181006704884</v>
+        <v>0.009247377817176975</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01089549890653504</v>
+        <v>0.00713292931926534</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01144619138161558</v>
+        <v>0.004277718437583314</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01431416263785283</v>
+        <v>0.01306998220271083</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01151492379206409</v>
+        <v>0.01090741820434572</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03102777943524632</v>
+        <v>0.03367090081550678</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01153323082200546</v>
+        <v>0.01038445914811578</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04753610486557164</v>
+        <v>0.05221533613880286</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.0115583778411557</v>
+        <v>0.01061786215643035</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01080154364293147</v>
+        <v>0.007743317081964275</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01308136157898924</v>
+        <v>0.004888821071523787</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01512646549221072</v>
+        <v>0.0142089138968394</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01249062499999999</v>
+        <v>0.01246562080496654</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03367090081550678</v>
+        <v>0.03553894716398545</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01301106770833332</v>
+        <v>0.01232045405405916</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05221533613880286</v>
+        <v>0.05545890352863558</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01372596153846153</v>
+        <v>0.0123298370895693</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01269352712802298</v>
+        <v>0.008320634665791041</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01471653177636289</v>
+        <v>0.00549992370546426</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.0165007913467824</v>
+        <v>0.01512646549221072</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01480490201836811</v>
+        <v>0.01399548207693663</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03587562437690833</v>
+        <v>0.0374872078756382</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01482843962829273</v>
+        <v>0.01386051081081656</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05428998984381828</v>
+        <v>0.05810583972835304</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01486077151005732</v>
+        <v>0.01387106672576546</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01456415279266794</v>
+        <v>0.008861565530600683</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01635170197373655</v>
+        <v>0.006111026339404734</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01768131198755798</v>
+        <v>0.01572675468480306</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01644989113152013</v>
+        <v>0.01558202600620817</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03878402107295525</v>
+        <v>0.03910149557141512</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01647604403143637</v>
+        <v>0.01540056756757396</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05843009752696682</v>
+        <v>0.06068980422731818</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01651196834450814</v>
+        <v>0.01541229636196162</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01440612406772471</v>
+        <v>0.009362793136248236</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.0179868721711102</v>
+        <v>0.006722128973345206</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01884137142221386</v>
+        <v>0.01650828529741856</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01809488024467214</v>
+        <v>0.01714022860682899</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04081130769562122</v>
+        <v>0.04117948157723583</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01812364843458001</v>
+        <v>0.01694062432433135</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.06203303552277567</v>
+        <v>0.06340777952419274</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01816316517895895</v>
+        <v>0.01695352599815779</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01421214438405168</v>
+        <v>0.00982100094258876</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01962204236848386</v>
+        <v>0.007333231607285681</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0200699698775284</v>
+        <v>0.01748377206144348</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01973986935782415</v>
+        <v>0.01869843120744981</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04392395428903412</v>
+        <v>0.04291883721901987</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01977125283772365</v>
+        <v>0.01848068108108875</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06604471907946752</v>
+        <v>0.06605674811763884</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01981436201340977</v>
+        <v>0.01849475563435395</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0149749171725072</v>
+        <v>0.0102328724094773</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02125721256585751</v>
+        <v>0.007944334241226153</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02125610758028003</v>
+        <v>0.01805160324503159</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02138485847097616</v>
+        <v>0.02025663380807062</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04598843089732182</v>
+        <v>0.04451723382268699</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02141885724086728</v>
+        <v>0.02002073783784614</v>
       </c>
       <c r="N78" t="n">
-        <v>0.069811063445265</v>
+        <v>0.06963369250631818</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02146555884786058</v>
+        <v>0.02003598527055011</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01568714586394966</v>
+        <v>0.01059509099676888</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02289238276323117</v>
+        <v>0.008555436875166628</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02238878475724711</v>
+        <v>0.0187101671163367</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02302984758412817</v>
+        <v>0.02181483640869144</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04857120756461236</v>
+        <v>0.04657234271415675</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02306646164401092</v>
+        <v>0.02156079459460354</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07387798386839095</v>
+        <v>0.07203559518889258</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02311675568231139</v>
+        <v>0.02157721490674627</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01634153388923743</v>
+        <v>0.01090434016431857</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02452755296060482</v>
+        <v>0.0091665395091071</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0233570016352081</v>
+        <v>0.01975785194351255</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02467483669728019</v>
+        <v>0.02337303900931226</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05073875433503361</v>
+        <v>0.04768183521934877</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02471406604715456</v>
+        <v>0.02310085135136093</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07669139559706784</v>
+        <v>0.07435943866402395</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02476795251676221</v>
+        <v>0.02311844454294244</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01793078467922887</v>
+        <v>0.01115730337198141</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02616272315797848</v>
+        <v>0.009777642143047573</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02424975844094132</v>
+        <v>0.02049304599471294</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0263198258104322</v>
+        <v>0.02493124160993307</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05265754125271352</v>
+        <v>0.04924338266418268</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02636167045029819</v>
+        <v>0.02464090810811833</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0802972138795186</v>
+        <v>0.07680220543037414</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02641914935121302</v>
+        <v>0.0246596741791386</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01844760166478236</v>
+        <v>0.01138813472195688</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02779789335535213</v>
+        <v>0.01053666076010686</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02475605540122526</v>
+        <v>0.02101413753809166</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02796481492358421</v>
+        <v>0.02648944421055389</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05469403836177991</v>
+        <v>0.05125465637457816</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02800927485344184</v>
+        <v>0.02618096486487573</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08404135396396584</v>
+        <v>0.07856087798660505</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02807034618566383</v>
+        <v>0.02620090381533476</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01788468827675627</v>
+        <v>0.0114990512606594</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02943306355272578</v>
+        <v>0.01099984741092852</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02546489274283822</v>
+        <v>0.02161951484180248</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02960980403673622</v>
+        <v>0.02804764681117471</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05671471570636077</v>
+        <v>0.05211332767645474</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02965687925658547</v>
+        <v>0.02772102162163312</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08706973109863225</v>
+        <v>0.08083243883137847</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02972154302011465</v>
+        <v>0.02774213345153092</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01923474794600898</v>
+        <v>0.01164355903025507</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03106823375009944</v>
+        <v>0.01161095004486899</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02606527069255869</v>
+        <v>0.02260756617399917</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03125479314988824</v>
+        <v>0.02960584941179552</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05778604333058407</v>
+        <v>0.05361706789573212</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03130448365972911</v>
+        <v>0.02926107837839051</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0886282605317405</v>
+        <v>0.08351387046335629</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03137273985456546</v>
+        <v>0.02928336308772708</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02051261823523186</v>
+        <v>0.01178599206619269</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03270340394747309</v>
+        <v>0.01222205267880947</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02684618947716502</v>
+        <v>0.02307667980283552</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03289978226304025</v>
+        <v>0.03116405201241634</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0594744912785776</v>
+        <v>0.05526354835832989</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03295208806287274</v>
+        <v>0.03080113513514791</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09146285751151334</v>
+        <v>0.0853021553812004</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03302393668901628</v>
+        <v>0.03082459272392325</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02077904512275218</v>
+        <v>0.0119263574026792</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03433857414484675</v>
+        <v>0.01283315531274994</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02692145221058682</v>
+        <v>0.02372524399646532</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03454477137619226</v>
+        <v>0.03272225461303715</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06036504497410686</v>
+        <v>0.05675044039016772</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03459969246601638</v>
+        <v>0.0323411918919053</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0926194372861735</v>
+        <v>0.08789427608357259</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03467513352346709</v>
+        <v>0.03236582236011941</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01903645678409466</v>
+        <v>0.01206466207392157</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03597374434222041</v>
+        <v>0.01344425794669041</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02747817173517253</v>
+        <v>0.02455164702304236</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03618976048934427</v>
+        <v>0.03428045721365797</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06116691168432759</v>
+        <v>0.05757541531716517</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03624729686916001</v>
+        <v>0.0338812486486627</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09377920152550195</v>
+        <v>0.08908721506913475</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0363263303579179</v>
+        <v>0.03390705199631557</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02028307757630154</v>
+        <v>0.01220091311412673</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03760891453959406</v>
+        <v>0.01405536058063089</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02762292243360685</v>
+        <v>0.02505427715072037</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03783474960249628</v>
+        <v>0.03583865981427879</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06154356041570253</v>
+        <v>0.05903614446524194</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03789490127230365</v>
+        <v>0.0354213054054201</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09480228910634086</v>
+        <v>0.09097795483654875</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03797752719236872</v>
+        <v>0.03544828163251174</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02051713185641511</v>
+        <v>0.01233511755750166</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03924408473696771</v>
+        <v>0.01466646321457136</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02815330303750496</v>
+        <v>0.02543152264765318</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0394797387156483</v>
+        <v>0.03739686241489961</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06218962050741994</v>
+        <v>0.05963029916031759</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03954250567544729</v>
+        <v>0.0369613621621775</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0960809441473085</v>
+        <v>0.09276347788447653</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03962872402681954</v>
+        <v>0.0369895112687079</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02073684398147761</v>
+        <v>0.01246728243825328</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04087925493434137</v>
+        <v>0.01527756584851184</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02836691227848213</v>
+        <v>0.02608177178199451</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04112472782880031</v>
+        <v>0.03895506501552043</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06329972129866795</v>
+        <v>0.06125555072831176</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04119011007859093</v>
+        <v>0.03850141891893489</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09690678346866005</v>
+        <v>0.09444076671157975</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04127992086127035</v>
+        <v>0.03853074090490406</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02194043830853132</v>
+        <v>0.01259741479058856</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04251442513171502</v>
+        <v>0.01588866848245231</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02876134888815361</v>
+        <v>0.02670341282189821</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04276971694195233</v>
+        <v>0.04051326761614125</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06346849212863481</v>
+        <v>0.06160957049514415</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04283771448173457</v>
+        <v>0.04004147567569229</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09827142389065036</v>
+        <v>0.09600680381652038</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04293111769572117</v>
+        <v>0.04007197054110022</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02012613919461846</v>
+        <v>0.01272552164871445</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04414959532908868</v>
+        <v>0.01649977111639278</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0290342115981346</v>
+        <v>0.02719483403551802</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04441470605510434</v>
+        <v>0.04207147021676207</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06449056233650868</v>
+        <v>0.06279002978673429</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0444853188848782</v>
+        <v>0.04158153243244968</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09926648223353463</v>
+        <v>0.09685857169796036</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04458231453017197</v>
+        <v>0.04161320017729639</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02129217099678136</v>
+        <v>0.0128516100468379</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04578476552646234</v>
+        <v>0.01711087375033326</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02938309914004035</v>
+        <v>0.02765442369100775</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04605969516825634</v>
+        <v>0.04362967281738288</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06526056126147789</v>
+        <v>0.06359459992900179</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04613292328802184</v>
+        <v>0.04312158918920708</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1007835753175678</v>
+        <v>0.09909305285456138</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04623351136462279</v>
+        <v>0.04315442981349255</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02143675807206223</v>
+        <v>0.01297568701916587</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04741993572383599</v>
+        <v>0.01772197638427373</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02940561024548607</v>
+        <v>0.02818057005652114</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04770468428140836</v>
+        <v>0.0451878754180037</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06557311824273054</v>
+        <v>0.06402095224786641</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04778052769116548</v>
+        <v>0.04466164594596447</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1016143199630049</v>
+        <v>0.0995072297849855</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0478847081990736</v>
+        <v>0.04469565944968871</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02155812477750338</v>
+        <v>0.0130977595999053</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04905510592120964</v>
+        <v>0.0183330790182142</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02959934364608702</v>
+        <v>0.02857166140021199</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04934967339456037</v>
+        <v>0.04674607801862452</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06592286261945493</v>
+        <v>0.06486675806924766</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04942813209430912</v>
+        <v>0.04620170270272186</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1024503329901009</v>
+        <v>0.1001980849878943</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04953590503352442</v>
+        <v>0.04623688908588487</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02165449547014704</v>
+        <v>0.01321783482326314</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0506902761185833</v>
+        <v>0.01894418165215467</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0298618980734584</v>
+        <v>0.02872608599023407</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05099466250771239</v>
+        <v>0.04830428061924533</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06640442373083916</v>
+        <v>0.06542968871906518</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05107573649745275</v>
+        <v>0.04774175945947926</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1021832312191109</v>
+        <v>0.1010626009619499</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05118710186797523</v>
+        <v>0.04777811872208104</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02272409450703548</v>
+        <v>0.01333591972344635</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05232544631595695</v>
+        <v>0.01955528428609515</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03009087225921549</v>
+        <v>0.02914223209474118</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0526396516208644</v>
+        <v>0.04986248321986615</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06681243091607156</v>
+        <v>0.06620741552323867</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05272334090059639</v>
+        <v>0.04928181621623666</v>
       </c>
       <c r="N97" t="n">
-        <v>0.10350463147029</v>
+        <v>0.1019977602058141</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05283829870242605</v>
+        <v>0.0493193483582772</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02277626944391375</v>
+        <v>0.01345202133466188</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0539606165133306</v>
+        <v>0.02016638692003562</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02988386493497351</v>
+        <v>0.02951848798188708</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05428464073401642</v>
+        <v>0.05142068582048696</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0671415135143402</v>
+        <v>0.06619760980768769</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05437094530374003</v>
+        <v>0.05082187297299406</v>
       </c>
       <c r="N98" t="n">
-        <v>0.103306150563893</v>
+        <v>0.1026005452181487</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05448949553687686</v>
+        <v>0.05086057799447335</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02077607730444615</v>
+        <v>0.01356614669111668</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05559578671070427</v>
+        <v>0.0207774895539761</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03025293098442144</v>
+        <v>0.02955324191982556</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05592962984716842</v>
+        <v>0.05297888842110778</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06734180163101358</v>
+        <v>0.06669794289833181</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05601854970688367</v>
+        <v>0.05236192972975146</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1037794053201751</v>
+        <v>0.1031679384976155</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05614069237132767</v>
+        <v>0.05240180763066953</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02076606859936256</v>
+        <v>0.0136783028270177</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05723095690807792</v>
+        <v>0.02138859218791657</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02995262410303431</v>
+        <v>0.02974488217671041</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05757461896032044</v>
+        <v>0.0545370910217286</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06674142230673935</v>
+        <v>0.06690608612109081</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0576661541100273</v>
+        <v>0.05390198648650885</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1044306722776057</v>
+        <v>0.1033969225428764</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05779188920577849</v>
+        <v>0.05394303726686568</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02074154711142297</v>
+        <v>0.01378849677657189</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05886612710545157</v>
+        <v>0.02199969482185704</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03013888635475248</v>
+        <v>0.0297917970206954</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05921960807347244</v>
+        <v>0.05609529362234941</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06692273994309306</v>
+        <v>0.06734180163101358</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05931375851317094</v>
+        <v>0.05544204324326624</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1038196003615696</v>
+        <v>0.1044306722776057</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0594430860402293</v>
+        <v>0.05548426690306184</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02270344865567282</v>
+        <v>0.01389673557398622</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06050129730282523</v>
+        <v>0.02261079745579752</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03000566626143231</v>
+        <v>0.02999237471993427</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06086459718662446</v>
+        <v>0.05765349622297024</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0669596275576147</v>
+        <v>0.06733906437436993</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06096136291631458</v>
+        <v>0.05698210000002363</v>
       </c>
       <c r="N102" t="n">
-        <v>0.10414537208004</v>
+        <v>0.1044290113991318</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06109428287468012</v>
+        <v>0.05702549653925802</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02065270904715755</v>
+        <v>0.01400302625346762</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06213646750019888</v>
+        <v>0.02322190008973799</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02995422936076132</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06250958629977647</v>
+        <v>0.05921169882359105</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06655510840252002</v>
+        <v>0.06729866571807422</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06260896731945821</v>
+        <v>0.05852215675678103</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1041050944891592</v>
+        <v>0.1040752938711804</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06274547970913093</v>
+        <v>0.05856672617545416</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02059026410092256</v>
+        <v>0.01410737584922305</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06377163769757253</v>
+        <v>0.02383300272367846</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02998584119042706</v>
+        <v>0.03025070037401194</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06415457541292849</v>
+        <v>0.06076990142421186</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06651201297093806</v>
+        <v>0.06701447389736145</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06425657172260184</v>
+        <v>0.06006221351353843</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1038031857664103</v>
+        <v>0.1035524609562584</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06439667654358175</v>
+        <v>0.06010795581165033</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02151704963201331</v>
+        <v>0.01420979139545946</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06540680789494618</v>
+        <v>0.02444410535761894</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03000176728811699</v>
+        <v>0.03022979884434682</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0657995645260805</v>
+        <v>0.06232810402483269</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06623317175599799</v>
+        <v>0.06709226207527891</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06590417612574548</v>
+        <v>0.06160227027029582</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1032440640892764</v>
+        <v>0.1036694858893465</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06604787337803256</v>
+        <v>0.0616491854478465</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02043400145547522</v>
+        <v>0.0143102799263838</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06704197809231985</v>
+        <v>0.02505520799155941</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02990327319151864</v>
+        <v>0.03018909317714674</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0674445536392325</v>
+        <v>0.0638863066254535</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06612141525082882</v>
+        <v>0.0669378034148739</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06755178052888912</v>
+        <v>0.06314232702705322</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1027321476352406</v>
+        <v>0.1037353419054254</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06769907021248338</v>
+        <v>0.06319041508404266</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02234205538635373</v>
+        <v>0.01440884847620302</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0686771482896935</v>
+        <v>0.02566631062549988</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02969162443831952</v>
+        <v>0.0300312696948752</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06908954275238452</v>
+        <v>0.06544450922607431</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06577957394855966</v>
+        <v>0.06675687107919367</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06919938493203276</v>
+        <v>0.06468238378381061</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1027718545817859</v>
+        <v>0.1030590022394757</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06935026704693419</v>
+        <v>0.06473164472023882</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02224214723969425</v>
+        <v>0.01450550407912408</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07031231848706715</v>
+        <v>0.02627741325944036</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02966808656620716</v>
+        <v>0.02985901471999573</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07073453186553653</v>
+        <v>0.06700271182669514</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06571047834231955</v>
+        <v>0.06615523823128558</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0708469893351764</v>
+        <v>0.066222440540568</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1025676031063956</v>
+        <v>0.1026494401264781</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07100146388138499</v>
+        <v>0.06627287435643499</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02013521283054223</v>
+        <v>0.01460025376935394</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07194748868444081</v>
+        <v>0.02688851589338083</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02933392511286906</v>
+        <v>0.02987501457497185</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07237952097868855</v>
+        <v>0.06856091442731595</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06561695892523767</v>
+        <v>0.06633867803419685</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07249459373832003</v>
+        <v>0.06776249729732541</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1016238113865526</v>
+        <v>0.1029156288014134</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0726526607158358</v>
+        <v>0.06781410399263114</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02202218797394311</v>
+        <v>0.01469310458109953</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07358265888181446</v>
+        <v>0.0274996185273213</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02919040561599272</v>
+        <v>0.02988195558226707</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07402451009184056</v>
+        <v>0.07011911702793676</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06490184619044306</v>
+        <v>0.06591296365097485</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07414219814146367</v>
+        <v>0.0693025540540828</v>
       </c>
       <c r="N110" t="n">
-        <v>0.10114489759974</v>
+        <v>0.1025665414992621</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07430385755028662</v>
+        <v>0.06935533362882731</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01990400848494228</v>
+        <v>0.01478406354856781</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07521782907918811</v>
+        <v>0.02811072116126178</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02903879361326568</v>
+        <v>0.0294825240643449</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07566949920499257</v>
+        <v>0.07167731962855758</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0646679706310648</v>
+        <v>0.06578386824466681</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07578980254460731</v>
+        <v>0.0708426108108402</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1007352799234411</v>
+        <v>0.1019111514550048</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07595505438473743</v>
+        <v>0.07089656326502347</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02178161017858522</v>
+        <v>0.01487313770596573</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07685299927656178</v>
+        <v>0.02872182379520225</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02908035464237545</v>
+        <v>0.02967940634366883</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07731448831814458</v>
+        <v>0.0732355222291784</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06461816274023194</v>
+        <v>0.06525716497832001</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07743740694775095</v>
+        <v>0.07238266756759759</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09999937653513896</v>
+        <v>0.1009584319036225</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07760625121918825</v>
+        <v>0.07243779290121963</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01965592886991732</v>
+        <v>0.01496033408750025</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07848816947393543</v>
+        <v>0.02933292642914272</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0287163542410095</v>
+        <v>0.02927528874270242</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0789594774312966</v>
+        <v>0.07479372482979922</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06405525301107359</v>
+        <v>0.06503862701498181</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07908501135089459</v>
+        <v>0.073922724324355</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1001416056123165</v>
+        <v>0.1008173560800957</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07925744805363907</v>
+        <v>0.0739790225374158</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01952790037398405</v>
+        <v>0.01504565972737831</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08012333967130908</v>
+        <v>0.0299440290630832</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02874805794685541</v>
+        <v>0.02917285758390917</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08060446654444861</v>
+        <v>0.07635192743042003</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0634820719367189</v>
+        <v>0.06523402751769944</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08073261575403821</v>
+        <v>0.07546278108111239</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09956638533245699</v>
+        <v>0.1011968972194051</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08090864488808988</v>
+        <v>0.07552025217361195</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02139846050583082</v>
+        <v>0.01512912165980687</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08175850986868274</v>
+        <v>0.03055513169702367</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02827673129760067</v>
+        <v>0.02907479918975259</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08224945565760063</v>
+        <v>0.07791013003104086</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0633014500102968</v>
+        <v>0.06464913964952024</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08238022015718185</v>
+        <v>0.07700283783786978</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09847813387304344</v>
+        <v>0.1006060285565311</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0825598417225407</v>
+        <v>0.07706148180980812</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02026854508050305</v>
+        <v>0.01521072691899288</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08339368006605639</v>
+        <v>0.03116623433096414</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02830363983093276</v>
+        <v>0.02918379988269618</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08389444477075263</v>
+        <v>0.07946833263166168</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06271621772493655</v>
+        <v>0.06488973657349145</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0840278245603255</v>
+        <v>0.07854289459462718</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09758126941155904</v>
+        <v>0.1001537233264548</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08421103855699151</v>
+        <v>0.07860271144600428</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02113908991304618</v>
+        <v>0.0152904825391433</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08502885026343004</v>
+        <v>0.03177733696490461</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02793004908453922</v>
+        <v>0.02910254598520347</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08553943388390466</v>
+        <v>0.0810265352322825</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06292920557376711</v>
+        <v>0.0641615914526604</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08567542896346914</v>
+        <v>0.08008295135138457</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09758021012548684</v>
+        <v>0.09964895476415669</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08586223539144233</v>
+        <v>0.08014394108220044</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02101103081850564</v>
+        <v>0.01536839555446506</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08666402046080371</v>
+        <v>0.03238843959884509</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02785722459610755</v>
+        <v>0.02913372381973799</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08718442299705666</v>
+        <v>0.08258473783290331</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06194324404991763</v>
+        <v>0.06467047745007434</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08732303336661276</v>
+        <v>0.08162300810814198</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09667937419230999</v>
+        <v>0.09930069610461739</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08751343222589314</v>
+        <v>0.08168517071839661</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01987558002903587</v>
+        <v>0.01544447299916513</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08829919065817736</v>
+        <v>0.03299954223278556</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02768640608720259</v>
+        <v>0.02878001970876325</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08882941211020867</v>
+        <v>0.08414294043352413</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06166116364651714</v>
+        <v>0.06462134253061652</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0889706377697564</v>
+        <v>0.08316306486489937</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09568317978951146</v>
+        <v>0.09961768382444969</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08916462906034395</v>
+        <v>0.08322640035459278</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02072133846865749</v>
+        <v>0.01551872190745045</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08993436085555101</v>
+        <v>0.03361064486672603</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0276019684436405</v>
+        <v>0.02874411997474273</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09047440122336069</v>
+        <v>0.08570114303414494</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06166266407921572</v>
+        <v>0.06458976653363308</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09061824217290004</v>
+        <v>0.08470312162165676</v>
       </c>
       <c r="N120" t="n">
-        <v>0.09548247177588515</v>
+        <v>0.09916802172493266</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09081582589479475</v>
+        <v>0.08476762999078893</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01855125931083952</v>
+        <v>0.01559114931352799</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09156953105292467</v>
+        <v>0.03422174750066651</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02739269677419874</v>
+        <v>0.02892612323975555</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09211939033651269</v>
+        <v>0.08725934563476576</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06100791675260267</v>
+        <v>0.06436185364297661</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09226584657604368</v>
+        <v>0.08624317837841415</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09460218547336718</v>
+        <v>0.09992410727043033</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09246702272924558</v>
+        <v>0.08630885962698509</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02036839155286287</v>
+        <v>0.01566176225160468</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09320470125029832</v>
+        <v>0.03483285013460698</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02706271435193952</v>
+        <v>0.02891232203167618</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09376437944966472</v>
+        <v>0.08881754823538658</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06020482811938876</v>
+        <v>0.06403726094893583</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09391345097918732</v>
+        <v>0.08778323513517154</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09454212782234084</v>
+        <v>0.0994854074759236</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09411821956369638</v>
+        <v>0.08785008926318126</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02017578419200838</v>
+        <v>0.0157305677558875</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09483987144767198</v>
+        <v>0.03544395276854746</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02671614444992514</v>
+        <v>0.02880015391324381</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09540936856281672</v>
+        <v>0.09037575083600739</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05976262026453216</v>
+        <v>0.06391564554179929</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09556105538233095</v>
+        <v>0.08932329189192895</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09311669377317411</v>
+        <v>0.1000513893563933</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09576941639814721</v>
+        <v>0.08939131889937742</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01897648622555695</v>
+        <v>0.01579757286058336</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09647504164504563</v>
+        <v>0.03605505540248793</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02675711034121779</v>
+        <v>0.02868945932442991</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09705435767596873</v>
+        <v>0.0919339534366282</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05969051527299105</v>
+        <v>0.06399666451185562</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09720865978547459</v>
+        <v>0.09086334864868634</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09194027827623447</v>
+        <v>0.09962151992682028</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09742061323259801</v>
+        <v>0.09093254853557359</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01877354665078943</v>
+        <v>0.01586278459989925</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09811021184241929</v>
+        <v>0.0366661580364284</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02628973529887976</v>
+        <v>0.02868007870520592</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09869934678912075</v>
+        <v>0.09349215603724903</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05879773522972359</v>
+        <v>0.06407997494939346</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09885626418861823</v>
+        <v>0.09240340540544373</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09172727628189004</v>
+        <v>0.09939526620218536</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09907181006704883</v>
+        <v>0.09247377817176974</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01857001446498672</v>
+        <v>0.01592621000804208</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09974538203979294</v>
+        <v>0.03727726067036887</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02601814259597331</v>
+        <v>0.0287718524955433</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1003443359022728</v>
+        <v>0.09505035863786984</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05799350221968805</v>
+        <v>0.06396523394470141</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1005038685917619</v>
+        <v>0.09394346216220113</v>
       </c>
       <c r="N126" t="n">
-        <v>0.08999208274050835</v>
+        <v>0.09967209519746933</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1007230069014996</v>
+        <v>0.0940150078079659</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01836893866542968</v>
+        <v>0.01598785611921886</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1013805522371666</v>
+        <v>0.03788836330430935</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02574645550556062</v>
+        <v>0.02896462113541351</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1019893250154248</v>
+        <v>0.09660856123849065</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05728703832784254</v>
+        <v>0.06425209858806813</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1021514729949055</v>
+        <v>0.09548351891895852</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0899490926024572</v>
+        <v>0.09925147392765327</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1023742037359505</v>
+        <v>0.09555623744416207</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0191733682493992</v>
+        <v>0.0160477299676365</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1030157224345403</v>
+        <v>0.03849946593824982</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02567879730070402</v>
+        <v>0.02895822506478798</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1036343141285768</v>
+        <v>0.09816676383911148</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05718756563914526</v>
+        <v>0.06404022596978223</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1037990773980491</v>
+        <v>0.09702357567571593</v>
       </c>
       <c r="N128" t="n">
-        <v>0.08851270081810453</v>
+        <v>0.09893286940771778</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1040254005704013</v>
+        <v>0.09709746708035823</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01798635221417615</v>
+        <v>0.01610583858750196</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1046508926319139</v>
+        <v>0.03911056857219029</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02521929125446573</v>
+        <v>0.02885250472363819</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1052793032417288</v>
+        <v>0.09972496643973229</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0565043062385544</v>
+        <v>0.06442927318013236</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1054466818011928</v>
+        <v>0.09856363243247332</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08819730233781803</v>
+        <v>0.09901574865264379</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1056765974048521</v>
+        <v>0.0986386967165544</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01879929806438506</v>
+        <v>0.01616218901302219</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1062860628292876</v>
+        <v>0.03972167120613077</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02487203880254411</v>
+        <v>0.0287473005519356</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1069242923548808</v>
+        <v>0.1012831690403531</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05574648221102818</v>
+        <v>0.06391889730940709</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1070942862043364</v>
+        <v>0.1001036891892307</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08711729211196545</v>
+        <v>0.09979957867741218</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1073277942393029</v>
+        <v>0.1001799263527506</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0185947616997788</v>
+        <v>0.01621678827840414</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1079212330266612</v>
+        <v>0.04033277384007124</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02471748182397607</v>
+        <v>0.02884245298965163</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1085692814680328</v>
+        <v>0.1028413716409739</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05508982001290003</v>
+        <v>0.06420875544789506</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1087418906074801</v>
+        <v>0.1016437459459881</v>
       </c>
       <c r="N131" t="n">
-        <v>0.08546533048238508</v>
+        <v>0.09978382649700379</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1089789910737537</v>
+        <v>0.1017211559889467</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01837665316057004</v>
+        <v>0.01626964341785478</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1095564032240349</v>
+        <v>0.04094387647401172</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02443999442086284</v>
+        <v>0.02883780247675777</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1102142705811848</v>
+        <v>0.1043995742415947</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05468083932986867</v>
+        <v>0.06429850468588491</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1103894950106237</v>
+        <v>0.1031838027027455</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0853410293841152</v>
+        <v>0.09966795912639947</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1106301879082045</v>
+        <v>0.1032623856251429</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01814933708725961</v>
+        <v>0.01632076146558104</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1111915734214085</v>
+        <v>0.04155497910795219</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02414547905980091</v>
+        <v>0.02863318945322545</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1118592596943368</v>
+        <v>0.1059577768422156</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05383106842402424</v>
+        <v>0.06438780211366524</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1120370994137673</v>
+        <v>0.1047238594595029</v>
       </c>
       <c r="N133" t="n">
-        <v>0.08374727860944992</v>
+        <v>0.09885144358058001</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1122813847426553</v>
+        <v>0.1048036152613391</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01691717812034826</v>
+        <v>0.01637014945578989</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1128267436187822</v>
+        <v>0.04216608174189266</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02373983820738684</v>
+        <v>0.02872845435902611</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1135042488074888</v>
+        <v>0.1075159794428364</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05325370871268595</v>
+        <v>0.0638763048215247</v>
       </c>
       <c r="M134" t="n">
-        <v>0.113684703816911</v>
+        <v>0.1062639162162603</v>
       </c>
       <c r="N134" t="n">
-        <v>0.08330468453405782</v>
+        <v>0.0997337468745263</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1139325815771061</v>
+        <v>0.1063448448975352</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01768454090033677</v>
+        <v>0.01641781442268826</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1144619138161558</v>
+        <v>0.04277718437583313</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02342897433021711</v>
+        <v>0.02872343763413124</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1151492379206409</v>
+        <v>0.1090741820434572</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05256196161317311</v>
+        <v>0.06416366989975189</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1153323082200546</v>
+        <v>0.1078039729730177</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08223385353360735</v>
+        <v>0.09901433602321907</v>
       </c>
       <c r="O135" t="n">
-        <v>0.115583778411557</v>
+        <v>0.1078860745337314</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01645579006772593</v>
+        <v>0.01646376340048312</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1160970840135295</v>
+        <v>0.04338828700977361</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02341878989488827</v>
+        <v>0.02891797971851229</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1167942270337929</v>
+        <v>0.110632384644078</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05196902854280505</v>
+        <v>0.0642495544386355</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1169799126231982</v>
+        <v>0.1093440297297751</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08075539198376713</v>
+        <v>0.09969267804163945</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1172349752460078</v>
+        <v>0.1094273041699275</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01523529026301652</v>
+        <v>0.01650800342338141</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1177322542109031</v>
+        <v>0.04399938964371408</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02281518736799686</v>
+        <v>0.02861192105214071</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1184392161469449</v>
+        <v>0.1121905872446988</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05098811091890093</v>
+        <v>0.06433361552846403</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1186275170263419</v>
+        <v>0.1108840864865325</v>
       </c>
       <c r="N137" t="n">
-        <v>0.08028990626020543</v>
+        <v>0.0995682399447681</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1188861720804586</v>
+        <v>0.1109685338061237</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01602740612670931</v>
+        <v>0.01655054152559009</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1193674244082768</v>
+        <v>0.04461049227765455</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02252406921613941</v>
+        <v>0.02860510207498791</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1200842052600969</v>
+        <v>0.1137487898453197</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05093241015878006</v>
+        <v>0.06421551025952624</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1202751214294855</v>
+        <v>0.1124241432432899</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07915800273859097</v>
+        <v>0.09944048874758576</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1205373689149094</v>
+        <v>0.1125097634423198</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0168365022993051</v>
+        <v>0.01659138474131611</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1210025946056505</v>
+        <v>0.04522159491159503</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02255133790591239</v>
+        <v>0.02859736322702541</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1217291943732489</v>
+        <v>0.1153069924459405</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05031512767976171</v>
+        <v>0.06389489572211066</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1219227258326292</v>
+        <v>0.1139642000000473</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07728028779459212</v>
+        <v>0.0997088914650735</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1221885657493602</v>
+        <v>0.114050993078516</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01466694342130465</v>
+        <v>0.01663054010476642</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1226377648030241</v>
+        <v>0.0458326975455355</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0221028959039124</v>
+        <v>0.02888854494822461</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1233741834864009</v>
+        <v>0.1168651950465613</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04954946489916509</v>
+        <v>0.06427142900650595</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1235703302357728</v>
+        <v>0.1155042567568047</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07707736780387742</v>
+        <v>0.09927291511221203</v>
       </c>
       <c r="O140" t="n">
-        <v>0.123839762583811</v>
+        <v>0.1155922227147122</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01452309413320874</v>
+        <v>0.01666801465014797</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1242729350003978</v>
+        <v>0.04644380017947598</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02188464567673594</v>
+        <v>0.02877848767855701</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1250191725995529</v>
+        <v>0.1184233976471821</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0491486232343096</v>
+        <v>0.06414476720300072</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1252179346389164</v>
+        <v>0.1170443135135621</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07606984914211545</v>
+        <v>0.09883202670398228</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1254909594182619</v>
+        <v>0.1171334523509083</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01440931907551818</v>
+        <v>0.01670381541166772</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1259081051977714</v>
+        <v>0.04705490281341645</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02160248969097955</v>
+        <v>0.02886703185799404</v>
       </c>
       <c r="K142" t="n">
-        <v>0.126664161712705</v>
+        <v>0.1199816002478029</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04842580410251432</v>
+        <v>0.06361456740188359</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1268655390420601</v>
+        <v>0.1185843702703195</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07557833818497461</v>
+        <v>0.09938569325536506</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1271421562527127</v>
+        <v>0.1186746819871045</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01532998288873372</v>
+        <v>0.01673794942353261</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1275432753951451</v>
+        <v>0.04766600544735692</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02176233041323974</v>
+        <v>0.02885401792650714</v>
       </c>
       <c r="K143" t="n">
-        <v>0.128309150825857</v>
+        <v>0.1215398028484237</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04839420892109872</v>
+        <v>0.0638786365086555</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1285131434452037</v>
+        <v>0.1201244270270769</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07482344130812341</v>
+        <v>0.0987321148950463</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1287933530871635</v>
+        <v>0.1202159116233007</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01528945021335616</v>
+        <v>0.01677042371994959</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1291784455925187</v>
+        <v>0.04827710808129739</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02157007031011303</v>
+        <v>0.0287392863240678</v>
       </c>
       <c r="K144" t="n">
-        <v>0.129954139939009</v>
+        <v>0.1230980054490445</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0476670391073819</v>
+        <v>0.06400424874758773</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1301607478483473</v>
+        <v>0.1216644837838343</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07452576488723039</v>
+        <v>0.09942360275372947</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1304445499216143</v>
+        <v>0.1217571412594968</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01428603396164856</v>
+        <v>0.01680124533512562</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1308136157898924</v>
+        <v>0.04888821071523787</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02153161184819596</v>
+        <v>0.02881451170215307</v>
       </c>
       <c r="K145" t="n">
-        <v>0.131599129052161</v>
+        <v>0.1246562080496654</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04785749607868323</v>
+        <v>0.06358550765633303</v>
       </c>
       <c r="M145" t="n">
-        <v>0.131808352251491</v>
+        <v>0.1232045405405916</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07430591529796404</v>
+        <v>0.09924508135660137</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1320957467560651</v>
+        <v>0.123298370895693</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0142927776776569</v>
+        <v>0.01683042130326766</v>
       </c>
       <c r="G146" t="n">
-        <v>0.132448785987266</v>
+        <v>0.04949931334917834</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02143392725437908</v>
+        <v>0.02866810089476032</v>
       </c>
       <c r="K146" t="n">
-        <v>0.133244118165313</v>
+        <v>0.1262144106502862</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04815354052002999</v>
+        <v>0.06353032703078118</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1334559566546346</v>
+        <v>0.124744597297349</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07447030063893118</v>
+        <v>0.09900885112710844</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1337469435905159</v>
+        <v>0.1248396005318892</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01630560138378009</v>
+        <v>0.01685795865858265</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1340839561846397</v>
+        <v>0.05011041598311881</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02164537485563488</v>
+        <v>0.02850351112823622</v>
       </c>
       <c r="K147" t="n">
-        <v>0.134889107278465</v>
+        <v>0.127772613250907</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04767560501737761</v>
+        <v>0.06354662066682176</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1351035610577782</v>
+        <v>0.1262846540541064</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07419712442780857</v>
+        <v>0.09782721248869702</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1353981404249668</v>
+        <v>0.1263808301680853</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01432418436782401</v>
+        <v>0.01688386443527754</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1357191263820133</v>
+        <v>0.05072151861705929</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02136486734584014</v>
+        <v>0.02832442478734905</v>
       </c>
       <c r="K148" t="n">
-        <v>0.136534096391617</v>
+        <v>0.1293308158515278</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04801581425102758</v>
+        <v>0.06344230236034434</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1367511654609219</v>
+        <v>0.1278247108108638</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0740525945338556</v>
+        <v>0.09771246586481347</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1370493372594176</v>
+        <v>0.1279220598042815</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01434820591759457</v>
+        <v>0.01690814566755929</v>
       </c>
       <c r="G149" t="n">
-        <v>0.137354296579387</v>
+        <v>0.05133262125099976</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02139197101389943</v>
+        <v>0.02843452425686696</v>
       </c>
       <c r="K149" t="n">
-        <v>0.138179085504769</v>
+        <v>0.1308890184521486</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04767319818564411</v>
+        <v>0.06262528590723851</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1383987698640655</v>
+        <v>0.1293647675676212</v>
       </c>
       <c r="N149" t="n">
-        <v>0.07453519680809445</v>
+        <v>0.09737691167890405</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1387005340938684</v>
+        <v>0.1294632894404776</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01437734532089768</v>
+        <v>0.01693080938963484</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1389894667767607</v>
+        <v>0.05194372388494024</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02172625214871732</v>
+        <v>0.02813749192155827</v>
       </c>
       <c r="K150" t="n">
-        <v>0.139824074617921</v>
+        <v>0.1324472210527695</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04784678678589147</v>
+        <v>0.06270348510339391</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1400463742672092</v>
+        <v>0.1309048243243786</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07454341710154727</v>
+        <v>0.09683285035441519</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1403517309283192</v>
+        <v>0.1310045190766738</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01541128186553924</v>
+        <v>0.01695186263571116</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1406246369741343</v>
+        <v>0.05255482651888072</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02146727703919837</v>
+        <v>0.02823701016619121</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1414690637310731</v>
+        <v>0.1340054236533903</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04803561001643381</v>
+        <v>0.06228481374470018</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1416939786703528</v>
+        <v>0.132444881081136</v>
       </c>
       <c r="N151" t="n">
-        <v>0.07437574126523622</v>
+        <v>0.09669258231479333</v>
       </c>
       <c r="O151" t="n">
-        <v>0.14200292776277</v>
+        <v>0.13254574871287</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01444969483932514</v>
+        <v>0.01697131243999518</v>
       </c>
       <c r="G152" t="n">
-        <v>0.142259807171508</v>
+        <v>0.05316592915282119</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02171461197424715</v>
+        <v>0.02823676137553401</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1431140528442251</v>
+        <v>0.1355636262540111</v>
       </c>
       <c r="L152" t="n">
-        <v>0.0484386978419355</v>
+        <v>0.06237718562704681</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1433415830734964</v>
+        <v>0.1339849378378934</v>
       </c>
       <c r="N152" t="n">
-        <v>0.07443065515018321</v>
+        <v>0.09696840798348466</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1436541245972208</v>
+        <v>0.1340869783490661</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01649226353006129</v>
+        <v>0.01698916583669387</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1438949773688816</v>
+        <v>0.05377703178676165</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02186782324276823</v>
+        <v>0.02784042793435489</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1447590419573771</v>
+        <v>0.1371218288546319</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04865508022706064</v>
+        <v>0.06218851454632354</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1449891874766401</v>
+        <v>0.1355249945946508</v>
       </c>
       <c r="N153" t="n">
-        <v>0.07490664460741064</v>
+        <v>0.09577262778393564</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1453053214316716</v>
+        <v>0.1356282079852623</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0155386672255536</v>
+        <v>0.01700542986001417</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1455301475662553</v>
+        <v>0.05438813442070214</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02182647713366617</v>
+        <v>0.02795169222742211</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1464040310705291</v>
+        <v>0.1386800314552527</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04858378713647357</v>
+        <v>0.06202671429841988</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1466367918797837</v>
+        <v>0.1370650513514082</v>
       </c>
       <c r="N154" t="n">
-        <v>0.07560219548794056</v>
+        <v>0.09621754213959255</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1469565182661224</v>
+        <v>0.1371694376214585</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01558858521360795</v>
+        <v>0.01702011154416302</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1471653177636289</v>
+        <v>0.0549992370546426</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02199013993584556</v>
+        <v>0.02797423663950394</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1480490201836811</v>
+        <v>0.1402382340558735</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04862384853483845</v>
+        <v>0.06149969867922553</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1482843962829273</v>
+        <v>0.1386051081081656</v>
       </c>
       <c r="N155" t="n">
-        <v>0.07501579364279493</v>
+        <v>0.09611545147390194</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1486077151005732</v>
+        <v>0.1387106672576546</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01664169678203026</v>
+        <v>0.01703321792334741</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1488004879610026</v>
+        <v>0.05561033968858308</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02205837793821094</v>
+        <v>0.02791174355536856</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1496940092968331</v>
+        <v>0.1417964366564944</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04907429438681957</v>
+        <v>0.06181538148463001</v>
       </c>
       <c r="M156" t="n">
-        <v>0.149932000686071</v>
+        <v>0.140145164864923</v>
       </c>
       <c r="N156" t="n">
-        <v>0.07604592492299606</v>
+        <v>0.0957786562103099</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1502589119350241</v>
+        <v>0.1402518968938508</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01670549047751664</v>
+        <v>0.01704475603177426</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1504356581583762</v>
+        <v>0.05622144232252355</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0221307574296669</v>
+        <v>0.02756789535978428</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1513389984099851</v>
+        <v>0.1433546392571152</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04893415465708115</v>
+        <v>0.06198167651052297</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1515796050892146</v>
+        <v>0.1416852216216804</v>
       </c>
       <c r="N157" t="n">
-        <v>0.07579107517956601</v>
+        <v>0.095819456772263</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1519101087694749</v>
+        <v>0.1417931265300469</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01581765284360415</v>
+        <v>0.01705473290365055</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1520708283557499</v>
+        <v>0.05683254495646402</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02213572519622257</v>
+        <v>0.0276463744375193</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1529839875231372</v>
+        <v>0.144912841857736</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04884507301554566</v>
+        <v>0.06199200500945476</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1532272094923583</v>
+        <v>0.1432252783784378</v>
       </c>
       <c r="N158" t="n">
-        <v>0.07608053628791933</v>
+        <v>0.09543166414657772</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1535613056039257</v>
+        <v>0.1433343561662431</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01597499069685921</v>
+        <v>0.01706315557318319</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1537059985531236</v>
+        <v>0.0574436475904045</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02240921985035924</v>
+        <v>0.02764740534418186</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1546289766362892</v>
+        <v>0.1464710444583568</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0498081055204467</v>
+        <v>0.06192721057792516</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1548748138955019</v>
+        <v>0.1447653351351952</v>
       </c>
       <c r="N159" t="n">
-        <v>0.07649190592116473</v>
+        <v>0.09538334645540103</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1552125024383765</v>
+        <v>0.1448755858024393</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01516782251020844</v>
+        <v>0.01707003107457917</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1553411687504972</v>
+        <v>0.05805475022434497</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02253863356260007</v>
+        <v>0.02756089814588394</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1562739657494412</v>
+        <v>0.1480292470589776</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05010088828047696</v>
+        <v>0.06168489779980182</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1565224182986455</v>
+        <v>0.1463053918919526</v>
       </c>
       <c r="N160" t="n">
-        <v>0.07721580669117489</v>
+        <v>0.09557022380451197</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1568636992728273</v>
+        <v>0.1464168154386354</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01538646675657853</v>
+        <v>0.01707536644204539</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1569763389478709</v>
+        <v>0.05866585285828545</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02261087364177307</v>
+        <v>0.02788496243657289</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1579189548625932</v>
+        <v>0.1495874496595984</v>
       </c>
       <c r="L161" t="n">
-        <v>0.0504941382701134</v>
+        <v>0.06196282532582123</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1581700227017892</v>
+        <v>0.14784544864871</v>
       </c>
       <c r="N161" t="n">
-        <v>0.07870653009483652</v>
+        <v>0.09598881246177793</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1585148961072781</v>
+        <v>0.1479580450748316</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01662124190889613</v>
+        <v>0.01707916870978888</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1586115091452445</v>
+        <v>0.05927695549222591</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02311284739670613</v>
+        <v>0.02781855528937732</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1595639439757452</v>
+        <v>0.1511456522602193</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05135857246383307</v>
+        <v>0.06225875180671989</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1598176271049328</v>
+        <v>0.1493855054054674</v>
       </c>
       <c r="N162" t="n">
-        <v>0.07971836762903639</v>
+        <v>0.09653562869506616</v>
       </c>
       <c r="O162" t="n">
-        <v>0.160166092941729</v>
+        <v>0.1494992747110278</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01786246644008788</v>
+        <v>0.01708144491201653</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1602466793426182</v>
+        <v>0.0598880581261664</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02333146213622721</v>
+        <v>0.0277606337774258</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1612089330888972</v>
+        <v>0.1527038548608401</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05206490783611301</v>
+        <v>0.0621704358932342</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1614652315080764</v>
+        <v>0.1509255621622248</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08060561079066131</v>
+        <v>0.09670718877224388</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1618172897761798</v>
+        <v>0.1510405043472239</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01810045882308044</v>
+        <v>0.01708220208293532</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1618818495399918</v>
+        <v>0.06049916076010686</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02385362516916427</v>
+        <v>0.02771015497384686</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1628539222020492</v>
+        <v>0.1542620574614609</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0523838613614302</v>
+        <v>0.06189563623610075</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1631128359112201</v>
+        <v>0.1524656189189822</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08172255107659793</v>
+        <v>0.0959000089611784</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1634684866106306</v>
+        <v>0.1525817339834201</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01832553753080046</v>
+        <v>0.01708220208293532</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1635170197373655</v>
+        <v>0.06049916076010686</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02386624380434524</v>
+        <v>0.0278660759517691</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1644989113152013</v>
+        <v>0.1558202600620817</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05338615001426167</v>
+        <v>0.06243211148605593</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1647604403143637</v>
+        <v>0.1540056756757396</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08212347998373304</v>
+        <v>0.09691060552973702</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1651196834450814</v>
+        <v>0.1541229636196162</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01852802103617461</v>
+        <v>0.01665807132905146</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1651521899347391</v>
+        <v>0.06049889223164285</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02415622535059803</v>
+        <v>0.02782735378432111</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1661439004283533</v>
+        <v>0.1573784626627025</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05414249076908445</v>
+        <v>0.06257762029383626</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1664080447175074</v>
+        <v>0.155545732432497</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08316268900895346</v>
+        <v>0.09693549474578689</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1667708802795322</v>
+        <v>0.1556641932558124</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01770277472085913</v>
+        <v>0.01623869331477557</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1667873601321128</v>
+        <v>0.06049862370317884</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02441047711675057</v>
+        <v>0.02819294554463139</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1677888895415053</v>
+        <v>0.1589366652633234</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05452360060037559</v>
+        <v>0.06272992131017824</v>
       </c>
       <c r="M167" t="n">
-        <v>0.168055649120651</v>
+        <v>0.1570857891892544</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08499446964914598</v>
+        <v>0.0975711928771954</v>
       </c>
       <c r="O167" t="n">
-        <v>0.168422077113983</v>
+        <v>0.1572054228920086</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01786955878654106</v>
+        <v>0.01582466573544099</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1684225303294865</v>
+        <v>0.06049835517471481</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02483675911844313</v>
+        <v>0.02826180830582858</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1694338786546573</v>
+        <v>0.1604948678639442</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05533221408437577</v>
+        <v>0.06258677318581835</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1697032535237946</v>
+        <v>0.1586258459460118</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08579915900800505</v>
+        <v>0.09731421619182984</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1700732739484338</v>
+        <v>0.1587466525282047</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01803229355491862</v>
+        <v>0.01541658628643505</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1700577005268601</v>
+        <v>0.0604980866462508</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02505726497572168</v>
+        <v>0.02833289914104122</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1710788677678093</v>
+        <v>0.162053070464565</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05592569523596408</v>
+        <v>0.06284593457149301</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1713508579269383</v>
+        <v>0.1601659027027691</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0861701288764159</v>
+        <v>0.09806108095755739</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1717244707828847</v>
+        <v>0.1602878821644009</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01919128615316987</v>
+        <v>0.01501505266309085</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1716928707242338</v>
+        <v>0.06049781811778678</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02537250484367855</v>
+        <v>0.02810517512339787</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1727238568809613</v>
+        <v>0.1636112730651858</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0561072771248933</v>
+        <v>0.06340516411793876</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1729984623300819</v>
+        <v>0.1617059594595265</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0869222656419622</v>
+        <v>0.09740830344224544</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1733756676173355</v>
+        <v>0.1618291118005971</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01834684370847289</v>
+        <v>0.01462066256075963</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1733280409216074</v>
+        <v>0.06049754958932276</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02548289406188385</v>
+        <v>0.02827759332602708</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1743688459941133</v>
+        <v>0.1651694756658066</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05687788869686858</v>
+        <v>0.06306222047589205</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1746460667332255</v>
+        <v>0.163246016216284</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08725701931593555</v>
+        <v>0.09815239991376112</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1750268644517863</v>
+        <v>0.1633703414367932</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01749927334800572</v>
+        <v>0.014234013674776</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1749632111189811</v>
+        <v>0.06049728106085874</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02568884796990778</v>
+        <v>0.02844911082205748</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1760138351072653</v>
+        <v>0.1667276782664274</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05733845889759506</v>
+        <v>0.06341486229608936</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1762936711363692</v>
+        <v>0.1647860729730413</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08817583990962724</v>
+        <v>0.09798988663997177</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1766780612862371</v>
+        <v>0.1649115710729894</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01964888219894646</v>
+        <v>0.01385570370052486</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1765983813163547</v>
+        <v>0.06049701253239472</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02599078190732045</v>
+        <v>0.02841868468461757</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1776588242204173</v>
+        <v>0.1682858808670483</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0573899166727779</v>
+        <v>0.0637608482292672</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1779412755395128</v>
+        <v>0.1663261297297987</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08908017743432872</v>
+        <v>0.09811727988874469</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1783292581206879</v>
+        <v>0.1664528007091856</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01979597738847316</v>
+        <v>0.01348633033334048</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1782335515137284</v>
+        <v>0.06049674400393071</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02588911121369201</v>
+        <v>0.02858527198683598</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1793038133335693</v>
+        <v>0.169844083467669</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05793319096812236</v>
+        <v>0.06339793692616202</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1795888799426565</v>
+        <v>0.1678661864865561</v>
       </c>
       <c r="N174" t="n">
-        <v>0.09017148190133162</v>
+        <v>0.09903109592794718</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1799804549551387</v>
+        <v>0.1679940303453817</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01794086604376387</v>
+        <v>0.0131264912685741</v>
       </c>
       <c r="G175" t="n">
-        <v>0.179868721711102</v>
+        <v>0.06049647547546669</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02628425122859261</v>
+        <v>0.02854782980184124</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1809488024467214</v>
+        <v>0.1714022860682899</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05856921072933349</v>
+        <v>0.06402388703751033</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1812364843458001</v>
+        <v>0.1694062432433135</v>
       </c>
       <c r="N175" t="n">
-        <v>0.09035120332192725</v>
+        <v>0.09882785102544644</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1816316517895895</v>
+        <v>0.1695352599815779</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02008385529199671</v>
+        <v>0.01277678420156197</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1815038919084757</v>
+        <v>0.06049620694700267</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02627661729159239</v>
+        <v>0.02870531520276194</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1825937915598734</v>
+        <v>0.1729604886689107</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05869890490211646</v>
+        <v>0.06403645721404855</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1828840887489437</v>
+        <v>0.1709463000000709</v>
       </c>
       <c r="N176" t="n">
-        <v>0.0907207917074071</v>
+        <v>0.09920406144910976</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1832828486240403</v>
+        <v>0.171076489617774</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0182252522603497</v>
+        <v>0.0124378068276858</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1831390621058493</v>
+        <v>0.06049593841853865</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02676662474226149</v>
+        <v>0.02865668526272663</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1842387806730254</v>
+        <v>0.1745186912695315</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05922320243217649</v>
+        <v>0.06403340610651329</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1845316931520874</v>
+        <v>0.1724863567568283</v>
       </c>
       <c r="N177" t="n">
-        <v>0.09198169706906273</v>
+        <v>0.09965624346680441</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1849340454584912</v>
+        <v>0.1726177192539702</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02036573477863005</v>
+        <v>0.0121101568422814</v>
       </c>
       <c r="G178" t="n">
-        <v>0.184774232303223</v>
+        <v>0.06049566989007464</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02675468892017006</v>
+        <v>0.02860089705486389</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1858837697861774</v>
+        <v>0.1760768938701523</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05994303226521872</v>
+        <v>0.06431249236564088</v>
       </c>
       <c r="M178" t="n">
-        <v>0.186179297555231</v>
+        <v>0.1740264135135857</v>
       </c>
       <c r="N178" t="n">
-        <v>0.09283536941818538</v>
+        <v>0.09928091334639766</v>
       </c>
       <c r="O178" t="n">
-        <v>0.186585242292942</v>
+        <v>0.1741589488901663</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01851323332689324</v>
+        <v>0.01179443194070001</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1864094025005966</v>
+        <v>0.06049540136161063</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02704555680741409</v>
+        <v>0.02873690765230227</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1875287588993294</v>
+        <v>0.1776350964707732</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0599658214838828</v>
+        <v>0.06387147464216786</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1878269019583746</v>
+        <v>0.1755664702703431</v>
       </c>
       <c r="N179" t="n">
-        <v>0.09268809419426005</v>
+        <v>0.09897458735575676</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1882364391273928</v>
+        <v>0.1757001785263625</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02066689326134007</v>
+        <v>0.01149122981827996</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1880445726979703</v>
+        <v>0.0604951328331466</v>
       </c>
       <c r="J180" t="n">
-        <v>0.027347583539479</v>
+        <v>0.02876367412817037</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1891737480124814</v>
+        <v>0.1791932990713939</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06041359763971585</v>
+        <v>0.06450811158683073</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1894745063615183</v>
+        <v>0.1771065270271005</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0931776317565447</v>
+        <v>0.09973378176274905</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1898876359618436</v>
+        <v>0.1772414081625587</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02082143867874027</v>
+        <v>0.01120114817039893</v>
       </c>
       <c r="G181" t="n">
-        <v>0.189679742895344</v>
+        <v>0.06049486430468259</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02735437794755603</v>
+        <v>0.02868015355559675</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1908187371256334</v>
+        <v>0.1807515016720148</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06107414794463178</v>
+        <v>0.06402014141109671</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1911221107646619</v>
+        <v>0.1786465837838579</v>
       </c>
       <c r="N181" t="n">
-        <v>0.09419161755516503</v>
+        <v>0.1000550128352418</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1915388327962944</v>
+        <v>0.1787826377987548</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01897159367586347</v>
+        <v>0.01092478469239465</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1913149130927176</v>
+        <v>0.06049459577621857</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02755880523037629</v>
+        <v>0.02888526940631596</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1924637262387855</v>
+        <v>0.1823097042726356</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06113151474982381</v>
+        <v>0.06409037517295763</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1927697151678055</v>
+        <v>0.1801866405406153</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09500514295355983</v>
+        <v>0.09991414875678695</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1931900296307452</v>
+        <v>0.180323867434951</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01911208234947941</v>
+        <v>0.01066273707961841</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1929500832900913</v>
+        <v>0.06049432724775455</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02765373058667081</v>
+        <v>0.02897075469651926</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1941087153519375</v>
+        <v>0.1838679068732564</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06166974040648504</v>
+        <v>0.06430777017076128</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1944173195709492</v>
+        <v>0.1817266972973727</v>
       </c>
       <c r="N183" t="n">
-        <v>0.09629329931516767</v>
+        <v>0.09979087150567539</v>
       </c>
       <c r="O183" t="n">
-        <v>0.194841226465196</v>
+        <v>0.1818650970711472</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01923762879635769</v>
+        <v>0.01041560302741103</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1945852534874649</v>
+        <v>0.06049405871929053</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02803201921517061</v>
+        <v>0.02883201858914705</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1957537044650895</v>
+        <v>0.1854261094738772</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06207286726580868</v>
+        <v>0.06377608296543041</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1960649239740928</v>
+        <v>0.1832667540541301</v>
       </c>
       <c r="N184" t="n">
-        <v>0.09693117800342743</v>
+        <v>0.09949100386459164</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1964924232996469</v>
+        <v>0.1834063267073433</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02034295711326806</v>
+        <v>0.01018398023114526</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1962204236848386</v>
+        <v>0.06049379019082651</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02808653631460677</v>
+        <v>0.02857080905734856</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1973986935782415</v>
+        <v>0.1869843120744981</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06292493767898788</v>
+        <v>0.06389907011788784</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1977125283772365</v>
+        <v>0.1848068108108875</v>
       </c>
       <c r="N185" t="n">
-        <v>0.09679387038177772</v>
+        <v>0.09942038466115999</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1981436201340977</v>
+        <v>0.1849475563435395</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02042279139698017</v>
+        <v>0.009968466386161293</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1978555938822122</v>
+        <v>0.0604935216623625</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02811014708371036</v>
+        <v>0.0287888740742729</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1990436826913935</v>
+        <v>0.1885425146751189</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06280999399721585</v>
+        <v>0.06378048818905641</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1993601327803801</v>
+        <v>0.1863468675676449</v>
       </c>
       <c r="N186" t="n">
-        <v>0.09795646781365724</v>
+        <v>0.09848485272300461</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1997948169685485</v>
+        <v>0.1864887859797356</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01948045097786026</v>
+        <v>0.009769659187810358</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1994907640795859</v>
+        <v>0.06049325313389849</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02849721129046412</v>
+        <v>0.02858796161306928</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2006886718045455</v>
+        <v>0.1901007172757397</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06291304022560359</v>
+        <v>0.0634240937398588</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2010077371835237</v>
+        <v>0.1878869243244023</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09729406166250471</v>
+        <v>0.09849024687774971</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2014460138029993</v>
+        <v>0.1880300156159318</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02053578370058501</v>
+        <v>0.009588156331436198</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2011259342769595</v>
+        <v>0.06049298460543446</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02857189673634729</v>
+        <v>0.02826981964688688</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2023336609176976</v>
+        <v>0.1916589198763605</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06317999318968173</v>
+        <v>0.06293364333121787</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2026553415866674</v>
+        <v>0.1894269810811597</v>
       </c>
       <c r="N188" t="n">
-        <v>0.09805451448460178</v>
+        <v>0.09804240595301933</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2030972106374501</v>
+        <v>0.189571245252128</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02158988435350287</v>
+        <v>0.00942455551240589</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2027611044743332</v>
+        <v>0.06049271607697045</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02834493786483358</v>
+        <v>0.02823619614887483</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2039786500308496</v>
+        <v>0.1932171224769813</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06354328140670132</v>
+        <v>0.06281289352405642</v>
       </c>
       <c r="M189" t="n">
-        <v>0.204302945989811</v>
+        <v>0.190967037837917</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0987092305678669</v>
+        <v>0.09724716877643774</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2047484074719009</v>
+        <v>0.1911124748883241</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02064273352057608</v>
+        <v>0.009277178438457892</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2043962746717068</v>
+        <v>0.06049244754850643</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02851630841888883</v>
+        <v>0.02798883909218235</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2056236391440016</v>
+        <v>0.1947753250776021</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06340284615035549</v>
+        <v>0.0624656008792972</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2059505503929546</v>
+        <v>0.1925070945946744</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09895816220432596</v>
+        <v>0.09721037417562917</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2063996043063517</v>
+        <v>0.1926537045245203</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02169431178576679</v>
+        <v>0.009132905153662801</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2060314448690805</v>
+        <v>0.06049217902004242</v>
       </c>
       <c r="J191" t="n">
-        <v>0.028585982141479</v>
+        <v>0.02792949644995857</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2072686282571536</v>
+        <v>0.196333527678223</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06345862869433727</v>
+        <v>0.061795521957863</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2075981547960983</v>
+        <v>0.1940471513514319</v>
       </c>
       <c r="N191" t="n">
-        <v>0.09900121772682591</v>
+        <v>0.0965378609782177</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2080508011408025</v>
+        <v>0.1941949341607165</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01974459973303722</v>
+        <v>0.008989899622421027</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2076666150664541</v>
+        <v>0.06049191049157839</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0288539327755699</v>
+        <v>0.02785991619535268</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2089136173703056</v>
+        <v>0.1978917302788438</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06411057031233963</v>
+        <v>0.0614064133206767</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2092457591992419</v>
+        <v>0.1955872081081892</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09883830546821382</v>
+        <v>0.0951354680118276</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2097019979752534</v>
+        <v>0.1957361637969126</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02079357794634952</v>
+        <v>0.008848594938349601</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2093017852638278</v>
+        <v>0.06049164196311438</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0286201340641274</v>
+        <v>0.02768184630151385</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2105586064834576</v>
+        <v>0.1994499328794646</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06425861227805571</v>
+        <v>0.06110203152866095</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2108933636023856</v>
+        <v>0.1971272648649466</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09966933376133641</v>
+        <v>0.09500903410408296</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2113531948097042</v>
+        <v>0.1972773934331088</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02084122700966592</v>
+        <v>0.008709424195046868</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2109369554612015</v>
+        <v>0.06049137343465037</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02888455975011739</v>
+        <v>0.02759703474159124</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2122035955966096</v>
+        <v>0.2010081354800854</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06410269586517844</v>
+        <v>0.06088613314273864</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2125409680055292</v>
+        <v>0.198667321621704</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09919421093904063</v>
+        <v>0.09446439808260804</v>
       </c>
       <c r="O194" t="n">
-        <v>0.213004391644155</v>
+        <v>0.198818623069305</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0198875275069486</v>
+        <v>0.008572820486117398</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2125721256585751</v>
+        <v>0.06049110490618635</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02894718357650572</v>
+        <v>0.02720722948873402</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2138485847097616</v>
+        <v>0.2025663380807062</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06414276234740107</v>
+        <v>0.06056247472383255</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2141885724086728</v>
+        <v>0.2002073783784614</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09981284533417339</v>
+        <v>0.09380739877502692</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2146555884786058</v>
+        <v>0.2003598527055011</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01993246002215977</v>
+        <v>0.00843921690516003</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2142072958559487</v>
+        <v>0.06049083637772232</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02910797928625826</v>
+        <v>0.02711417851609141</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2154935738229136</v>
+        <v>0.204124540681327</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06477875299841646</v>
+        <v>0.05973481283286539</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2158361768118164</v>
+        <v>0.2017474351352188</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09972514527958154</v>
+        <v>0.09294387500896395</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2163067853130566</v>
+        <v>0.2019010823416973</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0219760051392616</v>
+        <v>0.008309046545790975</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2158424660533224</v>
+        <v>0.0604905678492583</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02896692062234091</v>
+        <v>0.02701962979681252</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2171385629360657</v>
+        <v>0.2056827432819479</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06461060909191779</v>
+        <v>0.05940690403076004</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2174837812149601</v>
+        <v>0.2032874918919762</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09983101910811198</v>
+        <v>0.09227966561204315</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2179579821475074</v>
+        <v>0.2034423119778934</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02101814344221629</v>
+        <v>0.008182742501608942</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2174776362506961</v>
+        <v>0.06049029932079429</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02902398132771951</v>
+        <v>0.02662533130404654</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2187835520492176</v>
+        <v>0.2072409458825687</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06493827190159801</v>
+        <v>0.05918250487843923</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2191313856181037</v>
+        <v>0.2048275486487336</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1005303751526116</v>
+        <v>0.09162060941188871</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2196091789819583</v>
+        <v>0.2049835416140896</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02005885551498604</v>
+        <v>0.008060737866218512</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2191128064480697</v>
+        <v>0.06049003079233028</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02917913514535996</v>
+        <v>0.02643303101094265</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2204285411623697</v>
+        <v>0.2087991484831895</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06476168270115021</v>
+        <v>0.05886537193682584</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2207789900212474</v>
+        <v>0.206367605405491</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1001231217459274</v>
+        <v>0.09077254523612494</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2212603758164091</v>
+        <v>0.2065247712502858</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02009812194153303</v>
+        <v>0.00794346573321926</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2207479766454434</v>
+        <v>0.06048976226386625</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02933235581822809</v>
+        <v>0.02644447689065002</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2220735302755217</v>
+        <v>0.2103573510838103</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06488078276426745</v>
+        <v>0.05815926176684255</v>
       </c>
       <c r="M200" t="n">
-        <v>0.222426594424391</v>
+        <v>0.2079076621622484</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1011091672209062</v>
+        <v>0.09044131191237581</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2229115726508599</v>
+        <v>0.2080660008864819</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02213592330581947</v>
+        <v>0.007831359196225997</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2223831468428171</v>
+        <v>0.06048949373540224</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0290836170892898</v>
+        <v>0.02616141691631781</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2237185193886737</v>
+        <v>0.2119155536844311</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06539551336464278</v>
+        <v>0.05776793092941218</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2240741988275347</v>
+        <v>0.2094477189190058</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1008884199103948</v>
+        <v>0.08963274826826573</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2245627694853107</v>
+        <v>0.2096072305226781</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02217224019180754</v>
+        <v>0.007724851348838095</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2240183170401907</v>
+        <v>0.06048922520693822</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02933289270151095</v>
+        <v>0.0260855990610952</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2253635085018257</v>
+        <v>0.2134737562850519</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06520581577596923</v>
+        <v>0.05719513598545761</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2257218032306783</v>
+        <v>0.2109877756757632</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1012607881472401</v>
+        <v>0.08935269313141869</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2262139663197615</v>
+        <v>0.2111484601588742</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02220705318345943</v>
+        <v>0.007624375284660118</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2256534872375643</v>
+        <v>0.06048895667847421</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02948015639785741</v>
+        <v>0.02561877129813137</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2270084976149777</v>
+        <v>0.2150319588856728</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06531163127193984</v>
+        <v>0.05734463349590149</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2273694076338219</v>
+        <v>0.2125278324325206</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1010261802642892</v>
+        <v>0.088506985329459</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2278651631542123</v>
+        <v>0.2126896897950704</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02224034286473735</v>
+        <v>0.007530364097292706</v>
       </c>
       <c r="G204" t="n">
-        <v>0.227288657434938</v>
+        <v>0.06048868815001018</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02952538192129504</v>
+        <v>0.02556268160057545</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2286534867281297</v>
+        <v>0.2165901614862936</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06541290112624767</v>
+        <v>0.05682018002166667</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2290170120369656</v>
+        <v>0.214067889189278</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1013845045943887</v>
+        <v>0.08830146369001068</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2295163599886631</v>
+        <v>0.2142309194312666</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02127208981960348</v>
+        <v>0.007443250880348647</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2289238276323117</v>
+        <v>0.06048841962154617</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02936854301478974</v>
+        <v>0.02561907794157667</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2302984758412817</v>
+        <v>0.2181483640869144</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06570956661258584</v>
+        <v>0.05642553212367599</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2306646164401092</v>
+        <v>0.2156079459460354</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1012356694703858</v>
+        <v>0.0871419670406981</v>
       </c>
       <c r="O205" t="n">
-        <v>0.231167556823114</v>
+        <v>0.2157721490674627</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02230227463202</v>
+        <v>0.007363468727428275</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2305589978296853</v>
+        <v>0.06048815109308216</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02950961342130737</v>
+        <v>0.02528970829428415</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2319434649544337</v>
+        <v>0.2197065666875352</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06560156900464731</v>
+        <v>0.05596444636285219</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2323122208432528</v>
+        <v>0.2171480027027928</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1014795832251271</v>
+        <v>0.08743433420914531</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2328187536575648</v>
+        <v>0.2173133787036589</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02033087788594913</v>
+        <v>0.007291450732136176</v>
       </c>
       <c r="G207" t="n">
-        <v>0.232194168027059</v>
+        <v>0.06048788256461814</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02934856688381378</v>
+        <v>0.0250763206318471</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2335884540675858</v>
+        <v>0.2212647692881561</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06538884957612512</v>
+        <v>0.05614012421065898</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2339598252463965</v>
+        <v>0.2186880594595502</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1014161541914596</v>
+        <v>0.0866839683374736</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2344699504920156</v>
+        <v>0.2188546083398551</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02235788016535305</v>
+        <v>0.00722762998807433</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2338293382244326</v>
+        <v>0.06048761403615412</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02938537714527485</v>
+        <v>0.0249780049224262</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2352334431807378</v>
+        <v>0.2228229718887768</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06547134960071238</v>
+        <v>0.05552528729119838</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2356074296495401</v>
+        <v>0.2202281162163076</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1022452907022303</v>
+        <v>0.086251011198128</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2361211473264664</v>
+        <v>0.2203958379760512</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02138326205419394</v>
+        <v>0.007172439588852893</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2354645084218063</v>
+        <v>0.0604873455076901</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02972001794865645</v>
+        <v>0.02497935954927243</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2368784322938898</v>
+        <v>0.2243811744893977</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06554901035210214</v>
+        <v>0.05570496647782552</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2372550340526837</v>
+        <v>0.221768172973065</v>
       </c>
       <c r="N209" t="n">
-        <v>0.101966901090286</v>
+        <v>0.0867093663699558</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2377723441609172</v>
+        <v>0.2219370676122474</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02140700413643404</v>
+        <v>0.007126312628073471</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2370996786191799</v>
+        <v>0.06048707697922608</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02945246303692445</v>
+        <v>0.02497860893833403</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2385234214070418</v>
+        <v>0.2259393770900185</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06602177310398732</v>
+        <v>0.05508173659069163</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2389026384558274</v>
+        <v>0.2233082297298223</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1016808936884735</v>
+        <v>0.0859630358993323</v>
       </c>
       <c r="O210" t="n">
-        <v>0.239423540995368</v>
+        <v>0.2234782972484436</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02242908699603548</v>
+        <v>0.007089682199340662</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2387348488165536</v>
+        <v>0.06048680845076207</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02968268615304474</v>
+        <v>0.0248769511845123</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2401684105201938</v>
+        <v>0.2274975796906393</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06568957913006118</v>
+        <v>0.05545817244994747</v>
       </c>
       <c r="M211" t="n">
-        <v>0.240550242858971</v>
+        <v>0.2248482864865798</v>
       </c>
       <c r="N211" t="n">
-        <v>0.10268717682964</v>
+        <v>0.08601602183263291</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2410747378298188</v>
+        <v>0.2250195268846397</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02244949121696051</v>
+        <v>0.007062981396258099</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2403700190139273</v>
+        <v>0.06048653992229804</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02961066103998315</v>
+        <v>0.02487558438270845</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2418133996333458</v>
+        <v>0.2290557822912601</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06615236970401664</v>
+        <v>0.0546368488757441</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2421978472621146</v>
+        <v>0.2263883432433371</v>
       </c>
       <c r="N212" t="n">
-        <v>0.102585658846632</v>
+        <v>0.08517232621623283</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2427259346642697</v>
+        <v>0.2265607565208359</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02046819738317125</v>
+        <v>0.007046643312432703</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2420051892113009</v>
+        <v>0.06048627139383403</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0298363614407056</v>
+        <v>0.02447570662782375</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2434583887464978</v>
+        <v>0.230613984891881</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06621008609954676</v>
+        <v>0.05452034068823253</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2438454516652583</v>
+        <v>0.2279284000000945</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1025762480722966</v>
+        <v>0.08513595109650757</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2443771314987205</v>
+        <v>0.2281019861570321</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02148518607862998</v>
+        <v>0.007041101041467657</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2436403594086745</v>
+        <v>0.06048600286537002</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02985976109817792</v>
+        <v>0.02437851601475945</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2451033778596499</v>
+        <v>0.2321721874925017</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06616266959034461</v>
+        <v>0.05471122270756365</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2454930560684019</v>
+        <v>0.229468456756852</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1021588528394806</v>
+        <v>0.08481089851983242</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2460283283331713</v>
+        <v>0.2296432157932282</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02250043788729883</v>
+        <v>0.007041101041467657</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2452755296060482</v>
+        <v>0.06048600286537002</v>
       </c>
       <c r="J215" t="n">
-        <v>0.029880833755366</v>
+        <v>0.02428521063841682</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2467483669728019</v>
+        <v>0.2337303900931225</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06621006145010322</v>
+        <v>0.05431206975388853</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2471406604715456</v>
+        <v>0.2310085135136093</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1030333814810311</v>
+        <v>0.08370117053258258</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2476795251676221</v>
+        <v>0.2311844454294244</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02251393339314003</v>
+        <v>0.006805100094195105</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2469106998034219</v>
+        <v>0.06046011424523385</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02989955315523569</v>
+        <v>0.02429698859369708</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2483933560859539</v>
+        <v>0.2352885926937434</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06615220295251562</v>
+        <v>0.05392545664735807</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2487882648746892</v>
+        <v>0.2325485702703667</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1028997423297948</v>
+        <v>0.08411076918113364</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2493307220020729</v>
+        <v>0.2327256750656205</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02052565318011573</v>
+        <v>0.006574144898567981</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2485458700007955</v>
+        <v>0.06043422562509768</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02971589304075289</v>
+        <v>0.02411504797550154</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2500383451991059</v>
+        <v>0.2368467952943642</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06628903537127495</v>
+        <v>0.05395395820812324</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2504358692778328</v>
+        <v>0.2340886270271241</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1027578437186187</v>
+        <v>0.08394369651186079</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2509819188365237</v>
+        <v>0.2342669047018167</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02053557783218818</v>
+        <v>0.006348651832328536</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2501810401981692</v>
+        <v>0.06040833700496152</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02972982715488344</v>
+        <v>0.02414058687873141</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2516833343122579</v>
+        <v>0.238404997894985</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06622049998007418</v>
+        <v>0.05400014925633509</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2520834736809765</v>
+        <v>0.2356286837838815</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1033075939803496</v>
+        <v>0.08380395457113937</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2526331156709745</v>
+        <v>0.2358081343380128</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02054368793331952</v>
+        <v>0.006129037273218979</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2518162103955429</v>
+        <v>0.06038244838482536</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02994132924059324</v>
+        <v>0.02397480339828796</v>
       </c>
       <c r="K219" t="n">
-        <v>0.25332832342541</v>
+        <v>0.2399632004956058</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06634653805260635</v>
+        <v>0.05396660461214453</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2537310780841202</v>
+        <v>0.2371687405406389</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1025489014478343</v>
+        <v>0.08339554540534483</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2542843125054253</v>
+        <v>0.237349363974209</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02054996406747198</v>
+        <v>0.005915717598981553</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2534513805929165</v>
+        <v>0.06035655976468919</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02995037304084813</v>
+        <v>0.02421889562907245</v>
       </c>
       <c r="K220" t="n">
-        <v>0.254973312538562</v>
+        <v>0.2415214030962266</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06606709086256454</v>
+        <v>0.05345589909570253</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2553786824872638</v>
+        <v>0.2387087972973963</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1024816744539199</v>
+        <v>0.08252247106085236</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2559355093398762</v>
+        <v>0.2388905936104052</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02255438681860773</v>
+        <v>0.005709109187358466</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2550865507902901</v>
+        <v>0.06033067114455302</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02995693229861403</v>
+        <v>0.02387406166598613</v>
       </c>
       <c r="K221" t="n">
-        <v>0.256618301651714</v>
+        <v>0.2430796056968474</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06668209968364183</v>
+        <v>0.05317060752716013</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2570262868904074</v>
+        <v>0.2402488540541537</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1025058213314533</v>
+        <v>0.08318873358403739</v>
       </c>
       <c r="O221" t="n">
-        <v>0.257586706174327</v>
+        <v>0.2404318232466013</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02055693677068897</v>
+        <v>0.005509628416091955</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2567217209876638</v>
+        <v>0.06030478252441687</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02966098075685675</v>
+        <v>0.02394149960393026</v>
       </c>
       <c r="K222" t="n">
-        <v>0.258263290764866</v>
+        <v>0.2446378082974683</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06659150578953119</v>
+        <v>0.05331330472666826</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2586738912935511</v>
+        <v>0.2417889108109111</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1024212504132812</v>
+        <v>0.08259833502127523</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2592379030087778</v>
+        <v>0.2419730528827975</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02155690143999738</v>
+        <v>0.005317691662924257</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2583568911850375</v>
+        <v>0.0602788939042807</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02996249215854217</v>
+        <v>0.02392240753780607</v>
       </c>
       <c r="K223" t="n">
-        <v>0.259908279878018</v>
+        <v>0.2461960108980891</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06669525045392574</v>
+        <v>0.05358656551437788</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2603214956966947</v>
+        <v>0.2433289675676685</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1031278700322505</v>
+        <v>0.08275527741894123</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2608890998432286</v>
+        <v>0.2435142825189937</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02151892750841526</v>
+        <v>0.005133715305597572</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2599920613824112</v>
+        <v>0.06025300528414453</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02983000474545758</v>
+        <v>0.02391782698169416</v>
       </c>
       <c r="K224" t="n">
-        <v>0.26155326899117</v>
+        <v>0.2477542134987099</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06633261372413943</v>
+        <v>0.05328922185042062</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2619691000998383</v>
+        <v>0.2448690243244259</v>
       </c>
       <c r="N224" t="n">
-        <v>0.102949722859945</v>
+        <v>0.08255827676532163</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2625402966776794</v>
+        <v>0.2450555121551898</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02042754249629009</v>
+        <v>0.004958115721854145</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2616272315797847</v>
+        <v>0.06022711666400837</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02952409300159123</v>
+        <v>0.0241238076842757</v>
       </c>
       <c r="K225" t="n">
-        <v>0.263198258104322</v>
+        <v>0.2493124160993307</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06600627523545902</v>
+        <v>0.05341060220287658</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2636167045029819</v>
+        <v>0.2464090810811833</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1020190473560444</v>
+        <v>0.08239064520292932</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2641914935121302</v>
+        <v>0.246596741791386</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02228879922492275</v>
+        <v>0.004791309289436205</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2632624017771584</v>
+        <v>0.0602012280438722</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02945261369626849</v>
+        <v>0.0241377601616783</v>
       </c>
       <c r="K226" t="n">
-        <v>0.264843247217474</v>
+        <v>0.2508706186999515</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06543238821262048</v>
+        <v>0.05324876010731025</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2652643089061256</v>
+        <v>0.2479491378379407</v>
       </c>
       <c r="N226" t="n">
-        <v>0.101956136516018</v>
+        <v>0.0828491270238858</v>
       </c>
       <c r="O226" t="n">
-        <v>0.265842690346581</v>
+        <v>0.2481379714275821</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0201087505156141</v>
+        <v>0.004633712386085974</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2648975719745321</v>
+        <v>0.06017533942373604</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02942375228612364</v>
+        <v>0.02395912098892941</v>
       </c>
       <c r="K227" t="n">
-        <v>0.266488236330626</v>
+        <v>0.2524288213005724</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0651292601931947</v>
+        <v>0.05320248470974739</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2669119133092692</v>
+        <v>0.2494891945946981</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1013895669682408</v>
+        <v>0.08283184019625278</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2674938871810319</v>
+        <v>0.2496792010637783</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02089344918966506</v>
+        <v>0.004485741389545668</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2665327421719058</v>
+        <v>0.06014945080359987</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02884569422779089</v>
+        <v>0.02388732674105656</v>
       </c>
       <c r="K228" t="n">
-        <v>0.268133225443778</v>
+        <v>0.2539870239011932</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06481519871475275</v>
+        <v>0.05347056515621357</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2685595177124129</v>
+        <v>0.2510292513514555</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1000479153410872</v>
+        <v>0.08303690268809211</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2691450840154827</v>
+        <v>0.2512204306999745</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01964894806837644</v>
+        <v>0.00434781267755753</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2681679123692794</v>
+        <v>0.06012356218346371</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02872662497790446</v>
+        <v>0.02412181399308712</v>
       </c>
       <c r="K229" t="n">
-        <v>0.26977821455693</v>
+        <v>0.255545226501814</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0636085113148655</v>
+        <v>0.0534517905927345</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2702071221155565</v>
+        <v>0.2525693081082129</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09905975826293223</v>
+        <v>0.08346243246746565</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2707962808499335</v>
+        <v>0.2527616603361706</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01938129997304916</v>
+        <v>0.004220342627863777</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2698030825666531</v>
+        <v>0.06009767356332754</v>
       </c>
       <c r="J230" t="n">
-        <v>0.0282747299930986</v>
+        <v>0.02396201932004864</v>
       </c>
       <c r="K230" t="n">
-        <v>0.271423203670082</v>
+        <v>0.2571034291024348</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06332750553110394</v>
+        <v>0.05354495016533575</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2718547265187001</v>
+        <v>0.2541093648649703</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09775367236215043</v>
+        <v>0.08330654750243521</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2724474776843843</v>
+        <v>0.2543028899723668</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01909655772498407</v>
+        <v>0.004103747618206643</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2714382527640267</v>
+        <v>0.06007178494319138</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02809819473000755</v>
+        <v>0.02410737929696855</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2730681927832341</v>
+        <v>0.2586616317030557</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06259048890103902</v>
+        <v>0.05404883302004301</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2735023309218438</v>
+        <v>0.2556494216217277</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09695823426711658</v>
+        <v>0.08316736576106265</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2740986745188351</v>
+        <v>0.255844119608563</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01980077414548208</v>
+        <v>0.003998444026328346</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2730734229614004</v>
+        <v>0.06004589632305522</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02750520464526551</v>
+        <v>0.0242573304988743</v>
       </c>
       <c r="K232" t="n">
-        <v>0.274713181896386</v>
+        <v>0.2602198343036765</v>
       </c>
       <c r="L232" t="n">
-        <v>0.0613157689622417</v>
+        <v>0.05366222830288189</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2751499353249874</v>
+        <v>0.257189478378485</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09510202060620543</v>
+        <v>0.0839430052114099</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2757498713532859</v>
+        <v>0.2573853492447591</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01950000205584401</v>
+        <v>0.003904848229971121</v>
       </c>
       <c r="G233" t="n">
-        <v>0.274708593158774</v>
+        <v>0.06002000770291905</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02720394519550676</v>
+        <v>0.02441130950079339</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2763581710095381</v>
+        <v>0.2617780369042972</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06072165325228296</v>
+        <v>0.05388392515987805</v>
       </c>
       <c r="M233" t="n">
-        <v>0.276797539728131</v>
+        <v>0.2587295351352424</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09341360800779169</v>
+        <v>0.08423158382153861</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2774010681877367</v>
+        <v>0.2589265788809553</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02020029427737077</v>
+        <v>0.003823376606877191</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2763437633561477</v>
+        <v>0.05999411908278288</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02680260183736549</v>
+        <v>0.02426875287775325</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2780031601226901</v>
+        <v>0.2633362395049181</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05942644930873373</v>
+        <v>0.05411271273705712</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2784451441312747</v>
+        <v>0.2602695918919999</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09222157310025009</v>
+        <v>0.08383121955951073</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2790522650221876</v>
+        <v>0.2604678085171515</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01990770363136323</v>
+        <v>0.003754445534788778</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2779789335535213</v>
+        <v>0.05996823046264672</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02620936002747599</v>
+        <v>0.02432909720478138</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2796481492358421</v>
+        <v>0.2648944421055389</v>
       </c>
       <c r="L235" t="n">
-        <v>0.058548464669165</v>
+        <v>0.05404738018044475</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2800927485344183</v>
+        <v>0.2618096486487572</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09065449251195545</v>
+        <v>0.08374003039338807</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2807034618566384</v>
+        <v>0.2620090381533476</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01962828293912226</v>
+        <v>0.003698471391448119</v>
       </c>
       <c r="G236" t="n">
-        <v>0.279614103750895</v>
+        <v>0.05994234184251055</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02583240522247242</v>
+        <v>0.02439177905690522</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2812931383489941</v>
+        <v>0.2664526447061597</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05790600687114772</v>
+        <v>0.05418671663606656</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2817403529375619</v>
+        <v>0.2633497054055147</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0894409428712824</v>
+        <v>0.0844561342912325</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2823546586910892</v>
+        <v>0.2635502677895438</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01836808502194874</v>
+        <v>0.003655870554597429</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2812492739482686</v>
+        <v>0.05991645322237439</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02557992287898905</v>
+        <v>0.02435623500915227</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2829381274621461</v>
+        <v>0.2680108473067805</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05701738345225282</v>
+        <v>0.0543295112499482</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2833879573407056</v>
+        <v>0.264889762162272</v>
       </c>
       <c r="N237" t="n">
-        <v>0.08810950080660579</v>
+        <v>0.0844776492211059</v>
       </c>
       <c r="O237" t="n">
-        <v>0.28400585552554</v>
+        <v>0.26509149742574</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01912902825187311</v>
+        <v>0.003627059401978945</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2828844441456423</v>
+        <v>0.05989056460223822</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02545741938240924</v>
+        <v>0.02472190163654993</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2845831165752982</v>
+        <v>0.2695690499074013</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05639622313929166</v>
+        <v>0.0550745531681153</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2850355617438492</v>
+        <v>0.2664298189190294</v>
       </c>
       <c r="N238" t="n">
-        <v>0.08708382336504866</v>
+        <v>0.08510269315106989</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2856570523599908</v>
+        <v>0.2666327270619361</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01789226294318115</v>
+        <v>0.003612454311334883</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2845196143430159</v>
+        <v>0.05986467598210206</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02504122636886592</v>
+        <v>0.02468821551412571</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2862281056884502</v>
+        <v>0.2711272525080222</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05579137954443858</v>
+        <v>0.05492063153659354</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2866831661469929</v>
+        <v>0.2679698756757868</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08678863093339095</v>
+        <v>0.08522938404918662</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2873082491944416</v>
+        <v>0.2681739566981323</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01665459689379243</v>
+        <v>0.00361077145129339</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2861547845403896</v>
+        <v>0.05983878736196591</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02462382541455334</v>
+        <v>0.02455461321690709</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2878730948016022</v>
+        <v>0.272685455108643</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05518384028689113</v>
+        <v>0.05486653550140852</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2883307705501365</v>
+        <v>0.2695099324325442</v>
       </c>
       <c r="N240" t="n">
-        <v>0.08508924362074699</v>
+        <v>0.08515583988351777</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2889594460288924</v>
+        <v>0.2697151863343284</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01741601576434881</v>
+        <v>0.003612225944912117</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2877899547377633</v>
+        <v>0.05981289874182974</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02430519712782113</v>
+        <v>0.02482053131992148</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2895180839147542</v>
+        <v>0.2742436577092638</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05457356199541399</v>
+        <v>0.05511105420858589</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2899783749532801</v>
+        <v>0.2710499891893016</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08398559372802422</v>
+        <v>0.08578017862212511</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2906106428633432</v>
+        <v>0.2712564159705246</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01717650521549219</v>
+        <v>0.003615533960819234</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2894251249351369</v>
+        <v>0.05978701012169357</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02408532211701901</v>
+        <v>0.02498540639819642</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2911630730279062</v>
+        <v>0.2758018603098846</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05366050129877159</v>
+        <v>0.05555297680415133</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2916259793564238</v>
+        <v>0.272590045946059</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08297761355613048</v>
+        <v>0.08530051823307061</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2922618396977941</v>
+        <v>0.2727976456067208</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01593605090786444</v>
+        <v>0.003621111876756927</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2910602951325105</v>
+        <v>0.05976112150155741</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02366418099049666</v>
+        <v>0.02474888071614302</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2928080621410582</v>
+        <v>0.2773600629105055</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05274461482572865</v>
+        <v>0.0552927217537372</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2932735837595674</v>
+        <v>0.2741301027028164</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08206523540597338</v>
+        <v>0.08611735169862528</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2939130365322449</v>
+        <v>0.2743388752429169</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01769463850210743</v>
+        <v>0.003629376070467462</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2926954653298842</v>
+        <v>0.05973523288142125</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02334175435660378</v>
+        <v>0.02481425107208364</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2944530512542102</v>
+        <v>0.2789182655111263</v>
       </c>
       <c r="L244" t="n">
-        <v>0.0521258592050497</v>
+        <v>0.05543821567813295</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2949211881627111</v>
+        <v>0.2756701594595738</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08094839157846045</v>
+        <v>0.08664298130615633</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2955642333666957</v>
+        <v>0.2758801048791131</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01545225365886304</v>
+        <v>0.003640742919693032</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2943306355272579</v>
+        <v>0.05970934426128508</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02301802282369005</v>
+        <v>0.02518278397056033</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2960980403673623</v>
+        <v>0.280476468111747</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05130419106549938</v>
+        <v>0.05559054699180097</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2965687925658547</v>
+        <v>0.2772102162163312</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08002701437449961</v>
+        <v>0.08647923413445652</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2972154302011465</v>
+        <v>0.2774213345153093</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01620888203877315</v>
+        <v>0.003655628802175882</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2959658057246315</v>
+        <v>0.05968345564114892</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02279296700010514</v>
+        <v>0.02505440181534864</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2977430294805142</v>
+        <v>0.2820346707123679</v>
       </c>
       <c r="L246" t="n">
-        <v>0.0506795670358422</v>
+        <v>0.0556495489330581</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2982163969689983</v>
+        <v>0.2787502729730886</v>
       </c>
       <c r="N246" t="n">
-        <v>0.07900103609499831</v>
+        <v>0.0867258509856208</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2988666270355973</v>
+        <v>0.2789625641515054</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01696450930247964</v>
+        <v>0.003674450095658248</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2976009759220052</v>
+        <v>0.05965756702101275</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02246656749419876</v>
+        <v>0.02502902701022422</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2993880185936663</v>
+        <v>0.2835928733129887</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05005194374484281</v>
+        <v>0.0558150547402213</v>
       </c>
       <c r="M247" t="n">
-        <v>0.299864001372142</v>
+        <v>0.280290329729846</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07727038904086425</v>
+        <v>0.08728257266174383</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3005178238700481</v>
+        <v>0.2805037937877016</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01471912111062439</v>
+        <v>0.003697623177882331</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2992361461193789</v>
+        <v>0.05963167840087659</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02203880491432059</v>
+        <v>0.0254065819589626</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3010330077068183</v>
+        <v>0.2851510759136095</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04952127782126575</v>
+        <v>0.05638689765160745</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3015116057752856</v>
+        <v>0.2818303864866034</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07673500551300522</v>
+        <v>0.08774913996492034</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3021690207044989</v>
+        <v>0.2820450234238978</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01547270312384929</v>
+        <v>0.003725564426590382</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3008713163167525</v>
+        <v>0.05960578978074042</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02160965986882032</v>
+        <v>0.02548698906533942</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3026779968199703</v>
+        <v>0.2867092785142303</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04828752589387564</v>
+        <v>0.05666491090553347</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3031592101784292</v>
+        <v>0.2833704432433608</v>
       </c>
       <c r="N249" t="n">
-        <v>0.0748948178123286</v>
+        <v>0.0878252936972454</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3038202175389497</v>
+        <v>0.2835862530600939</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01522524100279619</v>
+        <v>0.003758690219524602</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3025064865141261</v>
+        <v>0.05957990116060426</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02137911296604764</v>
+        <v>0.02557017073313024</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3043229859331223</v>
+        <v>0.2882674811148512</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04805064459143704</v>
+        <v>0.05694892774031624</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3048068145815728</v>
+        <v>0.2849105000001182</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0740497582397423</v>
+        <v>0.08731077466081355</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3054714143734006</v>
+        <v>0.28512748269629</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01597672040810699</v>
+        <v>0.003797416934427242</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3041416567114998</v>
+        <v>0.05955401254046809</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02094714481435225</v>
+        <v>0.02565604936611068</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3059679750462743</v>
+        <v>0.289825683715472</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04681059054271455</v>
+        <v>0.05683878139427267</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3064544189847165</v>
+        <v>0.2864505567568756</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07319975909615389</v>
+        <v>0.0879053236577198</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3071226112078514</v>
+        <v>0.2866687123324862</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01372712700042356</v>
+        <v>0.00384216094904051</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3057768269088735</v>
+        <v>0.05952812392033193</v>
       </c>
       <c r="J252" t="n">
-        <v>0.0207137360220838</v>
+        <v>0.02554454736805631</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3076129641594263</v>
+        <v>0.2913838863160928</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04616732037647278</v>
+        <v>0.0569343051057197</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3081020233878601</v>
+        <v>0.287990613513633</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07184475268247115</v>
+        <v>0.08890868149005882</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3087738080423022</v>
+        <v>0.2882099419686823</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01347644644038779</v>
+        <v>0.003893338641106657</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3074119971062471</v>
+        <v>0.05950223530019576</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02037886719759202</v>
+        <v>0.02573558714274275</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3092579532725783</v>
+        <v>0.2929420889167136</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04572079072147628</v>
+        <v>0.05743533211297419</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3097496277910038</v>
+        <v>0.2895306702703904</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0710846712996015</v>
+        <v>0.08862058895992547</v>
       </c>
       <c r="O253" t="n">
-        <v>0.310425004876753</v>
+        <v>0.2897511716048785</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01522466438864155</v>
+        <v>0.003951366388367884</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3090471673036208</v>
+        <v>0.0594763466800596</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02024251894922657</v>
+        <v>0.02562909109394558</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3109029423857304</v>
+        <v>0.2945002915173344</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04487095820648962</v>
+        <v>0.05724169565435305</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3113972321941474</v>
+        <v>0.2910707270271478</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06911944724845276</v>
+        <v>0.08944078686941453</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3120762017112038</v>
+        <v>0.2912924012410747</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01397176650582672</v>
+        <v>0.004016660568566428</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3106823375009944</v>
+        <v>0.05945045805992343</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01960467188533717</v>
+        <v>0.02582498162544036</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3125479314988824</v>
+        <v>0.2960584941179553</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0439177794602775</v>
+        <v>0.0577532289681732</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3130448365972911</v>
+        <v>0.2926107837839051</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06784901282993261</v>
+        <v>0.08966901602062094</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3137273985456546</v>
+        <v>0.2928336308772708</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01471773845258516</v>
+        <v>0.004089637559444519</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3123175076983681</v>
+        <v>0.05942456943978727</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01936530661427346</v>
+        <v>0.02602318114100274</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3141929206120344</v>
+        <v>0.297616696718576</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04326121111160439</v>
+        <v>0.05776976529275149</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3146924410004347</v>
+        <v>0.2941508405406625</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06727330034494855</v>
+        <v>0.09020501721563923</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3153785953801054</v>
+        <v>0.294374860513467</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01346256588955878</v>
+        <v>0.004170713738744371</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3139526778957417</v>
+        <v>0.05939868081965111</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01912440374438518</v>
+        <v>0.02612361204440829</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3158379097251864</v>
+        <v>0.2991748993191969</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04240120978923487</v>
+        <v>0.0583911378664049</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3163400454035784</v>
+        <v>0.29569089729742</v>
       </c>
       <c r="N257" t="n">
-        <v>0.06629224209440843</v>
+        <v>0.09024853125656446</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3170297922145563</v>
+        <v>0.2959160901496632</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01220623447738943</v>
+        <v>0.004260305484208242</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3155878480931154</v>
+        <v>0.05937279219951494</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01868194388402197</v>
+        <v>0.02622619673943258</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3174828988383384</v>
+        <v>0.3007331019198177</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04143773212193363</v>
+        <v>0.05851717992745031</v>
       </c>
       <c r="M258" t="n">
-        <v>0.317987649806722</v>
+        <v>0.2972309540541773</v>
       </c>
       <c r="N258" t="n">
-        <v>0.06420577037921987</v>
+        <v>0.09079929894549138</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3186809890490071</v>
+        <v>0.2974573197858593</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01394872987671902</v>
+        <v>0.004358829173578313</v>
       </c>
       <c r="G259" t="n">
-        <v>0.317223018290489</v>
+        <v>0.05934690357937877</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01843790764153358</v>
+        <v>0.02633085762985123</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3191278879514904</v>
+        <v>0.3022913045204385</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0408707347384652</v>
+        <v>0.05854772471420458</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3196352542098656</v>
+        <v>0.2987710108109348</v>
       </c>
       <c r="N259" t="n">
-        <v>0.06381381750029047</v>
+        <v>0.0907570610845147</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3203321858834579</v>
+        <v>0.2989985494220555</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01369003774818941</v>
+        <v>0.004466701184596848</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3188581884878627</v>
+        <v>0.05932101495924261</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01789227562526964</v>
+        <v>0.02633751711943981</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3207728770646424</v>
+        <v>0.3038495071210593</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03990017426759415</v>
+        <v>0.05888260546498467</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3212828586130093</v>
+        <v>0.3003110675676921</v>
       </c>
       <c r="N260" t="n">
-        <v>0.0624163157585278</v>
+        <v>0.09162155847572934</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3219833827179087</v>
+        <v>0.3005397790582517</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01243014375244247</v>
+        <v>0.004584337895006049</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3204933586852363</v>
+        <v>0.05929512633910644</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01754502844357986</v>
+        <v>0.02634609761197396</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3224178661777944</v>
+        <v>0.3054077097216801</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03922600733808509</v>
+        <v>0.05892165541810745</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3229304630161529</v>
+        <v>0.3018511243244495</v>
       </c>
       <c r="N261" t="n">
-        <v>0.06161319745483973</v>
+        <v>0.09149253192122991</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3236345795523595</v>
+        <v>0.3020810086944478</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0131690335501201</v>
+        <v>0.004712155682548159</v>
       </c>
       <c r="G262" t="n">
-        <v>0.32212852888261</v>
+        <v>0.05926923771897028</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01739614670481393</v>
+        <v>0.0265565215112292</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3240628552909465</v>
+        <v>0.306965912322301</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03854819057870257</v>
+        <v>0.05946470781188984</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3245780674192965</v>
+        <v>0.3033911810812069</v>
       </c>
       <c r="N262" t="n">
-        <v>0.06000439489013371</v>
+        <v>0.09186972222311152</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3252857763868103</v>
+        <v>0.303622238330644</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01290669280186415</v>
+        <v>0.004850570924965394</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3237636990799836</v>
+        <v>0.05924334909883412</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01714561101732152</v>
+        <v>0.02666871122098119</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3257078444040984</v>
+        <v>0.3085241149229218</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03756668061821128</v>
+        <v>0.05951159588464872</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3262256718224402</v>
+        <v>0.3049312378379643</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05858984036531767</v>
+        <v>0.09195287018346876</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3269369732212611</v>
+        <v>0.3051634679668402</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01264310716831653</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3253988692773573</v>
+        <v>0.05921746047869795</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01649340198945236</v>
+        <v>0.02698258914500548</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3273528335172505</v>
+        <v>0.3100823175235426</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03698143408537563</v>
+        <v>0.05946215287470102</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3278732762255838</v>
+        <v>0.3064712945947217</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05786946618129896</v>
+        <v>0.09274171660439656</v>
       </c>
       <c r="O264" t="n">
-        <v>0.328588170055712</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.3067046976030363</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0592043025839611</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005288750664686828</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05920457111242512</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005574657603462117</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05920483964088913</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005857632247053081</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05920510816935316</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006137586026150041</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05920537669781717</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006414430371480331</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05920564522628119</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006688076713758928</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.0592059137547452</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.006958436483712471</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05920618228320923</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007225421112032393</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05920645081167324</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007488942029445479</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05920671934013726</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007748910666666706</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05920698786860127</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008005238454422088</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.0592072563970653</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008257836823404308</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05920752492552931</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008506617204339512</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05920779345399332</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008751491027942704</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05920806198245734</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.008992369724939213</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05920833051092136</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009229164726023038</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05920859903938538</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.00946178746191971</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.0592088675678494</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009690149363344183</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05920913609631341</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.009914161861021085</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05920940462477744</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01013373638564585</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05920967315324145</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01034878436794331</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05920994168170546</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01055921723862841</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05921021021016948</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01076494642842496</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05921047873863351</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01096588336803001</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05921074726709752</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01116230114608154</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05921101579556153</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01135628114077798</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05921128432402555</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01154809644075649</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05921155285248957</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01173765847671533</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05921182138095359</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01192487867937787</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.0592120899094176</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01210966847945904</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05921235843788162</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01229193930768169</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05921262696634564</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01247160259474494</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05921289549480966</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.0126485697713717</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05921316402327367</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01282275226827694</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05921343255173769</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01299406151618303</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05921370108020171</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01316240894578999</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05921396960866573</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01332770598782031</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05921423813712974</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01348986407298897</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05921450666559375</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01364879463201774</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05921477519405778</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01380440909560777</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05921504372252179</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.013956618894481</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05921531225098581</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01410533545935239</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05921558077944983</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01425047022094313</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05921584930791385</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01439193460995556</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05921611783637787</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01452964005711102</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05921638636484188</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01466349799312449</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.0592166548933059</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01479341984871647</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05921692342176992</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01491931705459063</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05921719195023394</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01504110104146766</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05921746047869795</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01504110104146766</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.0592043025839611</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01515552523554755</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05923072826102529</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01526762376890092</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0592571539380895</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01537718426041951</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05928357961515369</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01548399432899523</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.0593100052922179</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01558784159351985</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05933643096928209</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01568851367288525</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.0593628566463463</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01578579818598319</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05938928232341049</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01587948275170559</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.0594157080004747</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01596935498894418</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05944213367753889</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01605520251659087</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.0594685593546031</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01613681295353743</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05949498503166729</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01621397391867575</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05952141070873149</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01628647303089759</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05954783638579569</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01635409790909484</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05957426206285989</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01641663617215928</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05960068773992409</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01647387543898279</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05962711341698829</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01652560332845712</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05965353909405249</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01657160745947418</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05967996477111668</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01661167545092577</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05970639044818089</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01664559492170371</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05973281612524508</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01667315349069984</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05975924180230929</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01669413877680598</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05978566747937348</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01670833839891397</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05981209315643769</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01671553997591563</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05983851883350188</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01671639834956117</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05986494451056609</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01671590447589257</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05989137018763028</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01671471319666006</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05991779586469449</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01671261213075547</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05994422154175868</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01670938889707062</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05997064721882289</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01670483111449733</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05999707289588708</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01669872640192744</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06002349857295129</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01669086237825278</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06004992425001548</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01668102666236517</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06007634992707967</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01666900687315644</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06010277560414388</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01665459062951844</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06012920128120807</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01663756555034297</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06015562695827228</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01661771925452186</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06018205263533647</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01659483936094697</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06020847831240067</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.0165687134885101</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06023490398946487</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01653912925610308</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06026132966652907</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01650587428261776</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06028775534359326</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01646873618694594</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06031418102065747</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01642750258797948</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06034060669772166</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01638196110461018</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06036703237478587</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01633189935572989</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06039345805185006</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01627710496023042</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06041988372891427</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01621736553700363</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06044630940597846</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.0161524687049413</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06047273508304267</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01608220208293532</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06049916076010686</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01608220208293532</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06049916076010686</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01659042455590481</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06348993687572915</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01708138040348727</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06648071299135143</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01755470480866144</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06947148910697371</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01801003295440599</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.072462265222596</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01844700002369964</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07545304133821827</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01886524119952109</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07844381745384055</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01926439166484905</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.08143459356946284</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01964408660266224</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08442536968508513</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.02000396119593935</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.0874161458007074</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.0203436506276591</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.09040692191632968</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02066279008080017</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.09339769803195197</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02096101473834129</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09638847414757426</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02123795978326116</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09937925026319654</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02149326039853849</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1023700263788188</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02172655176715198</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1053608024944411</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02193746907208034</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1083515786100634</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02212564749630229</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1113423547256857</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.0222907222227965</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1143331308413079</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02243232843454171</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1173239069569302</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02255010131451662</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1203146830725525</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02264367604569993</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1233054591881748</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02271268781107035</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1262962353037971</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02277626944391375</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1292870114194194</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02277556317628733</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1322777875350416</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02276861284716039</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1352685636506639</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02273717911613136</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1382593397662862</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02268435729527546</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1412501158819085</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02261328264014771</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1442408919975308</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02252709040630321</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1472316681131531</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02242891584929699</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.0223218942246841</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1532132203443976</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.0222091607880196</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1562039964600199</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02209385079485857</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1591947725756422</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02197909950075601</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1621855486912645</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.021868042161267</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1651763248068867</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.0217638140319466</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.168167100922509</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02166538228431961</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1711578770381313</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02154787574206492</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1741486531537536</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.0214163652161031</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1771394292693759</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02128269614005934</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1801302053849982</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02115871394755883</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1831209815006204</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02105626407222676</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1861117576162427</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02098719194768833</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.189102533731865</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02096331717564459</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1920933098474873</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02098093890477784</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1950840859631096</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02102685796754845</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1980748620787318</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02109552237070934</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2010656381943541</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02118138012101344</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2040564143099764</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02127887922521363</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2070471904255987</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02138246769006288</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.210037966541221</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02148659352231407</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2130287426568433</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02158570472872014</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2160195187724655</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02167424931603398</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2190102948880878</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02174667529100854</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2220010710037101</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02179743066039673</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2249918471193324</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02182096343095145</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2279826232349547</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02180179409727746</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.230973399350577</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02171846669076592</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2339641754661992</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02157913789610495</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2369549515818215</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.0213931130015042</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2399457276974438</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02116969729517339</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2429365038130661</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02091819606532215</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2459272799286884</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02064791460016017</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2489180560443106</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.0203681581878971</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2519088321599329</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02008823211674264</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2548996082755552</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.01981744167490642</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2578903843911775</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.01956509215059815</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2608811605067998</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.01934048883202747</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2638719366224221</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.01915293700740407</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2668627127380443</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.01900596208892052</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2698534888536666</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.01886104412522707</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2728442649692889</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.01871446576554894</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2758350410849112</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.01857260503598109</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2788258172005335</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.01844183996261847</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2818165933161558</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.01832854857155607</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.284807369431778</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.01823910888888883</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2877981455474004</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.01817989894071174</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2907889216630226</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.01815729675311978</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2937796977786449</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.01816763654888592</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2967704738942672</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.01819915355945657</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2997612500098895</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.01824882413823579</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3027520261255118</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.01831364890748345</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.305742802241134</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.01839062848945944</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3087335783567563</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.01847676350642361</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3117243544723786</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.01856905458063585</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3147151305880009</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.01866450233435603</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3177059067036231</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.01876010738984402</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3206966828192455</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.0188529246668412</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3236874589348677</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.01894897031077082</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.32667823505049</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.01905361388927139</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3296690111661123</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.01916644232092204</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3326597872817346</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.01928704252430192</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3356505633973569</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.01941500141799014</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3386413395129791</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.01954990592056587</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3416321156286014</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.01969134295060822</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3446228917442237</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.01983889942669634</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.347613667859846</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.01999216226740937</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3506044439754682</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02015071839132643</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3535952200910906</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02031415471702667</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3565859962067128</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
